--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-26 10:34:17</t>
+          <t>2025-10-26 14:32:02</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-27 12:27:27</t>
+          <t>2025-10-27 13:54:14</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-27 13:54:14</t>
+          <t>2025-10-27 16:01:12</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-27 16:01:12</t>
+          <t>2025-10-27 16:20:54</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -1413,154 +1413,154 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
-      <c r="E3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G3" t="n">
-        <v>23</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K3" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L3" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="M3" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="O3" t="n">
-        <v>138</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
       <c r="G4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
         <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J4" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K4" t="n">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="L4" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M4" t="n">
         <v>27</v>
       </c>
       <c r="N4" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O4" t="n">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
         <v>6</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>22</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K5" t="n">
+        <v>57</v>
+      </c>
+      <c r="L5" t="n">
         <v>47</v>
       </c>
-      <c r="L5" t="n">
-        <v>65</v>
-      </c>
       <c r="M5" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N5" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="O5" t="n">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
         <v>9</v>
@@ -1686,19 +1686,19 @@
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
         <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
         <v>23</v>
       </c>
       <c r="J8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8" t="n">
         <v>45</v>
@@ -1707,13 +1707,13 @@
         <v>30</v>
       </c>
       <c r="M8" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N8" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O8" t="n">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
@@ -2589,10 +2589,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -2601,31 +2601,31 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L2" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="M2" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
         <v>51</v>
       </c>
       <c r="O2" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>10</v>
@@ -2853,7 +2853,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
         <v>22</v>
@@ -2862,25 +2862,25 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K7" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L7" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O7" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -4368,22 +4368,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
         <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
         <v>18</v>
@@ -4392,19 +4392,19 @@
         <v>18</v>
       </c>
       <c r="K13" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="L13" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N13" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -4470,22 +4470,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
         <v>18</v>
@@ -4494,19 +4494,19 @@
         <v>25</v>
       </c>
       <c r="K15" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L15" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M15" t="n">
         <v>29</v>
       </c>
       <c r="N15" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O15" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -5551,62 +5551,62 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>N. Serebryakov</t>
+          <t>P. Khomchenko</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Н. Серебряков</t>
+          <t>П. Хомченко</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
         <v>91.7</v>
       </c>
       <c r="G16" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>85554</v>
+        <v>74224</v>
       </c>
       <c r="J16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P. Khomchenko</t>
+          <t>A. Shutov</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>П. Хомченко</t>
+          <t>А. Шутов</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -5616,13 +5616,13 @@
         <v>91.7</v>
       </c>
       <c r="G17" t="n">
-        <v>2.75</v>
+        <v>2.64</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>74224</v>
+        <v>75023</v>
       </c>
       <c r="J17" t="n">
         <v>2</v>
@@ -5631,121 +5631,121 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A. Shutov</t>
+          <t>A. Samoilov</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>А. Шутов</t>
+          <t>А. Самойлов</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>91.7</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>2.64</v>
+        <v>2.07</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>75023</v>
+        <v>98652</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A. Samoilov</t>
+          <t>T. Bilyalov</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>А. Самойлов</t>
+          <t>Т. Билялов</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F19" t="n">
         <v>91.59999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>2.07</v>
+        <v>2.51</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>98652</v>
+        <v>66947</v>
       </c>
       <c r="J19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>T. Bilyalov</t>
+          <t>A. Smolin</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Т. Билялов</t>
+          <t>А. Смолин</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20" t="n">
         <v>91.59999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>2.51</v>
+        <v>2.27</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>66947</v>
+        <v>60815</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -5831,78 +5831,78 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A. Huska</t>
+          <t>N. Serebryakov</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>А. Хуска</t>
+          <t>Н. Серебряков</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
         <v>91.3</v>
       </c>
       <c r="G23" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>88549</v>
+        <v>91426</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S. Martin</t>
+          <t>A. Huska</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>С. Мартин</t>
+          <t>А. Хуска</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>91.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="G24" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="H24" t="n">
         <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>66031</v>
+        <v>88549</v>
       </c>
       <c r="J24" t="n">
         <v>5</v>
@@ -5911,26 +5911,26 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>E. Alikin</t>
+          <t>S. Martin</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Е. Аликин</t>
+          <t>С. Мартин</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="n">
         <v>91.09999999999999</v>
@@ -5939,93 +5939,93 @@
         <v>2.63</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>63856</v>
+        <v>66031</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S. Vyazovoi</t>
+          <t>E. Alikin</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>С. Вязовой</t>
+          <t>Е. Аликин</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F26" t="n">
-        <v>91</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>2.86</v>
+        <v>2.63</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41958</v>
+        <v>63856</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A. Smolin</t>
+          <t>S. Vyazovoi</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>А. Смолин</t>
+          <t>С. Вязовой</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27" t="n">
-        <v>90.90000000000001</v>
+        <v>91</v>
       </c>
       <c r="G27" t="n">
-        <v>2.41</v>
+        <v>2.86</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>54815</v>
+        <v>41958</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,32 +6509,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4886</v>
+        <v>5158</v>
       </c>
       <c r="F5" t="n">
         <v>271</v>
       </c>
       <c r="G5" t="n">
-        <v>5784</v>
+        <v>6237</v>
       </c>
       <c r="H5" t="n">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K5" t="n">
-        <v>14.7359803520262</v>
+        <v>14.6568437378829</v>
       </c>
       <c r="L5" t="n">
-        <v>6.846473029045643</v>
+        <v>7.503607503607504</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,32 +7149,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>8184</v>
+        <v>8637</v>
       </c>
       <c r="F15" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G15" t="n">
-        <v>5039</v>
+        <v>5311</v>
       </c>
       <c r="H15" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K15" t="n">
-        <v>8.797653958944281</v>
+        <v>9.169850642584231</v>
       </c>
       <c r="L15" t="n">
-        <v>6.429847191903155</v>
+        <v>6.778384485031068</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-27 16:20:54</t>
+          <t>2025-10-27 17:33:06</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8009,10 +8009,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -8027,43 +8027,43 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L2" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" t="n">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="N2" t="n">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="O2" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P2" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q2" t="n">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="R2" t="n">
-        <v>93724</v>
+        <v>98519</v>
       </c>
       <c r="S2" t="n">
-        <v>4920</v>
+        <v>4916</v>
       </c>
       <c r="T2" t="n">
         <v>926</v>
       </c>
       <c r="U2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -8423,7 +8423,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
         <v>9</v>
@@ -8447,37 +8447,37 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L8" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M8" t="n">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="N8" t="n">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="O8" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P8" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q8" t="n">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="R8" t="n">
-        <v>91511</v>
+        <v>96306</v>
       </c>
       <c r="S8" t="n">
-        <v>5051</v>
+        <v>5041</v>
       </c>
       <c r="T8" t="n">
-        <v>1158</v>
+        <v>1326</v>
       </c>
       <c r="U8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -9628,16 +9628,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
@@ -9667,7 +9667,7 @@
         <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -9682,13 +9682,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
         <v>43</v>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -9718,10 +9718,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>3.67</v>
+        <v>3.53</v>
       </c>
       <c r="P3" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -11340,22 +11340,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>18</v>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -11373,55 +11373,55 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>2.78</v>
+        <v>2.83</v>
       </c>
       <c r="P10" t="n">
-        <v>57.78</v>
+        <v>53.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -11430,91 +11430,91 @@
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>2.83</v>
+        <v>2.74</v>
       </c>
       <c r="P11" t="n">
-        <v>53.83</v>
+        <v>56.74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>2.74</v>
+        <v>2.89</v>
       </c>
       <c r="P12" t="n">
-        <v>56.74</v>
+        <v>55.89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -11523,142 +11523,142 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2.89</v>
+        <v>2.52</v>
       </c>
       <c r="P13" t="n">
-        <v>55.89</v>
+        <v>58.52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>9</v>
+      </c>
+      <c r="M14" t="n">
         <v>2</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>11</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="P14" t="n">
-        <v>58.52</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>4</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
       <c r="L15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="P15" t="n">
-        <v>57.79</v>
+        <v>61.84</v>
       </c>
     </row>
     <row r="16">
@@ -12167,13 +12167,13 @@
         <v>11.19</v>
       </c>
       <c r="E2" t="n">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="F2" t="n">
-        <v>14.08</v>
+        <v>14.11</v>
       </c>
       <c r="G2" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -12215,10 +12215,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="D4" t="n">
-        <v>10.8</v>
+        <v>10.11</v>
       </c>
       <c r="E4" t="n">
         <v>286</v>
@@ -12227,7 +12227,7 @@
         <v>10.84</v>
       </c>
       <c r="G4" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -12821,25 +12821,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D2" t="n">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="E2" t="n">
-        <v>49.77</v>
+        <v>48.68</v>
       </c>
       <c r="F2" t="n">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="G2" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H2" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I2" t="n">
-        <v>266</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3">
@@ -13019,25 +13019,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D8" t="n">
-        <v>571</v>
+        <v>615</v>
       </c>
       <c r="E8" t="n">
-        <v>49.83</v>
+        <v>50.91</v>
       </c>
       <c r="F8" t="n">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="G8" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H8" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I8" t="n">
-        <v>363</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9">
@@ -13673,23 +13673,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>01:21:26</t>
+          <t>01:25:58</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -13704,14 +13704,14 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>01:36:24</t>
+          <t>01:43:57</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -13719,23 +13719,23 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>05:28</t>
         </is>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4886</v>
+        <v>5158</v>
       </c>
       <c r="S2" t="n">
         <v>271</v>
       </c>
       <c r="T2" t="n">
-        <v>5784</v>
+        <v>6237</v>
       </c>
       <c r="U2" t="n">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3">
@@ -14049,32 +14049,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>02:00:44</t>
+          <t>02:23:57</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -14082,21 +14082,21 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>06:42</t>
+          <t>07:12</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>01:47:01</t>
+          <t>01:28:31</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -14104,54 +14104,54 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>05:57</t>
+          <t>04:26</t>
         </is>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>7244</v>
+        <v>8637</v>
       </c>
       <c r="S7" t="n">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="T7" t="n">
-        <v>6421</v>
+        <v>5311</v>
       </c>
       <c r="U7" t="n">
-        <v>357</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>02:16:24</t>
+          <t>02:00:44</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -14159,21 +14159,21 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>07:11</t>
+          <t>06:42</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="M8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>01:23:59</t>
+          <t>01:47:01</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -14181,23 +14181,23 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>04:25</t>
+          <t>05:57</t>
         </is>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>8184</v>
+        <v>7244</v>
       </c>
       <c r="S8" t="n">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="T8" t="n">
-        <v>5039</v>
+        <v>6421</v>
       </c>
       <c r="U8" t="n">
-        <v>265</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9">
@@ -15789,131 +15789,131 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>83</v>
+        <v>82.7</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>02:16:24</t>
+          <t>01:59:04</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>07:11</t>
+          <t>06:16</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>01:23:59</t>
+          <t>02:07:38</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>04:25</t>
+          <t>06:43</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>8184</v>
+        <v>7144</v>
       </c>
       <c r="O7" t="n">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="P7" t="n">
-        <v>5039</v>
+        <v>7658</v>
       </c>
       <c r="Q7" t="n">
-        <v>265</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>82.7</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>01:59:04</t>
+          <t>02:23:57</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>06:16</t>
+          <t>07:12</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>02:07:38</t>
+          <t>01:28:31</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>06:43</t>
+          <t>04:26</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>7144</v>
+        <v>8637</v>
       </c>
       <c r="O8" t="n">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="P8" t="n">
-        <v>7658</v>
+        <v>5311</v>
       </c>
       <c r="Q8" t="n">
-        <v>403</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9">
@@ -16049,12 +16049,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -16064,181 +16064,181 @@
         <v>81</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>01:21:26</t>
+          <t>01:43:57</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>04:31</t>
+          <t>05:47</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>01:36:24</t>
+          <t>01:49:28</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>06:05</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4886</v>
+        <v>6237</v>
       </c>
       <c r="O11" t="n">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="P11" t="n">
-        <v>5784</v>
+        <v>6568</v>
       </c>
       <c r="Q11" t="n">
-        <v>321</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>01:43:57</t>
+          <t>01:43:43</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>05:47</t>
+          <t>04:43</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>01:49:28</t>
+          <t>02:00:04</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>06:05</t>
+          <t>05:27</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>6237</v>
+        <v>6223</v>
       </c>
       <c r="O12" t="n">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="P12" t="n">
-        <v>6568</v>
+        <v>7204</v>
       </c>
       <c r="Q12" t="n">
-        <v>365</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>80.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>01:43:43</t>
+          <t>01:25:58</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>04:43</t>
+          <t>04:31</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>02:00:04</t>
+          <t>01:43:57</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>05:27</t>
+          <t>05:28</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>6223</v>
+        <v>5158</v>
       </c>
       <c r="O13" t="n">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="P13" t="n">
-        <v>7204</v>
+        <v>6237</v>
       </c>
       <c r="Q13" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14">
@@ -17427,25 +17427,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -17454,49 +17454,49 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="N10" t="n">
-        <v>933</v>
+        <v>839</v>
       </c>
       <c r="O10" t="n">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="P10" t="n">
-        <v>806</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -17511,49 +17511,49 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M11" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="N11" t="n">
-        <v>740</v>
+        <v>933</v>
       </c>
       <c r="O11" t="n">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="P11" t="n">
-        <v>757</v>
+        <v>806</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -17562,52 +17562,52 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="O12" t="n">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="P12" t="n">
-        <v>1115</v>
+        <v>853</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -17619,25 +17619,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>10</v>
+      </c>
+      <c r="K13" t="n">
         <v>8</v>
       </c>
-      <c r="K13" t="n">
-        <v>7</v>
-      </c>
       <c r="L13" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="N13" t="n">
-        <v>843</v>
+        <v>740</v>
       </c>
       <c r="O13" t="n">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="P13" t="n">
-        <v>856</v>
+        <v>757</v>
       </c>
     </row>
     <row r="14">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -1413,154 +1413,154 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
         <v>6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K3" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="L3" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="M3" t="n">
+        <v>27</v>
+      </c>
+      <c r="N3" t="n">
         <v>35</v>
       </c>
-      <c r="N3" t="n">
-        <v>53</v>
-      </c>
       <c r="O3" t="n">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>24</v>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
-      <c r="E4" t="n">
-        <v>7</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
       <c r="I4" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K4" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L4" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="O4" t="n">
-        <v>138</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="n">
         <v>4</v>
       </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
       <c r="G5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J5" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K5" t="n">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="L5" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M5" t="n">
         <v>27</v>
       </c>
       <c r="N5" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O5" t="n">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6">
@@ -1668,220 +1668,220 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>8</v>
       </c>
       <c r="G8" t="n">
+        <v>21</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16</v>
+      </c>
+      <c r="J8" t="n">
         <v>20</v>
       </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>23</v>
-      </c>
-      <c r="J8" t="n">
-        <v>19</v>
-      </c>
       <c r="K8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L8" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M8" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N8" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O8" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
         <v>8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
       </c>
       <c r="G9" t="n">
         <v>20</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J9" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K9" t="n">
+        <v>45</v>
+      </c>
+      <c r="L9" t="n">
         <v>30</v>
       </c>
-      <c r="L9" t="n">
-        <v>40</v>
-      </c>
       <c r="M9" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N9" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="O9" t="n">
-        <v>108</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
         <v>6</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
       </c>
       <c r="G10" t="n">
         <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K10" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="L10" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="M10" t="n">
+        <v>33</v>
+      </c>
+      <c r="N10" t="n">
         <v>26</v>
       </c>
-      <c r="N10" t="n">
-        <v>22</v>
-      </c>
       <c r="O10" t="n">
-        <v>170</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20</v>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G11" t="n">
-        <v>19</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K11" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L11" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="M11" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N11" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O11" t="n">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
         <v>7</v>
@@ -1890,34 +1890,34 @@
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
         <v>19</v>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K12" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L12" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M12" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N12" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O12" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -2145,34 +2145,34 @@
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
         <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I17" t="n">
         <v>13</v>
       </c>
       <c r="J17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K17" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L17" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M17" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O17" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
         <v>5</v>
@@ -2298,34 +2298,34 @@
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
         <v>12</v>
       </c>
       <c r="J20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L20" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N20" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O20" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -2904,19 +2904,19 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
         <v>22</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
         <v>15</v>
       </c>
       <c r="J8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" t="n">
         <v>75</v>
@@ -2925,13 +2925,13 @@
         <v>88</v>
       </c>
       <c r="M8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O8" t="n">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -3090,127 +3090,127 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C12" t="n">
+        <v>21</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>19</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" t="n">
         <v>18</v>
       </c>
-      <c r="D12" t="n">
-        <v>6</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G12" t="n">
-        <v>18</v>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15</v>
-      </c>
       <c r="J12" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K12" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L12" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M12" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N12" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="O12" t="n">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
         <v>18</v>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
+        <v>15</v>
+      </c>
+      <c r="J13" t="n">
         <v>17</v>
       </c>
-      <c r="J13" t="n">
-        <v>21</v>
-      </c>
       <c r="K13" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L13" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M13" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N13" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="O13" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
         <v>16</v>
@@ -3219,40 +3219,40 @@
         <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J14" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L14" t="n">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="M14" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N14" t="n">
         <v>29</v>
       </c>
       <c r="O14" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
         <v>4</v>
@@ -3261,151 +3261,151 @@
         <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
         <v>16</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J15" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K15" t="n">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="L15" t="n">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="M15" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N15" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="O15" t="n">
-        <v>140</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>18</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K16" t="n">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="L16" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M16" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N16" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="O16" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" t="n">
         <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K17" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="L17" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M17" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N17" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O17" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
         <v>5</v>
@@ -3414,7 +3414,7 @@
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" t="n">
         <v>15</v>
@@ -3423,91 +3423,91 @@
         <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K18" t="n">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="L18" t="n">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="M18" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N18" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="O18" t="n">
-        <v>155</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>9</v>
       </c>
       <c r="G19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
         <v>7</v>
       </c>
       <c r="I19" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="L19" t="n">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="M19" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N19" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="O19" t="n">
-        <v>117</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
         <v>6</v>
@@ -3516,85 +3516,85 @@
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
         <v>14</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J20" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K20" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="L20" t="n">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="M20" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N20" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="O20" t="n">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
         <v>14</v>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K21" t="n">
+        <v>68</v>
+      </c>
+      <c r="L21" t="n">
+        <v>65</v>
+      </c>
+      <c r="M21" t="n">
+        <v>31</v>
+      </c>
+      <c r="N21" t="n">
         <v>57</v>
       </c>
-      <c r="L21" t="n">
-        <v>47</v>
-      </c>
-      <c r="M21" t="n">
-        <v>17</v>
-      </c>
-      <c r="N21" t="n">
-        <v>41</v>
-      </c>
       <c r="O21" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
@@ -3900,73 +3900,73 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
         <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J4" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="L4" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M4" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="O4" t="n">
-        <v>133</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>6</v>
@@ -3975,196 +3975,196 @@
         <v>24</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K5" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="L5" t="n">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="M5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N5" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="O5" t="n">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>24</v>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
-      <c r="E6" t="n">
-        <v>9</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>24</v>
+      </c>
+      <c r="J6" t="n">
         <v>23</v>
       </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10</v>
-      </c>
       <c r="K6" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L6" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N6" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="O6" t="n">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
         <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>21</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L7" t="n">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="M7" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O7" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="n">
         <v>4</v>
       </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>20</v>
       </c>
       <c r="J8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K8" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L8" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="M8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N8" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="O8" t="n">
-        <v>82</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
@@ -4173,7 +4173,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
         <v>20</v>
@@ -4182,91 +4182,91 @@
         <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J9" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K9" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L9" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N9" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O9" t="n">
-        <v>118</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
         <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J10" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K10" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="L10" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M10" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N10" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O10" t="n">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
         <v>7</v>
@@ -4275,34 +4275,34 @@
         <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
         <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="L11" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="M11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" t="n">
-        <v>88</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
@@ -4878,43 +4878,43 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" t="n">
         <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" t="n">
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K23" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L23" t="n">
         <v>31</v>
       </c>
       <c r="M23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O23" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5071,22 +5071,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>M. Dorozhko</t>
+          <t>F. Dolganov</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>М. Дорожко</t>
+          <t>Ф. Долганов</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -5096,56 +5096,56 @@
         <v>93.59999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100710</v>
+        <v>99417</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>F. Dolganov</t>
+          <t>M. Dorozhko</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ф. Долганов</t>
+          <t>М. Дорожко</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
         <v>93.59999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>2.31</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>93417</v>
+        <v>100710</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -5551,38 +5551,38 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P. Khomchenko</t>
+          <t>A. Shutov</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>П. Хомченко</t>
+          <t>А. Шутов</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
         <v>91.7</v>
       </c>
       <c r="G16" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>74224</v>
+        <v>80841</v>
       </c>
       <c r="J16" t="n">
         <v>2</v>
@@ -5591,22 +5591,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A. Shutov</t>
+          <t>P. Khomchenko</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>А. Шутов</t>
+          <t>П. Хомченко</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -5616,13 +5616,13 @@
         <v>91.7</v>
       </c>
       <c r="G17" t="n">
-        <v>2.64</v>
+        <v>2.75</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>75023</v>
+        <v>74224</v>
       </c>
       <c r="J17" t="n">
         <v>2</v>
@@ -5911,66 +5911,66 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S. Martin</t>
+          <t>M. Berdin</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>С. Мартин</t>
+          <t>М. Бердин</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>91.09999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="G25" t="n">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>66031</v>
+        <v>53045</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>E. Alikin</t>
+          <t>S. Martin</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Е. Аликин</t>
+          <t>С. Мартин</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="n">
         <v>91.09999999999999</v>
@@ -5979,90 +5979,90 @@
         <v>2.63</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>63856</v>
+        <v>66031</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S. Vyazovoi</t>
+          <t>E. Alikin</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>С. Вязовой</t>
+          <t>Е. Аликин</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F27" t="n">
-        <v>91</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>2.86</v>
+        <v>2.63</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>41958</v>
+        <v>63856</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D. Nikolayev</t>
+          <t>S. Vyazovoi</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Д. Николаев</t>
+          <t>С. Вязовой</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>90.7</v>
+        <v>91</v>
       </c>
       <c r="G28" t="n">
-        <v>2.91</v>
+        <v>2.86</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>39132</v>
+        <v>41958</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
@@ -6071,102 +6071,102 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I. Kulbakov</t>
+          <t>D. Nikolayev</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>И. Кульбаков</t>
+          <t>Д. Николаев</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
-        <v>90.5</v>
+        <v>90.7</v>
       </c>
       <c r="G29" t="n">
-        <v>3.08</v>
+        <v>2.91</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>62334</v>
+        <v>39132</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>L. Domingue</t>
+          <t>I. Kulbakov</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Л. Доминг</t>
+          <t>И. Кульбаков</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="n">
         <v>90.5</v>
       </c>
       <c r="G30" t="n">
-        <v>3.48</v>
+        <v>3.08</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>53444</v>
+        <v>62334</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>M. Berdin</t>
+          <t>L. Domingue</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>М. Бердин</t>
+          <t>Л. Доминг</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -6176,16 +6176,16 @@
         <v>90.5</v>
       </c>
       <c r="G31" t="n">
-        <v>2.17</v>
+        <v>3.48</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>46921</v>
+        <v>53444</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6317,20 +6317,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4433</v>
+        <v>4553</v>
       </c>
       <c r="F2" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="G2" t="n">
-        <v>5885</v>
+        <v>6245</v>
       </c>
       <c r="H2" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I2" t="n">
         <v>11</v>
@@ -6339,10 +6339,10 @@
         <v>13</v>
       </c>
       <c r="K2" t="n">
-        <v>8.933002481389579</v>
+        <v>8.697562047001977</v>
       </c>
       <c r="L2" t="n">
-        <v>7.952421410365336</v>
+        <v>7.493995196156925</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
@@ -6381,20 +6381,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7144</v>
+        <v>7504</v>
       </c>
       <c r="F3" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G3" t="n">
-        <v>7658</v>
+        <v>7778</v>
       </c>
       <c r="H3" t="n">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="I3" t="n">
         <v>13</v>
@@ -6403,10 +6403,10 @@
         <v>13</v>
       </c>
       <c r="K3" t="n">
-        <v>6.550951847704368</v>
+        <v>6.236673773987207</v>
       </c>
       <c r="L3" t="n">
-        <v>6.111256202663881</v>
+        <v>6.016970943687324</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,20 +6637,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7225</v>
+        <v>7480</v>
       </c>
       <c r="F7" t="n">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G7" t="n">
-        <v>6515</v>
+        <v>6650</v>
       </c>
       <c r="H7" t="n">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="I7" t="n">
         <v>10</v>
@@ -6659,10 +6659,10 @@
         <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>4.982698961937715</v>
+        <v>4.81283422459893</v>
       </c>
       <c r="L7" t="n">
-        <v>4.42056792018419</v>
+        <v>4.330827067669173</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,20 +7213,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6997</v>
+        <v>7132</v>
       </c>
       <c r="F16" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G16" t="n">
-        <v>6339</v>
+        <v>6594</v>
       </c>
       <c r="H16" t="n">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I16" t="n">
         <v>17</v>
@@ -7235,10 +7235,10 @@
         <v>12</v>
       </c>
       <c r="K16" t="n">
-        <v>8.746605688152066</v>
+        <v>8.581043185642176</v>
       </c>
       <c r="L16" t="n">
-        <v>6.814955040227166</v>
+        <v>6.551410373066424</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-27 17:33:06</t>
+          <t>2025-10-28 03:01:03</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8078,13 +8078,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
         <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -8096,43 +8096,43 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M3" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N3" t="n">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="O3" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P3" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q3" t="n">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="R3" t="n">
-        <v>90318</v>
+        <v>95758</v>
       </c>
       <c r="S3" t="n">
-        <v>4733</v>
+        <v>4754</v>
       </c>
       <c r="T3" t="n">
-        <v>1052</v>
+        <v>1208</v>
       </c>
       <c r="U3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -8483,81 +8483,81 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>23</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="L9" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="M9" t="n">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="N9" t="n">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="O9" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="P9" t="n">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="Q9" t="n">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="R9" t="n">
-        <v>88847</v>
+        <v>104358</v>
       </c>
       <c r="S9" t="n">
-        <v>4923</v>
+        <v>4943</v>
       </c>
       <c r="T9" t="n">
-        <v>632</v>
+        <v>1003</v>
       </c>
       <c r="U9" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -8567,79 +8567,79 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>23</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M10" t="n">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="N10" t="n">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="O10" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P10" t="n">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="Q10" t="n">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="R10" t="n">
-        <v>87315</v>
+        <v>88847</v>
       </c>
       <c r="S10" t="n">
-        <v>4831</v>
+        <v>4923</v>
       </c>
       <c r="T10" t="n">
-        <v>1104</v>
+        <v>632</v>
       </c>
       <c r="U10" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -8651,196 +8651,196 @@
         <v>23</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L11" t="n">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="M11" t="n">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="N11" t="n">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="O11" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P11" t="n">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="Q11" t="n">
-        <v>462</v>
+        <v>293</v>
       </c>
       <c r="R11" t="n">
-        <v>91922</v>
+        <v>87315</v>
       </c>
       <c r="S11" t="n">
-        <v>4823</v>
+        <v>4831</v>
       </c>
       <c r="T11" t="n">
-        <v>803</v>
+        <v>1104</v>
       </c>
       <c r="U11" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="L12" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M12" t="n">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="N12" t="n">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="O12" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="P12" t="n">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="Q12" t="n">
-        <v>350</v>
+        <v>462</v>
       </c>
       <c r="R12" t="n">
-        <v>95126</v>
+        <v>91922</v>
       </c>
       <c r="S12" t="n">
-        <v>5005</v>
+        <v>4823</v>
       </c>
       <c r="T12" t="n">
-        <v>1020</v>
+        <v>803</v>
       </c>
       <c r="U12" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>22</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L13" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="M13" t="n">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="N13" t="n">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="O13" t="n">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="P13" t="n">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="Q13" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="R13" t="n">
-        <v>97759</v>
+        <v>95126</v>
       </c>
       <c r="S13" t="n">
-        <v>4854</v>
+        <v>5005</v>
       </c>
       <c r="T13" t="n">
-        <v>2012</v>
+        <v>1020</v>
       </c>
       <c r="U13" t="n">
-        <v>101</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -8849,49 +8849,49 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L14" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M14" t="n">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="N14" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O14" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="P14" t="n">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="Q14" t="n">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="R14" t="n">
-        <v>99028</v>
+        <v>97759</v>
       </c>
       <c r="S14" t="n">
-        <v>4931</v>
+        <v>4854</v>
       </c>
       <c r="T14" t="n">
-        <v>1003</v>
+        <v>2012</v>
       </c>
       <c r="U14" t="n">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
@@ -8975,7 +8975,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -8999,37 +8999,37 @@
         <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L16" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M16" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N16" t="n">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="O16" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P16" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q16" t="n">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="R16" t="n">
-        <v>93812</v>
+        <v>99142</v>
       </c>
       <c r="S16" t="n">
-        <v>4923</v>
+        <v>4935</v>
       </c>
       <c r="T16" t="n">
-        <v>1034</v>
+        <v>1216</v>
       </c>
       <c r="U16" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -9173,28 +9173,28 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -9206,34 +9206,34 @@
         <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L19" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M19" t="n">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="N19" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="O19" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P19" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="Q19" t="n">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="R19" t="n">
-        <v>93604</v>
+        <v>80427</v>
       </c>
       <c r="S19" t="n">
-        <v>5200</v>
+        <v>5017</v>
       </c>
       <c r="T19" t="n">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="U19" t="n">
         <v>20</v>
@@ -9242,70 +9242,70 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J20" t="n">
         <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L20" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="M20" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N20" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="O20" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P20" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="Q20" t="n">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="R20" t="n">
-        <v>74947</v>
+        <v>93604</v>
       </c>
       <c r="S20" t="n">
-        <v>4959</v>
+        <v>5200</v>
       </c>
       <c r="T20" t="n">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="U20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -9889,31 +9889,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -9928,46 +9928,46 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>2.95</v>
+        <v>2.81</v>
       </c>
       <c r="P7" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -9979,43 +9979,43 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="P8" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -10033,49 +10033,49 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P9" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -10087,43 +10087,43 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="P10" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -10141,19 +10141,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -10267,25 +10267,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -10303,70 +10303,70 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>2.89</v>
+        <v>2.6</v>
       </c>
       <c r="P14" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2.83</v>
+        <v>2.89</v>
       </c>
       <c r="P15" t="n">
         <v>54</v>
@@ -10375,31 +10375,31 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -10411,73 +10411,73 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>2.83</v>
       </c>
       <c r="P16" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
         <v>5</v>
       </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>3</v>
       </c>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2.63</v>
-      </c>
       <c r="P17" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E19" t="n">
         <v>11</v>
@@ -10582,10 +10582,10 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="P19" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -11124,28 +11124,28 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -11157,151 +11157,151 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>2.87</v>
+        <v>2.71</v>
       </c>
       <c r="P6" t="n">
-        <v>46.87</v>
+        <v>51.71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>12</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
         <v>3</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>10</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
       <c r="O7" t="n">
-        <v>2.71</v>
+        <v>2.88</v>
       </c>
       <c r="P7" t="n">
-        <v>51.71</v>
+        <v>49.88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>2</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
       <c r="L8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>2.53</v>
+        <v>2.72</v>
       </c>
       <c r="P8" t="n">
-        <v>52.53</v>
+        <v>55.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -11313,28 +11313,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11</v>
+      </c>
+      <c r="M9" t="n">
         <v>2</v>
       </c>
-      <c r="L9" t="n">
-        <v>10</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
       <c r="N9" t="n">
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="P9" t="n">
-        <v>55.72</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="10">
@@ -11664,19 +11664,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -11691,10 +11691,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -11703,52 +11703,52 @@
         <v>8</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
         <v>3</v>
       </c>
-      <c r="O16" t="n">
-        <v>2.84</v>
-      </c>
       <c r="P16" t="n">
-        <v>56.84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -11757,16 +11757,16 @@
         <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="P17" t="n">
-        <v>58</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="18">
@@ -11880,19 +11880,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -11904,49 +11904,49 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="P20" t="n">
-        <v>69.15000000000001</v>
+        <v>66.31999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -11958,31 +11958,31 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>3.32</v>
+        <v>3.1</v>
       </c>
       <c r="P21" t="n">
-        <v>66.31999999999999</v>
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -12377,10 +12377,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="D10" t="n">
-        <v>8.109999999999999</v>
+        <v>8.17</v>
       </c>
       <c r="E10" t="n">
         <v>217</v>
@@ -12389,7 +12389,7 @@
         <v>11.98</v>
       </c>
       <c r="G10" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -12491,13 +12491,13 @@
         <v>10.34</v>
       </c>
       <c r="E14" t="n">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="F14" t="n">
-        <v>5.03</v>
+        <v>5.24</v>
       </c>
       <c r="G14" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -12512,10 +12512,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="D15" t="n">
-        <v>8.449999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E15" t="n">
         <v>302</v>
@@ -12524,7 +12524,7 @@
         <v>8.609999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
@@ -12638,55 +12638,55 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="D20" t="n">
-        <v>8.460000000000001</v>
+        <v>7.47</v>
       </c>
       <c r="E20" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F20" t="n">
-        <v>6.4</v>
+        <v>7.26</v>
       </c>
       <c r="G20" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="D21" t="n">
-        <v>7.47</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="F21" t="n">
-        <v>7.26</v>
+        <v>6.27</v>
       </c>
       <c r="G21" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
@@ -12854,25 +12854,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D3" t="n">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="E3" t="n">
-        <v>55.51</v>
+        <v>55.14</v>
       </c>
       <c r="F3" t="n">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="G3" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H3" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I3" t="n">
-        <v>298</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4">
@@ -13043,199 +13043,199 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>326</v>
+        <v>428</v>
       </c>
       <c r="D9" t="n">
-        <v>512</v>
+        <v>641</v>
       </c>
       <c r="E9" t="n">
-        <v>47.36</v>
+        <v>48.67</v>
       </c>
       <c r="F9" t="n">
-        <v>346</v>
+        <v>443</v>
       </c>
       <c r="G9" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="H9" t="n">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="I9" t="n">
-        <v>339</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="D10" t="n">
-        <v>600</v>
+        <v>512</v>
       </c>
       <c r="E10" t="n">
-        <v>55.45</v>
+        <v>47.36</v>
       </c>
       <c r="F10" t="n">
-        <v>283</v>
+        <v>346</v>
       </c>
       <c r="G10" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H10" t="n">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="I10" t="n">
-        <v>293</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="D11" t="n">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="E11" t="n">
-        <v>53.44</v>
+        <v>55.45</v>
       </c>
       <c r="F11" t="n">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G11" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H11" t="n">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="I11" t="n">
-        <v>462</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>397</v>
+        <v>262</v>
       </c>
       <c r="D12" t="n">
-        <v>534</v>
+        <v>614</v>
       </c>
       <c r="E12" t="n">
-        <v>51.3</v>
+        <v>53.44</v>
       </c>
       <c r="F12" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G12" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H12" t="n">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="I12" t="n">
-        <v>350</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="D13" t="n">
-        <v>648</v>
+        <v>534</v>
       </c>
       <c r="E13" t="n">
-        <v>51.8</v>
+        <v>51.3</v>
       </c>
       <c r="F13" t="n">
-        <v>465</v>
+        <v>303</v>
       </c>
       <c r="G13" t="n">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="H13" t="n">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="I13" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="D14" t="n">
-        <v>609</v>
+        <v>648</v>
       </c>
       <c r="E14" t="n">
-        <v>48.92</v>
+        <v>51.8</v>
       </c>
       <c r="F14" t="n">
-        <v>424</v>
+        <v>465</v>
       </c>
       <c r="G14" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="H14" t="n">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="I14" t="n">
-        <v>370</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15">
@@ -13283,25 +13283,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D16" t="n">
-        <v>528</v>
+        <v>568</v>
       </c>
       <c r="E16" t="n">
-        <v>49.53</v>
+        <v>49.91</v>
       </c>
       <c r="F16" t="n">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="G16" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H16" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
-        <v>291</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17">
@@ -13373,67 +13373,67 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="D19" t="n">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="E19" t="n">
-        <v>51.34</v>
+        <v>50.44</v>
       </c>
       <c r="F19" t="n">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="G19" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H19" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="I19" t="n">
-        <v>206</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="D20" t="n">
-        <v>428</v>
+        <v>499</v>
       </c>
       <c r="E20" t="n">
-        <v>50.41</v>
+        <v>51.34</v>
       </c>
       <c r="F20" t="n">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G20" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H20" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I20" t="n">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
@@ -13972,32 +13972,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>24.4</v>
+        <v>23.9</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>01:13:53</t>
+          <t>02:23:57</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -14005,21 +14005,21 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>04:56</t>
+          <t>07:12</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>01:38:05</t>
+          <t>01:28:31</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -14027,54 +14027,54 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>06:32</t>
+          <t>04:26</t>
         </is>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4433</v>
+        <v>8637</v>
       </c>
       <c r="S6" t="n">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="T6" t="n">
-        <v>5885</v>
+        <v>5311</v>
       </c>
       <c r="U6" t="n">
-        <v>392</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
         <v>23.9</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>02:23:57</t>
+          <t>01:15:53</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -14082,21 +14082,21 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>07:12</t>
+          <t>04:45</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>01:28:31</t>
+          <t>01:44:05</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -14104,23 +14104,23 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>04:26</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>8637</v>
+        <v>4553</v>
       </c>
       <c r="S7" t="n">
-        <v>432</v>
+        <v>285</v>
       </c>
       <c r="T7" t="n">
-        <v>5311</v>
+        <v>6245</v>
       </c>
       <c r="U7" t="n">
-        <v>266</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8">
@@ -14280,32 +14280,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>01:56:37</t>
+          <t>01:36:53</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -14313,21 +14313,21 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>05:50</t>
+          <t>05:42</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>01:45:39</t>
+          <t>01:34:50</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -14335,54 +14335,54 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>05:17</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>6997</v>
+        <v>5813</v>
       </c>
       <c r="S10" t="n">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="T10" t="n">
-        <v>6339</v>
+        <v>5690</v>
       </c>
       <c r="U10" t="n">
-        <v>317</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>21</v>
+      </c>
+      <c r="D11" t="n">
+        <v>77</v>
+      </c>
+      <c r="E11" t="n">
         <v>17</v>
       </c>
-      <c r="D11" t="n">
-        <v>58</v>
-      </c>
-      <c r="E11" t="n">
-        <v>13</v>
-      </c>
       <c r="F11" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>01:36:53</t>
+          <t>01:58:52</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -14390,21 +14390,21 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>05:42</t>
+          <t>05:40</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="M11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>01:34:50</t>
+          <t>01:49:54</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -14412,23 +14412,23 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>05:14</t>
         </is>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>5813</v>
+        <v>7132</v>
       </c>
       <c r="S11" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="T11" t="n">
-        <v>5690</v>
+        <v>6594</v>
       </c>
       <c r="U11" t="n">
-        <v>335</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12">
@@ -14674,23 +14674,23 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>18.1</v>
+        <v>17.3</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>01:59:04</t>
+          <t>02:05:04</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -14698,21 +14698,21 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>06:16</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M15" t="n">
         <v>13</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>02:07:38</t>
+          <t>02:09:38</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -14720,23 +14720,23 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>06:43</t>
+          <t>06:29</t>
         </is>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7144</v>
+        <v>7504</v>
       </c>
       <c r="S15" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T15" t="n">
-        <v>7658</v>
+        <v>7778</v>
       </c>
       <c r="U15" t="n">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16">
@@ -14973,32 +14973,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>02:00:25</t>
+          <t>01:34:39</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -15006,21 +15006,21 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>06:20</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>01:48:35</t>
+          <t>01:40:23</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -15028,76 +15028,76 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7225</v>
+        <v>5679</v>
       </c>
       <c r="S19" t="n">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="T19" t="n">
-        <v>6515</v>
+        <v>6023</v>
       </c>
       <c r="U19" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>02:04:40</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>06:14</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>66</v>
+      </c>
+      <c r="M20" t="n">
         <v>8</v>
       </c>
-      <c r="F20" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>01:34:39</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>05:16</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>58</v>
-      </c>
-      <c r="M20" t="n">
-        <v>7</v>
-      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>01:40:23</t>
+          <t>01:50:50</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -15105,23 +15105,23 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>05:33</t>
         </is>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>5679</v>
+        <v>7480</v>
       </c>
       <c r="S20" t="n">
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="T20" t="n">
-        <v>6023</v>
+        <v>6650</v>
       </c>
       <c r="U20" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21">
@@ -15538,57 +15538,57 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>87.5</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>02:00:25</t>
+          <t>02:04:40</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>06:20</t>
+          <t>06:14</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>01:48:35</t>
+          <t>01:50:50</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>05:33</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>7225</v>
+        <v>7480</v>
       </c>
       <c r="O3" t="n">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="P3" t="n">
-        <v>6515</v>
+        <v>6650</v>
       </c>
       <c r="Q3" t="n">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4">
@@ -15798,16 +15798,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
         <v>13</v>
@@ -15817,38 +15817,38 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>01:59:04</t>
+          <t>02:05:04</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>06:16</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>02:07:38</t>
+          <t>02:09:38</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>06:43</t>
+          <t>06:29</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>7144</v>
+        <v>7504</v>
       </c>
       <c r="O7" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P7" t="n">
-        <v>7658</v>
+        <v>7778</v>
       </c>
       <c r="Q7" t="n">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8">
@@ -15919,131 +15919,131 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>81.59999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
+        <v>77</v>
+      </c>
+      <c r="G9" t="n">
+        <v>17</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>01:58:52</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>05:40</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>67</v>
       </c>
-      <c r="G9" t="n">
-        <v>8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>01:57:18</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>06:10</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>76</v>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>02:10:57</t>
+          <t>01:49:54</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>05:14</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7038</v>
+        <v>7132</v>
       </c>
       <c r="O9" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="P9" t="n">
-        <v>7857</v>
+        <v>6594</v>
       </c>
       <c r="Q9" t="n">
-        <v>414</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>81.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G10" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>01:56:37</t>
+          <t>01:57:18</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>05:50</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>01:45:39</t>
+          <t>02:10:57</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>05:17</t>
+          <t>06:54</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>6997</v>
+        <v>7038</v>
       </c>
       <c r="O10" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="P10" t="n">
-        <v>6339</v>
+        <v>7857</v>
       </c>
       <c r="Q10" t="n">
-        <v>317</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11">
@@ -16244,16 +16244,16 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" t="n">
         <v>79</v>
@@ -16262,22 +16262,22 @@
         <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="G14" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>02:00:44</t>
+          <t>01:15:53</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>06:42</t>
+          <t>04:45</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -16285,220 +16285,220 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>01:47:01</t>
+          <t>01:44:05</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>05:57</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>7244</v>
+        <v>4553</v>
       </c>
       <c r="O14" t="n">
-        <v>402</v>
+        <v>285</v>
       </c>
       <c r="P14" t="n">
-        <v>6421</v>
+        <v>6245</v>
       </c>
       <c r="Q14" t="n">
-        <v>357</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>78.8</v>
+        <v>79</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
+        <v>72</v>
+      </c>
+      <c r="G15" t="n">
+        <v>17</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>02:00:44</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>06:42</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>62</v>
       </c>
-      <c r="G15" t="n">
-        <v>10</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>01:46:55</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>05:38</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>52</v>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>01:20:03</t>
+          <t>01:47:01</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>04:13</t>
+          <t>05:57</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>6415</v>
+        <v>7244</v>
       </c>
       <c r="O15" t="n">
-        <v>338</v>
+        <v>402</v>
       </c>
       <c r="P15" t="n">
-        <v>4803</v>
+        <v>6421</v>
       </c>
       <c r="Q15" t="n">
-        <v>253</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>78.3</v>
+        <v>78.8</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G16" t="n">
         <v>10</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>01:24:36</t>
+          <t>01:46:55</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>04:59</t>
+          <t>05:38</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>01:44:19</t>
+          <t>01:20:03</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>06:08</t>
+          <t>04:13</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>5076</v>
+        <v>6415</v>
       </c>
       <c r="O16" t="n">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="P16" t="n">
-        <v>6259</v>
+        <v>4803</v>
       </c>
       <c r="Q16" t="n">
-        <v>368</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>78</v>
+        <v>78.3</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>01:13:53</t>
+          <t>01:24:36</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>04:56</t>
+          <t>04:59</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>01:38:05</t>
+          <t>01:44:19</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>06:32</t>
+          <t>06:08</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4433</v>
+        <v>5076</v>
       </c>
       <c r="O17" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P17" t="n">
-        <v>5885</v>
+        <v>6259</v>
       </c>
       <c r="Q17" t="n">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18">
@@ -17058,10 +17058,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -17079,7 +17079,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -17088,16 +17088,16 @@
         <v>121</v>
       </c>
       <c r="M3" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N3" t="n">
-        <v>1047</v>
+        <v>1027</v>
       </c>
       <c r="O3" t="n">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P3" t="n">
-        <v>1018</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="4">
@@ -17274,10 +17274,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -17301,19 +17301,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M7" t="n">
         <v>81</v>
       </c>
       <c r="N7" t="n">
-        <v>950</v>
+        <v>927</v>
       </c>
       <c r="O7" t="n">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P7" t="n">
-        <v>953</v>
+        <v>942</v>
       </c>
     </row>
     <row r="8">
@@ -17643,109 +17643,109 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="M14" t="n">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="N14" t="n">
-        <v>903</v>
+        <v>728</v>
       </c>
       <c r="O14" t="n">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="P14" t="n">
-        <v>621</v>
+        <v>840</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="M15" t="n">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="N15" t="n">
-        <v>733</v>
+        <v>903</v>
       </c>
       <c r="O15" t="n">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="P15" t="n">
-        <v>854</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16">
@@ -17913,16 +17913,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
         <v>66</v>
@@ -17946,43 +17946,43 @@
         <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L19" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M19" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N19" t="n">
-        <v>753</v>
+        <v>852</v>
       </c>
       <c r="O19" t="n">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="P19" t="n">
-        <v>743</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -17997,79 +17997,79 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="M20" t="n">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="N20" t="n">
-        <v>814</v>
+        <v>753</v>
       </c>
       <c r="O20" t="n">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="P20" t="n">
-        <v>856</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>2</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4</v>
-      </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="M21" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="N21" t="n">
-        <v>904</v>
+        <v>814</v>
       </c>
       <c r="O21" t="n">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="P21" t="n">
-        <v>752</v>
+        <v>856</v>
       </c>
     </row>
     <row r="22">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-29 07:00:54</t>
+          <t>2025-10-29 13:07:29</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-29 13:07:29</t>
+          <t>2025-10-29 13:13:23</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -1422,22 +1422,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
         <v>20</v>
@@ -1446,19 +1446,19 @@
         <v>19</v>
       </c>
       <c r="K3" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L3" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M3" t="n">
         <v>27</v>
       </c>
       <c r="N3" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
@@ -1473,22 +1473,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
         <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
         <v>25</v>
@@ -1497,19 +1497,19 @@
         <v>13</v>
       </c>
       <c r="K4" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L4" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O4" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -1617,67 +1617,67 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
         <v>8</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>22</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
+        <v>25</v>
+      </c>
+      <c r="J7" t="n">
         <v>19</v>
       </c>
-      <c r="J7" t="n">
-        <v>17</v>
-      </c>
       <c r="K7" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="M7" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N7" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="O7" t="n">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -1686,100 +1686,100 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
         <v>22</v>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
         <v>19</v>
       </c>
       <c r="J8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L8" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M8" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N8" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="O8" t="n">
-        <v>151</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+      <c r="I9" t="n">
         <v>19</v>
       </c>
-      <c r="D9" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-      <c r="G9" t="n">
-        <v>21</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>15</v>
-      </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L9" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="M9" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N9" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="O9" t="n">
-        <v>109</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
         <v>8</v>
@@ -1788,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
         <v>21</v>
@@ -1797,46 +1797,46 @@
         <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N10" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="O10" t="n">
-        <v>141</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>8</v>
@@ -1845,76 +1845,76 @@
         <v>21</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L11" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M11" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O11" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
         <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L12" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M12" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N12" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O12" t="n">
         <v>142</v>
@@ -1932,43 +1932,43 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
         <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" t="n">
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L13" t="n">
+        <v>46</v>
+      </c>
+      <c r="M13" t="n">
+        <v>34</v>
+      </c>
+      <c r="N13" t="n">
         <v>42</v>
       </c>
-      <c r="M13" t="n">
-        <v>32</v>
-      </c>
-      <c r="N13" t="n">
-        <v>40</v>
-      </c>
       <c r="O13" t="n">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
@@ -2127,103 +2127,103 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="n">
         <v>6</v>
       </c>
-      <c r="E17" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
       <c r="G17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H17" t="n">
+        <v>8</v>
+      </c>
+      <c r="I17" t="n">
         <v>11</v>
-      </c>
-      <c r="I17" t="n">
-        <v>13</v>
       </c>
       <c r="J17" t="n">
         <v>17</v>
       </c>
       <c r="K17" t="n">
+        <v>40</v>
+      </c>
+      <c r="L17" t="n">
+        <v>40</v>
+      </c>
+      <c r="M17" t="n">
+        <v>30</v>
+      </c>
+      <c r="N17" t="n">
         <v>53</v>
       </c>
-      <c r="L17" t="n">
-        <v>62</v>
-      </c>
-      <c r="M17" t="n">
-        <v>40</v>
-      </c>
-      <c r="N17" t="n">
-        <v>42</v>
-      </c>
       <c r="O17" t="n">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
         <v>4</v>
       </c>
-      <c r="E18" t="n">
-        <v>8</v>
-      </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
         <v>16</v>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K18" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="L18" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="M18" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N18" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="O18" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
@@ -2331,103 +2331,103 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
         <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K21" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="L21" t="n">
+        <v>32</v>
+      </c>
+      <c r="M21" t="n">
+        <v>20</v>
+      </c>
+      <c r="N21" t="n">
         <v>38</v>
       </c>
-      <c r="M21" t="n">
-        <v>17</v>
-      </c>
-      <c r="N21" t="n">
-        <v>26</v>
-      </c>
       <c r="O21" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
         <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K22" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="L22" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N22" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="O22" t="n">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
         <v>14</v>
@@ -2598,34 +2598,34 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" t="n">
+        <v>40</v>
+      </c>
+      <c r="L2" t="n">
+        <v>79</v>
+      </c>
+      <c r="M2" t="n">
         <v>38</v>
       </c>
-      <c r="L2" t="n">
-        <v>77</v>
-      </c>
-      <c r="M2" t="n">
-        <v>35</v>
-      </c>
       <c r="N2" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O2" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -2844,10 +2844,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -2856,31 +2856,31 @@
         <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7" t="n">
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L7" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>33</v>
       </c>
       <c r="N7" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O7" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -2907,31 +2907,31 @@
         <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H8" t="n">
         <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J8" t="n">
         <v>13</v>
       </c>
       <c r="K8" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L8" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O8" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -3192,22 +3192,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
@@ -3216,58 +3216,58 @@
         <v>17</v>
       </c>
       <c r="H14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K14" t="n">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="L14" t="n">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="M14" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N14" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="O14" t="n">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I15" t="n">
         <v>17</v>
@@ -3276,285 +3276,285 @@
         <v>25</v>
       </c>
       <c r="K15" t="n">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="L15" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M15" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N15" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O15" t="n">
-        <v>109</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
         <v>16</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J16" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K16" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="L16" t="n">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="M16" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N16" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="O16" t="n">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
         <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J17" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K17" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L17" t="n">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="M17" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N17" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O17" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="n">
         <v>5</v>
       </c>
-      <c r="E18" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
+      <c r="H18" t="n">
         <v>8</v>
       </c>
-      <c r="G18" t="n">
-        <v>15</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
       <c r="I18" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
         <v>18</v>
       </c>
       <c r="K18" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="L18" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M18" t="n">
         <v>22</v>
       </c>
       <c r="N18" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O18" t="n">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" t="n">
+        <v>16</v>
+      </c>
+      <c r="H19" t="n">
+        <v>11</v>
+      </c>
+      <c r="I19" t="n">
         <v>10</v>
       </c>
-      <c r="G19" t="n">
-        <v>15</v>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>21</v>
-      </c>
       <c r="J19" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K19" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L19" t="n">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="M19" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N19" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="O19" t="n">
-        <v>165</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
         <v>8</v>
       </c>
       <c r="I20" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J20" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K20" t="n">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="L20" t="n">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="M20" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N20" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="O20" t="n">
-        <v>120</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3573,28 +3573,28 @@
         <v>14</v>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K21" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="L21" t="n">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="M21" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N21" t="n">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="O21" t="n">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
@@ -3609,7 +3609,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
         <v>4</v>
@@ -3618,34 +3618,34 @@
         <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
         <v>13</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
         <v>12</v>
       </c>
       <c r="J22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K22" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L22" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
@@ -3798,67 +3798,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>22</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="n">
+        <v>73</v>
+      </c>
+      <c r="L2" t="n">
+        <v>54</v>
+      </c>
+      <c r="M2" t="n">
         <v>26</v>
       </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>21</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>44</v>
-      </c>
-      <c r="L2" t="n">
-        <v>40</v>
-      </c>
-      <c r="M2" t="n">
-        <v>33</v>
-      </c>
       <c r="N2" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="O2" t="n">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
         <v>11</v>
@@ -3867,136 +3867,136 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
         <v>44</v>
       </c>
       <c r="L3" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N3" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="O3" t="n">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L4" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M4" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="O4" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
+        <v>23</v>
+      </c>
+      <c r="J5" t="n">
         <v>20</v>
       </c>
-      <c r="J5" t="n">
-        <v>10</v>
-      </c>
       <c r="K5" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="L5" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N5" t="n">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="O5" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -4053,220 +4053,220 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" t="n">
         <v>7</v>
       </c>
-      <c r="E7" t="n">
-        <v>9</v>
-      </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
         <v>23</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L7" t="n">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="M7" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N7" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="O7" t="n">
-        <v>145</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>20</v>
       </c>
       <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
         <v>9</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4</v>
       </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
+        <v>21</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18</v>
+      </c>
+      <c r="K8" t="n">
+        <v>52</v>
+      </c>
+      <c r="L8" t="n">
+        <v>78</v>
+      </c>
+      <c r="M8" t="n">
         <v>23</v>
       </c>
-      <c r="J8" t="n">
-        <v>16</v>
-      </c>
-      <c r="K8" t="n">
-        <v>56</v>
-      </c>
-      <c r="L8" t="n">
-        <v>102</v>
-      </c>
-      <c r="M8" t="n">
-        <v>26</v>
-      </c>
       <c r="N8" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="O8" t="n">
-        <v>101</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>20</v>
       </c>
       <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
+        <v>22</v>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-      <c r="G9" t="n">
-        <v>21</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
       <c r="I9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L9" t="n">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O9" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C10" t="n">
+        <v>19</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>21</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>20</v>
+      </c>
+      <c r="J10" t="n">
         <v>18</v>
       </c>
-      <c r="D10" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>22</v>
-      </c>
-      <c r="J10" t="n">
-        <v>16</v>
-      </c>
       <c r="K10" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L10" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="M10" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N10" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O10" t="n">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
         <v>8</v>
@@ -4275,85 +4275,85 @@
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
         <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>22</v>
       </c>
       <c r="J11" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K11" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="L11" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="M11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N11" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="O11" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
         <v>20</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J12" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K12" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="L12" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M12" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N12" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O12" t="n">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
@@ -4419,7 +4419,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
         <v>8</v>
@@ -4428,34 +4428,34 @@
         <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
         <v>19</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I14" t="n">
         <v>18</v>
       </c>
       <c r="J14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L14" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
         <v>36</v>
       </c>
       <c r="O14" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
@@ -4530,187 +4530,187 @@
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
         <v>17</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I16" t="n">
         <v>18</v>
       </c>
       <c r="J16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K16" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L16" t="n">
         <v>80</v>
       </c>
       <c r="M16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O16" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C17" t="n">
+        <v>19</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16</v>
+      </c>
+      <c r="J17" t="n">
         <v>18</v>
       </c>
-      <c r="D17" t="n">
-        <v>7</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>16</v>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>16</v>
-      </c>
       <c r="K17" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="L17" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M17" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N17" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="O17" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>18</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>9</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
         <v>16</v>
       </c>
       <c r="K18" t="n">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="L18" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="M18" t="n">
         <v>19</v>
       </c>
       <c r="N18" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O18" t="n">
-        <v>59</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" t="n">
         <v>4</v>
       </c>
-      <c r="E19" t="n">
-        <v>7</v>
-      </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L19" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="M19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N19" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="O19" t="n">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -4878,7 +4878,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
         <v>4</v>
@@ -4887,34 +4887,34 @@
         <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
         <v>13</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I23" t="n">
         <v>15</v>
       </c>
       <c r="J23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K23" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L23" t="n">
         <v>31</v>
       </c>
       <c r="M23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N23" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O23" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -5210,19 +5210,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>93.2</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>55318</v>
+        <v>61312</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -5351,22 +5351,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Z. Fucale</t>
+          <t>T. Bilyalov</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>З. Фукале</t>
+          <t>Т. Билялов</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -5376,93 +5376,93 @@
         <v>92.3</v>
       </c>
       <c r="G11" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>84640</v>
+        <v>72947</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>I. Bocharov</t>
+          <t>Z. Fucale</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>И. Бочаров</t>
+          <t>З. Фукале</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
         <v>92.3</v>
       </c>
       <c r="G12" t="n">
-        <v>2.63</v>
+        <v>1.98</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>57104</v>
+        <v>84640</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Y. Zavragin</t>
+          <t>I. Bocharov</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Е. Заврагин</t>
+          <t>И. Бочаров</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>47341</v>
+        <v>57104</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
@@ -5471,29 +5471,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A. Scheel</t>
+          <t>Y. Zavragin</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>А. Шил</t>
+          <t>Е. Заврагин</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>92</v>
+        <v>92.2</v>
       </c>
       <c r="G14" t="n">
         <v>2.66</v>
@@ -5502,10 +5502,10 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>40615</v>
+        <v>47341</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -5530,19 +5530,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>91.7</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>80841</v>
+        <v>83542</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
@@ -5591,358 +5591,358 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A. Samoilov</t>
+          <t>S. Vyazovoi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>А. Самойлов</t>
+          <t>С. Вязовой</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>91.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="G17" t="n">
-        <v>2.07</v>
+        <v>2.63</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>98652</v>
+        <v>47956</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>T. Bilyalov</t>
+          <t>A. Samoilov</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Т. Билялов</t>
+          <t>А. Самойлов</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
         <v>91.59999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>2.51</v>
+        <v>2.07</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>66947</v>
+        <v>98652</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A. Smolin</t>
+          <t>D. Gamzin</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>А. Смолин</t>
+          <t>Д. Гамзин</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>91.59999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>2.27</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>60815</v>
+        <v>47909</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D. Gamzin</t>
+          <t>S. Mylnikov</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Д. Гамзин</t>
+          <t>С. Мыльников</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>91.59999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="G20" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>47909</v>
+        <v>52104</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S. Mylnikov</t>
+          <t>N. Serebryakov</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>С. Мыльников</t>
+          <t>Н. Серебряков</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="E21" t="n">
+        <v>17</v>
+      </c>
+      <c r="F21" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>97426</v>
+      </c>
+      <c r="J21" t="n">
         <v>10</v>
-      </c>
-      <c r="F21" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>52104</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>N. Serebryakov</t>
+          <t>A. Smolin</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Н. Серебряков</t>
+          <t>А. Смолин</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>91.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>2.56</v>
+        <v>2.34</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>91426</v>
+        <v>66600</v>
       </c>
       <c r="J22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A. Huska</t>
+          <t>M. Berdin</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>А. Хуска</t>
+          <t>М. Бердин</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F23" t="n">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="G23" t="n">
-        <v>2.44</v>
+        <v>2.15</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>88549</v>
+        <v>53045</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>M. Berdin</t>
+          <t>E. Alikin</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>М. Бердин</t>
+          <t>Е. Аликин</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>11</v>
       </c>
       <c r="F24" t="n">
-        <v>91.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>53045</v>
+        <v>63856</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>E. Alikin</t>
+          <t>A. Scheel</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Е. Аликин</t>
+          <t>А. Шил</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>91.09999999999999</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>2.63</v>
+        <v>3.01</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>63856</v>
+        <v>43826</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
@@ -5951,81 +5951,81 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S. Vyazovoi</t>
+          <t>D. Nikolayev</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>С. Вязовой</t>
+          <t>Д. Николаев</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>91</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>2.86</v>
+        <v>2.79</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>41958</v>
+        <v>45132</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D. Nikolayev</t>
+          <t>A. Huska</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Д. Николаев</t>
+          <t>А. Хуска</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>90.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="G27" t="n">
-        <v>2.79</v>
+        <v>2.56</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>45132</v>
+        <v>91516</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -6317,32 +6317,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4553</v>
+        <v>4673</v>
       </c>
       <c r="F2" t="n">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G2" t="n">
-        <v>6245</v>
+        <v>6444</v>
       </c>
       <c r="H2" t="n">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="I2" t="n">
         <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>8.697562047001977</v>
+        <v>8.47421356730152</v>
       </c>
       <c r="L2" t="n">
-        <v>7.493995196156925</v>
+        <v>8.379888268156424</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
@@ -6381,32 +6381,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7504</v>
+        <v>7673</v>
       </c>
       <c r="F3" t="n">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G3" t="n">
-        <v>7778</v>
+        <v>8018</v>
       </c>
       <c r="H3" t="n">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
         <v>13</v>
       </c>
       <c r="K3" t="n">
-        <v>6.236673773987207</v>
+        <v>6.568486902124332</v>
       </c>
       <c r="L3" t="n">
-        <v>6.016970943687324</v>
+        <v>5.836867049139436</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,32 +6509,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5158</v>
+        <v>5431</v>
       </c>
       <c r="F5" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G5" t="n">
-        <v>6237</v>
+        <v>6477</v>
       </c>
       <c r="H5" t="n">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" t="n">
         <v>13</v>
       </c>
       <c r="K5" t="n">
-        <v>14.6568437378829</v>
+        <v>14.58294973301418</v>
       </c>
       <c r="L5" t="n">
-        <v>7.503607503607504</v>
+        <v>7.225567392311255</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,32 +6637,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7480</v>
+        <v>7720</v>
       </c>
       <c r="F7" t="n">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G7" t="n">
-        <v>6650</v>
+        <v>6923</v>
       </c>
       <c r="H7" t="n">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I7" t="n">
         <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K7" t="n">
-        <v>4.81283422459893</v>
+        <v>4.663212435233161</v>
       </c>
       <c r="L7" t="n">
-        <v>4.330827067669173</v>
+        <v>4.680052000577784</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,32 +7149,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>8637</v>
+        <v>8877</v>
       </c>
       <c r="F15" t="n">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G15" t="n">
-        <v>5311</v>
+        <v>5480</v>
       </c>
       <c r="H15" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I15" t="n">
         <v>22</v>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K15" t="n">
-        <v>9.169850642584231</v>
+        <v>8.921933085501859</v>
       </c>
       <c r="L15" t="n">
-        <v>6.778384485031068</v>
+        <v>7.226277372262774</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,32 +7277,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6237</v>
+        <v>6766</v>
       </c>
       <c r="F17" t="n">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="G17" t="n">
-        <v>6568</v>
+        <v>6808</v>
       </c>
       <c r="H17" t="n">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="I17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J17" t="n">
         <v>12</v>
       </c>
       <c r="K17" t="n">
-        <v>8.080808080808081</v>
+        <v>7.981081879988176</v>
       </c>
       <c r="L17" t="n">
-        <v>6.577344701583434</v>
+        <v>6.345475910693302</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
@@ -7341,32 +7341,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6922</v>
+        <v>7121</v>
       </c>
       <c r="F18" t="n">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G18" t="n">
-        <v>5948</v>
+        <v>6068</v>
       </c>
       <c r="H18" t="n">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
         <v>9</v>
       </c>
       <c r="K18" t="n">
-        <v>5.720889916209188</v>
+        <v>6.572110658615363</v>
       </c>
       <c r="L18" t="n">
-        <v>5.447209145931406</v>
+        <v>5.339485827290706</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,32 +7469,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4904</v>
+        <v>5144</v>
       </c>
       <c r="F20" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G20" t="n">
-        <v>6057</v>
+        <v>6586</v>
       </c>
       <c r="H20" t="n">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="I20" t="n">
         <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K20" t="n">
-        <v>3.67047308319739</v>
+        <v>3.499222395023328</v>
       </c>
       <c r="L20" t="n">
-        <v>5.349182763744428</v>
+        <v>5.466140297600972</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-29 13:13:23</t>
+          <t>2025-10-30 03:00:51</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8009,7 +8009,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
@@ -8030,40 +8030,40 @@
         <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>81</v>
       </c>
       <c r="L2" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M2" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="N2" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="O2" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P2" t="n">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q2" t="n">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="R2" t="n">
-        <v>98519</v>
+        <v>103830</v>
       </c>
       <c r="S2" t="n">
-        <v>4916</v>
+        <v>4927</v>
       </c>
       <c r="T2" t="n">
-        <v>926</v>
+        <v>1141</v>
       </c>
       <c r="U2" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -8078,10 +8078,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -8096,43 +8096,43 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L3" t="n">
         <v>50</v>
       </c>
       <c r="M3" t="n">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N3" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="O3" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P3" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q3" t="n">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="R3" t="n">
-        <v>95758</v>
+        <v>101109</v>
       </c>
       <c r="S3" t="n">
-        <v>4754</v>
+        <v>4809</v>
       </c>
       <c r="T3" t="n">
         <v>1208</v>
       </c>
       <c r="U3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -8345,139 +8345,139 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L7" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M7" t="n">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="N7" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O7" t="n">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="P7" t="n">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="Q7" t="n">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="R7" t="n">
-        <v>111625</v>
+        <v>101433</v>
       </c>
       <c r="S7" t="n">
-        <v>5045</v>
+        <v>5044</v>
       </c>
       <c r="T7" t="n">
-        <v>1342</v>
+        <v>1326</v>
       </c>
       <c r="U7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
         <v>9</v>
       </c>
       <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>26</v>
+      </c>
+      <c r="J8" t="n">
         <v>2</v>
       </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>25</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
       <c r="K8" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L8" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="M8" t="n">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N8" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="O8" t="n">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="P8" t="n">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="Q8" t="n">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="R8" t="n">
-        <v>96306</v>
+        <v>111625</v>
       </c>
       <c r="S8" t="n">
-        <v>5041</v>
+        <v>5045</v>
       </c>
       <c r="T8" t="n">
-        <v>1326</v>
+        <v>1342</v>
       </c>
       <c r="U8" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -8966,139 +8966,139 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C16" t="n">
+        <v>19</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
         <v>20</v>
       </c>
-      <c r="D16" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>19</v>
-      </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>56</v>
+      </c>
+      <c r="L16" t="n">
         <v>52</v>
       </c>
-      <c r="L16" t="n">
-        <v>57</v>
-      </c>
       <c r="M16" t="n">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="N16" t="n">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="O16" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="P16" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="Q16" t="n">
-        <v>314</v>
+        <v>433</v>
       </c>
       <c r="R16" t="n">
-        <v>99142</v>
+        <v>93013</v>
       </c>
       <c r="S16" t="n">
-        <v>4935</v>
+        <v>4858</v>
       </c>
       <c r="T16" t="n">
-        <v>1216</v>
+        <v>1235</v>
       </c>
       <c r="U16" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L17" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="M17" t="n">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="N17" t="n">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="O17" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="P17" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Q17" t="n">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="R17" t="n">
-        <v>88302</v>
+        <v>104309</v>
       </c>
       <c r="S17" t="n">
-        <v>4903</v>
+        <v>4940</v>
       </c>
       <c r="T17" t="n">
-        <v>1230</v>
+        <v>1304</v>
       </c>
       <c r="U17" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
@@ -9173,28 +9173,28 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -9203,67 +9203,67 @@
         <v>16</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L19" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M19" t="n">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="N19" t="n">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="O19" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="P19" t="n">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="Q19" t="n">
-        <v>233</v>
+        <v>322</v>
       </c>
       <c r="R19" t="n">
-        <v>80427</v>
+        <v>92857</v>
       </c>
       <c r="S19" t="n">
-        <v>5017</v>
+        <v>4854</v>
       </c>
       <c r="T19" t="n">
-        <v>516</v>
+        <v>1956</v>
       </c>
       <c r="U19" t="n">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -9275,61 +9275,61 @@
         <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L20" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M20" t="n">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="N20" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="O20" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P20" t="n">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="Q20" t="n">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="R20" t="n">
-        <v>93604</v>
+        <v>85908</v>
       </c>
       <c r="S20" t="n">
-        <v>5200</v>
+        <v>5032</v>
       </c>
       <c r="T20" t="n">
-        <v>551</v>
+        <v>621</v>
       </c>
       <c r="U20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -9338,43 +9338,43 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L21" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M21" t="n">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N21" t="n">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="O21" t="n">
+        <v>63</v>
+      </c>
+      <c r="P21" t="n">
         <v>83</v>
       </c>
-      <c r="P21" t="n">
-        <v>147</v>
-      </c>
       <c r="Q21" t="n">
-        <v>302</v>
+        <v>232</v>
       </c>
       <c r="R21" t="n">
-        <v>87416</v>
+        <v>98315</v>
       </c>
       <c r="S21" t="n">
-        <v>4834</v>
+        <v>5145</v>
       </c>
       <c r="T21" t="n">
-        <v>1954</v>
+        <v>557</v>
       </c>
       <c r="U21" t="n">
-        <v>106</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -9628,7 +9628,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
         <v>51</v>
@@ -9664,7 +9664,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>4.05</v>
+        <v>3.86</v>
       </c>
       <c r="P2" t="n">
         <v>82</v>
@@ -9682,13 +9682,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -9718,10 +9718,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="P3" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -9943,79 +9943,79 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>3.26</v>
+        <v>2.95</v>
       </c>
       <c r="P8" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -10024,7 +10024,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -10039,43 +10039,43 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>3.05</v>
+        <v>3.26</v>
       </c>
       <c r="P9" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -10087,49 +10087,49 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="P10" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>2</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -10144,46 +10144,46 @@
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>2.81</v>
+        <v>2.86</v>
       </c>
       <c r="P11" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -10198,67 +10198,67 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>2.9</v>
+        <v>2.81</v>
       </c>
       <c r="P12" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>3.11</v>
+        <v>2.95</v>
       </c>
       <c r="P13" t="n">
         <v>57</v>
@@ -10267,37 +10267,37 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -10306,13 +10306,13 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>2.75</v>
+        <v>3.11</v>
       </c>
       <c r="P14" t="n">
         <v>57</v>
@@ -10321,25 +10321,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -10357,73 +10357,73 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>2.94</v>
+        <v>2.62</v>
       </c>
       <c r="P15" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="P16" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -10492,13 +10492,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -10528,10 +10528,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2.33</v>
+        <v>2.53</v>
       </c>
       <c r="P18" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" t="n">
         <v>11</v>
@@ -10582,34 +10582,34 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="P19" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -10630,13 +10630,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="P20" t="n">
         <v>40</v>
@@ -10645,28 +10645,28 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -10681,46 +10681,46 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="P21" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -10735,19 +10735,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="P22" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
@@ -11070,130 +11070,130 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>2.88</v>
+        <v>2.61</v>
       </c>
       <c r="P5" t="n">
-        <v>49.88</v>
+        <v>52.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
         <v>3</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>10</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
       <c r="O6" t="n">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="P6" t="n">
-        <v>52.61</v>
+        <v>51.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -11208,151 +11208,151 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="P7" t="n">
-        <v>51.53</v>
+        <v>54.38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>2</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
       <c r="L8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="P8" t="n">
-        <v>54.5</v>
+        <v>57.74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
         <v>3</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>10</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
       <c r="O9" t="n">
-        <v>2.78</v>
+        <v>3.06</v>
       </c>
       <c r="P9" t="n">
-        <v>55.78</v>
+        <v>56.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -11361,160 +11361,160 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2.94</v>
+        <v>2.45</v>
       </c>
       <c r="P10" t="n">
-        <v>55.94</v>
+        <v>59.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>2</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
       <c r="L11" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="P11" t="n">
-        <v>59.45</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>2.7</v>
+        <v>2.89</v>
       </c>
       <c r="P12" t="n">
-        <v>58.7</v>
+        <v>58.89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -11535,43 +11535,43 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>15</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>4</v>
       </c>
-      <c r="L13" t="n">
-        <v>9</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
       <c r="O13" t="n">
-        <v>2.84</v>
+        <v>2.95</v>
       </c>
       <c r="P13" t="n">
-        <v>61.84</v>
+        <v>58.95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
         <v>42</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -11583,16 +11583,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -11601,91 +11601,91 @@
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="P14" t="n">
-        <v>58</v>
+        <v>58.95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="P15" t="n">
-        <v>59.75</v>
+        <v>64.84999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -11697,22 +11697,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>2.95</v>
+        <v>2.76</v>
       </c>
       <c r="P16" t="n">
-        <v>58.95</v>
+        <v>63.76</v>
       </c>
     </row>
     <row r="17">
@@ -11727,10 +11727,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -11763,10 +11763,10 @@
         <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="P17" t="n">
-        <v>59.85</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="18">
@@ -12167,10 +12167,10 @@
         <v>11.19</v>
       </c>
       <c r="E2" t="n">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="F2" t="n">
-        <v>14.11</v>
+        <v>12.5</v>
       </c>
       <c r="G2" t="n">
         <v>81</v>
@@ -12206,55 +12206,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>229</v>
+        <v>386</v>
       </c>
       <c r="D4" t="n">
-        <v>8.73</v>
+        <v>10.36</v>
       </c>
       <c r="E4" t="n">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="F4" t="n">
-        <v>11.92</v>
+        <v>10.84</v>
       </c>
       <c r="G4" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>356</v>
+        <v>229</v>
       </c>
       <c r="D5" t="n">
-        <v>10.11</v>
+        <v>8.73</v>
       </c>
       <c r="E5" t="n">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F5" t="n">
-        <v>10.84</v>
+        <v>11.92</v>
       </c>
       <c r="G5" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -12422,82 +12422,82 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>364</v>
+        <v>196</v>
       </c>
       <c r="D12" t="n">
-        <v>9.890000000000001</v>
+        <v>10.71</v>
       </c>
       <c r="E12" t="n">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="F12" t="n">
-        <v>7.83</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="D13" t="n">
-        <v>10.31</v>
+        <v>9.65</v>
       </c>
       <c r="E13" t="n">
-        <v>334</v>
+        <v>217</v>
       </c>
       <c r="F13" t="n">
-        <v>7.49</v>
+        <v>7.83</v>
       </c>
       <c r="G13" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="D14" t="n">
-        <v>10.34</v>
+        <v>10.31</v>
       </c>
       <c r="E14" t="n">
-        <v>191</v>
+        <v>334</v>
       </c>
       <c r="F14" t="n">
-        <v>5.24</v>
+        <v>7.49</v>
       </c>
       <c r="G14" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -12512,10 +12512,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="D15" t="n">
-        <v>8.699999999999999</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="E15" t="n">
         <v>302</v>
@@ -12524,88 +12524,88 @@
         <v>8.609999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="D16" t="n">
-        <v>9.210000000000001</v>
+        <v>10.34</v>
       </c>
       <c r="E16" t="n">
-        <v>424</v>
+        <v>228</v>
       </c>
       <c r="F16" t="n">
-        <v>8.02</v>
+        <v>5.7</v>
       </c>
       <c r="G16" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="D17" t="n">
-        <v>9.539999999999999</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="F17" t="n">
-        <v>7.94</v>
+        <v>8.02</v>
       </c>
       <c r="G17" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="D18" t="n">
-        <v>8.67</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>329</v>
+        <v>441</v>
       </c>
       <c r="F18" t="n">
-        <v>8.210000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="G18" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -12626,13 +12626,13 @@
         <v>6.17</v>
       </c>
       <c r="E19" t="n">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="F19" t="n">
-        <v>9.06</v>
+        <v>8.9</v>
       </c>
       <c r="G19" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -12665,55 +12665,55 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="D21" t="n">
-        <v>8.460000000000001</v>
+        <v>7.36</v>
       </c>
       <c r="E21" t="n">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="F21" t="n">
-        <v>6.27</v>
+        <v>6.81</v>
       </c>
       <c r="G21" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="D22" t="n">
-        <v>7.36</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="F22" t="n">
-        <v>6.81</v>
+        <v>5.96</v>
       </c>
       <c r="G22" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -12821,25 +12821,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D2" t="n">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="E2" t="n">
-        <v>48.68</v>
+        <v>47.93</v>
       </c>
       <c r="F2" t="n">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="G2" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H2" t="n">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I2" t="n">
-        <v>296</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3">
@@ -12854,25 +12854,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="D3" t="n">
-        <v>622</v>
+        <v>661</v>
       </c>
       <c r="E3" t="n">
-        <v>55.14</v>
+        <v>55.73</v>
       </c>
       <c r="F3" t="n">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="G3" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I3" t="n">
-        <v>321</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
@@ -12977,67 +12977,67 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="D7" t="n">
-        <v>620</v>
+        <v>646</v>
       </c>
       <c r="E7" t="n">
-        <v>48.59</v>
+        <v>51.07</v>
       </c>
       <c r="F7" t="n">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="G7" t="n">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="H7" t="n">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="I7" t="n">
-        <v>349</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="D8" t="n">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="E8" t="n">
-        <v>50.91</v>
+        <v>48.59</v>
       </c>
       <c r="F8" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G8" t="n">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="H8" t="n">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="I8" t="n">
-        <v>383</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9">
@@ -13274,67 +13274,67 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="D16" t="n">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="E16" t="n">
-        <v>49.91</v>
+        <v>49.51</v>
       </c>
       <c r="F16" t="n">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G16" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="I16" t="n">
-        <v>314</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>249</v>
+        <v>341</v>
       </c>
       <c r="D17" t="n">
-        <v>526</v>
+        <v>594</v>
       </c>
       <c r="E17" t="n">
-        <v>49.76</v>
+        <v>49.71</v>
       </c>
       <c r="F17" t="n">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G17" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="H17" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I17" t="n">
-        <v>394</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18">
@@ -13373,100 +13373,100 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>247</v>
+        <v>336</v>
       </c>
       <c r="D19" t="n">
-        <v>462</v>
+        <v>509</v>
       </c>
       <c r="E19" t="n">
-        <v>50.44</v>
+        <v>47.61</v>
       </c>
       <c r="F19" t="n">
-        <v>289</v>
+        <v>374</v>
       </c>
       <c r="G19" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="H19" t="n">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="I19" t="n">
-        <v>233</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="D20" t="n">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E20" t="n">
-        <v>51.34</v>
+        <v>50.46</v>
       </c>
       <c r="F20" t="n">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="G20" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H20" t="n">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="I20" t="n">
-        <v>206</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="D21" t="n">
-        <v>481</v>
+        <v>531</v>
       </c>
       <c r="E21" t="n">
-        <v>47.53</v>
+        <v>51.55</v>
       </c>
       <c r="F21" t="n">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="G21" t="n">
+        <v>63</v>
+      </c>
+      <c r="H21" t="n">
         <v>83</v>
       </c>
-      <c r="H21" t="n">
-        <v>147</v>
-      </c>
       <c r="I21" t="n">
-        <v>302</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
@@ -13673,23 +13673,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>35.6</v>
+        <v>34.9</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>01:25:58</t>
+          <t>01:30:31</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -13697,21 +13697,21 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>04:31</t>
+          <t>04:32</t>
         </is>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M2" t="n">
         <v>13</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>01:43:57</t>
+          <t>01:47:57</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -13719,23 +13719,23 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>05:28</t>
+          <t>05:24</t>
         </is>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5158</v>
+        <v>5431</v>
       </c>
       <c r="S2" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T2" t="n">
-        <v>6237</v>
+        <v>6477</v>
       </c>
       <c r="U2" t="n">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3">
@@ -14058,23 +14058,23 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>02:23:57</t>
+          <t>02:27:57</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -14082,21 +14082,21 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>07:12</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>01:28:31</t>
+          <t>01:31:20</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -14104,23 +14104,23 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>04:26</t>
+          <t>04:21</t>
         </is>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>8637</v>
+        <v>8877</v>
       </c>
       <c r="S7" t="n">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="T7" t="n">
-        <v>5311</v>
+        <v>5480</v>
       </c>
       <c r="U7" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8">
@@ -14135,23 +14135,23 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="n">
         <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>01:15:53</t>
+          <t>01:17:53</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -14159,21 +14159,21 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>04:35</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>01:44:05</t>
+          <t>01:47:24</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -14181,23 +14181,23 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:19</t>
         </is>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>4553</v>
+        <v>4673</v>
       </c>
       <c r="S8" t="n">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="T8" t="n">
-        <v>6245</v>
+        <v>6444</v>
       </c>
       <c r="U8" t="n">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9">
@@ -14212,23 +14212,23 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>01:43:57</t>
+          <t>01:52:46</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -14236,21 +14236,21 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>05:47</t>
+          <t>05:56</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M9" t="n">
         <v>12</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>01:49:28</t>
+          <t>01:53:28</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -14258,23 +14258,23 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>06:05</t>
+          <t>05:58</t>
         </is>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>6237</v>
+        <v>6766</v>
       </c>
       <c r="S9" t="n">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="T9" t="n">
-        <v>6568</v>
+        <v>6808</v>
       </c>
       <c r="U9" t="n">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10">
@@ -14588,32 +14588,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>01:50:51</t>
+          <t>01:58:41</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -14621,21 +14621,21 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>05:17</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="M14" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>02:14:37</t>
+          <t>01:41:08</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -14643,54 +14643,54 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>06:25</t>
+          <t>05:19</t>
         </is>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6651</v>
+        <v>7121</v>
       </c>
       <c r="S14" t="n">
-        <v>317</v>
+        <v>375</v>
       </c>
       <c r="T14" t="n">
-        <v>8077</v>
+        <v>6068</v>
       </c>
       <c r="U14" t="n">
-        <v>385</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>17.9</v>
+        <v>18.5</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>01:56:32</t>
+          <t>01:50:51</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -14698,21 +14698,21 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>05:50</t>
+          <t>05:17</t>
         </is>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="M15" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>01:22:03</t>
+          <t>02:14:37</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -14720,23 +14720,23 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>04:06</t>
+          <t>06:25</t>
         </is>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6992</v>
+        <v>6651</v>
       </c>
       <c r="S15" t="n">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="T15" t="n">
-        <v>4923</v>
+        <v>8077</v>
       </c>
       <c r="U15" t="n">
-        <v>246</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16">
@@ -14751,23 +14751,23 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>17.6</v>
+        <v>18.4</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>02:05:04</t>
+          <t>02:07:53</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -14775,21 +14775,21 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>06:05</t>
         </is>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M16" t="n">
         <v>13</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>02:09:38</t>
+          <t>02:13:38</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -14797,76 +14797,76 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>06:29</t>
+          <t>06:22</t>
         </is>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7504</v>
+        <v>7673</v>
       </c>
       <c r="S16" t="n">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="T16" t="n">
-        <v>7778</v>
+        <v>8018</v>
       </c>
       <c r="U16" t="n">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
         <v>67</v>
       </c>
       <c r="E17" t="n">
+        <v>12</v>
+      </c>
+      <c r="F17" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>01:56:32</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>05:50</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>53</v>
+      </c>
+      <c r="M17" t="n">
         <v>11</v>
       </c>
-      <c r="F17" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>01:55:22</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>06:25</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>59</v>
-      </c>
-      <c r="M17" t="n">
-        <v>9</v>
-      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>01:39:08</t>
+          <t>01:22:03</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -14874,23 +14874,23 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>04:06</t>
         </is>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6922</v>
+        <v>6992</v>
       </c>
       <c r="S17" t="n">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="T17" t="n">
-        <v>5948</v>
+        <v>4923</v>
       </c>
       <c r="U17" t="n">
-        <v>330</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18">
@@ -15059,23 +15059,23 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>02:04:40</t>
+          <t>02:08:40</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -15083,21 +15083,21 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>06:14</t>
+          <t>06:08</t>
         </is>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>01:50:50</t>
+          <t>01:55:23</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -15105,23 +15105,23 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>05:33</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>7480</v>
+        <v>7720</v>
       </c>
       <c r="S20" t="n">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="T20" t="n">
-        <v>6650</v>
+        <v>6923</v>
       </c>
       <c r="U20" t="n">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21">
@@ -15213,23 +15213,23 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>11.1</v>
+        <v>10.6</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>01:21:44</t>
+          <t>01:25:44</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -15237,21 +15237,21 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>04:32</t>
+          <t>04:31</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>01:40:57</t>
+          <t>01:49:46</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -15259,23 +15259,23 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>05:37</t>
+          <t>05:47</t>
         </is>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>4904</v>
+        <v>5144</v>
       </c>
       <c r="S22" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T22" t="n">
-        <v>6057</v>
+        <v>6586</v>
       </c>
       <c r="U22" t="n">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23">
@@ -15473,16 +15473,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>87.7</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -15492,38 +15492,38 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>02:04:40</t>
+          <t>02:08:40</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>06:14</t>
+          <t>06:08</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>01:50:50</t>
+          <t>01:55:23</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05:33</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>7480</v>
+        <v>7720</v>
       </c>
       <c r="O2" t="n">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="P2" t="n">
-        <v>6650</v>
+        <v>6923</v>
       </c>
       <c r="Q2" t="n">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
@@ -15603,57 +15603,57 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>84.7</v>
+        <v>85</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>01:55:22</t>
+          <t>01:58:41</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>06:25</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>01:39:08</t>
+          <t>01:41:08</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>05:19</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>6922</v>
+        <v>7121</v>
       </c>
       <c r="O4" t="n">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="P4" t="n">
-        <v>5948</v>
+        <v>6068</v>
       </c>
       <c r="Q4" t="n">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
@@ -15668,16 +15668,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>84.7</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -15687,38 +15687,38 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>01:21:44</t>
+          <t>01:25:44</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>04:32</t>
+          <t>04:31</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>01:40:57</t>
+          <t>01:49:46</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05:37</t>
+          <t>05:47</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4904</v>
+        <v>5144</v>
       </c>
       <c r="O5" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P5" t="n">
-        <v>6057</v>
+        <v>6586</v>
       </c>
       <c r="Q5" t="n">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6">
@@ -15798,252 +15798,252 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>82.90000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>02:05:04</t>
+          <t>02:07:53</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>06:05</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>02:09:38</t>
+          <t>02:13:38</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>06:29</t>
+          <t>06:22</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>7504</v>
+        <v>7673</v>
       </c>
       <c r="O7" t="n">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="P7" t="n">
-        <v>7778</v>
+        <v>8018</v>
       </c>
       <c r="Q7" t="n">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>82.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>02:23:57</t>
+          <t>01:58:52</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>07:12</t>
+          <t>05:40</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>01:28:31</t>
+          <t>01:49:54</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>04:26</t>
+          <t>05:14</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>8637</v>
+        <v>7132</v>
       </c>
       <c r="O8" t="n">
-        <v>432</v>
+        <v>340</v>
       </c>
       <c r="P8" t="n">
-        <v>5311</v>
+        <v>6594</v>
       </c>
       <c r="Q8" t="n">
-        <v>266</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>81.8</v>
+        <v>81.5</v>
       </c>
       <c r="E9" t="n">
         <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>01:58:52</t>
+          <t>01:52:46</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>05:40</t>
+          <t>05:56</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>01:49:54</t>
+          <t>01:53:28</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05:14</t>
+          <t>05:58</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7132</v>
+        <v>6766</v>
       </c>
       <c r="O9" t="n">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="P9" t="n">
-        <v>6594</v>
+        <v>6808</v>
       </c>
       <c r="Q9" t="n">
-        <v>314</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
         <v>81</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="G10" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>01:43:57</t>
+          <t>02:27:57</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>05:47</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>01:49:28</t>
+          <t>01:31:20</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>06:05</t>
+          <t>04:21</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>6237</v>
+        <v>8877</v>
       </c>
       <c r="O10" t="n">
-        <v>347</v>
+        <v>423</v>
       </c>
       <c r="P10" t="n">
-        <v>6568</v>
+        <v>5480</v>
       </c>
       <c r="Q10" t="n">
-        <v>365</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11">
@@ -16188,57 +16188,57 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>01:25:58</t>
+          <t>01:30:31</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>04:31</t>
+          <t>04:32</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>01:43:57</t>
+          <t>01:47:57</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>05:28</t>
+          <t>05:24</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>5158</v>
+        <v>5431</v>
       </c>
       <c r="O13" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P13" t="n">
-        <v>6237</v>
+        <v>6477</v>
       </c>
       <c r="Q13" t="n">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14">
@@ -16309,214 +16309,214 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>79</v>
+        <v>78.7</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>01:15:53</t>
+          <t>01:41:04</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>05:37</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>01:44:05</t>
+          <t>01:41:05</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>05:37</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4553</v>
+        <v>6064</v>
       </c>
       <c r="O15" t="n">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="P15" t="n">
-        <v>6245</v>
+        <v>6065</v>
       </c>
       <c r="Q15" t="n">
-        <v>390</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>01:41:04</t>
+          <t>02:05:44</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>05:37</t>
+          <t>06:37</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>01:41:05</t>
+          <t>01:52:01</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>05:37</t>
+          <t>05:54</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>6064</v>
+        <v>7544</v>
       </c>
       <c r="O16" t="n">
-        <v>337</v>
+        <v>397</v>
       </c>
       <c r="P16" t="n">
-        <v>6065</v>
+        <v>6721</v>
       </c>
       <c r="Q16" t="n">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
         <v>78.5</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G17" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>02:05:44</t>
+          <t>01:50:51</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>06:37</t>
+          <t>05:17</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>01:52:01</t>
+          <t>02:14:37</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>05:54</t>
+          <t>06:25</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>7544</v>
+        <v>6651</v>
       </c>
       <c r="O17" t="n">
-        <v>397</v>
+        <v>317</v>
       </c>
       <c r="P17" t="n">
-        <v>6721</v>
+        <v>8077</v>
       </c>
       <c r="Q17" t="n">
-        <v>354</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>78.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E18" t="n">
         <v>17</v>
@@ -16525,110 +16525,110 @@
         <v>65</v>
       </c>
       <c r="G18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>01:50:51</t>
+          <t>01:43:59</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>05:17</t>
+          <t>05:28</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>02:14:37</t>
+          <t>02:02:51</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06:25</t>
+          <t>06:28</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6651</v>
+        <v>6239</v>
       </c>
       <c r="O18" t="n">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="P18" t="n">
-        <v>8077</v>
+        <v>7371</v>
       </c>
       <c r="Q18" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>77.90000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
+        <v>47</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>01:17:53</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>04:35</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>65</v>
       </c>
-      <c r="G19" t="n">
-        <v>16</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>01:43:59</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>05:28</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>77</v>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>02:02:51</t>
+          <t>01:47:24</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>06:28</t>
+          <t>06:19</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6239</v>
+        <v>4673</v>
       </c>
       <c r="O19" t="n">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="P19" t="n">
-        <v>7371</v>
+        <v>6444</v>
       </c>
       <c r="Q19" t="n">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20">
@@ -16995,79 +16995,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>18</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="M2" t="n">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="N2" t="n">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="O2" t="n">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="P2" t="n">
-        <v>840</v>
+        <v>954</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -17079,25 +17079,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="M3" t="n">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="N3" t="n">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="O3" t="n">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="P3" t="n">
-        <v>1006</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4">
@@ -17211,19 +17211,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -17238,136 +17238,136 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="M6" t="n">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="N6" t="n">
-        <v>846</v>
+        <v>917</v>
       </c>
       <c r="O6" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P6" t="n">
-        <v>854</v>
+        <v>931</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M7" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N7" t="n">
-        <v>939</v>
+        <v>846</v>
       </c>
       <c r="O7" t="n">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="P7" t="n">
-        <v>739</v>
+        <v>854</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="M8" t="n">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="N8" t="n">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="O8" t="n">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="P8" t="n">
-        <v>942</v>
+        <v>739</v>
       </c>
     </row>
     <row r="9">
@@ -17382,10 +17382,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -17409,19 +17409,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M9" t="n">
         <v>113</v>
       </c>
       <c r="N9" t="n">
-        <v>1010</v>
+        <v>950</v>
       </c>
       <c r="O9" t="n">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="P9" t="n">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="10">
@@ -17544,10 +17544,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -17574,16 +17574,16 @@
         <v>115</v>
       </c>
       <c r="M12" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="N12" t="n">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="O12" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P12" t="n">
-        <v>1124</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="13">
@@ -17598,10 +17598,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -17619,25 +17619,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>7</v>
       </c>
       <c r="L13" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M13" t="n">
         <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>900</v>
+        <v>851</v>
       </c>
       <c r="O13" t="n">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="P13" t="n">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="14">
@@ -17913,25 +17913,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -17943,49 +17943,49 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="M19" t="n">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="N19" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="O19" t="n">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="P19" t="n">
-        <v>953</v>
+        <v>847</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -17997,46 +17997,46 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="M20" t="n">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="N20" t="n">
-        <v>813</v>
+        <v>849</v>
       </c>
       <c r="O20" t="n">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="P20" t="n">
-        <v>850</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -18051,25 +18051,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M21" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="N21" t="n">
-        <v>852</v>
+        <v>750</v>
       </c>
       <c r="O21" t="n">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="P21" t="n">
-        <v>730</v>
+        <v>953</v>
       </c>
     </row>
     <row r="22">
@@ -18084,10 +18084,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -18114,16 +18114,16 @@
         <v>64</v>
       </c>
       <c r="M22" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="N22" t="n">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="O22" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P22" t="n">
-        <v>600</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-30 03:00:51</t>
+          <t>2025-10-30 03:37:56</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-30 03:37:56</t>
+          <t>2025-10-30 04:25:53</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-30 04:25:53</t>
+          <t>2025-10-30 07:00:51</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -1413,154 +1413,154 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>26</v>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
-      <c r="G3" t="n">
-        <v>25</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J3" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K3" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L3" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N3" t="n">
         <v>36</v>
       </c>
       <c r="O3" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J4" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K4" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="L4" t="n">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="M4" t="n">
+        <v>27</v>
+      </c>
+      <c r="N4" t="n">
         <v>36</v>
       </c>
-      <c r="N4" t="n">
-        <v>54</v>
-      </c>
       <c r="O4" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K5" t="n">
+        <v>49</v>
+      </c>
+      <c r="L5" t="n">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>36</v>
+      </c>
+      <c r="N5" t="n">
         <v>54</v>
       </c>
-      <c r="L5" t="n">
-        <v>58</v>
-      </c>
-      <c r="M5" t="n">
-        <v>22</v>
-      </c>
-      <c r="N5" t="n">
-        <v>35</v>
-      </c>
       <c r="O5" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
         <v>8</v>
@@ -1584,19 +1584,19 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>24</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
         <v>17</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K6" t="n">
         <v>22</v>
@@ -1605,130 +1605,130 @@
         <v>42</v>
       </c>
       <c r="M6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O6" t="n">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>24</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+      <c r="I7" t="n">
         <v>20</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>22</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>25</v>
       </c>
       <c r="J7" t="n">
         <v>19</v>
       </c>
       <c r="K7" t="n">
+        <v>42</v>
+      </c>
+      <c r="L7" t="n">
+        <v>62</v>
+      </c>
+      <c r="M7" t="n">
         <v>45</v>
       </c>
-      <c r="L7" t="n">
-        <v>30</v>
-      </c>
-      <c r="M7" t="n">
-        <v>39</v>
-      </c>
       <c r="N7" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="O7" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
         <v>8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
       </c>
       <c r="G8" t="n">
         <v>22</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
+        <v>25</v>
+      </c>
+      <c r="J8" t="n">
         <v>19</v>
       </c>
-      <c r="J8" t="n">
-        <v>17</v>
-      </c>
       <c r="K8" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="M8" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N8" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="O8" t="n">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
@@ -1737,34 +1737,34 @@
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
         <v>22</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
         <v>19</v>
       </c>
       <c r="J9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L9" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M9" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N9" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="O9" t="n">
-        <v>151</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
         <v>8</v>
@@ -1788,19 +1788,19 @@
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
         <v>21</v>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K10" t="n">
         <v>30</v>
@@ -1809,13 +1809,13 @@
         <v>40</v>
       </c>
       <c r="M10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O10" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -1923,25 +1923,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>19</v>
       </c>
       <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
         <v>7</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
       </c>
       <c r="G13" t="n">
         <v>20</v>
@@ -1953,121 +1953,121 @@
         <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="L13" t="n">
         <v>46</v>
       </c>
       <c r="M13" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N13" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="O13" t="n">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C14" t="n">
+        <v>19</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" t="n">
         <v>20</v>
       </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-      <c r="G14" t="n">
-        <v>19</v>
-      </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I14" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K14" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L14" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="M14" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N14" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O14" t="n">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
         <v>7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K15" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L15" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N15" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="O15" t="n">
         <v>139</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
         <v>4</v>
@@ -2247,34 +2247,34 @@
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" t="n">
         <v>16</v>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I19" t="n">
         <v>14</v>
       </c>
       <c r="J19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N19" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="O19" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -2703,31 +2703,31 @@
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
         <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L4" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
@@ -2937,52 +2937,52 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J9" t="n">
+        <v>15</v>
+      </c>
+      <c r="K9" t="n">
+        <v>58</v>
+      </c>
+      <c r="L9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M9" t="n">
         <v>17</v>
       </c>
-      <c r="K9" t="n">
-        <v>42</v>
-      </c>
-      <c r="L9" t="n">
-        <v>59</v>
-      </c>
-      <c r="M9" t="n">
-        <v>30</v>
-      </c>
       <c r="N9" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="O9" t="n">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
@@ -2997,22 +2997,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
         <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I10" t="n">
         <v>18</v>
@@ -3021,70 +3021,70 @@
         <v>21</v>
       </c>
       <c r="K10" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L10" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N10" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="O10" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>21</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>21</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="n">
+        <v>23</v>
+      </c>
+      <c r="J11" t="n">
         <v>18</v>
       </c>
-      <c r="D11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" t="n">
-        <v>20</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-      <c r="I11" t="n">
-        <v>15</v>
-      </c>
-      <c r="J11" t="n">
-        <v>15</v>
-      </c>
       <c r="K11" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L11" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="M11" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N11" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="O11" t="n">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
         <v>4</v>
@@ -3465,7 +3465,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
         <v>16</v>
@@ -3474,25 +3474,25 @@
         <v>11</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K19" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L19" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M19" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O19" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
         <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I23" t="n">
         <v>9</v>
@@ -3684,19 +3684,19 @@
         <v>24</v>
       </c>
       <c r="K23" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L23" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M23" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="O23" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3798,114 +3798,114 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
         <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L2" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N2" t="n">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="O2" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
+        <v>27</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>22</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="n">
+        <v>73</v>
+      </c>
+      <c r="L3" t="n">
+        <v>54</v>
+      </c>
+      <c r="M3" t="n">
         <v>26</v>
       </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>21</v>
-      </c>
-      <c r="J3" t="n">
-        <v>15</v>
-      </c>
-      <c r="K3" t="n">
-        <v>44</v>
-      </c>
-      <c r="L3" t="n">
-        <v>40</v>
-      </c>
-      <c r="M3" t="n">
-        <v>33</v>
-      </c>
       <c r="N3" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="O3" t="n">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3924,79 +3924,79 @@
         <v>26</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K4" t="n">
         <v>44</v>
       </c>
       <c r="L4" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="O4" t="n">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L5" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M5" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N5" t="n">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="O5" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -4155,16 +4155,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
         <v>9</v>
@@ -4173,13 +4173,13 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
         <v>22</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>23</v>
@@ -4188,121 +4188,121 @@
         <v>16</v>
       </c>
       <c r="K9" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="L9" t="n">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="M9" t="n">
+        <v>21</v>
+      </c>
+      <c r="N9" t="n">
         <v>26</v>
       </c>
-      <c r="N9" t="n">
-        <v>29</v>
-      </c>
       <c r="O9" t="n">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
         <v>7</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
+        <v>22</v>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" t="n">
-        <v>21</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
       <c r="I10" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K10" t="n">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="L10" t="n">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O10" t="n">
-        <v>137</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>19</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>21</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20</v>
+      </c>
+      <c r="J11" t="n">
         <v>18</v>
       </c>
-      <c r="D11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G11" t="n">
-        <v>20</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>22</v>
-      </c>
-      <c r="J11" t="n">
-        <v>16</v>
-      </c>
       <c r="K11" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L11" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="M11" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N11" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O11" t="n">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -4479,7 +4479,7 @@
         <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
         <v>18</v>
@@ -4488,25 +4488,25 @@
         <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K15" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L15" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="M15" t="n">
+        <v>24</v>
+      </c>
+      <c r="N15" t="n">
         <v>23</v>
       </c>
-      <c r="N15" t="n">
-        <v>22</v>
-      </c>
       <c r="O15" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
@@ -4614,73 +4614,73 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>20</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>17</v>
+      </c>
+      <c r="H18" t="n">
+        <v>13</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15</v>
+      </c>
+      <c r="J18" t="n">
         <v>18</v>
       </c>
-      <c r="D18" t="n">
-        <v>7</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-      <c r="G18" t="n">
-        <v>16</v>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>16</v>
-      </c>
       <c r="K18" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="L18" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M18" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O18" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>9</v>
@@ -4689,79 +4689,79 @@
         <v>16</v>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K19" t="n">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="L19" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="M19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N19" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O19" t="n">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>19</v>
       </c>
       <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="n">
         <v>4</v>
       </c>
-      <c r="E20" t="n">
-        <v>7</v>
-      </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
         <v>17</v>
       </c>
       <c r="K20" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L20" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="M20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O20" t="n">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
         <v>6</v>
@@ -4785,34 +4785,34 @@
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
         <v>14</v>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I21" t="n">
         <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K21" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L21" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M21" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N21" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O21" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
@@ -4991,81 +4991,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A. Pleshkov</t>
+          <t>V. Podyapolsky</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>А. Плешков</t>
+          <t>В. Подъяпольский</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>45125</v>
+        <v>54254</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>V. Podyapolsky</t>
+          <t>A. Pleshkov</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>В. Подъяпольский</t>
+          <t>А. Плешков</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>94.2</v>
+        <v>94.5</v>
       </c>
       <c r="G3" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48257</v>
+        <v>45125</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -5170,19 +5170,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
-        <v>93.5</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>2.27</v>
+        <v>2.47</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>105751</v>
+        <v>111751</v>
       </c>
       <c r="J6" t="n">
         <v>6</v>
@@ -5191,182 +5191,182 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A. Krasotkin</t>
+          <t>D. Kostin</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>А. Красоткин</t>
+          <t>Д. Костин</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
         <v>93.09999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>61312</v>
+        <v>76256</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D. Isayev</t>
+          <t>A. Krasotkin</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Д. Исаев</t>
+          <t>А. Красоткин</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>92.7</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>101458</v>
+        <v>61312</v>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D. Kostin</t>
+          <t>D. Isayev</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Д. Костин</t>
+          <t>Д. Исаев</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>92.5</v>
+        <v>92.7</v>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>1.89</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>70256</v>
+        <v>101458</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P. Rybar</t>
+          <t>I. Bocharov</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>П. Рибар</t>
+          <t>И. Бочаров</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>92.3</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>81432</v>
+        <v>62957</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>T. Bilyalov</t>
+          <t>P. Rybar</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Т. Билялов</t>
+          <t>П. Рибар</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -5376,37 +5376,37 @@
         <v>92.3</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>72947</v>
+        <v>81432</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Z. Fucale</t>
+          <t>T. Bilyalov</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>З. Фукале</t>
+          <t>Т. Билялов</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -5416,56 +5416,56 @@
         <v>92.3</v>
       </c>
       <c r="G12" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>84640</v>
+        <v>72947</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>I. Bocharov</t>
+          <t>Z. Fucale</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>И. Бочаров</t>
+          <t>З. Фукале</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.63</v>
+        <v>1.99</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>57104</v>
+        <v>90640</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -5631,241 +5631,241 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A. Samoilov</t>
+          <t>D. Gamzin</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>А. Самойлов</t>
+          <t>Д. Гамзин</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>91.59999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>2.07</v>
+        <v>2.38</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>98652</v>
+        <v>47909</v>
       </c>
       <c r="J18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D. Gamzin</t>
+          <t>S. Mylnikov</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Д. Гамзин</t>
+          <t>С. Мыльников</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>91.59999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="G19" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>47909</v>
+        <v>52104</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S. Mylnikov</t>
+          <t>N. Serebryakov</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>С. Мыльников</t>
+          <t>Н. Серебряков</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="E20" t="n">
+        <v>17</v>
+      </c>
+      <c r="F20" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>97426</v>
+      </c>
+      <c r="J20" t="n">
         <v>10</v>
-      </c>
-      <c r="F20" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>52104</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>N. Serebryakov</t>
+          <t>A. Smolin</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Н. Серебряков</t>
+          <t>А. Смолин</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F21" t="n">
         <v>91.40000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>2.59</v>
+        <v>2.34</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>97426</v>
+        <v>66600</v>
       </c>
       <c r="J21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A. Smolin</t>
+          <t>M. Berdin</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>А. Смолин</t>
+          <t>М. Бердин</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" t="n">
-        <v>91.40000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="G22" t="n">
-        <v>2.34</v>
+        <v>2.15</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>66600</v>
+        <v>53045</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>M. Berdin</t>
+          <t>A. Samoilov</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>М. Бердин</t>
+          <t>А. Самойлов</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>91.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>53045</v>
+        <v>104642</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,32 +6445,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5799</v>
+        <v>6112</v>
       </c>
       <c r="F4" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G4" t="n">
-        <v>6600</v>
+        <v>6965</v>
       </c>
       <c r="H4" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>4.966373512674599</v>
+        <v>5.301047120418848</v>
       </c>
       <c r="L4" t="n">
-        <v>4.909090909090909</v>
+        <v>5.168700646087581</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,32 +6765,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7544</v>
+        <v>7909</v>
       </c>
       <c r="F9" t="n">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G9" t="n">
-        <v>6721</v>
+        <v>7034</v>
       </c>
       <c r="H9" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>10.02120890774125</v>
+        <v>10.01390820584145</v>
       </c>
       <c r="L9" t="n">
-        <v>7.498884094628775</v>
+        <v>7.676997441000854</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,20 +6893,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6064</v>
+        <v>6097</v>
       </c>
       <c r="F11" t="n">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="G11" t="n">
-        <v>6065</v>
+        <v>6578</v>
       </c>
       <c r="H11" t="n">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="I11" t="n">
         <v>13</v>
@@ -6915,10 +6915,10 @@
         <v>13</v>
       </c>
       <c r="K11" t="n">
-        <v>7.717678100263853</v>
+        <v>7.67590618336887</v>
       </c>
       <c r="L11" t="n">
-        <v>7.716405605935696</v>
+        <v>7.114624505928854</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,32 +7021,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6641</v>
+        <v>7001</v>
       </c>
       <c r="F13" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G13" t="n">
-        <v>5473</v>
+        <v>6002</v>
       </c>
       <c r="H13" t="n">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13" t="n">
-        <v>1.626261105255233</v>
+        <v>1.542636766176261</v>
       </c>
       <c r="L13" t="n">
-        <v>17.1021377672209</v>
+        <v>16.1946017994002</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,20 +7405,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6992</v>
+        <v>7505</v>
       </c>
       <c r="F19" t="n">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G19" t="n">
-        <v>4923</v>
+        <v>4956</v>
       </c>
       <c r="H19" t="n">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I19" t="n">
         <v>12</v>
@@ -7427,10 +7427,10 @@
         <v>11</v>
       </c>
       <c r="K19" t="n">
-        <v>6.178489702517163</v>
+        <v>5.756162558294471</v>
       </c>
       <c r="L19" t="n">
-        <v>8.043875685557587</v>
+        <v>7.990314769975787</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,32 +7597,32 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6223</v>
+        <v>6752</v>
       </c>
       <c r="F22" t="n">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G22" t="n">
-        <v>7204</v>
+        <v>7564</v>
       </c>
       <c r="H22" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J22" t="n">
         <v>13</v>
       </c>
       <c r="K22" t="n">
-        <v>7.520488510364776</v>
+        <v>7.464454976303317</v>
       </c>
       <c r="L22" t="n">
-        <v>6.496390893947806</v>
+        <v>6.187202538339504</v>
       </c>
       <c r="M22" t="b">
         <v>1</v>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-30 07:00:51</t>
+          <t>2025-10-31 03:00:47</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8147,7 +8147,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
         <v>12</v>
@@ -8168,40 +8168,40 @@
         <v>28</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>63</v>
       </c>
       <c r="L4" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M4" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N4" t="n">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="O4" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P4" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Q4" t="n">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="R4" t="n">
-        <v>100850</v>
+        <v>105944</v>
       </c>
       <c r="S4" t="n">
-        <v>5027</v>
+        <v>5028</v>
       </c>
       <c r="T4" t="n">
-        <v>1239</v>
+        <v>1249</v>
       </c>
       <c r="U4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -8276,31 +8276,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>28</v>
@@ -8312,172 +8312,172 @@
         <v>65</v>
       </c>
       <c r="L6" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="M6" t="n">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="N6" t="n">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="O6" t="n">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="P6" t="n">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="Q6" t="n">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="R6" t="n">
-        <v>109845</v>
+        <v>116136</v>
       </c>
       <c r="S6" t="n">
-        <v>4957</v>
+        <v>5030</v>
       </c>
       <c r="T6" t="n">
-        <v>1933</v>
+        <v>1342</v>
       </c>
       <c r="U6" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L7" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M7" t="n">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="N7" t="n">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O7" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P7" t="n">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="Q7" t="n">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="R7" t="n">
-        <v>101433</v>
+        <v>109845</v>
       </c>
       <c r="S7" t="n">
-        <v>5044</v>
+        <v>4957</v>
       </c>
       <c r="T7" t="n">
-        <v>1326</v>
+        <v>1933</v>
       </c>
       <c r="U7" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L8" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M8" t="n">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="N8" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O8" t="n">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="P8" t="n">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="Q8" t="n">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="R8" t="n">
-        <v>111625</v>
+        <v>101433</v>
       </c>
       <c r="S8" t="n">
-        <v>5045</v>
+        <v>5044</v>
       </c>
       <c r="T8" t="n">
-        <v>1342</v>
+        <v>1326</v>
       </c>
       <c r="U8" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -8492,10 +8492,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -8510,34 +8510,34 @@
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L9" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M9" t="n">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="N9" t="n">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="O9" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="P9" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q9" t="n">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="R9" t="n">
-        <v>92315</v>
+        <v>97157</v>
       </c>
       <c r="S9" t="n">
         <v>4836</v>
@@ -8546,7 +8546,7 @@
         <v>1107</v>
       </c>
       <c r="U9" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -8621,25 +8621,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -8648,211 +8648,211 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>59</v>
       </c>
       <c r="L11" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="M11" t="n">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="O11" t="n">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="P11" t="n">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="Q11" t="n">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="R11" t="n">
-        <v>104358</v>
+        <v>95953</v>
       </c>
       <c r="S11" t="n">
-        <v>4943</v>
+        <v>5031</v>
       </c>
       <c r="T11" t="n">
-        <v>1003</v>
+        <v>1555</v>
       </c>
       <c r="U11" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>23</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L12" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="M12" t="n">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="N12" t="n">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O12" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="P12" t="n">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="Q12" t="n">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="R12" t="n">
-        <v>93821</v>
+        <v>104358</v>
       </c>
       <c r="S12" t="n">
-        <v>4923</v>
+        <v>4943</v>
       </c>
       <c r="T12" t="n">
-        <v>632</v>
+        <v>1003</v>
       </c>
       <c r="U12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>23</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L13" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="M13" t="n">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N13" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O13" t="n">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="P13" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="Q13" t="n">
-        <v>447</v>
+        <v>373</v>
       </c>
       <c r="R13" t="n">
-        <v>104035</v>
+        <v>93821</v>
       </c>
       <c r="S13" t="n">
-        <v>4933</v>
+        <v>4923</v>
       </c>
       <c r="T13" t="n">
-        <v>2012</v>
+        <v>632</v>
       </c>
       <c r="U13" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
         <v>23</v>
@@ -8861,37 +8861,37 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L14" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="M14" t="n">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="N14" t="n">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="O14" t="n">
+        <v>106</v>
+      </c>
+      <c r="P14" t="n">
+        <v>77</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>447</v>
+      </c>
+      <c r="R14" t="n">
+        <v>104035</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4933</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2012</v>
+      </c>
+      <c r="U14" t="n">
         <v>58</v>
-      </c>
-      <c r="P14" t="n">
-        <v>71</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>410</v>
-      </c>
-      <c r="R14" t="n">
-        <v>90859</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5030</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1552</v>
-      </c>
-      <c r="U14" t="n">
-        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -9113,7 +9113,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
         <v>7</v>
@@ -9137,37 +9137,37 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L18" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M18" t="n">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="N18" t="n">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O18" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P18" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q18" t="n">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="R18" t="n">
-        <v>94821</v>
+        <v>99703</v>
       </c>
       <c r="S18" t="n">
-        <v>4955</v>
+        <v>4951</v>
       </c>
       <c r="T18" t="n">
         <v>528</v>
       </c>
       <c r="U18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -9389,7 +9389,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
         <v>4</v>
@@ -9410,40 +9410,40 @@
         <v>12</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>38</v>
       </c>
       <c r="L22" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M22" t="n">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="N22" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="O22" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P22" t="n">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="Q22" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="R22" t="n">
-        <v>100951</v>
+        <v>105502</v>
       </c>
       <c r="S22" t="n">
-        <v>5030</v>
+        <v>5014</v>
       </c>
       <c r="T22" t="n">
-        <v>551</v>
+        <v>658</v>
       </c>
       <c r="U22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -9727,34 +9727,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -9763,53 +9763,53 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="P4" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
@@ -9817,52 +9817,52 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3.2</v>
+        <v>2.83</v>
       </c>
       <c r="P5" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9871,52 +9871,52 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>2.86</v>
+        <v>2.95</v>
       </c>
       <c r="P6" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -9925,16 +9925,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
         <v>3</v>
       </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
       <c r="O7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="P7" t="n">
         <v>66</v>
@@ -9943,25 +9943,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -9979,73 +9979,73 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
         <v>2</v>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>3.26</v>
+        <v>2.95</v>
       </c>
       <c r="P9" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -10213,34 +10213,34 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -10249,70 +10249,70 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>2.95</v>
+        <v>3.11</v>
       </c>
       <c r="P13" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>3.11</v>
+        <v>2.95</v>
       </c>
       <c r="P14" t="n">
         <v>57</v>
@@ -10591,25 +10591,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -10630,40 +10630,40 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="P20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -10684,13 +10684,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="P21" t="n">
         <v>40</v>
@@ -10708,7 +10708,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
         <v>32</v>
@@ -10744,7 +10744,7 @@
         <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="P22" t="n">
         <v>41</v>
@@ -10971,10 +10971,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -11007,10 +11007,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="P3" t="n">
-        <v>45.1</v>
+        <v>48.14</v>
       </c>
     </row>
     <row r="4">
@@ -11025,10 +11025,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -11052,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
@@ -11061,10 +11061,10 @@
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="P4" t="n">
-        <v>47.26</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="5">
@@ -11079,7 +11079,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
         <v>30</v>
@@ -11115,31 +11115,31 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>2.61</v>
+        <v>2.47</v>
       </c>
       <c r="P5" t="n">
-        <v>52.61</v>
+        <v>52.47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -11154,151 +11154,151 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="P6" t="n">
-        <v>51.53</v>
+        <v>54.38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
       <c r="L7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>2.38</v>
+        <v>2.74</v>
       </c>
       <c r="P7" t="n">
-        <v>54.38</v>
+        <v>57.74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>10</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
       <c r="O8" t="n">
-        <v>2.74</v>
+        <v>3.06</v>
       </c>
       <c r="P8" t="n">
-        <v>57.74</v>
+        <v>56.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -11313,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -11322,37 +11322,37 @@
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>3.06</v>
+        <v>2.45</v>
       </c>
       <c r="P9" t="n">
-        <v>56.06</v>
+        <v>59.45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -11361,13 +11361,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -11376,19 +11376,19 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
         <v>3</v>
       </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="P10" t="n">
-        <v>59.45</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="11">
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
         <v>48</v>
@@ -11817,10 +11817,10 @@
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="P18" t="n">
-        <v>66.81999999999999</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="19">
@@ -12051,10 +12051,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -12078,7 +12078,7 @@
         <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
@@ -12087,10 +12087,10 @@
         <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>3.8</v>
+        <v>3.71</v>
       </c>
       <c r="P23" t="n">
-        <v>82.8</v>
+        <v>84.70999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -12206,55 +12206,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>386</v>
+        <v>229</v>
       </c>
       <c r="D4" t="n">
-        <v>10.36</v>
+        <v>8.73</v>
       </c>
       <c r="E4" t="n">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="F4" t="n">
-        <v>10.84</v>
+        <v>12.34</v>
       </c>
       <c r="G4" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>229</v>
+        <v>386</v>
       </c>
       <c r="D5" t="n">
-        <v>8.73</v>
+        <v>10.36</v>
       </c>
       <c r="E5" t="n">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="F5" t="n">
-        <v>11.92</v>
+        <v>10.84</v>
       </c>
       <c r="G5" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -12287,82 +12287,82 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="D7" t="n">
-        <v>10.12</v>
+        <v>11.07</v>
       </c>
       <c r="E7" t="n">
-        <v>388</v>
+        <v>249</v>
       </c>
       <c r="F7" t="n">
-        <v>9.789999999999999</v>
+        <v>8.43</v>
       </c>
       <c r="G7" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="D8" t="n">
-        <v>11.07</v>
+        <v>10.63</v>
       </c>
       <c r="E8" t="n">
-        <v>249</v>
+        <v>370</v>
       </c>
       <c r="F8" t="n">
-        <v>8.43</v>
+        <v>9.19</v>
       </c>
       <c r="G8" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D9" t="n">
-        <v>10.63</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="F9" t="n">
-        <v>9.19</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -12449,55 +12449,55 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D13" t="n">
-        <v>9.65</v>
+        <v>10.44</v>
       </c>
       <c r="E13" t="n">
-        <v>217</v>
+        <v>334</v>
       </c>
       <c r="F13" t="n">
-        <v>7.83</v>
+        <v>7.49</v>
       </c>
       <c r="G13" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="D14" t="n">
-        <v>10.31</v>
+        <v>9.65</v>
       </c>
       <c r="E14" t="n">
-        <v>334</v>
+        <v>217</v>
       </c>
       <c r="F14" t="n">
-        <v>7.49</v>
+        <v>7.83</v>
       </c>
       <c r="G14" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -12557,55 +12557,55 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="D17" t="n">
-        <v>9.210000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="F17" t="n">
-        <v>8.02</v>
+        <v>7.94</v>
       </c>
       <c r="G17" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="D18" t="n">
-        <v>9.539999999999999</v>
+        <v>8.73</v>
       </c>
       <c r="E18" t="n">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="F18" t="n">
-        <v>7.94</v>
+        <v>8.02</v>
       </c>
       <c r="G18" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -12665,82 +12665,82 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="D21" t="n">
-        <v>7.36</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="F21" t="n">
-        <v>6.81</v>
+        <v>5.96</v>
       </c>
       <c r="G21" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="D22" t="n">
-        <v>8.460000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="F22" t="n">
-        <v>5.96</v>
+        <v>6.29</v>
       </c>
       <c r="G22" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="D23" t="n">
-        <v>8.130000000000001</v>
+        <v>7.36</v>
       </c>
       <c r="E23" t="n">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="F23" t="n">
         <v>6.11</v>
       </c>
       <c r="G23" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -12887,25 +12887,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D4" t="n">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="E4" t="n">
-        <v>46.83</v>
+        <v>46.98</v>
       </c>
       <c r="F4" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G4" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H4" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
@@ -12944,100 +12944,100 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D6" t="n">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="E6" t="n">
-        <v>46.76</v>
+        <v>48.67</v>
       </c>
       <c r="F6" t="n">
-        <v>457</v>
+        <v>534</v>
       </c>
       <c r="G6" t="n">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="H6" t="n">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="I6" t="n">
-        <v>405</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>288</v>
+        <v>433</v>
       </c>
       <c r="D7" t="n">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="E7" t="n">
-        <v>51.07</v>
+        <v>46.76</v>
       </c>
       <c r="F7" t="n">
-        <v>531</v>
+        <v>457</v>
       </c>
       <c r="G7" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H7" t="n">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="I7" t="n">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="D8" t="n">
-        <v>620</v>
+        <v>646</v>
       </c>
       <c r="E8" t="n">
-        <v>48.59</v>
+        <v>51.07</v>
       </c>
       <c r="F8" t="n">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="G8" t="n">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="H8" t="n">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="I8" t="n">
-        <v>349</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9">
@@ -13052,25 +13052,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="D9" t="n">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="E9" t="n">
-        <v>56.04</v>
+        <v>55.18</v>
       </c>
       <c r="F9" t="n">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="G9" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H9" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I9" t="n">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10">
@@ -13109,133 +13109,133 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>428</v>
+        <v>346</v>
       </c>
       <c r="D11" t="n">
-        <v>641</v>
+        <v>559</v>
       </c>
       <c r="E11" t="n">
-        <v>48.67</v>
+        <v>50.18</v>
       </c>
       <c r="F11" t="n">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="G11" t="n">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="H11" t="n">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="I11" t="n">
-        <v>388</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>334</v>
+        <v>428</v>
       </c>
       <c r="D12" t="n">
-        <v>532</v>
+        <v>641</v>
       </c>
       <c r="E12" t="n">
-        <v>47.08</v>
+        <v>48.67</v>
       </c>
       <c r="F12" t="n">
-        <v>375</v>
+        <v>443</v>
       </c>
       <c r="G12" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H12" t="n">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="I12" t="n">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="D13" t="n">
-        <v>684</v>
+        <v>532</v>
       </c>
       <c r="E13" t="n">
-        <v>52.05</v>
+        <v>47.08</v>
       </c>
       <c r="F13" t="n">
-        <v>484</v>
+        <v>375</v>
       </c>
       <c r="G13" t="n">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="H13" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I13" t="n">
-        <v>447</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="D14" t="n">
-        <v>531</v>
+        <v>684</v>
       </c>
       <c r="E14" t="n">
-        <v>50.19</v>
+        <v>52.05</v>
       </c>
       <c r="F14" t="n">
-        <v>362</v>
+        <v>484</v>
       </c>
       <c r="G14" t="n">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="H14" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I14" t="n">
-        <v>410</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15">
@@ -13349,25 +13349,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="D18" t="n">
-        <v>508</v>
+        <v>546</v>
       </c>
       <c r="E18" t="n">
-        <v>45.4</v>
+        <v>46.19</v>
       </c>
       <c r="F18" t="n">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="G18" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H18" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I18" t="n">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19">
@@ -13481,25 +13481,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="D22" t="n">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="E22" t="n">
-        <v>47.61</v>
+        <v>47.66</v>
       </c>
       <c r="F22" t="n">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="G22" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H22" t="n">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="I22" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23">
@@ -13904,23 +13904,23 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>02:05:44</t>
+          <t>02:11:49</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -13928,21 +13928,21 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>06:37</t>
+          <t>06:35</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>01:52:01</t>
+          <t>01:57:14</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -13950,23 +13950,23 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>05:54</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>7544</v>
+        <v>7909</v>
       </c>
       <c r="S5" t="n">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="T5" t="n">
-        <v>6721</v>
+        <v>7034</v>
       </c>
       <c r="U5" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6">
@@ -14443,23 +14443,23 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>01:41:04</t>
+          <t>01:41:37</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -14467,21 +14467,21 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>05:37</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M12" t="n">
         <v>13</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>01:41:05</t>
+          <t>01:49:38</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -14489,23 +14489,23 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>05:37</t>
+          <t>05:46</t>
         </is>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>6064</v>
+        <v>6097</v>
       </c>
       <c r="S12" t="n">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="T12" t="n">
-        <v>6065</v>
+        <v>6578</v>
       </c>
       <c r="U12" t="n">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13">
@@ -14520,23 +14520,23 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>01:43:43</t>
+          <t>01:52:32</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -14544,21 +14544,21 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>04:43</t>
+          <t>04:54</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M13" t="n">
         <v>13</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>02:00:04</t>
+          <t>02:06:04</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -14566,23 +14566,23 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>05:27</t>
+          <t>05:29</t>
         </is>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6223</v>
+        <v>6752</v>
       </c>
       <c r="S13" t="n">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="T13" t="n">
-        <v>7204</v>
+        <v>7564</v>
       </c>
       <c r="U13" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14">
@@ -14828,23 +14828,23 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E17" t="n">
         <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>17.9</v>
+        <v>16.7</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>01:56:32</t>
+          <t>02:05:05</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -14852,21 +14852,21 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>05:50</t>
+          <t>05:57</t>
         </is>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M17" t="n">
         <v>11</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>01:22:03</t>
+          <t>01:22:36</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -14874,23 +14874,23 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>04:06</t>
+          <t>03:56</t>
         </is>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6992</v>
+        <v>7505</v>
       </c>
       <c r="S17" t="n">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="T17" t="n">
-        <v>4923</v>
+        <v>4956</v>
       </c>
       <c r="U17" t="n">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18">
@@ -14982,23 +14982,23 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>13.8</v>
+        <v>14.8</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>01:36:39</t>
+          <t>01:41:52</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -15006,21 +15006,21 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>05:05</t>
+          <t>05:06</t>
         </is>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>01:50:00</t>
+          <t>01:56:05</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -15028,23 +15028,23 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>05:47</t>
+          <t>05:48</t>
         </is>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5799</v>
+        <v>6112</v>
       </c>
       <c r="S19" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T19" t="n">
-        <v>6600</v>
+        <v>6965</v>
       </c>
       <c r="U19" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20">
@@ -15290,23 +15290,23 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>01:50:41</t>
+          <t>01:56:41</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -15314,21 +15314,21 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>05:33</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>01:31:13</t>
+          <t>01:40:02</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -15336,23 +15336,23 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>04:34</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>6641</v>
+        <v>7001</v>
       </c>
       <c r="S23" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T23" t="n">
-        <v>5473</v>
+        <v>6002</v>
       </c>
       <c r="U23" t="n">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -15538,57 +15538,57 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>85.90000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>61</v>
+      </c>
+      <c r="G3" t="n">
         <v>9</v>
       </c>
-      <c r="F3" t="n">
-        <v>58</v>
-      </c>
-      <c r="G3" t="n">
-        <v>8</v>
-      </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>01:36:39</t>
+          <t>01:41:52</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>05:05</t>
+          <t>05:06</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>01:50:00</t>
+          <t>01:56:05</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05:47</t>
+          <t>05:48</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>5799</v>
+        <v>6112</v>
       </c>
       <c r="O3" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P3" t="n">
-        <v>6600</v>
+        <v>6965</v>
       </c>
       <c r="Q3" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4">
@@ -15919,196 +15919,196 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>81.5</v>
+        <v>81.7</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>01:52:46</t>
+          <t>01:52:32</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>05:56</t>
+          <t>04:54</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>01:53:28</t>
+          <t>02:06:04</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05:58</t>
+          <t>05:29</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>6766</v>
+        <v>6752</v>
       </c>
       <c r="O9" t="n">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="P9" t="n">
-        <v>6808</v>
+        <v>7564</v>
       </c>
       <c r="Q9" t="n">
-        <v>358</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>81</v>
+        <v>81.5</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="G10" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>02:27:57</t>
+          <t>01:52:46</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>05:56</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>01:31:20</t>
+          <t>01:53:28</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>04:21</t>
+          <t>05:58</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>8877</v>
+        <v>6766</v>
       </c>
       <c r="O10" t="n">
-        <v>423</v>
+        <v>356</v>
       </c>
       <c r="P10" t="n">
-        <v>5480</v>
+        <v>6808</v>
       </c>
       <c r="Q10" t="n">
-        <v>261</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>21</v>
+      </c>
+      <c r="D11" t="n">
+        <v>81</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" t="n">
+        <v>93</v>
+      </c>
+      <c r="G11" t="n">
         <v>22</v>
       </c>
-      <c r="D11" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F11" t="n">
-        <v>62</v>
-      </c>
-      <c r="G11" t="n">
-        <v>13</v>
-      </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>01:43:43</t>
+          <t>02:27:57</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>04:43</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>02:00:04</t>
+          <t>01:31:20</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>05:27</t>
+          <t>04:21</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>6223</v>
+        <v>8877</v>
       </c>
       <c r="O11" t="n">
-        <v>283</v>
+        <v>423</v>
       </c>
       <c r="P11" t="n">
-        <v>7204</v>
+        <v>5480</v>
       </c>
       <c r="Q11" t="n">
-        <v>327</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12">
@@ -16244,261 +16244,261 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>79.2</v>
+        <v>80.3</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>01:56:32</t>
+          <t>01:41:37</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>05:50</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>01:22:03</t>
+          <t>01:49:38</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>04:06</t>
+          <t>05:46</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>6992</v>
+        <v>6097</v>
       </c>
       <c r="O14" t="n">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="P14" t="n">
-        <v>4923</v>
+        <v>6578</v>
       </c>
       <c r="Q14" t="n">
-        <v>246</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
-        <v>78.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>01:41:04</t>
+          <t>02:05:05</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>05:37</t>
+          <t>05:57</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>01:41:05</t>
+          <t>01:22:36</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>05:37</t>
+          <t>03:56</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>6064</v>
+        <v>7505</v>
       </c>
       <c r="O15" t="n">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="P15" t="n">
-        <v>6065</v>
+        <v>4956</v>
       </c>
       <c r="Q15" t="n">
-        <v>337</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
         <v>78.5</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G16" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>02:05:44</t>
+          <t>01:50:51</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>06:37</t>
+          <t>05:17</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>01:52:01</t>
+          <t>02:14:37</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>05:54</t>
+          <t>06:25</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>7544</v>
+        <v>6651</v>
       </c>
       <c r="O16" t="n">
-        <v>397</v>
+        <v>317</v>
       </c>
       <c r="P16" t="n">
-        <v>6721</v>
+        <v>8077</v>
       </c>
       <c r="Q16" t="n">
-        <v>354</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>78.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G17" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>01:50:51</t>
+          <t>02:11:49</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>05:17</t>
+          <t>06:35</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>02:14:37</t>
+          <t>01:57:14</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>06:25</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>6651</v>
+        <v>7909</v>
       </c>
       <c r="O17" t="n">
-        <v>317</v>
+        <v>395</v>
       </c>
       <c r="P17" t="n">
-        <v>8077</v>
+        <v>7034</v>
       </c>
       <c r="Q17" t="n">
-        <v>385</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18">
@@ -16838,16 +16838,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>60.6</v>
+        <v>62</v>
       </c>
       <c r="E23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F23" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
@@ -16857,38 +16857,38 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>01:50:41</t>
+          <t>01:56:41</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>05:33</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>01:31:13</t>
+          <t>01:40:02</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>04:34</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>6641</v>
+        <v>7001</v>
       </c>
       <c r="O23" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P23" t="n">
-        <v>5473</v>
+        <v>6002</v>
       </c>
       <c r="Q23" t="n">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -17103,19 +17103,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -17124,7 +17124,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -17133,46 +17133,46 @@
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="M4" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="N4" t="n">
-        <v>1009</v>
+        <v>945</v>
       </c>
       <c r="O4" t="n">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="P4" t="n">
-        <v>1018</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -17184,55 +17184,55 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="M5" t="n">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="N5" t="n">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="O5" t="n">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="P5" t="n">
-        <v>1221</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -17241,52 +17241,52 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="M6" t="n">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="N6" t="n">
-        <v>917</v>
+        <v>1031</v>
       </c>
       <c r="O6" t="n">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="P6" t="n">
-        <v>931</v>
+        <v>831</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -17295,187 +17295,187 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="M7" t="n">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="N7" t="n">
-        <v>846</v>
+        <v>1000</v>
       </c>
       <c r="O7" t="n">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="P7" t="n">
-        <v>854</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="N8" t="n">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="O8" t="n">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="P8" t="n">
-        <v>739</v>
+        <v>931</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M9" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N9" t="n">
-        <v>950</v>
+        <v>846</v>
       </c>
       <c r="O9" t="n">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="P9" t="n">
-        <v>947</v>
+        <v>854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="M10" t="n">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="N10" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="O10" t="n">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="P10" t="n">
-        <v>853</v>
+        <v>947</v>
       </c>
     </row>
     <row r="11">
@@ -17652,10 +17652,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -17679,94 +17679,94 @@
         <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M14" t="n">
         <v>89</v>
       </c>
       <c r="N14" t="n">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="O14" t="n">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="P14" t="n">
-        <v>757</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="N15" t="n">
-        <v>850</v>
+        <v>818</v>
       </c>
       <c r="O15" t="n">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="P15" t="n">
-        <v>620</v>
+        <v>739</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -17787,94 +17787,94 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="M16" t="n">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="N16" t="n">
-        <v>754</v>
+        <v>803</v>
       </c>
       <c r="O16" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="P16" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K17" t="n">
         <v>2</v>
       </c>
       <c r="L17" t="n">
+        <v>59</v>
+      </c>
+      <c r="M17" t="n">
         <v>100</v>
       </c>
-      <c r="M17" t="n">
-        <v>57</v>
-      </c>
       <c r="N17" t="n">
-        <v>728</v>
+        <v>850</v>
       </c>
       <c r="O17" t="n">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="P17" t="n">
-        <v>840</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -17889,103 +17889,103 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="M18" t="n">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="N18" t="n">
-        <v>806</v>
+        <v>754</v>
       </c>
       <c r="O18" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P18" t="n">
-        <v>725</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8</v>
+      </c>
+      <c r="K19" t="n">
         <v>2</v>
       </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="M19" t="n">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="N19" t="n">
-        <v>800</v>
+        <v>728</v>
       </c>
       <c r="O19" t="n">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="P19" t="n">
-        <v>847</v>
+        <v>840</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -17997,46 +17997,46 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="M20" t="n">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="N20" t="n">
-        <v>849</v>
+        <v>800</v>
       </c>
       <c r="O20" t="n">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="P20" t="n">
-        <v>717</v>
+        <v>847</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -18051,25 +18051,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M21" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N21" t="n">
-        <v>750</v>
+        <v>849</v>
       </c>
       <c r="O21" t="n">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="P21" t="n">
-        <v>953</v>
+        <v>717</v>
       </c>
     </row>
     <row r="22">
@@ -18138,10 +18138,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -18165,19 +18165,19 @@
         <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M23" t="n">
         <v>72</v>
       </c>
       <c r="N23" t="n">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="O23" t="n">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="P23" t="n">
-        <v>703</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-31 03:00:47</t>
+          <t>2025-10-31 07:00:59</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-01 03:00:43</t>
+          <t>2025-11-01 07:00:41</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-01 07:00:41</t>
+          <t>2025-11-01 13:38:26</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-03 07:08:48</t>
+          <t>2025-11-03 09:45:56</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-03 09:45:56</t>
+          <t>2025-11-03 10:54:41</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-03 10:54:41</t>
+          <t>2025-11-03 11:34:01</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-03 11:34:01</t>
+          <t>2025-11-03 14:29:04</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -1413,12 +1413,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1428,139 +1428,139 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K3" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L3" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="M3" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N3" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="O3" t="n">
-        <v>139</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>26</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="L4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N4" t="n">
         <v>36</v>
       </c>
       <c r="O4" t="n">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L5" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="M5" t="n">
+        <v>24</v>
+      </c>
+      <c r="N5" t="n">
         <v>36</v>
       </c>
-      <c r="N5" t="n">
-        <v>54</v>
-      </c>
       <c r="O5" t="n">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6">
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
         <v>5</v>
@@ -2145,7 +2145,7 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
         <v>19</v>
@@ -2154,25 +2154,25 @@
         <v>8</v>
       </c>
       <c r="I17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K17" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="L17" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N17" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O17" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>35</v>
@@ -2613,19 +2613,19 @@
         <v>16</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L2" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="O2" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
@@ -3039,103 +3039,103 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>21</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
         <v>22</v>
       </c>
-      <c r="D11" t="n">
+      <c r="H11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" t="n">
-        <v>21</v>
-      </c>
-      <c r="H11" t="n">
-        <v>11</v>
-      </c>
       <c r="I11" t="n">
+        <v>19</v>
+      </c>
+      <c r="J11" t="n">
+        <v>18</v>
+      </c>
+      <c r="K11" t="n">
+        <v>62</v>
+      </c>
+      <c r="L11" t="n">
+        <v>70</v>
+      </c>
+      <c r="M11" t="n">
         <v>23</v>
       </c>
-      <c r="J11" t="n">
-        <v>21</v>
-      </c>
-      <c r="K11" t="n">
-        <v>46</v>
-      </c>
-      <c r="L11" t="n">
-        <v>69</v>
-      </c>
-      <c r="M11" t="n">
-        <v>32</v>
-      </c>
       <c r="N11" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="O11" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
         <v>21</v>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J12" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L12" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N12" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="O12" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="n">
         <v>6</v>
@@ -4377,34 +4377,34 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
         <v>21</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I13" t="n">
         <v>19</v>
       </c>
       <c r="J13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
         <v>46</v>
       </c>
       <c r="L13" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N13" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O13" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
@@ -4512,154 +4512,154 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
         <v>19</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J16" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K16" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="L16" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="M16" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N16" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="O16" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C17" t="n">
+        <v>21</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" t="n">
         <v>19</v>
       </c>
-      <c r="D17" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" t="n">
         <v>18</v>
       </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-      <c r="I17" t="n">
-        <v>14</v>
-      </c>
       <c r="J17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K17" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="L17" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M17" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N17" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O17" t="n">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" t="n">
+        <v>18</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>14</v>
+      </c>
+      <c r="J18" t="n">
         <v>17</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-      <c r="I18" t="n">
-        <v>18</v>
-      </c>
-      <c r="J18" t="n">
-        <v>27</v>
       </c>
       <c r="K18" t="n">
         <v>88</v>
       </c>
       <c r="L18" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N18" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="O18" t="n">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -5511,121 +5511,121 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P. Rybar</t>
+          <t>N. Serebryakov</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>П. Рибар</t>
+          <t>Н. Серебряков</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>92.09999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="G15" t="n">
-        <v>2.61</v>
+        <v>2.49</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>87432</v>
+        <v>103426</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>N. Serebryakov</t>
+          <t>P. Khomchenko</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Н. Серебряков</t>
+          <t>П. Хомченко</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
         <v>91.7</v>
       </c>
       <c r="G16" t="n">
-        <v>2.49</v>
+        <v>2.75</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>103426</v>
+        <v>74224</v>
       </c>
       <c r="J16" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P. Khomchenko</t>
+          <t>P. Rybar</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>П. Хомченко</t>
+          <t>П. Рибар</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>91.7</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>74224</v>
+        <v>89432</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,32 +6829,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6515</v>
+        <v>6815</v>
       </c>
       <c r="F10" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G10" t="n">
-        <v>7731</v>
+        <v>8094</v>
       </c>
       <c r="H10" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I10" t="n">
         <v>17</v>
       </c>
       <c r="J10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K10" t="n">
-        <v>9.393706830391404</v>
+        <v>8.980190755685987</v>
       </c>
       <c r="L10" t="n">
-        <v>7.916181606519208</v>
+        <v>8.450704225352112</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,32 +7149,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>8877</v>
+        <v>9240</v>
       </c>
       <c r="F15" t="n">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G15" t="n">
-        <v>5480</v>
+        <v>5780</v>
       </c>
       <c r="H15" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
         <v>11</v>
       </c>
       <c r="K15" t="n">
-        <v>8.921933085501859</v>
+        <v>9.35064935064935</v>
       </c>
       <c r="L15" t="n">
-        <v>7.226277372262774</v>
+        <v>6.851211072664359</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-03 14:29:04</t>
+          <t>2025-11-03 15:39:45</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8000,12 +8000,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -8015,7 +8015,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -8027,54 +8027,54 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="L2" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="M2" t="n">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="N2" t="n">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="O2" t="n">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="P2" t="n">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="Q2" t="n">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="R2" t="n">
-        <v>105704</v>
+        <v>108727</v>
       </c>
       <c r="S2" t="n">
-        <v>4803</v>
+        <v>4926</v>
       </c>
       <c r="T2" t="n">
-        <v>758</v>
+        <v>1209</v>
       </c>
       <c r="U2" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -8099,61 +8099,61 @@
         <v>32</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L3" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M3" t="n">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="N3" t="n">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="O3" t="n">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="P3" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q3" t="n">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="R3" t="n">
-        <v>106740</v>
+        <v>105704</v>
       </c>
       <c r="S3" t="n">
-        <v>4832</v>
+        <v>4803</v>
       </c>
       <c r="T3" t="n">
-        <v>1234</v>
+        <v>758</v>
       </c>
       <c r="U3" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -8168,40 +8168,40 @@
         <v>32</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="L4" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M4" t="n">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="N4" t="n">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="O4" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P4" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="Q4" t="n">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="R4" t="n">
-        <v>103830</v>
+        <v>106740</v>
       </c>
       <c r="S4" t="n">
-        <v>4927</v>
+        <v>4832</v>
       </c>
       <c r="T4" t="n">
-        <v>1141</v>
+        <v>1234</v>
       </c>
       <c r="U4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
         <v>8</v>
@@ -8723,37 +8723,37 @@
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L12" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M12" t="n">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="N12" t="n">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="O12" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="P12" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="Q12" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="R12" t="n">
-        <v>98745</v>
+        <v>103642</v>
       </c>
       <c r="S12" t="n">
-        <v>4923</v>
+        <v>4922</v>
       </c>
       <c r="T12" t="n">
         <v>632</v>
       </c>
       <c r="U12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -9628,13 +9628,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
@@ -9664,10 +9664,10 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="P2" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -10267,34 +10267,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -10309,46 +10309,46 @@
         <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2.64</v>
+        <v>2.81</v>
       </c>
       <c r="P14" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>2.9</v>
+        <v>2.64</v>
       </c>
       <c r="P15" t="n">
         <v>61</v>
@@ -11457,10 +11457,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -11493,10 +11493,10 @@
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="P12" t="n">
-        <v>63.76</v>
+        <v>64.68000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -11556,16 +11556,16 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
         <v>36</v>
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -11589,97 +11589,97 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>2.95</v>
+        <v>3.16</v>
       </c>
       <c r="P14" t="n">
-        <v>61.95</v>
+        <v>64.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>3.16</v>
+        <v>2.58</v>
       </c>
       <c r="P15" t="n">
-        <v>64.16</v>
+        <v>66.58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -11691,28 +11691,28 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>2.58</v>
+        <v>3.1</v>
       </c>
       <c r="P16" t="n">
-        <v>66.58</v>
+        <v>68.09999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -12161,10 +12161,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="D2" t="n">
-        <v>11.19</v>
+        <v>11.42</v>
       </c>
       <c r="E2" t="n">
         <v>272</v>
@@ -12173,7 +12173,7 @@
         <v>12.5</v>
       </c>
       <c r="G2" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
@@ -12302,13 +12302,13 @@
         <v>11.07</v>
       </c>
       <c r="E7" t="n">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="F7" t="n">
-        <v>9.93</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -12812,100 +12812,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="D2" t="n">
-        <v>715</v>
+        <v>621</v>
       </c>
       <c r="E2" t="n">
-        <v>56.84</v>
+        <v>48.33</v>
       </c>
       <c r="F2" t="n">
-        <v>513</v>
+        <v>264</v>
       </c>
       <c r="G2" t="n">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="H2" t="n">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="I2" t="n">
-        <v>362</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D3" t="n">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="E3" t="n">
-        <v>56.16</v>
+        <v>56.84</v>
       </c>
       <c r="F3" t="n">
-        <v>444</v>
+        <v>513</v>
       </c>
       <c r="G3" t="n">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="H3" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I3" t="n">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>241</v>
+        <v>342</v>
       </c>
       <c r="D4" t="n">
-        <v>590</v>
+        <v>697</v>
       </c>
       <c r="E4" t="n">
-        <v>47.93</v>
+        <v>56.16</v>
       </c>
       <c r="F4" t="n">
-        <v>251</v>
+        <v>444</v>
       </c>
       <c r="G4" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H4" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="I4" t="n">
-        <v>318</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5">
@@ -13151,25 +13151,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D12" t="n">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="E12" t="n">
-        <v>47.05</v>
+        <v>46.85</v>
       </c>
       <c r="F12" t="n">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="G12" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H12" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="I12" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13">
@@ -13972,32 +13972,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>01:48:35</t>
+          <t>02:34:00</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -14005,21 +14005,21 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>05:26</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="M6" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>02:08:51</t>
+          <t>01:36:20</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -14027,23 +14027,23 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>04:23</t>
         </is>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>6515</v>
+        <v>9240</v>
       </c>
       <c r="S6" t="n">
-        <v>326</v>
+        <v>420</v>
       </c>
       <c r="T6" t="n">
-        <v>7731</v>
+        <v>5780</v>
       </c>
       <c r="U6" t="n">
-        <v>387</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7">
@@ -14203,32 +14203,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>02:27:57</t>
+          <t>01:53:35</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -14236,21 +14236,21 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>05:25</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="M9" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>01:31:20</t>
+          <t>02:14:54</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -14258,23 +14258,23 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>04:21</t>
+          <t>06:25</t>
         </is>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>8877</v>
+        <v>6815</v>
       </c>
       <c r="S9" t="n">
-        <v>423</v>
+        <v>325</v>
       </c>
       <c r="T9" t="n">
-        <v>5480</v>
+        <v>8094</v>
       </c>
       <c r="U9" t="n">
-        <v>261</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10">
@@ -15919,261 +15919,261 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>82</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97</v>
+      </c>
+      <c r="G9" t="n">
         <v>24</v>
       </c>
-      <c r="D9" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>13</v>
-      </c>
-      <c r="F9" t="n">
-        <v>69</v>
-      </c>
-      <c r="G9" t="n">
-        <v>14</v>
-      </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>01:55:50</t>
+          <t>02:34:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>02:07:22</t>
+          <t>01:36:20</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05:18</t>
+          <t>04:23</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>6950</v>
+        <v>9240</v>
       </c>
       <c r="O9" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="P9" t="n">
-        <v>7642</v>
+        <v>5780</v>
       </c>
       <c r="Q9" t="n">
-        <v>318</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>81.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>02:12:38</t>
+          <t>01:55:50</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>06:02</t>
+          <t>04:50</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>02:22:13</t>
+          <t>02:07:22</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>06:28</t>
+          <t>05:18</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>7958</v>
+        <v>6950</v>
       </c>
       <c r="O10" t="n">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="P10" t="n">
-        <v>8533</v>
+        <v>7642</v>
       </c>
       <c r="Q10" t="n">
-        <v>388</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G11" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>01:31:53</t>
+          <t>02:12:38</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>04:23</t>
+          <t>06:02</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>02:05:16</t>
+          <t>02:22:13</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>05:58</t>
+          <t>06:28</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>5513</v>
+        <v>7958</v>
       </c>
       <c r="O11" t="n">
-        <v>263</v>
+        <v>362</v>
       </c>
       <c r="P11" t="n">
-        <v>7516</v>
+        <v>8533</v>
       </c>
       <c r="Q11" t="n">
-        <v>358</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>81</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="G12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>02:27:57</t>
+          <t>01:31:53</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>04:23</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>01:31:20</t>
+          <t>02:05:16</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>04:21</t>
+          <t>05:58</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>8877</v>
+        <v>5513</v>
       </c>
       <c r="O12" t="n">
-        <v>423</v>
+        <v>263</v>
       </c>
       <c r="P12" t="n">
-        <v>5480</v>
+        <v>7516</v>
       </c>
       <c r="Q12" t="n">
-        <v>261</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13">
@@ -16374,131 +16374,131 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>78.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
+        <v>81</v>
+      </c>
+      <c r="G16" t="n">
+        <v>22</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>02:11:49</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>06:35</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>68</v>
       </c>
-      <c r="G16" t="n">
-        <v>17</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>01:48:35</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>05:26</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>80</v>
-      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>02:08:51</t>
+          <t>01:57:14</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>6515</v>
+        <v>7909</v>
       </c>
       <c r="O16" t="n">
-        <v>326</v>
+        <v>395</v>
       </c>
       <c r="P16" t="n">
-        <v>7731</v>
+        <v>7034</v>
       </c>
       <c r="Q16" t="n">
-        <v>387</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>77.90000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G17" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>02:11:49</t>
+          <t>01:53:35</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>06:35</t>
+          <t>05:25</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>01:57:14</t>
+          <t>02:14:54</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>06:25</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>7909</v>
+        <v>6815</v>
       </c>
       <c r="O17" t="n">
-        <v>395</v>
+        <v>325</v>
       </c>
       <c r="P17" t="n">
-        <v>7034</v>
+        <v>8094</v>
       </c>
       <c r="Q17" t="n">
-        <v>352</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18">
@@ -17481,133 +17481,133 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>16</v>
+      </c>
+      <c r="K11" t="n">
         <v>2</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>10</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="M11" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="N11" t="n">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="O11" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P11" t="n">
-        <v>942</v>
+        <v>931</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>2</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M12" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N12" t="n">
-        <v>854</v>
+        <v>933</v>
       </c>
       <c r="O12" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P12" t="n">
-        <v>911</v>
+        <v>942</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -17616,53 +17616,53 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="N13" t="n">
-        <v>918</v>
+        <v>830</v>
       </c>
       <c r="O13" t="n">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="P13" t="n">
-        <v>936</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
@@ -17673,49 +17673,49 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="M14" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="N14" t="n">
-        <v>928</v>
+        <v>854</v>
       </c>
       <c r="O14" t="n">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="P14" t="n">
-        <v>803</v>
+        <v>911</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -17724,28 +17724,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="M15" t="n">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="N15" t="n">
-        <v>831</v>
+        <v>928</v>
       </c>
       <c r="O15" t="n">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="P15" t="n">
-        <v>1108</v>
+        <v>803</v>
       </c>
     </row>
     <row r="16">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -1464,103 +1464,103 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
         <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K4" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L4" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>26</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="L5" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M5" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N5" t="n">
         <v>36</v>
       </c>
       <c r="O5" t="n">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
@@ -1872,67 +1872,67 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
         <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
+        <v>22</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>16</v>
+      </c>
+      <c r="J12" t="n">
         <v>21</v>
       </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>16</v>
-      </c>
       <c r="K12" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L12" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M12" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="O12" t="n">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
         <v>8</v>
@@ -1941,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
         <v>21</v>
@@ -1950,25 +1950,25 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
+        <v>15</v>
+      </c>
+      <c r="J13" t="n">
         <v>16</v>
       </c>
-      <c r="J13" t="n">
-        <v>21</v>
-      </c>
       <c r="K13" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="L13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M13" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N13" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O13" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
@@ -2034,22 +2034,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
         <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
         <v>20</v>
@@ -2064,13 +2064,13 @@
         <v>60</v>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N15" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O15" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
@@ -2280,103 +2280,103 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
         <v>17</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K20" t="n">
+        <v>61</v>
+      </c>
+      <c r="L20" t="n">
+        <v>66</v>
+      </c>
+      <c r="M20" t="n">
+        <v>43</v>
+      </c>
+      <c r="N20" t="n">
         <v>46</v>
       </c>
-      <c r="L20" t="n">
-        <v>38</v>
-      </c>
-      <c r="M20" t="n">
-        <v>41</v>
-      </c>
-      <c r="N20" t="n">
-        <v>74</v>
-      </c>
       <c r="O20" t="n">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>22</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K21" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L21" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="M21" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N21" t="n">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="O21" t="n">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22">
@@ -2682,16 +2682,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
         <v>11</v>
@@ -2700,238 +2700,238 @@
         <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>28</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J4" t="n">
         <v>13</v>
       </c>
       <c r="K4" t="n">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="L4" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="M4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O4" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
         <v>11</v>
       </c>
       <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
         <v>5</v>
       </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
       <c r="G5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J5" t="n">
         <v>13</v>
       </c>
       <c r="K5" t="n">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="L5" t="n">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N5" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="O5" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
         <v>26</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K6" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="L6" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N6" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O6" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K7" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L7" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O7" t="n">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
         <v>25</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L8" t="n">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N8" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O8" t="n">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
@@ -3090,103 +3090,103 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C12" t="n">
+        <v>23</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" t="n">
         <v>22</v>
       </c>
-      <c r="D12" t="n">
-        <v>9</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-      <c r="G12" t="n">
-        <v>21</v>
-      </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L12" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N12" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="O12" t="n">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
         <v>10</v>
       </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
       <c r="G13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K13" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L13" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N13" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O13" t="n">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -3405,7 +3405,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
         <v>5</v>
@@ -3414,7 +3414,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
         <v>17</v>
@@ -3423,25 +3423,25 @@
         <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J18" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K18" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L18" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M18" t="n">
         <v>31</v>
       </c>
       <c r="N18" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O18" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19">
@@ -3909,7 +3909,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
         <v>9</v>
@@ -3918,34 +3918,34 @@
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>28</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
         <v>24</v>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L4" t="n">
         <v>54</v>
       </c>
       <c r="M4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
@@ -4155,205 +4155,205 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
         <v>23</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J9" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K9" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L9" t="n">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="M9" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O9" t="n">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
         <v>7</v>
       </c>
-      <c r="E10" t="n">
-        <v>9</v>
-      </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
         <v>23</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K10" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L10" t="n">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N10" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="O10" t="n">
-        <v>151</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" t="n">
         <v>5</v>
       </c>
       <c r="I11" t="n">
+        <v>22</v>
+      </c>
+      <c r="J11" t="n">
         <v>20</v>
       </c>
-      <c r="J11" t="n">
-        <v>18</v>
-      </c>
       <c r="K11" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="L11" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M11" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="O11" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C12" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
         <v>22</v>
       </c>
-      <c r="D12" t="n">
-        <v>8</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="H12" t="n">
         <v>5</v>
       </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-      <c r="G12" t="n">
-        <v>21</v>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
       <c r="I12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J12" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K12" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L12" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M12" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O12" t="n">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
@@ -4563,12 +4563,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4587,181 +4587,181 @@
         <v>19</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I17" t="n">
+        <v>17</v>
+      </c>
+      <c r="J17" t="n">
         <v>18</v>
       </c>
-      <c r="J17" t="n">
-        <v>20</v>
-      </c>
       <c r="K17" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L17" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M17" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="O17" t="n">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>21</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" t="n">
         <v>19</v>
       </c>
-      <c r="D18" t="n">
-        <v>8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+      <c r="I18" t="n">
         <v>18</v>
       </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-      <c r="I18" t="n">
-        <v>14</v>
-      </c>
       <c r="J18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K18" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="L18" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M18" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N18" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O18" t="n">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" t="n">
+        <v>18</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+      <c r="I19" t="n">
+        <v>14</v>
+      </c>
+      <c r="J19" t="n">
         <v>17</v>
       </c>
-      <c r="H19" t="n">
-        <v>11</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J19" t="n">
-        <v>20</v>
-      </c>
       <c r="K19" t="n">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="L19" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="M19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N19" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O19" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="n">
         <v>5</v>
       </c>
-      <c r="E20" t="n">
-        <v>7</v>
-      </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
         <v>17</v>
       </c>
       <c r="H20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K20" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L20" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N20" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O20" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="n">
         <v>3</v>
@@ -4836,34 +4836,34 @@
         <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
         <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="n">
         <v>14</v>
       </c>
       <c r="J22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K22" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L22" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M22" t="n">
         <v>16</v>
       </c>
       <c r="N22" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O22" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
         <v>93.5</v>
       </c>
       <c r="G5" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>105316</v>
+        <v>111305</v>
       </c>
       <c r="J5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5511,161 +5511,161 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>N. Serebryakov</t>
+          <t>D. Gamzin</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Н. Серебряков</t>
+          <t>Д. Гамзин</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>91.7</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>2.49</v>
+        <v>2.23</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>103426</v>
+        <v>53719</v>
       </c>
       <c r="J15" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P. Khomchenko</t>
+          <t>N. Serebryakov</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>П. Хомченко</t>
+          <t>Н. Серебряков</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F16" t="n">
         <v>91.7</v>
       </c>
       <c r="G16" t="n">
-        <v>2.75</v>
+        <v>2.49</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>74224</v>
+        <v>103426</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P. Rybar</t>
+          <t>P. Khomchenko</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>П. Рибар</t>
+          <t>П. Хомченко</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>91.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="G17" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>89432</v>
+        <v>74224</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D. Gamzin</t>
+          <t>P. Rybar</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Д. Гамзин</t>
+          <t>П. Рибар</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F18" t="n">
         <v>91.59999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>2.38</v>
+        <v>2.82</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>47909</v>
+        <v>89432</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -5831,262 +5831,262 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A. Scheel</t>
+          <t>C. Driedger</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>А. Шил</t>
+          <t>К. Дригер</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>90.90000000000001</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>3.03</v>
+        <v>2.78</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>47533</v>
+        <v>86429</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C. Driedger</t>
+          <t>A. Samoilov</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>К. Дригер</t>
+          <t>А. Самойлов</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
-        <v>90.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="G24" t="n">
-        <v>2.78</v>
+        <v>2.27</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>86429</v>
+        <v>108222</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A. Samoilov</t>
+          <t>S. Martin</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>А. Самойлов</t>
+          <t>С. Мартин</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F25" t="n">
         <v>90.5</v>
       </c>
       <c r="G25" t="n">
-        <v>2.27</v>
+        <v>2.69</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>108222</v>
+        <v>77938</v>
       </c>
       <c r="J25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S. Martin</t>
+          <t>I. Kulbakov</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>С. Мартин</t>
+          <t>И. Кульбаков</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F26" t="n">
         <v>90.5</v>
       </c>
       <c r="G26" t="n">
-        <v>2.69</v>
+        <v>3.08</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>77938</v>
+        <v>62334</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>I. Kulbakov</t>
+          <t>M. Berdin</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>И. Кульбаков</t>
+          <t>М. Бердин</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>90.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>3.08</v>
+        <v>2.32</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>62334</v>
+        <v>59444</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>M. Berdin</t>
+          <t>M. Motorygin</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>М. Бердин</t>
+          <t>М. Моторыгин</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
         <v>90.40000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>2.32</v>
+        <v>2.92</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>59444</v>
+        <v>59501</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>M. Motorygin</t>
+          <t>D. Nikolayev</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>М. Моторыгин</t>
+          <t>Д. Николаев</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -6096,53 +6096,53 @@
         <v>90.40000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>59501</v>
+        <v>48919</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D. Nikolayev</t>
+          <t>A. Scheel</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Д. Николаев</t>
+          <t>А. Шил</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>90.40000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>48919</v>
+        <v>53533</v>
       </c>
       <c r="J30" t="n">
         <v>4</v>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,32 +6637,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8085</v>
+        <v>8325</v>
       </c>
       <c r="F7" t="n">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G7" t="n">
-        <v>7404</v>
+        <v>7767</v>
       </c>
       <c r="H7" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I7" t="n">
         <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K7" t="n">
-        <v>4.897959183673469</v>
+        <v>4.756756756756757</v>
       </c>
       <c r="L7" t="n">
-        <v>4.862236628849271</v>
+        <v>6.025492468134415</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -6701,20 +6701,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5969</v>
+        <v>6209</v>
       </c>
       <c r="F8" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G8" t="n">
-        <v>6669</v>
+        <v>7029</v>
       </c>
       <c r="H8" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I8" t="n">
         <v>22</v>
@@ -6723,10 +6723,10 @@
         <v>19</v>
       </c>
       <c r="K8" t="n">
-        <v>13.26855419668286</v>
+        <v>12.75567724271219</v>
       </c>
       <c r="L8" t="n">
-        <v>10.25641025641026</v>
+        <v>9.73111395646607</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -6765,20 +6765,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7909</v>
+        <v>8269</v>
       </c>
       <c r="F9" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G9" t="n">
-        <v>7034</v>
+        <v>7274</v>
       </c>
       <c r="H9" t="n">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="I9" t="n">
         <v>22</v>
@@ -6787,10 +6787,10 @@
         <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>10.01390820584145</v>
+        <v>9.577941710001211</v>
       </c>
       <c r="L9" t="n">
-        <v>7.676997441000854</v>
+        <v>7.423700852350838</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,32 +7213,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>8171</v>
+        <v>8534</v>
       </c>
       <c r="F16" t="n">
         <v>371</v>
       </c>
       <c r="G16" t="n">
-        <v>6676</v>
+        <v>6916</v>
       </c>
       <c r="H16" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J16" t="n">
         <v>13</v>
       </c>
       <c r="K16" t="n">
-        <v>7.93048586464325</v>
+        <v>8.858682915397234</v>
       </c>
       <c r="L16" t="n">
-        <v>7.010185739964051</v>
+        <v>6.766917293233083</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-03 15:39:45</t>
+          <t>2025-11-04 03:00:43</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8414,139 +8414,139 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L8" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M8" t="n">
+        <v>167</v>
+      </c>
+      <c r="N8" t="n">
+        <v>208</v>
+      </c>
+      <c r="O8" t="n">
+        <v>74</v>
+      </c>
+      <c r="P8" t="n">
         <v>116</v>
       </c>
-      <c r="N8" t="n">
-        <v>167</v>
-      </c>
-      <c r="O8" t="n">
-        <v>99</v>
-      </c>
-      <c r="P8" t="n">
-        <v>121</v>
-      </c>
       <c r="Q8" t="n">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="R8" t="n">
-        <v>110908</v>
+        <v>102157</v>
       </c>
       <c r="S8" t="n">
-        <v>5025</v>
+        <v>4840</v>
       </c>
       <c r="T8" t="n">
-        <v>1249</v>
+        <v>1107</v>
       </c>
       <c r="U8" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L9" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M9" t="n">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="N9" t="n">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="O9" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="P9" t="n">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="Q9" t="n">
-        <v>328</v>
+        <v>399</v>
       </c>
       <c r="R9" t="n">
-        <v>97157</v>
+        <v>110908</v>
       </c>
       <c r="S9" t="n">
-        <v>4836</v>
+        <v>5025</v>
       </c>
       <c r="T9" t="n">
-        <v>1107</v>
+        <v>1249</v>
       </c>
       <c r="U9" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -8690,81 +8690,81 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>25</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L12" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M12" t="n">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="N12" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="O12" t="n">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="P12" t="n">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="Q12" t="n">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="R12" t="n">
-        <v>103642</v>
+        <v>113514</v>
       </c>
       <c r="S12" t="n">
-        <v>4922</v>
+        <v>4921</v>
       </c>
       <c r="T12" t="n">
-        <v>632</v>
+        <v>1115</v>
       </c>
       <c r="U12" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -8774,16 +8774,16 @@
         <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>25</v>
@@ -8792,106 +8792,106 @@
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M13" t="n">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="N13" t="n">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="O13" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="P13" t="n">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="Q13" t="n">
-        <v>518</v>
+        <v>388</v>
       </c>
       <c r="R13" t="n">
-        <v>102353</v>
+        <v>103642</v>
       </c>
       <c r="S13" t="n">
-        <v>4845</v>
+        <v>4922</v>
       </c>
       <c r="T13" t="n">
-        <v>940</v>
+        <v>632</v>
       </c>
       <c r="U13" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
         <v>8</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L14" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M14" t="n">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="N14" t="n">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="O14" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P14" t="n">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="Q14" t="n">
-        <v>433</v>
+        <v>518</v>
       </c>
       <c r="R14" t="n">
-        <v>108517</v>
+        <v>102353</v>
       </c>
       <c r="S14" t="n">
-        <v>4920</v>
+        <v>4845</v>
       </c>
       <c r="T14" t="n">
-        <v>1104</v>
+        <v>940</v>
       </c>
       <c r="U14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -8906,7 +8906,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
         <v>10</v>
@@ -8927,40 +8927,40 @@
         <v>22</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>57</v>
       </c>
       <c r="L15" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M15" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="N15" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="O15" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P15" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q15" t="n">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="R15" t="n">
-        <v>105922</v>
+        <v>110922</v>
       </c>
       <c r="S15" t="n">
-        <v>5027</v>
+        <v>5026</v>
       </c>
       <c r="T15" t="n">
-        <v>1113</v>
+        <v>1303</v>
       </c>
       <c r="U15" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
@@ -9113,7 +9113,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
         <v>5</v>
@@ -9137,37 +9137,37 @@
         <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L18" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M18" t="n">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="N18" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O18" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P18" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="Q18" t="n">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="R18" t="n">
-        <v>108903</v>
+        <v>113900</v>
       </c>
       <c r="S18" t="n">
-        <v>4930</v>
+        <v>4931</v>
       </c>
       <c r="T18" t="n">
         <v>1304</v>
       </c>
       <c r="U18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -9835,25 +9835,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -9862,7 +9862,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9874,40 +9874,40 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>3.09</v>
+        <v>3.33</v>
       </c>
       <c r="P6" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -9916,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -9931,10 +9931,10 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>3.4</v>
+        <v>3.09</v>
       </c>
       <c r="P7" t="n">
         <v>69</v>
@@ -10105,31 +10105,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -10150,7 +10150,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>2.95</v>
+        <v>2.83</v>
       </c>
       <c r="P11" t="n">
         <v>67</v>
@@ -10159,28 +10159,28 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -10195,49 +10195,49 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="P12" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -10249,52 +10249,52 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>2.73</v>
+        <v>3.1</v>
       </c>
       <c r="P13" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -10309,46 +10309,46 @@
         <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>2.81</v>
+        <v>2.61</v>
       </c>
       <c r="P14" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2.64</v>
+        <v>2.81</v>
       </c>
       <c r="P15" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
@@ -10438,7 +10438,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" t="n">
         <v>32</v>
@@ -10474,7 +10474,7 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>2.71</v>
+        <v>2.59</v>
       </c>
       <c r="P17" t="n">
         <v>59</v>
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
         <v>27</v>
@@ -11007,10 +11007,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="P3" t="n">
-        <v>49.25</v>
+        <v>49.14</v>
       </c>
     </row>
     <row r="4">
@@ -11394,22 +11394,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -11421,110 +11421,110 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="P11" t="n">
-        <v>62.76</v>
+        <v>64.68000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>2.68</v>
+        <v>2.81</v>
       </c>
       <c r="P12" t="n">
-        <v>64.68000000000001</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>2</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
@@ -11532,25 +11532,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>2.81</v>
+        <v>2.73</v>
       </c>
       <c r="P13" t="n">
-        <v>62.81</v>
+        <v>65.73</v>
       </c>
     </row>
     <row r="14">
@@ -11718,28 +11718,28 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -11751,22 +11751,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>10</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>3.05</v>
+        <v>3.19</v>
       </c>
       <c r="P17" t="n">
-        <v>70.05</v>
+        <v>70.19</v>
       </c>
     </row>
     <row r="18">
@@ -11781,10 +11781,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -11817,37 +11817,37 @@
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="P18" t="n">
-        <v>73.05</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -11856,100 +11856,100 @@
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3.19</v>
+        <v>3.63</v>
       </c>
       <c r="P19" t="n">
-        <v>70.19</v>
+        <v>75.63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>2</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>3.63</v>
+        <v>3.33</v>
       </c>
       <c r="P20" t="n">
-        <v>75.63</v>
+        <v>74.33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -11958,31 +11958,31 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>3.33</v>
+        <v>3.13</v>
       </c>
       <c r="P21" t="n">
-        <v>74.33</v>
+        <v>75.13</v>
       </c>
     </row>
     <row r="22">
@@ -12179,55 +12179,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D3" t="n">
-        <v>13.58</v>
+        <v>9.09</v>
       </c>
       <c r="E3" t="n">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="F3" t="n">
-        <v>8.859999999999999</v>
+        <v>12.34</v>
       </c>
       <c r="G3" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D4" t="n">
-        <v>9.09</v>
+        <v>13.58</v>
       </c>
       <c r="E4" t="n">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="F4" t="n">
-        <v>12.34</v>
+        <v>8.08</v>
       </c>
       <c r="G4" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -12410,13 +12410,13 @@
         <v>8.17</v>
       </c>
       <c r="E11" t="n">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="F11" t="n">
-        <v>10.89</v>
+        <v>11.39</v>
       </c>
       <c r="G11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -12431,10 +12431,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="D12" t="n">
-        <v>10.44</v>
+        <v>10.34</v>
       </c>
       <c r="E12" t="n">
         <v>334</v>
@@ -12443,7 +12443,7 @@
         <v>7.49</v>
       </c>
       <c r="G12" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -12566,10 +12566,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>406</v>
+        <v>444</v>
       </c>
       <c r="D17" t="n">
-        <v>10.34</v>
+        <v>9.91</v>
       </c>
       <c r="E17" t="n">
         <v>256</v>
@@ -12578,7 +12578,7 @@
         <v>6.25</v>
       </c>
       <c r="G17" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -13010,67 +13010,67 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="D8" t="n">
-        <v>567</v>
+        <v>686</v>
       </c>
       <c r="E8" t="n">
-        <v>47.29</v>
+        <v>54.75</v>
       </c>
       <c r="F8" t="n">
-        <v>152</v>
+        <v>330</v>
       </c>
       <c r="G8" t="n">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="H8" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I8" t="n">
-        <v>399</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="D9" t="n">
-        <v>661</v>
+        <v>567</v>
       </c>
       <c r="E9" t="n">
-        <v>55.18</v>
+        <v>47.29</v>
       </c>
       <c r="F9" t="n">
-        <v>314</v>
+        <v>152</v>
       </c>
       <c r="G9" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="H9" t="n">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="I9" t="n">
-        <v>328</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10">
@@ -13142,100 +13142,100 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>374</v>
+        <v>463</v>
       </c>
       <c r="D12" t="n">
-        <v>581</v>
+        <v>693</v>
       </c>
       <c r="E12" t="n">
-        <v>46.85</v>
+        <v>48.53</v>
       </c>
       <c r="F12" t="n">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="G12" t="n">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H12" t="n">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="I12" t="n">
-        <v>388</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>286</v>
+        <v>374</v>
       </c>
       <c r="D13" t="n">
-        <v>685</v>
+        <v>581</v>
       </c>
       <c r="E13" t="n">
-        <v>53.47</v>
+        <v>46.85</v>
       </c>
       <c r="F13" t="n">
-        <v>341</v>
+        <v>430</v>
       </c>
       <c r="G13" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H13" t="n">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="I13" t="n">
-        <v>518</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>450</v>
+        <v>286</v>
       </c>
       <c r="D14" t="n">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="E14" t="n">
-        <v>48.35</v>
+        <v>53.47</v>
       </c>
       <c r="F14" t="n">
-        <v>459</v>
+        <v>341</v>
       </c>
       <c r="G14" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H14" t="n">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="I14" t="n">
-        <v>433</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15">
@@ -13250,25 +13250,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="D15" t="n">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="E15" t="n">
-        <v>51.09</v>
+        <v>51.25</v>
       </c>
       <c r="F15" t="n">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="G15" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H15" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I15" t="n">
-        <v>395</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16">
@@ -13349,25 +13349,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="D18" t="n">
-        <v>625</v>
+        <v>654</v>
       </c>
       <c r="E18" t="n">
-        <v>49.37</v>
+        <v>49.28</v>
       </c>
       <c r="F18" t="n">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="G18" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H18" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I18" t="n">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19">
@@ -13750,23 +13750,23 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" t="n">
         <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>34.9</v>
+        <v>33.8</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>01:39:29</t>
+          <t>01:43:29</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -13774,21 +13774,21 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>04:44</t>
+          <t>04:42</t>
         </is>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M3" t="n">
         <v>19</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>01:51:09</t>
+          <t>01:57:09</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -13796,23 +13796,23 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>05:18</t>
+          <t>05:20</t>
         </is>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5969</v>
+        <v>6209</v>
       </c>
       <c r="S3" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T3" t="n">
-        <v>6669</v>
+        <v>7029</v>
       </c>
       <c r="U3" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4">
@@ -13904,23 +13904,23 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E5" t="n">
         <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>27.2</v>
+        <v>26.2</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>02:11:49</t>
+          <t>02:17:49</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -13928,21 +13928,21 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>06:35</t>
+          <t>06:34</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
         <v>15</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>01:57:14</t>
+          <t>02:01:14</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -13950,23 +13950,23 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>05:46</t>
         </is>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>7909</v>
+        <v>8269</v>
       </c>
       <c r="S5" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T5" t="n">
-        <v>7034</v>
+        <v>7274</v>
       </c>
       <c r="U5" t="n">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6">
@@ -14280,54 +14280,54 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
+        <v>90</v>
+      </c>
+      <c r="E10" t="n">
+        <v>21</v>
+      </c>
+      <c r="F10" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>02:22:14</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>06:11</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>70</v>
       </c>
-      <c r="E10" t="n">
-        <v>15</v>
-      </c>
-      <c r="F10" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>01:59:33</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>05:59</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>67</v>
-      </c>
       <c r="M10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>01:57:28</t>
+          <t>01:55:16</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -14335,54 +14335,54 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>05:01</t>
         </is>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>7173</v>
+        <v>8534</v>
       </c>
       <c r="S10" t="n">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="T10" t="n">
-        <v>7048</v>
+        <v>6916</v>
       </c>
       <c r="U10" t="n">
-        <v>352</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>02:16:11</t>
+          <t>01:59:33</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -14390,21 +14390,21 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>05:59</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>01:51:16</t>
+          <t>01:57:28</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -14412,23 +14412,23 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>05:03</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>8171</v>
+        <v>7173</v>
       </c>
       <c r="S11" t="n">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="T11" t="n">
-        <v>6676</v>
+        <v>7048</v>
       </c>
       <c r="U11" t="n">
-        <v>303</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12">
@@ -15136,23 +15136,23 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E21" t="n">
         <v>11</v>
       </c>
       <c r="F21" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>02:14:45</t>
+          <t>02:18:45</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -15160,21 +15160,21 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>06:08</t>
+          <t>06:02</t>
         </is>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M21" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>02:03:24</t>
+          <t>02:09:27</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -15182,23 +15182,23 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>05:37</t>
+          <t>05:38</t>
         </is>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8085</v>
+        <v>8325</v>
       </c>
       <c r="S21" t="n">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="T21" t="n">
-        <v>7404</v>
+        <v>7767</v>
       </c>
       <c r="U21" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22">
@@ -15464,391 +15464,391 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>86.5</v>
+        <v>85.3</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>02:14:45</t>
+          <t>02:04:49</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>06:08</t>
+          <t>05:57</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>02:03:24</t>
+          <t>01:54:18</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05:37</t>
+          <t>05:27</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>8085</v>
+        <v>7489</v>
       </c>
       <c r="O2" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="P2" t="n">
-        <v>7404</v>
+        <v>6858</v>
       </c>
       <c r="Q2" t="n">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>85.3</v>
+        <v>83.8</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>02:04:49</t>
+          <t>01:57:19</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>05:57</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>01:54:18</t>
+          <t>02:11:15</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05:27</t>
+          <t>05:28</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>7489</v>
+        <v>7039</v>
       </c>
       <c r="O3" t="n">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="P3" t="n">
-        <v>6858</v>
+        <v>7875</v>
       </c>
       <c r="Q3" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
         <v>83.8</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>01:57:19</t>
+          <t>01:28:57</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>04:14</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>02:11:15</t>
+          <t>01:56:29</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05:28</t>
+          <t>05:33</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>7039</v>
+        <v>5337</v>
       </c>
       <c r="O4" t="n">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="P4" t="n">
-        <v>7875</v>
+        <v>6989</v>
       </c>
       <c r="Q4" t="n">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>83.8</v>
+        <v>83.5</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>01:28:57</t>
+          <t>02:13:47</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>04:14</t>
+          <t>06:05</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>01:56:29</t>
+          <t>02:15:38</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05:33</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>5337</v>
+        <v>8027</v>
       </c>
       <c r="O5" t="n">
-        <v>254</v>
+        <v>365</v>
       </c>
       <c r="P5" t="n">
-        <v>6989</v>
+        <v>8138</v>
       </c>
       <c r="Q5" t="n">
-        <v>333</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>02:13:47</t>
+          <t>01:49:42</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>06:05</t>
+          <t>05:13</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>02:15:38</t>
+          <t>02:02:55</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>8027</v>
+        <v>6582</v>
       </c>
       <c r="O6" t="n">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="P6" t="n">
-        <v>8138</v>
+        <v>7375</v>
       </c>
       <c r="Q6" t="n">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
         <v>83.3</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>01:49:42</t>
+          <t>02:18:45</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>05:13</t>
+          <t>06:02</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>02:02:55</t>
+          <t>02:09:27</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>05:38</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>6582</v>
+        <v>8325</v>
       </c>
       <c r="O7" t="n">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="P7" t="n">
-        <v>7375</v>
+        <v>7767</v>
       </c>
       <c r="Q7" t="n">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8">
@@ -16188,26 +16188,26 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>80.90000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>02:16:11</t>
+          <t>02:22:14</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -16216,29 +16216,29 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>01:51:16</t>
+          <t>01:55:16</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>05:03</t>
+          <t>05:01</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>8171</v>
+        <v>8534</v>
       </c>
       <c r="O13" t="n">
         <v>371</v>
       </c>
       <c r="P13" t="n">
-        <v>6676</v>
+        <v>6916</v>
       </c>
       <c r="Q13" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14">
@@ -16383,16 +16383,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>77.90000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G16" t="n">
         <v>22</v>
@@ -16402,38 +16402,38 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>02:11:49</t>
+          <t>02:17:49</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>06:35</t>
+          <t>06:34</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>01:57:14</t>
+          <t>02:01:14</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>05:46</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>7909</v>
+        <v>8269</v>
       </c>
       <c r="O16" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P16" t="n">
-        <v>7034</v>
+        <v>7274</v>
       </c>
       <c r="Q16" t="n">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17">
@@ -16708,16 +16708,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" t="n">
-        <v>72.09999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="E21" t="n">
         <v>19</v>
       </c>
       <c r="F21" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G21" t="n">
         <v>22</v>
@@ -16727,38 +16727,38 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>01:39:29</t>
+          <t>01:43:29</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>04:44</t>
+          <t>04:42</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>01:51:09</t>
+          <t>01:57:09</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>05:18</t>
+          <t>05:20</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>5969</v>
+        <v>6209</v>
       </c>
       <c r="O21" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P21" t="n">
-        <v>6669</v>
+        <v>7029</v>
       </c>
       <c r="Q21" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22">
@@ -17004,10 +17004,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -17031,19 +17031,19 @@
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M2" t="n">
         <v>106</v>
       </c>
       <c r="N2" t="n">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="O2" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P2" t="n">
-        <v>949</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3">
@@ -17913,22 +17913,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>22</v>
       </c>
       <c r="D19" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -17940,28 +17940,28 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M19" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="N19" t="n">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="O19" t="n">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="P19" t="n">
-        <v>910</v>
+        <v>649</v>
       </c>
     </row>
     <row r="20">
@@ -17976,10 +17976,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -18003,40 +18003,40 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M20" t="n">
         <v>95</v>
       </c>
       <c r="N20" t="n">
-        <v>803</v>
+        <v>757</v>
       </c>
       <c r="O20" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="P20" t="n">
-        <v>1000</v>
+        <v>954</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -18048,28 +18048,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>10</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M21" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N21" t="n">
-        <v>737</v>
+        <v>715</v>
       </c>
       <c r="O21" t="n">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="P21" t="n">
-        <v>651</v>
+        <v>907</v>
       </c>
     </row>
     <row r="22">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-04 03:00:43</t>
+          <t>2025-11-04 07:00:42</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-04 07:00:42</t>
+          <t>2025-11-04 08:09:14</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-04 08:09:14</t>
+          <t>2025-11-04 09:22:27</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-09 03:00:46</t>
+          <t>2025-11-09 04:50:54</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-09 04:50:54</t>
+          <t>2025-11-09 07:00:44</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -1434,31 +1434,31 @@
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" t="n">
         <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="n">
         <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N3" t="n">
         <v>66</v>
       </c>
       <c r="O3" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
@@ -1719,124 +1719,124 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I9" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J9" t="n">
         <v>21</v>
       </c>
       <c r="K9" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L9" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N9" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="O9" t="n">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
         <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K10" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L10" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="M10" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="O10" t="n">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>8</v>
@@ -1845,28 +1845,28 @@
         <v>25</v>
       </c>
       <c r="H11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K11" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L11" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="M11" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N11" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="O11" t="n">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
@@ -1923,103 +1923,103 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
         <v>24</v>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K13" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L13" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="M13" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N13" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O13" t="n">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
         <v>7</v>
       </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
       <c r="G14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H14" t="n">
         <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L14" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="M14" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N14" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O14" t="n">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
@@ -2229,154 +2229,154 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
         <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I19" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J19" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K19" t="n">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="L19" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N19" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="O19" t="n">
-        <v>122</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D20" t="n">
         <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J20" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K20" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="L20" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="M20" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="O20" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G21" t="n">
         <v>18</v>
       </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I21" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K21" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L21" t="n">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="M21" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N21" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="O21" t="n">
-        <v>169</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22">
@@ -2589,10 +2589,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -2601,31 +2601,31 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
         <v>16</v>
       </c>
       <c r="K2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L2" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O2" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
         <v>11</v>
@@ -2700,34 +2700,34 @@
         <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>31</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
         <v>24</v>
       </c>
       <c r="J4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L4" t="n">
         <v>100</v>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N4" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O4" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5">
@@ -3243,79 +3243,79 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" t="n">
         <v>11</v>
       </c>
       <c r="I15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K15" t="n">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="L15" t="n">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N15" t="n">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="O15" t="n">
-        <v>130</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="n">
         <v>5</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>10</v>
       </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
       <c r="G16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H16" t="n">
         <v>11</v>
@@ -3324,148 +3324,148 @@
         <v>22</v>
       </c>
       <c r="J16" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K16" t="n">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="L16" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="M16" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="O16" t="n">
-        <v>174</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C17" t="n">
+        <v>24</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" t="n">
         <v>21</v>
       </c>
-      <c r="D17" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-      <c r="G17" t="n">
-        <v>19</v>
-      </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J17" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K17" t="n">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="L17" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M17" t="n">
+        <v>49</v>
+      </c>
+      <c r="N17" t="n">
         <v>40</v>
       </c>
-      <c r="N17" t="n">
-        <v>28</v>
-      </c>
       <c r="O17" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
         <v>19</v>
       </c>
       <c r="H18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18" t="n">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="L18" t="n">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="M18" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O18" t="n">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G19" t="n">
         <v>19</v>
@@ -3474,25 +3474,25 @@
         <v>12</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J19" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K19" t="n">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="L19" t="n">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="M19" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N19" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O19" t="n">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20">
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" t="n">
         <v>4</v>
@@ -3516,34 +3516,34 @@
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
         <v>18</v>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I20" t="n">
         <v>14</v>
       </c>
       <c r="J20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K20" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L20" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N20" t="n">
         <v>50</v>
       </c>
       <c r="O20" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
@@ -3849,63 +3849,63 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
         <v>26</v>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K3" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="L3" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M3" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N3" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O3" t="n">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3924,79 +3924,79 @@
         <v>30</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>46</v>
       </c>
       <c r="L4" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N4" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
         <v>30</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K5" t="n">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="L5" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M5" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N5" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="O5" t="n">
-        <v>119</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>11</v>
@@ -4071,22 +4071,22 @@
         <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
         <v>28</v>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
         <v>27</v>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L7" t="n">
         <v>69</v>
@@ -4098,7 +4098,7 @@
         <v>43</v>
       </c>
       <c r="O7" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8">
@@ -4206,154 +4206,154 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J10" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K10" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="L10" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="O10" t="n">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="n">
         <v>10</v>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
       </c>
       <c r="G11" t="n">
         <v>24</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I11" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K11" t="n">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="L11" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O11" t="n">
-        <v>176</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>24</v>
+      </c>
+      <c r="H12" t="n">
         <v>7</v>
       </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-      <c r="G12" t="n">
-        <v>23</v>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
       <c r="I12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="L12" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="M12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N12" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O12" t="n">
-        <v>124</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13">
@@ -4563,76 +4563,76 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C17" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11</v>
+      </c>
+      <c r="G17" t="n">
         <v>21</v>
-      </c>
-      <c r="D17" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>20</v>
       </c>
       <c r="H17" t="n">
         <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J17" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K17" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L17" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="M17" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N17" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="O17" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G18" t="n">
         <v>20</v>
@@ -4641,25 +4641,25 @@
         <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J18" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K18" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L18" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="M18" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N18" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="O18" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19">
@@ -4818,103 +4818,103 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" t="n">
         <v>10</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>17</v>
+      </c>
+      <c r="H22" t="n">
         <v>11</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>16</v>
       </c>
-      <c r="H22" t="n">
-        <v>17</v>
-      </c>
-      <c r="I22" t="n">
-        <v>14</v>
-      </c>
       <c r="J22" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K22" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L22" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M22" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N22" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O22" t="n">
-        <v>135</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H23" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K23" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L23" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M23" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N23" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O23" t="n">
-        <v>71</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5090,19 +5090,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
         <v>93.8</v>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>73851</v>
+        <v>79535</v>
       </c>
       <c r="J4" t="n">
         <v>8</v>
@@ -5111,62 +5111,62 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S. Vyazovoi</t>
+          <t>M. Dorozhko</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>С. Вязовой</t>
+          <t>М. Дорожко</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
         <v>93.5</v>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>65746</v>
+        <v>135822</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>V. Podyapolsky</t>
+          <t>S. Vyazovoi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>В. Подъяпольский</t>
+          <t>С. Вязовой</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -5176,13 +5176,13 @@
         <v>93.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>72445</v>
+        <v>65746</v>
       </c>
       <c r="J6" t="n">
         <v>6</v>
@@ -5191,41 +5191,41 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M. Dorozhko</t>
+          <t>V. Podyapolsky</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>М. Дорожко</t>
+          <t>В. Подъяпольский</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>93.2</v>
+        <v>93.5</v>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>1.82</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>129822</v>
+        <v>72445</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -5431,201 +5431,201 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Y. Zavragin</t>
+          <t>A. Smolin</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Е. Заврагин</t>
+          <t>А. Смолин</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
         <v>92.3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.53</v>
+        <v>2.14</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>59344</v>
+        <v>78600</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A. Krasotkin</t>
+          <t>Y. Zavragin</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>А. Красоткин</t>
+          <t>Е. Заврагин</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>92</v>
+        <v>92.3</v>
       </c>
       <c r="G14" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>77638</v>
+        <v>59344</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>N. Serebryakov</t>
+          <t>A. Krasotkin</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Н. Серебряков</t>
+          <t>А. Красоткин</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>91.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="G15" t="n">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>116046</v>
+        <v>77638</v>
       </c>
       <c r="J15" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>T. Bilyalov</t>
+          <t>N. Serebryakov</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Т. Билялов</t>
+          <t>Н. Серебряков</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>91.8</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G16" t="n">
         <v>2.48</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>84654</v>
+        <v>116046</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A. Smolin</t>
+          <t>T. Bilyalov</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>А. Смолин</t>
+          <t>Т. Билялов</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
         <v>91.8</v>
       </c>
       <c r="G17" t="n">
-        <v>2.23</v>
+        <v>2.48</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>72600</v>
+        <v>84654</v>
       </c>
       <c r="J17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -5711,78 +5711,78 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A. Shutov</t>
+          <t>E. Alikin</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>А. Шутов</t>
+          <t>Е. Аликин</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
         <v>91.5</v>
       </c>
       <c r="G20" t="n">
-        <v>2.69</v>
+        <v>2.53</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>98053</v>
+        <v>76023</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>E. Alikin</t>
+          <t>S. Mylnikov</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Е. Аликин</t>
+          <t>С. Мыльников</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
         <v>91.5</v>
       </c>
       <c r="G21" t="n">
-        <v>2.53</v>
+        <v>2.88</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>76023</v>
+        <v>52104</v>
       </c>
       <c r="J21" t="n">
         <v>4</v>
@@ -5791,41 +5791,41 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S. Mylnikov</t>
+          <t>A. Shutov</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>С. Мыльников</t>
+          <t>А. Шутов</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F22" t="n">
-        <v>91.5</v>
+        <v>91.2</v>
       </c>
       <c r="G22" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>52104</v>
+        <v>101525</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -5871,321 +5871,321 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>M. Motorygin</t>
+          <t>C. Driedger</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>М. Моторыгин</t>
+          <t>К. Дригер</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F24" t="n">
         <v>90.7</v>
       </c>
       <c r="G24" t="n">
-        <v>2.75</v>
+        <v>2.79</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>65440</v>
+        <v>94739</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S. Martin</t>
+          <t>M. Motorygin</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>С. Мартин</t>
+          <t>М. Моторыгин</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>90.5</v>
+        <v>90.7</v>
       </c>
       <c r="G25" t="n">
-        <v>2.69</v>
+        <v>2.75</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>77938</v>
+        <v>65440</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D. Nikolayev</t>
+          <t>S. Martin</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Д. Николаев</t>
+          <t>С. Мартин</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F26" t="n">
         <v>90.5</v>
       </c>
       <c r="G26" t="n">
-        <v>2.86</v>
+        <v>2.69</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>50300</v>
+        <v>77938</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>M. Berdin</t>
+          <t>D. Nikolayev</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>М. Бердин</t>
+          <t>Д. Николаев</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" t="n">
-        <v>90.40000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="G27" t="n">
-        <v>2.32</v>
+        <v>2.86</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>59444</v>
+        <v>50300</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A. Huska</t>
+          <t>A. Scheel</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>А. Хуска</t>
+          <t>А. Шил</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F28" t="n">
-        <v>90.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>2.58</v>
+        <v>3.21</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>109448</v>
+        <v>56033</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A. Trushkov</t>
+          <t>M. Berdin</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>А. Трушков</t>
+          <t>М. Бердин</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="n">
-        <v>90.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>3.79</v>
+        <v>2.32</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>55433</v>
+        <v>59444</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A. Scheel</t>
+          <t>A. Huska</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>А. Шил</t>
+          <t>А. Хуска</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F30" t="n">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="G30" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>53533</v>
+        <v>115240</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C. Driedger</t>
+          <t>A. Trushkov</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>К. Дригер</t>
+          <t>А. Трушков</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>90.09999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="G31" t="n">
-        <v>2.91</v>
+        <v>3.79</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>88741</v>
+        <v>55433</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6317,32 +6317,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6170</v>
+        <v>6796</v>
       </c>
       <c r="F2" t="n">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="G2" t="n">
-        <v>7712</v>
+        <v>8029</v>
       </c>
       <c r="H2" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I2" t="n">
         <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>7.585089141004863</v>
+        <v>6.886403766921719</v>
       </c>
       <c r="L2" t="n">
-        <v>8.869294605809129</v>
+        <v>8.967492838460581</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,32 +6445,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7025</v>
+        <v>7215</v>
       </c>
       <c r="F4" t="n">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G4" t="n">
-        <v>8010</v>
+        <v>8130</v>
       </c>
       <c r="H4" t="n">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
         <v>14</v>
       </c>
       <c r="K4" t="n">
-        <v>6.149466192170818</v>
+        <v>6.486486486486486</v>
       </c>
       <c r="L4" t="n">
-        <v>6.292134831460674</v>
+        <v>6.199261992619927</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,32 +6573,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7284</v>
+        <v>7404</v>
       </c>
       <c r="F6" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G6" t="n">
-        <v>8464</v>
+        <v>8654</v>
       </c>
       <c r="H6" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="I6" t="n">
         <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>6.919275123558484</v>
+        <v>6.807131280388979</v>
       </c>
       <c r="L6" t="n">
-        <v>5.954631379962193</v>
+        <v>6.23988906863878</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -6637,20 +6637,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>9034</v>
+        <v>9416</v>
       </c>
       <c r="F7" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G7" t="n">
-        <v>8492</v>
+        <v>8874</v>
       </c>
       <c r="H7" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I7" t="n">
         <v>12</v>
@@ -6659,10 +6659,10 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>4.781934912552579</v>
+        <v>4.587935429056925</v>
       </c>
       <c r="L7" t="n">
-        <v>6.358926048045219</v>
+        <v>6.085192697768763</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,20 +7149,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9788</v>
+        <v>10170</v>
       </c>
       <c r="F15" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G15" t="n">
-        <v>6380</v>
+        <v>6762</v>
       </c>
       <c r="H15" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I15" t="n">
         <v>26</v>
@@ -7171,10 +7171,10 @@
         <v>11</v>
       </c>
       <c r="K15" t="n">
-        <v>9.562729873314263</v>
+        <v>9.20353982300885</v>
       </c>
       <c r="L15" t="n">
-        <v>6.206896551724138</v>
+        <v>5.856255545696539</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,32 +7661,32 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-09 07:00:44</t>
+          <t>2025-11-10 03:00:46</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7492</v>
+        <v>7809</v>
       </c>
       <c r="F23" t="n">
         <v>312</v>
       </c>
       <c r="G23" t="n">
-        <v>8679</v>
+        <v>9305</v>
       </c>
       <c r="H23" t="n">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
         <v>20</v>
       </c>
       <c r="K23" t="n">
-        <v>6.246663107314469</v>
+        <v>6.454091432961968</v>
       </c>
       <c r="L23" t="n">
-        <v>8.29588662288282</v>
+        <v>7.737775389575497</v>
       </c>
       <c r="M23" t="b">
         <v>1</v>
@@ -8009,10 +8009,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -8027,43 +8027,43 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L2" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M2" t="n">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="N2" t="n">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="O2" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P2" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q2" t="n">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="R2" t="n">
-        <v>118819</v>
+        <v>123535</v>
       </c>
       <c r="S2" t="n">
-        <v>4931</v>
+        <v>4925</v>
       </c>
       <c r="T2" t="n">
         <v>1209</v>
       </c>
       <c r="U2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -8492,7 +8492,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
         <v>10</v>
@@ -8513,40 +8513,40 @@
         <v>31</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>74</v>
       </c>
       <c r="L9" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M9" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N9" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O9" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P9" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q9" t="n">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="R9" t="n">
-        <v>125837</v>
+        <v>131327</v>
       </c>
       <c r="S9" t="n">
-        <v>5021</v>
+        <v>5031</v>
       </c>
       <c r="T9" t="n">
-        <v>2151</v>
+        <v>2507</v>
       </c>
       <c r="U9" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -8699,10 +8699,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -8717,43 +8717,43 @@
         <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L12" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M12" t="n">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="N12" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="O12" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P12" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q12" t="n">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="R12" t="n">
-        <v>119632</v>
+        <v>124049</v>
       </c>
       <c r="S12" t="n">
-        <v>4951</v>
+        <v>4938</v>
       </c>
       <c r="T12" t="n">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="U12" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -9044,10 +9044,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -9062,43 +9062,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L17" t="n">
         <v>61</v>
       </c>
       <c r="M17" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N17" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O17" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P17" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q17" t="n">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="R17" t="n">
-        <v>114834</v>
+        <v>120324</v>
       </c>
       <c r="S17" t="n">
-        <v>4956</v>
+        <v>5009</v>
       </c>
       <c r="T17" t="n">
         <v>906</v>
       </c>
       <c r="U17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -9113,7 +9113,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
         <v>5</v>
@@ -9137,34 +9137,34 @@
         <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L18" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M18" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="N18" t="n">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="O18" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P18" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="Q18" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="R18" t="n">
-        <v>123851</v>
+        <v>128607</v>
       </c>
       <c r="S18" t="n">
-        <v>4933</v>
+        <v>4928</v>
       </c>
       <c r="T18" t="n">
-        <v>1431</v>
+        <v>1459</v>
       </c>
       <c r="U18" t="n">
         <v>35</v>
@@ -9251,7 +9251,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" t="n">
         <v>4</v>
@@ -9275,37 +9275,37 @@
         <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L20" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M20" t="n">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="N20" t="n">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="O20" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P20" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q20" t="n">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="R20" t="n">
-        <v>105514</v>
+        <v>109931</v>
       </c>
       <c r="S20" t="n">
-        <v>5015</v>
+        <v>4959</v>
       </c>
       <c r="T20" t="n">
-        <v>1003</v>
+        <v>1211</v>
       </c>
       <c r="U20" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -9628,10 +9628,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
         <v>22</v>
@@ -9640,7 +9640,7 @@
         <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -9664,40 +9664,40 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>3.83</v>
+        <v>3.84</v>
       </c>
       <c r="P2" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -9709,49 +9709,49 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>3.17</v>
+        <v>3.04</v>
       </c>
       <c r="P3" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E4" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -9766,49 +9766,49 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>3.3</v>
+        <v>3.17</v>
       </c>
       <c r="P4" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -9817,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
@@ -9826,28 +9826,28 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="P5" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
@@ -9859,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -9871,53 +9871,53 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>2.96</v>
+        <v>3.12</v>
       </c>
       <c r="P6" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>2</v>
       </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
@@ -9925,43 +9925,43 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>3.22</v>
+        <v>2.85</v>
       </c>
       <c r="P7" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -9970,7 +9970,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -9979,52 +9979,52 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>2.81</v>
+        <v>3.22</v>
       </c>
       <c r="P8" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -10033,19 +10033,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>3.04</v>
+        <v>2.81</v>
       </c>
       <c r="P9" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -10267,34 +10267,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -10303,52 +10303,52 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>2.83</v>
+        <v>2.5</v>
       </c>
       <c r="P14" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -10357,19 +10357,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2.56</v>
+        <v>2.83</v>
       </c>
       <c r="P15" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -10546,13 +10546,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -10576,40 +10576,40 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="P19" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -10618,7 +10618,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -10627,43 +10627,43 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="P20" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -10681,16 +10681,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="P21" t="n">
         <v>47</v>
@@ -11124,76 +11124,76 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="P6" t="n">
-        <v>66.40000000000001</v>
+        <v>65.54000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -11205,103 +11205,103 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
         <v>2.54</v>
       </c>
       <c r="P7" t="n">
-        <v>65.54000000000001</v>
+        <v>64.54000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
         <v>42</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>12</v>
+      </c>
+      <c r="M8" t="n">
         <v>4</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>10</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
       <c r="N8" t="n">
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="P8" t="n">
-        <v>66.54000000000001</v>
+        <v>66.65000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -11316,19 +11316,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>2.65</v>
@@ -11340,83 +11340,83 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10</v>
+      </c>
+      <c r="M10" t="n">
         <v>3</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>12</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>2.65</v>
+        <v>2.48</v>
       </c>
       <c r="P10" t="n">
-        <v>66.65000000000001</v>
+        <v>67.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>2</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
@@ -11424,79 +11424,79 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="P11" t="n">
-        <v>64.65000000000001</v>
+        <v>67.58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="P12" t="n">
-        <v>67.58</v>
+        <v>70.42</v>
       </c>
     </row>
     <row r="13">
@@ -11556,109 +11556,109 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>2.54</v>
       </c>
       <c r="P14" t="n">
-        <v>67</v>
+        <v>70.54000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>19</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
         <v>3</v>
       </c>
-      <c r="L15" t="n">
-        <v>11</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
       <c r="O15" t="n">
-        <v>2.54</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
-        <v>70.54000000000001</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -11934,28 +11934,28 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -11964,52 +11964,52 @@
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N21" t="n">
         <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>3.04</v>
+        <v>3.16</v>
       </c>
       <c r="P21" t="n">
-        <v>79.04000000000001</v>
+        <v>88.16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D22" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -12018,25 +12018,25 @@
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>3.25</v>
+        <v>3.08</v>
       </c>
       <c r="P22" t="n">
-        <v>87.25</v>
+        <v>83.08</v>
       </c>
     </row>
     <row r="23">
@@ -12167,118 +12167,118 @@
         <v>11.42</v>
       </c>
       <c r="E2" t="n">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="F2" t="n">
-        <v>12.07</v>
+        <v>12.04</v>
       </c>
       <c r="G2" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D3" t="n">
-        <v>10.86</v>
+        <v>12.54</v>
       </c>
       <c r="E3" t="n">
-        <v>396</v>
+        <v>297</v>
       </c>
       <c r="F3" t="n">
-        <v>10.1</v>
+        <v>8.08</v>
       </c>
       <c r="G3" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="D4" t="n">
-        <v>12.54</v>
+        <v>8.68</v>
       </c>
       <c r="E4" t="n">
-        <v>297</v>
+        <v>352</v>
       </c>
       <c r="F4" t="n">
-        <v>8.08</v>
+        <v>11.65</v>
       </c>
       <c r="G4" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D5" t="n">
-        <v>8.68</v>
+        <v>11.14</v>
       </c>
       <c r="E5" t="n">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="F5" t="n">
-        <v>11.65</v>
+        <v>9.34</v>
       </c>
       <c r="G5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="D6" t="n">
-        <v>11.14</v>
+        <v>10.32</v>
       </c>
       <c r="E6" t="n">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="F6" t="n">
-        <v>9.34</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="G6" t="n">
         <v>76</v>
@@ -12287,28 +12287,28 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>407</v>
+        <v>313</v>
       </c>
       <c r="D7" t="n">
-        <v>10.32</v>
+        <v>10.86</v>
       </c>
       <c r="E7" t="n">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="F7" t="n">
-        <v>9.550000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -12410,13 +12410,13 @@
         <v>10.13</v>
       </c>
       <c r="E11" t="n">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="F11" t="n">
-        <v>7.94</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -12584,55 +12584,55 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>519</v>
+        <v>319</v>
       </c>
       <c r="D18" t="n">
-        <v>9.25</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F18" t="n">
-        <v>6.25</v>
+        <v>7.54</v>
       </c>
       <c r="G18" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>319</v>
+        <v>551</v>
       </c>
       <c r="D19" t="n">
-        <v>8.460000000000001</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F19" t="n">
-        <v>7.54</v>
+        <v>6.25</v>
       </c>
       <c r="G19" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -12701,10 +12701,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="D22" t="n">
-        <v>8.01</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E22" t="n">
         <v>334</v>
@@ -12713,7 +12713,7 @@
         <v>6.29</v>
       </c>
       <c r="G22" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
@@ -12728,10 +12728,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="D23" t="n">
-        <v>7.54</v>
+        <v>7.09</v>
       </c>
       <c r="E23" t="n">
         <v>388</v>
@@ -12740,7 +12740,7 @@
         <v>5.41</v>
       </c>
       <c r="G23" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -12821,25 +12821,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D2" t="n">
-        <v>666</v>
+        <v>695</v>
       </c>
       <c r="E2" t="n">
-        <v>47.81</v>
+        <v>48.2</v>
       </c>
       <c r="F2" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G2" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H2" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I2" t="n">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3">
@@ -13052,25 +13052,25 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>488</v>
+      </c>
+      <c r="D9" t="n">
+        <v>724</v>
+      </c>
+      <c r="E9" t="n">
+        <v>46.62</v>
+      </c>
+      <c r="F9" t="n">
+        <v>521</v>
+      </c>
+      <c r="G9" t="n">
+        <v>121</v>
+      </c>
+      <c r="H9" t="n">
+        <v>152</v>
+      </c>
+      <c r="I9" t="n">
         <v>473</v>
-      </c>
-      <c r="D9" t="n">
-        <v>694</v>
-      </c>
-      <c r="E9" t="n">
-        <v>46.67</v>
-      </c>
-      <c r="F9" t="n">
-        <v>516</v>
-      </c>
-      <c r="G9" t="n">
-        <v>119</v>
-      </c>
-      <c r="H9" t="n">
-        <v>150</v>
-      </c>
-      <c r="I9" t="n">
-        <v>461</v>
       </c>
     </row>
     <row r="10">
@@ -13151,25 +13151,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="D12" t="n">
-        <v>774</v>
+        <v>800</v>
       </c>
       <c r="E12" t="n">
-        <v>51.88</v>
+        <v>51.55</v>
       </c>
       <c r="F12" t="n">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="G12" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H12" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I12" t="n">
-        <v>512</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13">
@@ -13316,25 +13316,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="D17" t="n">
-        <v>640</v>
+        <v>676</v>
       </c>
       <c r="E17" t="n">
-        <v>46.85</v>
+        <v>47.21</v>
       </c>
       <c r="F17" t="n">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="G17" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H17" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I17" t="n">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18">
@@ -13349,25 +13349,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="D18" t="n">
-        <v>724</v>
+        <v>744</v>
       </c>
       <c r="E18" t="n">
-        <v>50.03</v>
+        <v>49.73</v>
       </c>
       <c r="F18" t="n">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="G18" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H18" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="I18" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19">
@@ -13415,25 +13415,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="D20" t="n">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="E20" t="n">
-        <v>50.62</v>
+        <v>50.9</v>
       </c>
       <c r="F20" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="G20" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H20" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I20" t="n">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21">
@@ -13895,32 +13895,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>25.5</v>
+        <v>24.6</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>02:43:08</t>
+          <t>01:43:48</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -13928,21 +13928,21 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>06:48</t>
+          <t>04:57</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>01:46:20</t>
+          <t>02:06:43</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -13950,54 +13950,54 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>04:26</t>
+          <t>06:02</t>
         </is>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>9788</v>
+        <v>6228</v>
       </c>
       <c r="S5" t="n">
-        <v>408</v>
+        <v>297</v>
       </c>
       <c r="T5" t="n">
-        <v>6380</v>
+        <v>7603</v>
       </c>
       <c r="U5" t="n">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>01:43:48</t>
+          <t>02:49:30</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -14005,21 +14005,21 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>04:57</t>
+          <t>06:47</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M6" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>02:06:43</t>
+          <t>01:52:42</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -14027,23 +14027,23 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>06:02</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>6228</v>
+        <v>10170</v>
       </c>
       <c r="S6" t="n">
-        <v>297</v>
+        <v>407</v>
       </c>
       <c r="T6" t="n">
-        <v>7603</v>
+        <v>6762</v>
       </c>
       <c r="U6" t="n">
-        <v>362</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7">
@@ -14357,32 +14357,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F11" t="n">
-        <v>21.7</v>
+        <v>21.1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>01:42:50</t>
+          <t>02:10:10</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -14390,21 +14390,21 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>04:54</t>
+          <t>05:40</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M11" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>02:08:32</t>
+          <t>01:59:23</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -14412,54 +14412,54 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>06:07</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6170</v>
+        <v>7810</v>
       </c>
       <c r="S11" t="n">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="T11" t="n">
-        <v>7712</v>
+        <v>7163</v>
       </c>
       <c r="U11" t="n">
-        <v>367</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>02:10:10</t>
+          <t>02:09:13</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -14467,21 +14467,21 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>05:40</t>
+          <t>04:58</t>
         </is>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>01:59:23</t>
+          <t>02:12:41</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -14489,54 +14489,54 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>05:06</t>
         </is>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7810</v>
+        <v>7753</v>
       </c>
       <c r="S12" t="n">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="T12" t="n">
-        <v>7163</v>
+        <v>7961</v>
       </c>
       <c r="U12" t="n">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>02:09:13</t>
+          <t>02:20:40</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -14544,21 +14544,21 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>04:58</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="M13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>02:12:41</t>
+          <t>02:29:38</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -14566,54 +14566,54 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>05:06</t>
+          <t>06:14</t>
         </is>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7753</v>
+        <v>8440</v>
       </c>
       <c r="S13" t="n">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="T13" t="n">
-        <v>7961</v>
+        <v>8978</v>
       </c>
       <c r="U13" t="n">
-        <v>306</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>20.5</v>
+        <v>19.7</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>02:20:40</t>
+          <t>01:53:16</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -14621,21 +14621,21 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>05:09</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M14" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>02:29:38</t>
+          <t>02:13:49</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -14643,23 +14643,23 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>06:14</t>
+          <t>06:05</t>
         </is>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>8440</v>
+        <v>6796</v>
       </c>
       <c r="S14" t="n">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="T14" t="n">
-        <v>8978</v>
+        <v>8029</v>
       </c>
       <c r="U14" t="n">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15">
@@ -14674,23 +14674,23 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>02:01:24</t>
+          <t>02:03:24</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -14698,21 +14698,21 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>04:51</t>
+          <t>04:45</t>
         </is>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>02:21:04</t>
+          <t>02:24:14</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -14720,54 +14720,54 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>05:39</t>
+          <t>05:33</t>
         </is>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7284</v>
+        <v>7404</v>
       </c>
       <c r="S15" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="T15" t="n">
-        <v>8464</v>
+        <v>8654</v>
       </c>
       <c r="U15" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>17.9</v>
+        <v>18.2</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>02:22:24</t>
+          <t>02:10:09</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -14775,21 +14775,21 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="M16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>02:00:25</t>
+          <t>02:35:05</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -14797,54 +14797,54 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>05:14</t>
+          <t>06:12</t>
         </is>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8544</v>
+        <v>7809</v>
       </c>
       <c r="S16" t="n">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="T16" t="n">
-        <v>7225</v>
+        <v>9305</v>
       </c>
       <c r="U16" t="n">
-        <v>314</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>17.8</v>
+        <v>18.1</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>02:04:52</t>
+          <t>02:00:15</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -14852,21 +14852,21 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>05:01</t>
         </is>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>02:24:39</t>
+          <t>02:15:30</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -14874,54 +14874,54 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>06:02</t>
+          <t>05:39</t>
         </is>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>7492</v>
+        <v>7215</v>
       </c>
       <c r="S17" t="n">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="T17" t="n">
-        <v>8679</v>
+        <v>8130</v>
       </c>
       <c r="U17" t="n">
-        <v>362</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>17.1</v>
+        <v>17.9</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>01:57:05</t>
+          <t>02:22:24</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -14929,21 +14929,21 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>05:05</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M18" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>02:13:30</t>
+          <t>02:00:25</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -14951,23 +14951,23 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>05:48</t>
+          <t>05:14</t>
         </is>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7025</v>
+        <v>8544</v>
       </c>
       <c r="S18" t="n">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="T18" t="n">
-        <v>8010</v>
+        <v>7225</v>
       </c>
       <c r="U18" t="n">
-        <v>348</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19">
@@ -15136,23 +15136,23 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E21" t="n">
         <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>13.5</v>
+        <v>12.9</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>02:30:34</t>
+          <t>02:36:56</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -15160,21 +15160,21 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>06:02</t>
         </is>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M21" t="n">
         <v>15</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>02:21:32</t>
+          <t>02:27:54</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -15182,23 +15182,23 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>05:40</t>
+          <t>05:41</t>
         </is>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9034</v>
+        <v>9416</v>
       </c>
       <c r="S21" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="T21" t="n">
-        <v>8492</v>
+        <v>8874</v>
       </c>
       <c r="U21" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22">
@@ -15594,131 +15594,131 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>83.5</v>
+        <v>84.3</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>02:01:24</t>
+          <t>02:49:30</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>04:51</t>
+          <t>06:47</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>02:21:04</t>
+          <t>01:52:42</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05:39</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>7284</v>
+        <v>10170</v>
       </c>
       <c r="O4" t="n">
-        <v>291</v>
+        <v>407</v>
       </c>
       <c r="P4" t="n">
-        <v>8464</v>
+        <v>6762</v>
       </c>
       <c r="Q4" t="n">
-        <v>339</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G5" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>02:43:08</t>
+          <t>02:36:56</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>06:48</t>
+          <t>06:02</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>01:46:20</t>
+          <t>02:27:54</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>04:26</t>
+          <t>05:41</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>9788</v>
+        <v>9416</v>
       </c>
       <c r="O5" t="n">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="P5" t="n">
-        <v>6380</v>
+        <v>8874</v>
       </c>
       <c r="Q5" t="n">
-        <v>266</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6">
@@ -15789,131 +15789,131 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>76</v>
+      </c>
+      <c r="G7" t="n">
         <v>14</v>
       </c>
-      <c r="F7" t="n">
-        <v>82</v>
-      </c>
-      <c r="G7" t="n">
-        <v>18</v>
-      </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>02:14:21</t>
+          <t>02:03:24</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>05:50</t>
+          <t>04:45</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>02:21:14</t>
+          <t>02:24:14</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>06:08</t>
+          <t>05:33</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>8061</v>
+        <v>7404</v>
       </c>
       <c r="O7" t="n">
-        <v>350</v>
+        <v>285</v>
       </c>
       <c r="P7" t="n">
-        <v>8474</v>
+        <v>8654</v>
       </c>
       <c r="Q7" t="n">
-        <v>368</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>82.40000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>02:30:34</t>
+          <t>02:14:21</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>05:50</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>02:21:32</t>
+          <t>02:21:14</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05:40</t>
+          <t>06:08</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>9034</v>
+        <v>8061</v>
       </c>
       <c r="O8" t="n">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="P8" t="n">
-        <v>8492</v>
+        <v>8474</v>
       </c>
       <c r="Q8" t="n">
-        <v>340</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9">
@@ -15928,57 +15928,57 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="E9" t="n">
         <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>01:57:05</t>
+          <t>02:00:15</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>05:05</t>
+          <t>05:01</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>02:13:30</t>
+          <t>02:15:30</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05:48</t>
+          <t>05:39</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7025</v>
+        <v>7215</v>
       </c>
       <c r="O9" t="n">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P9" t="n">
-        <v>8010</v>
+        <v>8130</v>
       </c>
       <c r="Q9" t="n">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10">
@@ -16439,131 +16439,131 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>77.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F17" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>02:21:55</t>
+          <t>02:10:09</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>05:55</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>01:28:42</t>
+          <t>02:35:05</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>03:42</t>
+          <t>06:12</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>8515</v>
+        <v>7809</v>
       </c>
       <c r="O17" t="n">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="P17" t="n">
-        <v>5322</v>
+        <v>9305</v>
       </c>
       <c r="Q17" t="n">
-        <v>222</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>76.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G18" t="n">
         <v>13</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>02:04:52</t>
+          <t>02:21:55</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>05:55</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>02:24:39</t>
+          <t>01:28:42</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06:02</t>
+          <t>03:42</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>7492</v>
+        <v>8515</v>
       </c>
       <c r="O18" t="n">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="P18" t="n">
-        <v>8679</v>
+        <v>5322</v>
       </c>
       <c r="Q18" t="n">
-        <v>362</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19">
@@ -16643,16 +16643,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" t="n">
         <v>75.59999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G20" t="n">
         <v>13</v>
@@ -16662,38 +16662,38 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>01:42:50</t>
+          <t>01:53:16</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>04:54</t>
+          <t>05:09</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>02:08:32</t>
+          <t>02:13:49</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>06:07</t>
+          <t>06:05</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>6170</v>
+        <v>6796</v>
       </c>
       <c r="O20" t="n">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="P20" t="n">
-        <v>7712</v>
+        <v>8029</v>
       </c>
       <c r="Q20" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21">
@@ -17004,10 +17004,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -17025,133 +17025,133 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M2" t="n">
         <v>106</v>
       </c>
       <c r="N2" t="n">
-        <v>1002</v>
+        <v>957</v>
       </c>
       <c r="O2" t="n">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="P2" t="n">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M3" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N3" t="n">
         <v>945</v>
       </c>
       <c r="O3" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="P3" t="n">
-        <v>732</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="M4" t="n">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="N4" t="n">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="O4" t="n">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="P4" t="n">
-        <v>820</v>
+        <v>732</v>
       </c>
     </row>
     <row r="5">
@@ -17382,10 +17382,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -17412,16 +17412,16 @@
         <v>89</v>
       </c>
       <c r="M9" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="N9" t="n">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="O9" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P9" t="n">
-        <v>833</v>
+        <v>818</v>
       </c>
     </row>
     <row r="10">
@@ -17598,10 +17598,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -17628,40 +17628,40 @@
         <v>123</v>
       </c>
       <c r="M13" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="N13" t="n">
         <v>812</v>
       </c>
       <c r="O13" t="n">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="P13" t="n">
-        <v>1035</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -17673,49 +17673,49 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M14" t="n">
         <v>122</v>
       </c>
       <c r="N14" t="n">
-        <v>828</v>
+        <v>854</v>
       </c>
       <c r="O14" t="n">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="P14" t="n">
-        <v>910</v>
+        <v>802</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -17727,49 +17727,49 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="M15" t="n">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="N15" t="n">
-        <v>716</v>
+        <v>828</v>
       </c>
       <c r="O15" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P15" t="n">
-        <v>802</v>
+        <v>910</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -17781,46 +17781,46 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="M16" t="n">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="N16" t="n">
-        <v>857</v>
+        <v>755</v>
       </c>
       <c r="O16" t="n">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="P16" t="n">
-        <v>751</v>
+        <v>722</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -17835,25 +17835,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M17" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N17" t="n">
-        <v>810</v>
+        <v>716</v>
       </c>
       <c r="O17" t="n">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="P17" t="n">
-        <v>731</v>
+        <v>802</v>
       </c>
     </row>
     <row r="18">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-10 03:00:46</t>
+          <t>2025-11-10 07:00:46</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -1764,7 +1764,7 @@
         <v>41</v>
       </c>
       <c r="O9" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
         <v>8</v>
@@ -1788,19 +1788,19 @@
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
         <v>26</v>
       </c>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n">
         <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" t="n">
         <v>51</v>
@@ -1809,13 +1809,13 @@
         <v>45</v>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N10" t="n">
         <v>54</v>
       </c>
       <c r="O10" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
@@ -1983,43 +1983,43 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
         <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" t="n">
         <v>11</v>
       </c>
       <c r="I14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L14" t="n">
         <v>44</v>
       </c>
       <c r="M14" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N14" t="n">
         <v>35</v>
       </c>
       <c r="O14" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
@@ -2229,103 +2229,103 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G19" t="n">
+        <v>21</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" t="n">
+        <v>16</v>
+      </c>
+      <c r="J19" t="n">
         <v>20</v>
       </c>
-      <c r="H19" t="n">
-        <v>12</v>
-      </c>
-      <c r="I19" t="n">
-        <v>20</v>
-      </c>
-      <c r="J19" t="n">
-        <v>22</v>
-      </c>
       <c r="K19" t="n">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="L19" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M19" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N19" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O19" t="n">
-        <v>174</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
         <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I20" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J20" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K20" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="L20" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N20" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="O20" t="n">
-        <v>123</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
@@ -2733,73 +2733,73 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
         <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K5" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="L5" t="n">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="M5" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="N5" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="O5" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
         <v>6</v>
@@ -2808,28 +2808,28 @@
         <v>31</v>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K6" t="n">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="L6" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="M6" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="N6" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="O6" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
@@ -3243,76 +3243,76 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C15" t="n">
+        <v>26</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>23</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
+      <c r="I15" t="n">
         <v>24</v>
       </c>
-      <c r="D15" t="n">
-        <v>8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-      <c r="G15" t="n">
-        <v>22</v>
-      </c>
-      <c r="H15" t="n">
-        <v>11</v>
-      </c>
-      <c r="I15" t="n">
-        <v>23</v>
-      </c>
       <c r="J15" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K15" t="n">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="L15" t="n">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="M15" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N15" t="n">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="O15" t="n">
-        <v>140</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="n">
         <v>6</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>10</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
       </c>
       <c r="G16" t="n">
         <v>22</v>
@@ -3321,25 +3321,25 @@
         <v>11</v>
       </c>
       <c r="I16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J16" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K16" t="n">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="L16" t="n">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="M16" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N16" t="n">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="O16" t="n">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
@@ -3354,22 +3354,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
         <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" t="n">
         <v>15</v>
@@ -3381,16 +3381,16 @@
         <v>112</v>
       </c>
       <c r="L17" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M17" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N17" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O17" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
@@ -3498,103 +3498,103 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I20" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J20" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K20" t="n">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="L20" t="n">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="M20" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N20" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="O20" t="n">
-        <v>193</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
         <v>18</v>
       </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J21" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K21" t="n">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="L21" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="M21" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N21" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="O21" t="n">
-        <v>112</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
@@ -3849,25 +3849,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
         <v>31</v>
@@ -3876,87 +3876,87 @@
         <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J3" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K3" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L3" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M3" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N3" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
-        <v>122</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
         <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K4" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="L4" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N4" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="O4" t="n">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3975,28 +3975,28 @@
         <v>30</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L5" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="M5" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N5" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="O5" t="n">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>11</v>
@@ -4071,7 +4071,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
         <v>28</v>
@@ -4080,13 +4080,13 @@
         <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K7" t="n">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="L7" t="n">
         <v>69</v>
@@ -4095,10 +4095,10 @@
         <v>32</v>
       </c>
       <c r="N7" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O7" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
@@ -4266,22 +4266,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
         <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
         <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
         <v>18</v>
@@ -4290,10 +4290,10 @@
         <v>19</v>
       </c>
       <c r="K11" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L11" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M11" t="n">
         <v>29</v>
@@ -4302,7 +4302,7 @@
         <v>31</v>
       </c>
       <c r="O11" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -4767,16 +4767,16 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" t="n">
         <v>6</v>
@@ -4785,136 +4785,136 @@
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
         <v>19</v>
       </c>
       <c r="H21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I21" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K21" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="L21" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N21" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O21" t="n">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" t="n">
         <v>23</v>
       </c>
       <c r="K22" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="L22" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M22" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O22" t="n">
-        <v>143</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
+        <v>18</v>
+      </c>
+      <c r="H23" t="n">
         <v>17</v>
       </c>
-      <c r="H23" t="n">
-        <v>11</v>
-      </c>
       <c r="I23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K23" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L23" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M23" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N23" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O23" t="n">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5031,161 +5031,161 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>V. Galkin</t>
+          <t>F. Dolganov</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>В. Галкин</t>
+          <t>Ф. Долганов</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="G3" t="n">
-        <v>1.96</v>
+        <v>2.28</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>79535</v>
+        <v>129158</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F. Dolganov</t>
+          <t>V. Podyapolsky</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ф. Долганов</t>
+          <t>В. Подъяпольский</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>93.7</v>
       </c>
       <c r="G4" t="n">
-        <v>2.28</v>
+        <v>1.74</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>129158</v>
+        <v>75748</v>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>V. Podyapolsky</t>
+          <t>M. Dorozhko</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>В. Подъяпольский</t>
+          <t>М. Дорожко</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>1.74</v>
+        <v>2.32</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>75748</v>
+        <v>142013</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M. Dorozhko</t>
+          <t>V. Galkin</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>М. Дорожко</t>
+          <t>В. Галкин</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
         <v>93.5</v>
       </c>
       <c r="G6" t="n">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>135822</v>
+        <v>85423</v>
       </c>
       <c r="J6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -5831,81 +5831,81 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>I. Kulbakov</t>
+          <t>C. Driedger</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>И. Кульбаков</t>
+          <t>К. Дригер</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F23" t="n">
         <v>91</v>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>68334</v>
+        <v>100727</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C. Driedger</t>
+          <t>I. Kulbakov</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>К. Дригер</t>
+          <t>И. Кульбаков</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>90.7</v>
+        <v>91</v>
       </c>
       <c r="G24" t="n">
-        <v>2.79</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>94739</v>
+        <v>68334</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -6090,22 +6090,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F29" t="n">
         <v>90.3</v>
       </c>
       <c r="G29" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="H29" t="n">
         <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>115240</v>
+        <v>121240</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -6317,32 +6317,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6796</v>
+        <v>7465</v>
       </c>
       <c r="F2" t="n">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="G2" t="n">
-        <v>8029</v>
+        <v>8149</v>
       </c>
       <c r="H2" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
         <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>6.886403766921719</v>
+        <v>7.233757535164099</v>
       </c>
       <c r="L2" t="n">
-        <v>8.967492838460581</v>
+        <v>8.835439931279913</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,20 +6445,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7215</v>
+        <v>7695</v>
       </c>
       <c r="F4" t="n">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="G4" t="n">
-        <v>8130</v>
+        <v>8490</v>
       </c>
       <c r="H4" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I4" t="n">
         <v>13</v>
@@ -6467,10 +6467,10 @@
         <v>14</v>
       </c>
       <c r="K4" t="n">
-        <v>6.486486486486486</v>
+        <v>6.081871345029239</v>
       </c>
       <c r="L4" t="n">
-        <v>6.199261992619927</v>
+        <v>5.936395759717314</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,32 +6573,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7404</v>
+        <v>7524</v>
       </c>
       <c r="F6" t="n">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G6" t="n">
-        <v>8654</v>
+        <v>9323</v>
       </c>
       <c r="H6" t="n">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I6" t="n">
         <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K6" t="n">
-        <v>6.807131280388979</v>
+        <v>6.698564593301436</v>
       </c>
       <c r="L6" t="n">
-        <v>6.23988906863878</v>
+        <v>6.564410597447174</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,20 +7661,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-11 07:02:36</t>
+          <t>2025-11-12 09:22:48</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7809</v>
+        <v>8169</v>
       </c>
       <c r="F23" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G23" t="n">
-        <v>9305</v>
+        <v>9785</v>
       </c>
       <c r="H23" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="I23" t="n">
         <v>14</v>
@@ -7683,10 +7683,10 @@
         <v>20</v>
       </c>
       <c r="K23" t="n">
-        <v>6.454091432961968</v>
+        <v>6.169665809768638</v>
       </c>
       <c r="L23" t="n">
-        <v>7.737775389575497</v>
+        <v>7.358201328564129</v>
       </c>
       <c r="M23" t="b">
         <v>1</v>
@@ -8492,7 +8492,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
         <v>10</v>
@@ -8516,34 +8516,34 @@
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L9" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M9" t="n">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="N9" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O9" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P9" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q9" t="n">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="R9" t="n">
-        <v>131327</v>
+        <v>136018</v>
       </c>
       <c r="S9" t="n">
-        <v>5031</v>
+        <v>5023</v>
       </c>
       <c r="T9" t="n">
-        <v>2507</v>
+        <v>2619</v>
       </c>
       <c r="U9" t="n">
         <v>58</v>
@@ -8552,31 +8552,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>31</v>
@@ -8585,61 +8585,61 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="L10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M10" t="n">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="N10" t="n">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="O10" t="n">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="P10" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q10" t="n">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="R10" t="n">
-        <v>121835</v>
+        <v>128840</v>
       </c>
       <c r="S10" t="n">
-        <v>5046</v>
+        <v>4934</v>
       </c>
       <c r="T10" t="n">
-        <v>2156</v>
+        <v>2702</v>
       </c>
       <c r="U10" t="n">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -8648,61 +8648,61 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>71</v>
       </c>
       <c r="L11" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M11" t="n">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="N11" t="n">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="O11" t="n">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="P11" t="n">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="Q11" t="n">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="R11" t="n">
-        <v>128608</v>
+        <v>121835</v>
       </c>
       <c r="S11" t="n">
-        <v>4928</v>
+        <v>5046</v>
       </c>
       <c r="T11" t="n">
-        <v>1222</v>
+        <v>2156</v>
       </c>
       <c r="U11" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -8711,49 +8711,49 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>29</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
+        <v>71</v>
+      </c>
+      <c r="L12" t="n">
         <v>76</v>
       </c>
-      <c r="L12" t="n">
-        <v>79</v>
-      </c>
       <c r="M12" t="n">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="N12" t="n">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="O12" t="n">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="P12" t="n">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="Q12" t="n">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="R12" t="n">
-        <v>124049</v>
+        <v>128608</v>
       </c>
       <c r="S12" t="n">
-        <v>4938</v>
+        <v>4928</v>
       </c>
       <c r="T12" t="n">
-        <v>2459</v>
+        <v>1222</v>
       </c>
       <c r="U12" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -8948,7 +8948,7 @@
         <v>116</v>
       </c>
       <c r="Q15" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R15" t="n">
         <v>127033</v>
@@ -9044,7 +9044,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
         <v>9</v>
@@ -9059,46 +9059,46 @@
         <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L17" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M17" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N17" t="n">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="O17" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P17" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q17" t="n">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="R17" t="n">
-        <v>120324</v>
+        <v>125115</v>
       </c>
       <c r="S17" t="n">
-        <v>5009</v>
+        <v>5003</v>
       </c>
       <c r="T17" t="n">
         <v>906</v>
       </c>
       <c r="U17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -9242,139 +9242,139 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L20" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="M20" t="n">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="N20" t="n">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="O20" t="n">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="P20" t="n">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="Q20" t="n">
-        <v>443</v>
+        <v>322</v>
       </c>
       <c r="R20" t="n">
-        <v>126024</v>
+        <v>114622</v>
       </c>
       <c r="S20" t="n">
-        <v>5025</v>
+        <v>4951</v>
       </c>
       <c r="T20" t="n">
-        <v>716</v>
+        <v>1211</v>
       </c>
       <c r="U20" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
         <v>2</v>
       </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3</v>
-      </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L21" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="M21" t="n">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="N21" t="n">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="O21" t="n">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="P21" t="n">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="Q21" t="n">
-        <v>310</v>
+        <v>443</v>
       </c>
       <c r="R21" t="n">
-        <v>109931</v>
+        <v>126024</v>
       </c>
       <c r="S21" t="n">
-        <v>4959</v>
+        <v>5025</v>
       </c>
       <c r="T21" t="n">
-        <v>1211</v>
+        <v>716</v>
       </c>
       <c r="U21" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -9727,34 +9727,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -9763,49 +9763,49 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -9817,52 +9817,52 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="P5" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9871,40 +9871,40 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>3.17</v>
+        <v>2.81</v>
       </c>
       <c r="P6" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -9913,10 +9913,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -9925,16 +9925,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>2.78</v>
+        <v>3.17</v>
       </c>
       <c r="P7" t="n">
         <v>80</v>
@@ -9943,34 +9943,34 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -9979,106 +9979,106 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="P8" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>3</v>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
         <v>3</v>
       </c>
-      <c r="N9" t="n">
-        <v>3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3.12</v>
-      </c>
       <c r="P9" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -10087,19 +10087,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>2.85</v>
+        <v>3.12</v>
       </c>
       <c r="P10" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -10537,34 +10537,34 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -10573,40 +10573,40 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>2</v>
       </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="P19" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -10615,10 +10615,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -10627,16 +10627,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="P20" t="n">
         <v>53</v>
@@ -10645,34 +10645,34 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -10681,43 +10681,43 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="P21" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -10735,19 +10735,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O22" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="P22" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
@@ -11124,22 +11124,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -11151,49 +11151,49 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>2.54</v>
       </c>
       <c r="P6" t="n">
-        <v>64.54000000000001</v>
+        <v>66.54000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -11205,103 +11205,103 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11</v>
+      </c>
+      <c r="M7" t="n">
         <v>2</v>
       </c>
-      <c r="L7" t="n">
-        <v>12</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
       <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="P7" t="n">
-        <v>66.54000000000001</v>
+        <v>66.48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="n">
         <v>2</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>2.48</v>
       </c>
       <c r="P8" t="n">
-        <v>66.48</v>
+        <v>67.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -11313,22 +11313,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>2.48</v>
@@ -11340,28 +11340,28 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -11376,37 +11376,37 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
         <v>3</v>
       </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
       <c r="O10" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="P10" t="n">
-        <v>67.48</v>
+        <v>66.52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -11415,22 +11415,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
@@ -11439,31 +11439,31 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2.42</v>
+        <v>2.67</v>
       </c>
       <c r="P11" t="n">
-        <v>70.42</v>
+        <v>71.67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -11475,190 +11475,190 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>11</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="P12" t="n">
-        <v>71.67</v>
+        <v>70.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>3</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2.75</v>
+        <v>2.48</v>
       </c>
       <c r="P13" t="n">
-        <v>70.75</v>
+        <v>75.48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>2.48</v>
       </c>
       <c r="P14" t="n">
-        <v>70</v>
+        <v>71.48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>19</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
         <v>3</v>
       </c>
-      <c r="L15" t="n">
-        <v>11</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
       <c r="O15" t="n">
-        <v>2.48</v>
+        <v>2.96</v>
       </c>
       <c r="P15" t="n">
-        <v>71.48</v>
+        <v>71.95999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -11826,28 +11826,28 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -11856,36 +11856,36 @@
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="P19" t="n">
-        <v>88.16</v>
+        <v>83.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -11895,13 +11895,13 @@
         <v>55</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -11910,16 +11910,16 @@
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N20" t="n">
         <v>3</v>
@@ -11928,7 +11928,7 @@
         <v>3.08</v>
       </c>
       <c r="P20" t="n">
-        <v>83.08</v>
+        <v>89.08</v>
       </c>
     </row>
     <row r="21">
@@ -12275,13 +12275,13 @@
         <v>10.86</v>
       </c>
       <c r="E6" t="n">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="F6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -12395,82 +12395,82 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>375</v>
+        <v>547</v>
       </c>
       <c r="D11" t="n">
-        <v>10.13</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>467</v>
+        <v>334</v>
       </c>
       <c r="F11" t="n">
-        <v>8.140000000000001</v>
+        <v>7.49</v>
       </c>
       <c r="G11" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>547</v>
+        <v>262</v>
       </c>
       <c r="D12" t="n">
-        <v>9.869999999999999</v>
+        <v>11.45</v>
       </c>
       <c r="E12" t="n">
-        <v>334</v>
+        <v>401</v>
       </c>
       <c r="F12" t="n">
-        <v>7.49</v>
+        <v>7.23</v>
       </c>
       <c r="G12" t="n">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>262</v>
+        <v>375</v>
       </c>
       <c r="D13" t="n">
-        <v>11.45</v>
+        <v>10.13</v>
       </c>
       <c r="E13" t="n">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="F13" t="n">
-        <v>7.23</v>
+        <v>7.95</v>
       </c>
       <c r="G13" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -12701,10 +12701,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="D22" t="n">
-        <v>8.109999999999999</v>
+        <v>7.81</v>
       </c>
       <c r="E22" t="n">
         <v>334</v>
@@ -12713,7 +12713,7 @@
         <v>6.29</v>
       </c>
       <c r="G22" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -12728,10 +12728,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="D23" t="n">
-        <v>7.09</v>
+        <v>7.49</v>
       </c>
       <c r="E23" t="n">
         <v>388</v>
@@ -12740,7 +12740,7 @@
         <v>5.41</v>
       </c>
       <c r="G23" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -12989,10 +12989,10 @@
         <v>333</v>
       </c>
       <c r="D7" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E7" t="n">
-        <v>47.36</v>
+        <v>47.43</v>
       </c>
       <c r="F7" t="n">
         <v>177</v>
@@ -13052,124 +13052,124 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="D9" t="n">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="E9" t="n">
-        <v>46.62</v>
+        <v>46.48</v>
       </c>
       <c r="F9" t="n">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="G9" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H9" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I9" t="n">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="D10" t="n">
-        <v>692</v>
+        <v>818</v>
       </c>
       <c r="E10" t="n">
-        <v>50.44</v>
+        <v>51.22</v>
       </c>
       <c r="F10" t="n">
-        <v>467</v>
+        <v>565</v>
       </c>
       <c r="G10" t="n">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="H10" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I10" t="n">
-        <v>495</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>531</v>
+        <v>418</v>
       </c>
       <c r="D11" t="n">
-        <v>780</v>
+        <v>692</v>
       </c>
       <c r="E11" t="n">
-        <v>48.54</v>
+        <v>50.44</v>
       </c>
       <c r="F11" t="n">
-        <v>562</v>
+        <v>467</v>
       </c>
       <c r="G11" t="n">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="H11" t="n">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="I11" t="n">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>448</v>
+        <v>531</v>
       </c>
       <c r="D12" t="n">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="E12" t="n">
-        <v>51.55</v>
+        <v>48.54</v>
       </c>
       <c r="F12" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G12" t="n">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="H12" t="n">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="I12" t="n">
-        <v>521</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13">
@@ -13253,10 +13253,10 @@
         <v>515</v>
       </c>
       <c r="D15" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E15" t="n">
-        <v>51.97</v>
+        <v>51.9</v>
       </c>
       <c r="F15" t="n">
         <v>379</v>
@@ -13268,7 +13268,7 @@
         <v>116</v>
       </c>
       <c r="I15" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16">
@@ -13316,25 +13316,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D17" t="n">
-        <v>676</v>
+        <v>703</v>
       </c>
       <c r="E17" t="n">
-        <v>47.21</v>
+        <v>47.6</v>
       </c>
       <c r="F17" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="G17" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H17" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I17" t="n">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18">
@@ -13406,67 +13406,67 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>466</v>
+        <v>330</v>
       </c>
       <c r="D20" t="n">
-        <v>643</v>
+        <v>678</v>
       </c>
       <c r="E20" t="n">
-        <v>46.83</v>
+        <v>51.17</v>
       </c>
       <c r="F20" t="n">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="G20" t="n">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="H20" t="n">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="I20" t="n">
-        <v>443</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>316</v>
+        <v>466</v>
       </c>
       <c r="D21" t="n">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E21" t="n">
-        <v>50.9</v>
+        <v>46.83</v>
       </c>
       <c r="F21" t="n">
-        <v>360</v>
+        <v>427</v>
       </c>
       <c r="G21" t="n">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="H21" t="n">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="I21" t="n">
-        <v>310</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22">
@@ -14434,54 +14434,54 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>02:04:25</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>05:25</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>83</v>
+      </c>
+      <c r="M12" t="n">
         <v>20</v>
       </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>02:18:10</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>05:45</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>74</v>
-      </c>
-      <c r="M12" t="n">
-        <v>16</v>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>01:59:23</t>
+          <t>02:15:49</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -14489,54 +14489,54 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>04:58</t>
+          <t>05:54</t>
         </is>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8290</v>
+        <v>7465</v>
       </c>
       <c r="S12" t="n">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="T12" t="n">
-        <v>7163</v>
+        <v>8149</v>
       </c>
       <c r="U12" t="n">
-        <v>298</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>02:26:40</t>
+          <t>02:18:10</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -14544,21 +14544,21 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="M13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>02:33:38</t>
+          <t>01:59:23</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -14566,76 +14566,76 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>06:09</t>
+          <t>04:58</t>
         </is>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8800</v>
+        <v>8290</v>
       </c>
       <c r="S13" t="n">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="T13" t="n">
-        <v>9218</v>
+        <v>7163</v>
       </c>
       <c r="U13" t="n">
-        <v>369</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E14" t="n">
+        <v>17</v>
+      </c>
+      <c r="F14" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>02:26:40</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>05:52</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>88</v>
+      </c>
+      <c r="M14" t="n">
         <v>13</v>
       </c>
-      <c r="F14" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>01:53:16</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>05:09</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>82</v>
-      </c>
-      <c r="M14" t="n">
-        <v>20</v>
-      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>02:13:49</t>
+          <t>02:33:38</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -14643,23 +14643,23 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>06:05</t>
+          <t>06:09</t>
         </is>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6796</v>
+        <v>8800</v>
       </c>
       <c r="S14" t="n">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="T14" t="n">
-        <v>8029</v>
+        <v>9218</v>
       </c>
       <c r="U14" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15">
@@ -14674,23 +14674,23 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>02:03:24</t>
+          <t>02:05:24</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -14698,21 +14698,21 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>04:39</t>
         </is>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>02:24:14</t>
+          <t>02:35:23</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -14720,23 +14720,23 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>05:33</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7404</v>
+        <v>7524</v>
       </c>
       <c r="S15" t="n">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="T15" t="n">
-        <v>8654</v>
+        <v>9323</v>
       </c>
       <c r="U15" t="n">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16">
@@ -14751,23 +14751,23 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E16" t="n">
         <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>18.2</v>
+        <v>17.5</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>02:10:09</t>
+          <t>02:16:09</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -14775,21 +14775,21 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>05:14</t>
         </is>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M16" t="n">
         <v>20</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>02:35:05</t>
+          <t>02:43:05</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -14797,54 +14797,54 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>06:12</t>
+          <t>06:16</t>
         </is>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7809</v>
+        <v>8169</v>
       </c>
       <c r="S16" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="T16" t="n">
-        <v>9305</v>
+        <v>9785</v>
       </c>
       <c r="U16" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>18.1</v>
+        <v>17.4</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>02:00:15</t>
+          <t>02:26:10</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -14852,21 +14852,21 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>05:01</t>
+          <t>06:05</t>
         </is>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M17" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>02:15:30</t>
+          <t>02:08:53</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -14874,54 +14874,54 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>05:39</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>7215</v>
+        <v>8770</v>
       </c>
       <c r="S17" t="n">
-        <v>301</v>
+        <v>365</v>
       </c>
       <c r="T17" t="n">
-        <v>8130</v>
+        <v>7733</v>
       </c>
       <c r="U17" t="n">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>02:26:10</t>
+          <t>01:41:52</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -14929,21 +14929,21 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>06:05</t>
+          <t>04:15</t>
         </is>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M18" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>02:08:53</t>
+          <t>02:16:41</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -14951,54 +14951,54 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>05:42</t>
         </is>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8770</v>
+        <v>6112</v>
       </c>
       <c r="S18" t="n">
-        <v>365</v>
+        <v>255</v>
       </c>
       <c r="T18" t="n">
-        <v>7733</v>
+        <v>8201</v>
       </c>
       <c r="U18" t="n">
-        <v>322</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F19" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>01:41:52</t>
+          <t>02:08:15</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -15006,21 +15006,21 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>04:15</t>
+          <t>05:08</t>
         </is>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M19" t="n">
         <v>14</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>02:16:41</t>
+          <t>02:21:30</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -15028,23 +15028,23 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>05:42</t>
+          <t>05:40</t>
         </is>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6112</v>
+        <v>7695</v>
       </c>
       <c r="S19" t="n">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="T19" t="n">
-        <v>8201</v>
+        <v>8490</v>
       </c>
       <c r="U19" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20">
@@ -15854,66 +15854,66 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
         <v>76</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>02:03:24</t>
+          <t>02:08:15</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>05:08</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>02:24:14</t>
+          <t>02:21:30</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05:33</t>
+          <t>05:40</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>7404</v>
+        <v>7695</v>
       </c>
       <c r="O8" t="n">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="P8" t="n">
-        <v>8654</v>
+        <v>8490</v>
       </c>
       <c r="Q8" t="n">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9">
@@ -15984,66 +15984,66 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>82.3</v>
+        <v>81.7</v>
       </c>
       <c r="E10" t="n">
+        <v>17</v>
+      </c>
+      <c r="F10" t="n">
+        <v>77</v>
+      </c>
+      <c r="G10" t="n">
         <v>14</v>
       </c>
-      <c r="F10" t="n">
-        <v>72</v>
-      </c>
-      <c r="G10" t="n">
-        <v>13</v>
-      </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>02:00:15</t>
+          <t>02:05:24</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>05:01</t>
+          <t>04:39</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>02:15:30</t>
+          <t>02:35:23</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>05:39</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>7215</v>
+        <v>7524</v>
       </c>
       <c r="O10" t="n">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="P10" t="n">
-        <v>8130</v>
+        <v>9323</v>
       </c>
       <c r="Q10" t="n">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11">
@@ -16374,142 +16374,142 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
-        <v>78.40000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
         <v>80</v>
       </c>
       <c r="G16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>02:18:10</t>
+          <t>02:16:09</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>05:14</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>01:59:23</t>
+          <t>02:43:05</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>04:58</t>
+          <t>06:16</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>8290</v>
+        <v>8169</v>
       </c>
       <c r="O16" t="n">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="P16" t="n">
-        <v>7163</v>
+        <v>9785</v>
       </c>
       <c r="Q16" t="n">
-        <v>298</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>02:25:55</t>
+          <t>02:18:10</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>05:50</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>01:32:42</t>
+          <t>01:59:23</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>03:42</t>
+          <t>04:58</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>8755</v>
+        <v>8290</v>
       </c>
       <c r="O17" t="n">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="P17" t="n">
-        <v>5562</v>
+        <v>7163</v>
       </c>
       <c r="Q17" t="n">
-        <v>222</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -16519,51 +16519,51 @@
         <v>78.3</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>02:10:09</t>
+          <t>02:25:55</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>05:50</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>02:35:05</t>
+          <t>01:32:42</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06:12</t>
+          <t>03:42</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>7809</v>
+        <v>8755</v>
       </c>
       <c r="O18" t="n">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="P18" t="n">
-        <v>9305</v>
+        <v>5562</v>
       </c>
       <c r="Q18" t="n">
-        <v>372</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19">
@@ -16643,57 +16643,57 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>75.59999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E20" t="n">
         <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>01:53:16</t>
+          <t>02:04:25</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>05:09</t>
+          <t>05:25</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>02:13:49</t>
+          <t>02:15:49</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>06:05</t>
+          <t>05:54</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>6796</v>
+        <v>7465</v>
       </c>
       <c r="O20" t="n">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="P20" t="n">
-        <v>8029</v>
+        <v>8149</v>
       </c>
       <c r="Q20" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21">
@@ -17049,25 +17049,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -17076,157 +17076,157 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>89</v>
       </c>
       <c r="M3" t="n">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="N3" t="n">
-        <v>945</v>
+        <v>928</v>
       </c>
       <c r="O3" t="n">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="P3" t="n">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M4" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="N4" t="n">
-        <v>931</v>
+        <v>941</v>
       </c>
       <c r="O4" t="n">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="P4" t="n">
-        <v>738</v>
+        <v>813</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="N5" t="n">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="O5" t="n">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="P5" t="n">
-        <v>1137</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -17238,46 +17238,46 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="M6" t="n">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>914</v>
+        <v>940</v>
       </c>
       <c r="O6" t="n">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="P6" t="n">
-        <v>936</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -17286,7 +17286,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -17295,106 +17295,106 @@
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="N7" t="n">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="O7" t="n">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="P7" t="n">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="N8" t="n">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="O8" t="n">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="P8" t="n">
-        <v>837</v>
+        <v>930</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -17403,46 +17403,46 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="M9" t="n">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N9" t="n">
         <v>920</v>
       </c>
       <c r="O9" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P9" t="n">
-        <v>855</v>
+        <v>837</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -17457,46 +17457,46 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="M10" t="n">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="N10" t="n">
-        <v>852</v>
+        <v>920</v>
       </c>
       <c r="O10" t="n">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="P10" t="n">
-        <v>928</v>
+        <v>855</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -17508,28 +17508,28 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="N11" t="n">
-        <v>830</v>
+        <v>852</v>
       </c>
       <c r="O11" t="n">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="P11" t="n">
-        <v>818</v>
+        <v>928</v>
       </c>
     </row>
     <row r="12">
@@ -17760,10 +17760,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -17781,46 +17781,46 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
         <v>9</v>
       </c>
       <c r="L16" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M16" t="n">
         <v>122</v>
       </c>
       <c r="N16" t="n">
-        <v>854</v>
+        <v>836</v>
       </c>
       <c r="O16" t="n">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="P16" t="n">
-        <v>802</v>
+        <v>913</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -17835,115 +17835,115 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="N17" t="n">
-        <v>708</v>
+        <v>750</v>
       </c>
       <c r="O17" t="n">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="P17" t="n">
-        <v>753</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L18" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M18" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="N18" t="n">
-        <v>840</v>
+        <v>708</v>
       </c>
       <c r="O18" t="n">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="P18" t="n">
-        <v>627</v>
+        <v>753</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -17952,16 +17952,16 @@
         <v>85</v>
       </c>
       <c r="M19" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N19" t="n">
-        <v>755</v>
+        <v>840</v>
       </c>
       <c r="O19" t="n">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="P19" t="n">
-        <v>722</v>
+        <v>627</v>
       </c>
     </row>
     <row r="20">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-13 03:01:04</t>
+          <t>2025-11-13 04:09:02</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-13 04:09:02</t>
+          <t>2025-11-13 09:46:04</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -1464,103 +1464,103 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
         <v>31</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
         <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K4" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L4" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O4" t="n">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J5" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K5" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L5" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M5" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N5" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O5" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
@@ -1719,22 +1719,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>10</v>
@@ -1743,52 +1743,52 @@
         <v>26</v>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L9" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="M9" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="O9" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
         <v>26</v>
@@ -1797,178 +1797,178 @@
         <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L10" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="O10" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="n">
         <v>10</v>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
       </c>
       <c r="G11" t="n">
         <v>26</v>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I11" t="n">
         <v>19</v>
       </c>
       <c r="J11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K11" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L11" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M11" t="n">
         <v>36</v>
       </c>
       <c r="N11" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O11" t="n">
-        <v>163</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>26</v>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
-      <c r="G12" t="n">
-        <v>25</v>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
       <c r="I12" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L12" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N12" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="O12" t="n">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
         <v>10</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
       </c>
       <c r="F13" t="n">
         <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K13" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L13" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M13" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N13" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O13" t="n">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
@@ -2229,103 +2229,103 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I19" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J19" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K19" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="L19" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M19" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O19" t="n">
-        <v>126</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" t="n">
         <v>9</v>
-      </c>
-      <c r="F20" t="n">
-        <v>11</v>
       </c>
       <c r="G20" t="n">
         <v>21</v>
       </c>
       <c r="H20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J20" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K20" t="n">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="L20" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M20" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N20" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="O20" t="n">
-        <v>176</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21">
@@ -2835,205 +2835,205 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
         <v>30</v>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J7" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="L7" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N7" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O7" t="n">
-        <v>136</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C8" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" t="n">
         <v>24</v>
-      </c>
-      <c r="D8" t="n">
-        <v>12</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G8" t="n">
-        <v>29</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>28</v>
       </c>
       <c r="J8" t="n">
         <v>19</v>
       </c>
       <c r="K8" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L8" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N8" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O8" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
         <v>8</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
+        <v>27</v>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" t="n">
-        <v>26</v>
-      </c>
-      <c r="H9" t="n">
-        <v>14</v>
-      </c>
       <c r="I9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J9" t="n">
+        <v>22</v>
+      </c>
+      <c r="K9" t="n">
+        <v>70</v>
+      </c>
+      <c r="L9" t="n">
+        <v>74</v>
+      </c>
+      <c r="M9" t="n">
         <v>23</v>
       </c>
-      <c r="K9" t="n">
-        <v>77</v>
-      </c>
-      <c r="L9" t="n">
-        <v>93</v>
-      </c>
-      <c r="M9" t="n">
-        <v>41</v>
-      </c>
       <c r="N9" t="n">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="O9" t="n">
-        <v>136</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K10" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L10" t="n">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="M10" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N10" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="O10" t="n">
-        <v>174</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
@@ -3243,103 +3243,103 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C15" t="n">
+        <v>27</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>24</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
+      <c r="I15" t="n">
         <v>25</v>
       </c>
-      <c r="D15" t="n">
-        <v>9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>11</v>
-      </c>
-      <c r="G15" t="n">
-        <v>23</v>
-      </c>
-      <c r="H15" t="n">
-        <v>13</v>
-      </c>
-      <c r="I15" t="n">
-        <v>24</v>
-      </c>
       <c r="J15" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="L15" t="n">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="M15" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N15" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O15" t="n">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
         <v>11</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
       </c>
       <c r="G16" t="n">
         <v>23</v>
       </c>
       <c r="H16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16" t="n">
         <v>24</v>
       </c>
       <c r="J16" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K16" t="n">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="L16" t="n">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="M16" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N16" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="O16" t="n">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
         <v>12</v>
@@ -3867,34 +3867,34 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
         <v>31</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
         <v>29</v>
       </c>
       <c r="J3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="n">
         <v>53</v>
       </c>
       <c r="M3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
         <v>21</v>
       </c>
       <c r="O3" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
         <v>11</v>
@@ -4071,34 +4071,34 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
         <v>29</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>28</v>
       </c>
       <c r="J7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L7" t="n">
         <v>75</v>
       </c>
       <c r="M7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O7" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
@@ -4419,10 +4419,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -4431,13 +4431,13 @@
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H14" t="n">
         <v>12</v>
       </c>
       <c r="I14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J14" t="n">
         <v>20</v>
@@ -4446,7 +4446,7 @@
         <v>65</v>
       </c>
       <c r="L14" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M14" t="n">
         <v>26</v>
@@ -4455,7 +4455,7 @@
         <v>41</v>
       </c>
       <c r="O14" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
@@ -4470,10 +4470,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -4482,13 +4482,13 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H15" t="n">
         <v>9</v>
       </c>
       <c r="I15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J15" t="n">
         <v>23</v>
@@ -4497,16 +4497,16 @@
         <v>59</v>
       </c>
       <c r="L15" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M15" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N15" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O15" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -5031,198 +5031,198 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>V. Podyapolsky</t>
+          <t>M. Dorozhko</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>В. Подъяпольский</t>
+          <t>М. Дорожко</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>1.74</v>
+        <v>2.32</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>75748</v>
+        <v>142013</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>M. Dorozhko</t>
+          <t>V. Galkin</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>М. Дорожко</t>
+          <t>В. Галкин</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="G4" t="n">
-        <v>2.32</v>
+        <v>2.04</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>142013</v>
+        <v>85423</v>
       </c>
       <c r="J4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>V. Galkin</t>
+          <t>D. Kostin</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>В. Галкин</t>
+          <t>Д. Костин</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>85423</v>
+        <v>94754</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D. Kostin</t>
+          <t>D. Gamzin</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Д. Костин</t>
+          <t>Д. Гамзин</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="G6" t="n">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>94754</v>
+        <v>71433</v>
       </c>
       <c r="J6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D. Gamzin</t>
+          <t>S. Vyazovoi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Д. Гамзин</t>
+          <t>С. Вязовой</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>93.3</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>2.16</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>71433</v>
+        <v>77744</v>
       </c>
       <c r="J7" t="n">
         <v>7</v>
@@ -5231,81 +5231,81 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S. Vyazovoi</t>
+          <t>D. Isayev</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>С. Вязовой</t>
+          <t>Д. Исаев</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="E8" t="n">
+        <v>23</v>
+      </c>
+      <c r="F8" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>131222</v>
+      </c>
+      <c r="J8" t="n">
         <v>14</v>
-      </c>
-      <c r="F8" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>77744</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D. Isayev</t>
+          <t>V. Podyapolsky</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Д. Исаев</t>
+          <t>В. Подъяпольский</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
         <v>92.90000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>131222</v>
+        <v>81455</v>
       </c>
       <c r="J9" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -5391,161 +5391,161 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>I. Bocharov</t>
+          <t>N. Serebryakov</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>И. Бочаров</t>
+          <t>Н. Серебряков</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F12" t="n">
         <v>92.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>2.39</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>87821</v>
+        <v>127853</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>N. Serebryakov</t>
+          <t>I. Bocharov</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Н. Серебряков</t>
+          <t>И. Бочаров</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>92.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.41</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>121853</v>
+        <v>87821</v>
       </c>
       <c r="J13" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>T. Bilyalov</t>
+          <t>A. Smolin</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Т. Билялов</t>
+          <t>А. Смолин</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
         <v>92.09999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>90654</v>
+        <v>81209</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A. Smolin</t>
+          <t>T. Bilyalov</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>А. Смолин</t>
+          <t>Т. Билялов</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>92.09999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="G15" t="n">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>81209</v>
+        <v>96634</v>
       </c>
       <c r="J15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -5751,81 +5751,81 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C. Driedger</t>
+          <t>A. Krasotkin</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>К. Дригер</t>
+          <t>А. Красоткин</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
         <v>91</v>
       </c>
       <c r="G21" t="n">
-        <v>2.68</v>
+        <v>2.97</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>100727</v>
+        <v>84818</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A. Krasotkin</t>
+          <t>C. Driedger</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>А. Красоткин</t>
+          <t>К. Дригер</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F22" t="n">
-        <v>91</v>
+        <v>90.8</v>
       </c>
       <c r="G22" t="n">
-        <v>2.97</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>84818</v>
+        <v>106454</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,32 +6381,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8800</v>
+        <v>8844</v>
       </c>
       <c r="F3" t="n">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G3" t="n">
-        <v>9218</v>
+        <v>9388</v>
       </c>
       <c r="H3" t="n">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K3" t="n">
-        <v>6.954545454545454</v>
+        <v>7.327001356852104</v>
       </c>
       <c r="L3" t="n">
-        <v>5.077023215448036</v>
+        <v>6.135492117596932</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,32 +6509,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6172</v>
+        <v>6276</v>
       </c>
       <c r="F5" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G5" t="n">
-        <v>8341</v>
+        <v>8641</v>
       </c>
       <c r="H5" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" t="n">
-        <v>13.99870382372003</v>
+        <v>14.91395793499044</v>
       </c>
       <c r="L5" t="n">
-        <v>6.905646804939456</v>
+        <v>7.082513597963199</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,32 +6893,32 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8290</v>
+        <v>8460</v>
       </c>
       <c r="F11" t="n">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G11" t="n">
-        <v>7163</v>
+        <v>7207</v>
       </c>
       <c r="H11" t="n">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I11" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" t="n">
-        <v>6.948130277442703</v>
+        <v>8.085106382978724</v>
       </c>
       <c r="L11" t="n">
-        <v>8.041323467820746</v>
+        <v>8.491744137643957</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,32 +7661,32 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-13 09:46:04</t>
+          <t>2025-11-14 07:02:00</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8169</v>
+        <v>8469</v>
       </c>
       <c r="F23" t="n">
         <v>314</v>
       </c>
       <c r="G23" t="n">
-        <v>9785</v>
+        <v>9889</v>
       </c>
       <c r="H23" t="n">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="I23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K23" t="n">
-        <v>6.169665809768638</v>
+        <v>6.376195536663125</v>
       </c>
       <c r="L23" t="n">
-        <v>7.358201328564129</v>
+        <v>8.008898776418242</v>
       </c>
       <c r="M23" t="b">
         <v>1</v>
@@ -8207,157 +8207,157 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L5" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M5" t="n">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="N5" t="n">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="O5" t="n">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="P5" t="n">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="Q5" t="n">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="R5" t="n">
-        <v>121550</v>
+        <v>127313</v>
       </c>
       <c r="S5" t="n">
-        <v>4838</v>
+        <v>4858</v>
       </c>
       <c r="T5" t="n">
-        <v>1314</v>
+        <v>1547</v>
       </c>
       <c r="U5" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="L6" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="M6" t="n">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="N6" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O6" t="n">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="P6" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="Q6" t="n">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="R6" t="n">
-        <v>121647</v>
+        <v>121550</v>
       </c>
       <c r="S6" t="n">
-        <v>4840</v>
+        <v>4838</v>
       </c>
       <c r="T6" t="n">
-        <v>1527</v>
+        <v>1314</v>
       </c>
       <c r="U6" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -8369,64 +8369,64 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L7" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M7" t="n">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="N7" t="n">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="O7" t="n">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="P7" t="n">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="Q7" t="n">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="R7" t="n">
-        <v>126943</v>
+        <v>127044</v>
       </c>
       <c r="S7" t="n">
-        <v>5047</v>
+        <v>5050</v>
       </c>
       <c r="T7" t="n">
-        <v>1642</v>
+        <v>1519</v>
       </c>
       <c r="U7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -8438,46 +8438,46 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L8" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M8" t="n">
-        <v>217</v>
+        <v>122</v>
       </c>
       <c r="N8" t="n">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="O8" t="n">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P8" t="n">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="Q8" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="R8" t="n">
-        <v>121728</v>
+        <v>126943</v>
       </c>
       <c r="S8" t="n">
-        <v>5044</v>
+        <v>5047</v>
       </c>
       <c r="T8" t="n">
-        <v>1519</v>
+        <v>1642</v>
       </c>
       <c r="U8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -8561,7 +8561,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
@@ -8585,37 +8585,37 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L10" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M10" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N10" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="O10" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P10" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q10" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="R10" t="n">
-        <v>128840</v>
+        <v>134156</v>
       </c>
       <c r="S10" t="n">
-        <v>4934</v>
+        <v>4942</v>
       </c>
       <c r="T10" t="n">
-        <v>2702</v>
+        <v>2935</v>
       </c>
       <c r="U10" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -8630,7 +8630,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
         <v>8</v>
@@ -8654,37 +8654,37 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M11" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N11" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="O11" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q11" t="n">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="R11" t="n">
-        <v>121835</v>
+        <v>127501</v>
       </c>
       <c r="S11" t="n">
-        <v>5046</v>
+        <v>5100</v>
       </c>
       <c r="T11" t="n">
-        <v>2156</v>
+        <v>2449</v>
       </c>
       <c r="U11" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -9844,13 +9844,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -9880,40 +9880,40 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="P6" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -9928,100 +9928,100 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>3.12</v>
+        <v>3.16</v>
       </c>
       <c r="P7" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
         <v>2</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
         <v>3</v>
       </c>
-      <c r="M8" t="n">
-        <v>6</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2.81</v>
-      </c>
       <c r="P8" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -10036,34 +10036,34 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
       <c r="P9" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="n">
         <v>12</v>
@@ -10075,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
@@ -10090,43 +10090,43 @@
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="P10" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -10141,53 +10141,53 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>2</v>
       </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
@@ -10195,49 +10195,49 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" t="n">
         <v>4</v>
       </c>
-      <c r="M12" t="n">
-        <v>2</v>
-      </c>
       <c r="N12" t="n">
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>2.73</v>
+        <v>3</v>
       </c>
       <c r="P12" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -10249,19 +10249,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>2.96</v>
+        <v>2.73</v>
       </c>
       <c r="P13" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -11070,76 +11070,76 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>17</v>
+      </c>
+      <c r="M5" t="n">
         <v>3</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>13</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="P5" t="n">
-        <v>66.5</v>
+        <v>67.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -11154,43 +11154,43 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="P6" t="n">
-        <v>66.48</v>
+        <v>66.52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -11199,13 +11199,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -11214,30 +11214,30 @@
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="P7" t="n">
-        <v>67.48</v>
+        <v>68.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -11247,7 +11247,7 @@
         <v>44</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -11259,49 +11259,49 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="P8" t="n">
-        <v>66.52</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -11313,136 +11313,136 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14</v>
+      </c>
+      <c r="M9" t="n">
         <v>2</v>
       </c>
-      <c r="L9" t="n">
-        <v>12</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
       <c r="N9" t="n">
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="P9" t="n">
-        <v>68.52</v>
+        <v>70.54000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
         <v>45</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>11</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="P10" t="n">
-        <v>71.67</v>
+        <v>71.54000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>12</v>
+      </c>
+      <c r="M11" t="n">
         <v>5</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>11</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3</v>
-      </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="P11" t="n">
-        <v>71.54000000000001</v>
+        <v>73.64</v>
       </c>
     </row>
     <row r="12">
@@ -11835,10 +11835,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M19" t="n">
         <v>6</v>
@@ -11871,10 +11871,10 @@
         <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="P19" t="n">
-        <v>89.08</v>
+        <v>92.06999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -12260,109 +12260,109 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>313</v>
+        <v>369</v>
       </c>
       <c r="D6" t="n">
-        <v>10.86</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>456</v>
+        <v>379</v>
       </c>
       <c r="F6" t="n">
-        <v>9.210000000000001</v>
+        <v>11.87</v>
       </c>
       <c r="G6" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="D7" t="n">
-        <v>8.130000000000001</v>
+        <v>10.86</v>
       </c>
       <c r="E7" t="n">
-        <v>352</v>
+        <v>456</v>
       </c>
       <c r="F7" t="n">
-        <v>11.65</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>297</v>
+        <v>471</v>
       </c>
       <c r="D8" t="n">
-        <v>9.43</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>495</v>
+        <v>356</v>
       </c>
       <c r="F8" t="n">
-        <v>9.49</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>450</v>
+        <v>297</v>
       </c>
       <c r="D9" t="n">
-        <v>9.33</v>
+        <v>9.43</v>
       </c>
       <c r="E9" t="n">
-        <v>356</v>
+        <v>495</v>
       </c>
       <c r="F9" t="n">
-        <v>9.550000000000001</v>
+        <v>9.49</v>
       </c>
       <c r="G9" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -12422,25 +12422,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>375</v>
+        <v>469</v>
       </c>
       <c r="D12" t="n">
-        <v>10.13</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>503</v>
+        <v>409</v>
       </c>
       <c r="F12" t="n">
-        <v>7.95</v>
+        <v>8.31</v>
       </c>
       <c r="G12" t="n">
         <v>78</v>
@@ -12503,28 +12503,28 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>436</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>8.94</v>
+        <v>10.13</v>
       </c>
       <c r="E15" t="n">
-        <v>409</v>
+        <v>538</v>
       </c>
       <c r="F15" t="n">
-        <v>8.31</v>
+        <v>7.81</v>
       </c>
       <c r="G15" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -12863,7 +12863,7 @@
         <v>57.36</v>
       </c>
       <c r="F3" t="n">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G3" t="n">
         <v>89</v>
@@ -12911,133 +12911,133 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D5" t="n">
-        <v>808</v>
+        <v>830</v>
       </c>
       <c r="E5" t="n">
-        <v>53.69</v>
+        <v>55.7</v>
       </c>
       <c r="F5" t="n">
-        <v>385</v>
+        <v>529</v>
       </c>
       <c r="G5" t="n">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H5" t="n">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I5" t="n">
-        <v>399</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D6" t="n">
-        <v>795</v>
+        <v>808</v>
       </c>
       <c r="E6" t="n">
-        <v>55.56</v>
+        <v>53.69</v>
       </c>
       <c r="F6" t="n">
-        <v>507</v>
+        <v>385</v>
       </c>
       <c r="G6" t="n">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H6" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="I6" t="n">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D7" t="n">
-        <v>647</v>
+        <v>822</v>
       </c>
       <c r="E7" t="n">
-        <v>47.43</v>
+        <v>52.19</v>
       </c>
       <c r="F7" t="n">
-        <v>177</v>
+        <v>648</v>
       </c>
       <c r="G7" t="n">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H7" t="n">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="I7" t="n">
-        <v>482</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D8" t="n">
-        <v>788</v>
+        <v>647</v>
       </c>
       <c r="E8" t="n">
-        <v>52.19</v>
+        <v>47.43</v>
       </c>
       <c r="F8" t="n">
-        <v>620</v>
+        <v>177</v>
       </c>
       <c r="G8" t="n">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H8" t="n">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="I8" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9">
@@ -13085,25 +13085,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="D10" t="n">
-        <v>818</v>
+        <v>849</v>
       </c>
       <c r="E10" t="n">
-        <v>51.22</v>
+        <v>51.08</v>
       </c>
       <c r="F10" t="n">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="G10" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H10" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I10" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11">
@@ -13118,25 +13118,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="D11" t="n">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="E11" t="n">
-        <v>50.44</v>
+        <v>50.03</v>
       </c>
       <c r="F11" t="n">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="G11" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I11" t="n">
-        <v>495</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12">
@@ -13193,7 +13193,7 @@
         <v>52.86</v>
       </c>
       <c r="F13" t="n">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="G13" t="n">
         <v>103</v>
@@ -13673,23 +13673,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>33.3</v>
+        <v>35.1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>01:42:52</t>
+          <t>01:44:36</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -13697,21 +13697,21 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>04:17</t>
+          <t>04:11</t>
         </is>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>02:19:01</t>
+          <t>02:24:01</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -13719,23 +13719,23 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>05:48</t>
+          <t>05:46</t>
         </is>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>6172</v>
+        <v>6276</v>
       </c>
       <c r="S2" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="T2" t="n">
-        <v>8341</v>
+        <v>8641</v>
       </c>
       <c r="U2" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3">
@@ -14203,32 +14203,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>02:33:45</t>
+          <t>02:21:00</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -14236,21 +14236,21 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>05:55</t>
+          <t>05:38</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>02:12:51</t>
+          <t>02:00:07</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -14258,54 +14258,54 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>05:07</t>
+          <t>04:48</t>
         </is>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>9225</v>
+        <v>8460</v>
       </c>
       <c r="S9" t="n">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="T9" t="n">
-        <v>7971</v>
+        <v>7207</v>
       </c>
       <c r="U9" t="n">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>22.2</v>
+        <v>22.7</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>01:53:53</t>
+          <t>02:33:45</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -14313,21 +14313,21 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>04:57</t>
+          <t>05:55</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M10" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>02:19:48</t>
+          <t>02:12:51</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -14335,54 +14335,54 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>06:05</t>
+          <t>05:07</t>
         </is>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>6833</v>
+        <v>9225</v>
       </c>
       <c r="S10" t="n">
-        <v>297</v>
+        <v>355</v>
       </c>
       <c r="T10" t="n">
-        <v>8388</v>
+        <v>7971</v>
       </c>
       <c r="U10" t="n">
-        <v>365</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E11" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>21.6</v>
+        <v>22.2</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>02:23:25</t>
+          <t>01:53:53</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -14390,7 +14390,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>04:57</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -14400,11 +14400,11 @@
         <v>84</v>
       </c>
       <c r="M11" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>02:25:36</t>
+          <t>02:19:48</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -14412,54 +14412,54 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>05:49</t>
+          <t>06:05</t>
         </is>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>8605</v>
+        <v>6833</v>
       </c>
       <c r="S11" t="n">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="T11" t="n">
-        <v>8736</v>
+        <v>8388</v>
       </c>
       <c r="U11" t="n">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>20.8</v>
+        <v>21.6</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>02:04:25</t>
+          <t>02:23:25</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -14467,21 +14467,21 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>05:25</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>02:15:49</t>
+          <t>02:25:36</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -14489,76 +14489,76 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>05:54</t>
+          <t>05:49</t>
         </is>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7465</v>
+        <v>8605</v>
       </c>
       <c r="S12" t="n">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="T12" t="n">
-        <v>8149</v>
+        <v>8736</v>
       </c>
       <c r="U12" t="n">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>02:04:25</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>05:25</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>83</v>
+      </c>
+      <c r="M13" t="n">
         <v>20</v>
       </c>
-      <c r="G13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>02:18:10</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>05:45</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>74</v>
-      </c>
-      <c r="M13" t="n">
-        <v>16</v>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>01:59:23</t>
+          <t>02:15:49</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -14566,23 +14566,23 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>04:58</t>
+          <t>05:54</t>
         </is>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8290</v>
+        <v>7465</v>
       </c>
       <c r="S13" t="n">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="T13" t="n">
-        <v>7163</v>
+        <v>8149</v>
       </c>
       <c r="U13" t="n">
-        <v>298</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14">
@@ -14597,23 +14597,23 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" t="n">
-        <v>19.8</v>
+        <v>20.7</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>02:26:40</t>
+          <t>02:27:24</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -14621,21 +14621,21 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>05:40</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M14" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>02:33:38</t>
+          <t>02:36:28</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -14643,23 +14643,23 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>06:09</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>8800</v>
+        <v>8844</v>
       </c>
       <c r="S14" t="n">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="T14" t="n">
-        <v>9218</v>
+        <v>9388</v>
       </c>
       <c r="U14" t="n">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15">
@@ -14751,23 +14751,23 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>17.5</v>
+        <v>18.1</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>02:16:09</t>
+          <t>02:21:09</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -14782,14 +14782,14 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>02:43:05</t>
+          <t>02:44:49</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -14797,23 +14797,23 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>06:16</t>
+          <t>06:06</t>
         </is>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8169</v>
+        <v>8469</v>
       </c>
       <c r="S16" t="n">
         <v>314</v>
       </c>
       <c r="T16" t="n">
-        <v>9785</v>
+        <v>9889</v>
       </c>
       <c r="U16" t="n">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17">
@@ -15464,521 +15464,521 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>85.2</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>02:26:40</t>
+          <t>02:28:10</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>05:56</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>02:33:38</t>
+          <t>02:13:35</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>06:09</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>8800</v>
+        <v>8890</v>
       </c>
       <c r="O2" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P2" t="n">
-        <v>9218</v>
+        <v>8015</v>
       </c>
       <c r="Q2" t="n">
-        <v>369</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>85</v>
+        <v>83.5</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>02:28:10</t>
+          <t>02:33:45</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>05:56</t>
+          <t>05:55</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>02:13:35</t>
+          <t>02:12:51</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>05:07</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>8890</v>
+        <v>9225</v>
       </c>
       <c r="O3" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P3" t="n">
-        <v>8015</v>
+        <v>7971</v>
       </c>
       <c r="Q3" t="n">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G4" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>02:33:45</t>
+          <t>02:55:35</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>05:55</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>02:12:51</t>
+          <t>01:55:09</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05:07</t>
+          <t>04:26</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>9225</v>
+        <v>10535</v>
       </c>
       <c r="O4" t="n">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="P4" t="n">
-        <v>7971</v>
+        <v>6909</v>
       </c>
       <c r="Q4" t="n">
-        <v>307</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
         <v>83.3</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G5" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>02:55:35</t>
+          <t>02:23:25</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>01:55:09</t>
+          <t>02:25:36</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>04:26</t>
+          <t>05:49</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>10535</v>
+        <v>8605</v>
       </c>
       <c r="O5" t="n">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="P5" t="n">
-        <v>6909</v>
+        <v>8736</v>
       </c>
       <c r="Q5" t="n">
-        <v>266</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G6" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>02:23:25</t>
+          <t>02:36:56</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>06:02</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>02:25:36</t>
+          <t>02:27:54</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05:49</t>
+          <t>05:41</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>8605</v>
+        <v>9416</v>
       </c>
       <c r="O6" t="n">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="P6" t="n">
-        <v>8736</v>
+        <v>8874</v>
       </c>
       <c r="Q6" t="n">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="G7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>02:36:56</t>
+          <t>01:47:52</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>06:02</t>
+          <t>04:19</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>02:27:54</t>
+          <t>02:22:41</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>05:41</t>
+          <t>05:42</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>9416</v>
+        <v>6472</v>
       </c>
       <c r="O7" t="n">
-        <v>362</v>
+        <v>259</v>
       </c>
       <c r="P7" t="n">
-        <v>8874</v>
+        <v>8561</v>
       </c>
       <c r="Q7" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>83.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="E8" t="n">
         <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>01:47:52</t>
+          <t>02:08:15</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>04:19</t>
+          <t>05:08</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>02:22:41</t>
+          <t>02:21:30</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05:42</t>
+          <t>05:40</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>6472</v>
+        <v>7695</v>
       </c>
       <c r="O8" t="n">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="P8" t="n">
-        <v>8561</v>
+        <v>8490</v>
       </c>
       <c r="Q8" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>82.90000000000001</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>02:08:15</t>
+          <t>02:27:24</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>05:08</t>
+          <t>05:40</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>02:21:30</t>
+          <t>02:36:28</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05:40</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7695</v>
+        <v>8844</v>
       </c>
       <c r="O9" t="n">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="P9" t="n">
-        <v>8490</v>
+        <v>9388</v>
       </c>
       <c r="Q9" t="n">
-        <v>340</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10">
@@ -16049,196 +16049,196 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>81.2</v>
+        <v>81</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
       </c>
       <c r="F11" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>01:42:52</t>
+          <t>02:38:51</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>04:17</t>
+          <t>06:21</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>02:19:01</t>
+          <t>02:26:19</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>05:48</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>6172</v>
+        <v>9531</v>
       </c>
       <c r="O11" t="n">
-        <v>257</v>
+        <v>381</v>
       </c>
       <c r="P11" t="n">
-        <v>8341</v>
+        <v>8779</v>
       </c>
       <c r="Q11" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G12" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>02:38:51</t>
+          <t>02:27:47</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>06:21</t>
+          <t>05:41</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>02:26:19</t>
+          <t>02:44:36</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>06:20</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>9531</v>
+        <v>8867</v>
       </c>
       <c r="O12" t="n">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="P12" t="n">
-        <v>8779</v>
+        <v>9876</v>
       </c>
       <c r="Q12" t="n">
-        <v>351</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>17</v>
+      </c>
+      <c r="F13" t="n">
+        <v>74</v>
+      </c>
+      <c r="G13" t="n">
         <v>26</v>
       </c>
-      <c r="D13" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="E13" t="n">
-        <v>18</v>
-      </c>
-      <c r="F13" t="n">
-        <v>86</v>
-      </c>
-      <c r="G13" t="n">
-        <v>10</v>
-      </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>02:27:47</t>
+          <t>01:44:36</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>05:41</t>
+          <t>04:11</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>02:44:36</t>
+          <t>02:24:01</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>06:20</t>
+          <t>05:46</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>8867</v>
+        <v>6276</v>
       </c>
       <c r="O13" t="n">
-        <v>341</v>
+        <v>251</v>
       </c>
       <c r="P13" t="n">
-        <v>9876</v>
+        <v>8641</v>
       </c>
       <c r="Q13" t="n">
-        <v>380</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14">
@@ -16374,196 +16374,196 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>79.2</v>
+        <v>78.3</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>02:16:09</t>
+          <t>02:25:55</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>05:14</t>
+          <t>05:50</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>02:43:05</t>
+          <t>01:32:42</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>06:16</t>
+          <t>03:42</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>8169</v>
+        <v>8755</v>
       </c>
       <c r="O16" t="n">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="P16" t="n">
-        <v>9785</v>
+        <v>5562</v>
       </c>
       <c r="Q16" t="n">
-        <v>376</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>78.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>02:18:10</t>
+          <t>02:21:09</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>05:14</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>01:59:23</t>
+          <t>02:44:49</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>04:58</t>
+          <t>06:06</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>8290</v>
+        <v>8469</v>
       </c>
       <c r="O17" t="n">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="P17" t="n">
-        <v>7163</v>
+        <v>9889</v>
       </c>
       <c r="Q17" t="n">
-        <v>298</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>78.3</v>
+        <v>77.3</v>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
         <v>83</v>
       </c>
       <c r="G18" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>02:25:55</t>
+          <t>02:21:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>05:50</t>
+          <t>05:38</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>01:32:42</t>
+          <t>02:00:07</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>03:42</t>
+          <t>04:48</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>8755</v>
+        <v>8460</v>
       </c>
       <c r="O18" t="n">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="P18" t="n">
-        <v>5562</v>
+        <v>7207</v>
       </c>
       <c r="Q18" t="n">
-        <v>222</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19">
@@ -17103,25 +17103,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -17130,39 +17130,39 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M4" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N4" t="n">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="O4" t="n">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="P4" t="n">
-        <v>939</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -17172,40 +17172,40 @@
         <v>106</v>
       </c>
       <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M5" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N5" t="n">
         <v>941</v>
       </c>
       <c r="O5" t="n">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="P5" t="n">
-        <v>813</v>
+        <v>939</v>
       </c>
     </row>
     <row r="6">
@@ -17373,28 +17373,28 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -17403,52 +17403,52 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="M9" t="n">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="N9" t="n">
-        <v>920</v>
+        <v>846</v>
       </c>
       <c r="O9" t="n">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="P9" t="n">
-        <v>837</v>
+        <v>911</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -17457,46 +17457,46 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="M10" t="n">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="N10" t="n">
-        <v>920</v>
+        <v>902</v>
       </c>
       <c r="O10" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P10" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -17511,25 +17511,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="M11" t="n">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="N11" t="n">
-        <v>852</v>
+        <v>920</v>
       </c>
       <c r="O11" t="n">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="P11" t="n">
-        <v>928</v>
+        <v>855</v>
       </c>
     </row>
     <row r="12">
@@ -17544,10 +17544,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -17565,25 +17565,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
         <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M12" t="n">
         <v>74</v>
       </c>
       <c r="N12" t="n">
-        <v>902</v>
+        <v>855</v>
       </c>
       <c r="O12" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P12" t="n">
-        <v>817</v>
+        <v>807</v>
       </c>
     </row>
     <row r="13">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-14 07:02:00</t>
+          <t>2025-11-14 10:20:58</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-17 03:00:57</t>
+          <t>2025-11-17 11:10:32</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -1413,12 +1413,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1437,43 +1437,43 @@
         <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K3" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L3" t="n">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="M3" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N3" t="n">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="O3" t="n">
-        <v>175</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>12</v>
@@ -1482,34 +1482,34 @@
         <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
         <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J4" t="n">
         <v>18</v>
       </c>
       <c r="K4" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="L4" t="n">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="M4" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N4" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="O4" t="n">
-        <v>142</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5">
@@ -2085,22 +2085,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
         <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
         <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I16" t="n">
         <v>25</v>
@@ -2109,40 +2109,40 @@
         <v>24</v>
       </c>
       <c r="K16" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L16" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M16" t="n">
         <v>33</v>
       </c>
       <c r="N16" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>9</v>
@@ -2154,76 +2154,76 @@
         <v>10</v>
       </c>
       <c r="I17" t="n">
+        <v>19</v>
+      </c>
+      <c r="J17" t="n">
         <v>22</v>
       </c>
-      <c r="J17" t="n">
-        <v>27</v>
-      </c>
       <c r="K17" t="n">
+        <v>56</v>
+      </c>
+      <c r="L17" t="n">
         <v>54</v>
       </c>
-      <c r="L17" t="n">
-        <v>42</v>
-      </c>
       <c r="M17" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="O17" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F18" t="n">
         <v>9</v>
       </c>
       <c r="G18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H18" t="n">
         <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J18" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K18" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L18" t="n">
+        <v>42</v>
+      </c>
+      <c r="M18" t="n">
         <v>52</v>
       </c>
-      <c r="M18" t="n">
-        <v>41</v>
-      </c>
       <c r="N18" t="n">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="O18" t="n">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
@@ -2331,82 +2331,82 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>27</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" t="n">
         <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K21" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L21" t="n">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="M21" t="n">
+        <v>29</v>
+      </c>
+      <c r="N21" t="n">
         <v>47</v>
       </c>
-      <c r="N21" t="n">
-        <v>56</v>
-      </c>
       <c r="O21" t="n">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G22" t="n">
         <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I22" t="n">
         <v>14</v>
@@ -2415,19 +2415,19 @@
         <v>25</v>
       </c>
       <c r="K22" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L22" t="n">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="M22" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="N22" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="O22" t="n">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23">
@@ -2442,10 +2442,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
         <v>11</v>
@@ -2454,13 +2454,13 @@
         <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H23" t="n">
         <v>14</v>
       </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J23" t="n">
         <v>24</v>
@@ -2469,16 +2469,16 @@
         <v>51</v>
       </c>
       <c r="L23" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M23" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N23" t="n">
         <v>51</v>
       </c>
       <c r="O23" t="n">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2631,103 +2631,103 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="L3" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="O3" t="n">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
+        <v>36</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
         <v>35</v>
       </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>67</v>
+      </c>
+      <c r="L4" t="n">
+        <v>86</v>
+      </c>
+      <c r="M4" t="n">
         <v>30</v>
       </c>
-      <c r="J4" t="n">
-        <v>15</v>
-      </c>
-      <c r="K4" t="n">
-        <v>116</v>
-      </c>
-      <c r="L4" t="n">
-        <v>79</v>
-      </c>
-      <c r="M4" t="n">
-        <v>26</v>
-      </c>
       <c r="N4" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="O4" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
@@ -2988,256 +2988,256 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
         <v>8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
       </c>
       <c r="G10" t="n">
         <v>27</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K10" t="n">
         <v>82</v>
       </c>
       <c r="L10" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M10" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N10" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="O10" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" t="n">
         <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J11" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="L11" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M11" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N11" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O11" t="n">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
         <v>10</v>
-      </c>
-      <c r="F12" t="n">
-        <v>11</v>
       </c>
       <c r="G12" t="n">
         <v>26</v>
       </c>
       <c r="H12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K12" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L12" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N12" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="O12" t="n">
-        <v>140</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
         <v>10</v>
       </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
+        <v>26</v>
+      </c>
+      <c r="H13" t="n">
+        <v>15</v>
+      </c>
+      <c r="I13" t="n">
+        <v>19</v>
+      </c>
+      <c r="J13" t="n">
         <v>25</v>
       </c>
-      <c r="H13" t="n">
-        <v>14</v>
-      </c>
-      <c r="I13" t="n">
-        <v>26</v>
-      </c>
-      <c r="J13" t="n">
-        <v>24</v>
-      </c>
       <c r="K13" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L13" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M13" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="O13" t="n">
-        <v>178</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
         <v>25</v>
       </c>
       <c r="H14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I14" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K14" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="L14" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M14" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O14" t="n">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
         <v>9</v>
@@ -3261,34 +3261,34 @@
         <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
         <v>24</v>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" t="n">
         <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K15" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L15" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M15" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N15" t="n">
         <v>87</v>
       </c>
       <c r="O15" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
         <v>9</v>
@@ -3363,22 +3363,22 @@
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
         <v>22</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I17" t="n">
         <v>22</v>
       </c>
       <c r="J17" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K17" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L17" t="n">
         <v>41</v>
@@ -3390,88 +3390,88 @@
         <v>38</v>
       </c>
       <c r="O17" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G18" t="n">
         <v>22</v>
       </c>
       <c r="H18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J18" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K18" t="n">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="L18" t="n">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="M18" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="N18" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O18" t="n">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
         <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I19" t="n">
         <v>15</v>
@@ -3480,70 +3480,70 @@
         <v>23</v>
       </c>
       <c r="K19" t="n">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="L19" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N19" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O19" t="n">
-        <v>116</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
+        <v>11</v>
+      </c>
+      <c r="F20" t="n">
         <v>8</v>
       </c>
-      <c r="F20" t="n">
-        <v>13</v>
-      </c>
       <c r="G20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20" t="n">
         <v>13</v>
       </c>
       <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
         <v>23</v>
       </c>
-      <c r="J20" t="n">
-        <v>35</v>
-      </c>
       <c r="K20" t="n">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="L20" t="n">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="M20" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="O20" t="n">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
         <v>5</v>
@@ -3669,34 +3669,34 @@
         <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G23" t="n">
         <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I23" t="n">
         <v>18</v>
       </c>
       <c r="J23" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K23" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L23" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M23" t="n">
         <v>26</v>
       </c>
       <c r="N23" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O23" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3849,165 +3849,165 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
         <v>29</v>
       </c>
       <c r="J3" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K3" t="n">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="L3" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N3" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="O3" t="n">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
         <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
         <v>29</v>
       </c>
       <c r="J4" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K4" t="n">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="L4" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="O4" t="n">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
         <v>31</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K5" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="L5" t="n">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="M5" t="n">
+        <v>37</v>
+      </c>
+      <c r="N5" t="n">
         <v>40</v>
       </c>
-      <c r="N5" t="n">
-        <v>22</v>
-      </c>
       <c r="O5" t="n">
-        <v>170</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4017,48 +4017,48 @@
         <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="L6" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="M6" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="O6" t="n">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4077,19 +4077,19 @@
         <v>30</v>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J7" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K7" t="n">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="L7" t="n">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="M7" t="n">
         <v>33</v>
@@ -4098,109 +4098,109 @@
         <v>47</v>
       </c>
       <c r="O7" t="n">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
         <v>30</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K8" t="n">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="L8" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N8" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O8" t="n">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>30</v>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" t="n">
-        <v>29</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
       <c r="I9" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" t="n">
+        <v>108</v>
+      </c>
+      <c r="L9" t="n">
         <v>75</v>
       </c>
-      <c r="L9" t="n">
-        <v>112</v>
-      </c>
       <c r="M9" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N9" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O9" t="n">
-        <v>131</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10">
@@ -4572,10 +4572,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
@@ -4584,31 +4584,31 @@
         <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H17" t="n">
         <v>12</v>
       </c>
       <c r="I17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J17" t="n">
         <v>26</v>
       </c>
       <c r="K17" t="n">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="L17" t="n">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N17" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O17" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
@@ -4623,22 +4623,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
         <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" t="n">
         <v>19</v>
@@ -4656,10 +4656,10 @@
         <v>32</v>
       </c>
       <c r="N18" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O18" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19">
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
         <v>6</v>
@@ -4734,7 +4734,7 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
         <v>21</v>
@@ -4743,16 +4743,16 @@
         <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K20" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L20" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M20" t="n">
         <v>35</v>
@@ -4761,7 +4761,7 @@
         <v>54</v>
       </c>
       <c r="O20" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
         <v>6</v>
@@ -4785,34 +4785,34 @@
         <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
         <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I21" t="n">
         <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K21" t="n">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="L21" t="n">
+        <v>59</v>
+      </c>
+      <c r="M21" t="n">
+        <v>28</v>
+      </c>
+      <c r="N21" t="n">
         <v>38</v>
       </c>
-      <c r="M21" t="n">
-        <v>27</v>
-      </c>
-      <c r="N21" t="n">
-        <v>37</v>
-      </c>
       <c r="O21" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
@@ -5111,38 +5111,38 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S. Vyazovoi</t>
+          <t>V. Podyapolsky</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>С. Вязовой</t>
+          <t>В. Подъяпольский</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="G5" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>77744</v>
+        <v>87455</v>
       </c>
       <c r="J5" t="n">
         <v>7</v>
@@ -5151,158 +5151,158 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>V. Podyapolsky</t>
+          <t>D. Kostin</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>В. Подъяпольский</t>
+          <t>Д. Костин</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>1.99</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>87455</v>
+        <v>100432</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D. Isayev</t>
+          <t>D. Gamzin</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Д. Исаев</t>
+          <t>Д. Гамзин</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
         <v>92.90000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>131222</v>
+        <v>77317</v>
       </c>
       <c r="J7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D. Kostin</t>
+          <t>Z. Fucale</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Д. Костин</t>
+          <t>З. Фукале</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>92.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>100432</v>
+        <v>114436</v>
       </c>
       <c r="J8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D. Gamzin</t>
+          <t>S. Vyazovoi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Д. Гамзин</t>
+          <t>С. Вязовой</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>92.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.94</v>
+        <v>2.28</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>77317</v>
+        <v>84205</v>
       </c>
       <c r="J9" t="n">
         <v>7</v>
@@ -5311,41 +5311,41 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Z. Fucale</t>
+          <t>D. Isayev</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>З. Фукале</t>
+          <t>Д. Исаев</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>92.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>114436</v>
+        <v>137721</v>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -5471,198 +5471,198 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P. Khomchenko</t>
+          <t>P. Rybar</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>П. Хомченко</t>
+          <t>П. Рибар</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F14" t="n">
-        <v>91.7</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>2.75</v>
+        <v>2.66</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>74224</v>
+        <v>99349</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P. Rybar</t>
+          <t>A. Scheel</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>П. Рибар</t>
+          <t>А. Шил</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>91.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="G15" t="n">
-        <v>2.82</v>
+        <v>2.73</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>93432</v>
+        <v>68201</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A. Smolin</t>
+          <t>P. Khomchenko</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>А. Смолин</t>
+          <t>П. Хомченко</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>91.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="G16" t="n">
-        <v>2.29</v>
+        <v>2.75</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>83904</v>
+        <v>74224</v>
       </c>
       <c r="J16" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E. Alikin</t>
+          <t>A. Smolin</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Е. Аликин</t>
+          <t>А. Смолин</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>91.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>2.53</v>
+        <v>2.29</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>76023</v>
+        <v>83904</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S. Mylnikov</t>
+          <t>E. Alikin</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>С. Мыльников</t>
+          <t>Е. Аликин</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
         <v>91.5</v>
       </c>
       <c r="G18" t="n">
-        <v>2.88</v>
+        <v>2.53</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>52104</v>
+        <v>76023</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
@@ -5671,92 +5671,92 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>T. Bilyalov</t>
+          <t>S. Mylnikov</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Т. Билялов</t>
+          <t>С. Мыльников</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>91.40000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="G19" t="n">
-        <v>2.56</v>
+        <v>2.88</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>100813</v>
+        <v>52104</v>
       </c>
       <c r="J19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A. Shutov</t>
+          <t>T. Bilyalov</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>А. Шутов</t>
+          <t>Т. Билялов</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" t="n">
-        <v>91.2</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>101525</v>
+        <v>100813</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A. Scheel</t>
+          <t>A. Shutov</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>А. Шил</t>
+          <t>А. Шутов</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5770,22 +5770,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F21" t="n">
         <v>91.2</v>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>62026</v>
+        <v>101525</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -5810,19 +5810,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" t="n">
-        <v>91</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>90609</v>
+        <v>96443</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -5871,81 +5871,81 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S. Martin</t>
+          <t>A. Shchetilin</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>С. Мартин</t>
+          <t>А. Щетилин</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>90.5</v>
+        <v>90.7</v>
       </c>
       <c r="G24" t="n">
-        <v>2.69</v>
+        <v>3.41</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>77938</v>
+        <v>45710</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A. Shchetilin</t>
+          <t>S. Martin</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>А. Щетилин</t>
+          <t>С. Мартин</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F25" t="n">
-        <v>90.40000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="G25" t="n">
-        <v>3.64</v>
+        <v>2.69</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>39535</v>
+        <v>77938</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,20 +6637,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>9711</v>
+        <v>9831</v>
       </c>
       <c r="F7" t="n">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G7" t="n">
-        <v>8994</v>
+        <v>9414</v>
       </c>
       <c r="H7" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="I7" t="n">
         <v>14</v>
@@ -6659,10 +6659,10 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>5.189990732159408</v>
+        <v>5.126640219713152</v>
       </c>
       <c r="L7" t="n">
-        <v>6.00400266844563</v>
+        <v>5.736137667304015</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,32 +6829,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7879</v>
+        <v>8254</v>
       </c>
       <c r="F10" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G10" t="n">
-        <v>9612</v>
+        <v>10283</v>
       </c>
       <c r="H10" t="n">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="I10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
         <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>8.681304734103312</v>
+        <v>9.15919554155561</v>
       </c>
       <c r="L10" t="n">
-        <v>7.490636704119851</v>
+        <v>7.001847709812311</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,20 +6957,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7073</v>
+        <v>7493</v>
       </c>
       <c r="F12" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G12" t="n">
-        <v>8961</v>
+        <v>9081</v>
       </c>
       <c r="H12" t="n">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="I12" t="n">
         <v>14</v>
@@ -6979,10 +6979,10 @@
         <v>22</v>
       </c>
       <c r="K12" t="n">
-        <v>7.125689240774777</v>
+        <v>6.72627785933538</v>
       </c>
       <c r="L12" t="n">
-        <v>8.838299296953466</v>
+        <v>8.721506442021804</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,32 +7085,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8987</v>
+        <v>9372</v>
       </c>
       <c r="F14" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G14" t="n">
-        <v>10171</v>
+        <v>10531</v>
       </c>
       <c r="H14" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
         <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>4.005786135529098</v>
+        <v>4.609475032010243</v>
       </c>
       <c r="L14" t="n">
-        <v>7.078949955756562</v>
+        <v>6.83695755388852</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,32 +7341,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8890</v>
+        <v>9250</v>
       </c>
       <c r="F18" t="n">
         <v>356</v>
       </c>
       <c r="G18" t="n">
-        <v>8015</v>
+        <v>8400</v>
       </c>
       <c r="H18" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I18" t="n">
         <v>15</v>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K18" t="n">
-        <v>6.074240719910011</v>
+        <v>5.837837837837838</v>
       </c>
       <c r="L18" t="n">
-        <v>5.389893948845915</v>
+        <v>6</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,32 +7469,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6712</v>
+        <v>7383</v>
       </c>
       <c r="F20" t="n">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G20" t="n">
-        <v>8954</v>
+        <v>9329</v>
       </c>
       <c r="H20" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I20" t="n">
         <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K20" t="n">
-        <v>5.363528009535162</v>
+        <v>4.876066639577408</v>
       </c>
       <c r="L20" t="n">
-        <v>6.432879160151888</v>
+        <v>6.946082109550863</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-17 11:10:32</t>
+          <t>2025-11-17 23:20:44</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8078,13 +8078,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -8096,37 +8096,37 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="N3" t="n">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="O3" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P3" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q3" t="n">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="R3" t="n">
-        <v>131237</v>
+        <v>136511</v>
       </c>
       <c r="S3" t="n">
-        <v>4837</v>
+        <v>4845</v>
       </c>
       <c r="T3" t="n">
         <v>1034</v>
@@ -8759,67 +8759,67 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J13" t="n">
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L13" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="M13" t="n">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="N13" t="n">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="O13" t="n">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="P13" t="n">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Q13" t="n">
-        <v>621</v>
+        <v>501</v>
       </c>
       <c r="R13" t="n">
-        <v>125641</v>
+        <v>127617</v>
       </c>
       <c r="S13" t="n">
-        <v>4820</v>
+        <v>4905</v>
       </c>
       <c r="T13" t="n">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="U13" t="n">
         <v>25</v>
@@ -8828,88 +8828,88 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
       <c r="I14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L14" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="M14" t="n">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="N14" t="n">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="O14" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P14" t="n">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="Q14" t="n">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="R14" t="n">
-        <v>127906</v>
+        <v>125641</v>
       </c>
       <c r="S14" t="n">
-        <v>4912</v>
+        <v>4820</v>
       </c>
       <c r="T14" t="n">
-        <v>1505</v>
+        <v>1056</v>
       </c>
       <c r="U14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -8918,49 +8918,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L15" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="M15" t="n">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="N15" t="n">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="O15" t="n">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="P15" t="n">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="Q15" t="n">
-        <v>491</v>
+        <v>597</v>
       </c>
       <c r="R15" t="n">
-        <v>123343</v>
+        <v>127906</v>
       </c>
       <c r="S15" t="n">
-        <v>4921</v>
+        <v>4912</v>
       </c>
       <c r="T15" t="n">
-        <v>1005</v>
+        <v>1505</v>
       </c>
       <c r="U15" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -9035,139 +9035,139 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="L17" t="n">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="M17" t="n">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="N17" t="n">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="O17" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="P17" t="n">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="Q17" t="n">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="R17" t="n">
-        <v>130447</v>
+        <v>139147</v>
       </c>
       <c r="S17" t="n">
-        <v>5011</v>
+        <v>4942</v>
       </c>
       <c r="T17" t="n">
-        <v>947</v>
+        <v>1506</v>
       </c>
       <c r="U17" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
+        <v>24</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>54</v>
+      </c>
+      <c r="L18" t="n">
+        <v>68</v>
+      </c>
+      <c r="M18" t="n">
+        <v>208</v>
+      </c>
+      <c r="N18" t="n">
+        <v>193</v>
+      </c>
+      <c r="O18" t="n">
+        <v>129</v>
+      </c>
+      <c r="P18" t="n">
+        <v>116</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>451</v>
+      </c>
+      <c r="R18" t="n">
+        <v>130447</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5011</v>
+      </c>
+      <c r="T18" t="n">
+        <v>947</v>
+      </c>
+      <c r="U18" t="n">
         <v>23</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>69</v>
-      </c>
-      <c r="L18" t="n">
-        <v>80</v>
-      </c>
-      <c r="M18" t="n">
-        <v>261</v>
-      </c>
-      <c r="N18" t="n">
-        <v>250</v>
-      </c>
-      <c r="O18" t="n">
-        <v>117</v>
-      </c>
-      <c r="P18" t="n">
-        <v>132</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>420</v>
-      </c>
-      <c r="R18" t="n">
-        <v>133912</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4936</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1506</v>
-      </c>
-      <c r="U18" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -9182,7 +9182,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
         <v>9</v>
@@ -9197,43 +9197,43 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L19" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M19" t="n">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N19" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O19" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P19" t="n">
         <v>205</v>
       </c>
       <c r="Q19" t="n">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="R19" t="n">
-        <v>122701</v>
+        <v>127935</v>
       </c>
       <c r="S19" t="n">
-        <v>4905</v>
+        <v>4913</v>
       </c>
       <c r="T19" t="n">
-        <v>2208</v>
+        <v>2246</v>
       </c>
       <c r="U19" t="n">
         <v>53</v>
@@ -9380,31 +9380,31 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
         <v>17</v>
@@ -9413,106 +9413,106 @@
         <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L22" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M22" t="n">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="N22" t="n">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="O22" t="n">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="P22" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="Q22" t="n">
-        <v>360</v>
+        <v>536</v>
       </c>
       <c r="R22" t="n">
-        <v>134239</v>
+        <v>124020</v>
       </c>
       <c r="S22" t="n">
-        <v>5138</v>
+        <v>4937</v>
       </c>
       <c r="T22" t="n">
-        <v>907</v>
+        <v>1121</v>
       </c>
       <c r="U22" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>6</v>
+      </c>
+      <c r="G23" t="n">
         <v>2</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L23" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M23" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="N23" t="n">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="O23" t="n">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="P23" t="n">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="Q23" t="n">
-        <v>510</v>
+        <v>372</v>
       </c>
       <c r="R23" t="n">
-        <v>118745</v>
+        <v>138513</v>
       </c>
       <c r="S23" t="n">
-        <v>4929</v>
+        <v>5118</v>
       </c>
       <c r="T23" t="n">
-        <v>1121</v>
+        <v>1033</v>
       </c>
       <c r="U23" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -9727,34 +9727,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -9766,46 +9766,46 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>3.27</v>
+        <v>3.11</v>
       </c>
       <c r="P4" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -9820,16 +9820,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>3.07</v>
+        <v>3.27</v>
       </c>
       <c r="P5" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -10267,34 +10267,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -10303,19 +10303,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2.73</v>
+        <v>2.77</v>
       </c>
       <c r="P14" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -10330,10 +10330,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -10348,7 +10348,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -10366,31 +10366,31 @@
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="P15" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E16" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -10399,85 +10399,85 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>2.56</v>
+        <v>2.73</v>
       </c>
       <c r="P16" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
         <v>2</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>2.76</v>
+        <v>2.56</v>
       </c>
       <c r="P17" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -10492,10 +10492,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E18" t="n">
         <v>14</v>
@@ -10528,10 +10528,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="P18" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" t="n">
         <v>11</v>
@@ -10690,10 +10690,10 @@
         <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>2.29</v>
+        <v>2.24</v>
       </c>
       <c r="P21" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -10762,7 +10762,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
         <v>36</v>
@@ -10798,7 +10798,7 @@
         <v>6</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="P23" t="n">
         <v>52</v>
@@ -10971,10 +10971,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -11007,10 +11007,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="P3" t="n">
-        <v>58.04</v>
+        <v>61.07</v>
       </c>
     </row>
     <row r="4">
@@ -11178,73 +11178,73 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>3</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2.68</v>
+        <v>2.43</v>
       </c>
       <c r="P7" t="n">
-        <v>71.68000000000001</v>
+        <v>76.43000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -11253,45 +11253,45 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M8" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>15</v>
-      </c>
-      <c r="M8" t="n">
-        <v>6</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>2.43</v>
+        <v>2.62</v>
       </c>
       <c r="P8" t="n">
-        <v>76.43000000000001</v>
+        <v>73.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -11313,103 +11313,103 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>2.62</v>
       </c>
       <c r="P9" t="n">
-        <v>73.62</v>
+        <v>75.62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>2</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4</v>
-      </c>
       <c r="L10" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="P10" t="n">
-        <v>75.62</v>
+        <v>74.56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>27</v>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -11427,49 +11427,49 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="P11" t="n">
-        <v>74.56</v>
+        <v>75.59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -11484,73 +11484,73 @@
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
         <v>3</v>
       </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
       <c r="O12" t="n">
-        <v>2.59</v>
+        <v>2.92</v>
       </c>
       <c r="P12" t="n">
-        <v>75.59</v>
+        <v>73.92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13</v>
+      </c>
+      <c r="M13" t="n">
         <v>2</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>19</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>2.92</v>
+        <v>2.73</v>
       </c>
       <c r="P13" t="n">
-        <v>73.92</v>
+        <v>75.73</v>
       </c>
     </row>
     <row r="14">
@@ -11673,7 +11673,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
         <v>49</v>
@@ -11709,10 +11709,10 @@
         <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="P16" t="n">
-        <v>82.08</v>
+        <v>81.95999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -11781,10 +11781,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -11817,82 +11817,82 @@
         <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>2.96</v>
+        <v>2.89</v>
       </c>
       <c r="P18" t="n">
-        <v>82.95999999999999</v>
+        <v>83.89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>21</v>
+      </c>
+      <c r="M19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" t="n">
         <v>3</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>20</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
       <c r="O19" t="n">
-        <v>3.62</v>
+        <v>3.14</v>
       </c>
       <c r="P19" t="n">
-        <v>94.62</v>
+        <v>97.14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -11901,88 +11901,88 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>3.14</v>
+        <v>3.38</v>
       </c>
       <c r="P20" t="n">
-        <v>97.14</v>
+        <v>93.38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3.38</v>
+        <v>3.56</v>
       </c>
       <c r="P21" t="n">
-        <v>93.38</v>
+        <v>96.56</v>
       </c>
     </row>
     <row r="22">
@@ -11997,10 +11997,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -12024,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
@@ -12033,10 +12033,10 @@
         <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="P22" t="n">
-        <v>95.5</v>
+        <v>98.48</v>
       </c>
     </row>
     <row r="23">
@@ -12269,10 +12269,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="D6" t="n">
-        <v>10.33</v>
+        <v>10.4</v>
       </c>
       <c r="E6" t="n">
         <v>469</v>
@@ -12281,61 +12281,61 @@
         <v>9.59</v>
       </c>
       <c r="G6" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>319</v>
       </c>
       <c r="D7" t="n">
-        <v>10.03</v>
+        <v>10.34</v>
       </c>
       <c r="E7" t="n">
-        <v>520</v>
+        <v>404</v>
       </c>
       <c r="F7" t="n">
-        <v>9.81</v>
+        <v>9.65</v>
       </c>
       <c r="G7" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>319</v>
       </c>
       <c r="D8" t="n">
-        <v>10.34</v>
+        <v>10.03</v>
       </c>
       <c r="E8" t="n">
-        <v>380</v>
+        <v>520</v>
       </c>
       <c r="F8" t="n">
-        <v>9.470000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="G8" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -12422,52 +12422,52 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>591</v>
+        <v>292</v>
       </c>
       <c r="D12" t="n">
-        <v>8.800000000000001</v>
+        <v>10.96</v>
       </c>
       <c r="E12" t="n">
-        <v>315</v>
+        <v>422</v>
       </c>
       <c r="F12" t="n">
-        <v>9.210000000000001</v>
+        <v>7.58</v>
       </c>
       <c r="G12" t="n">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>503</v>
+        <v>591</v>
       </c>
       <c r="D13" t="n">
-        <v>9.34</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>409</v>
+        <v>315</v>
       </c>
       <c r="F13" t="n">
-        <v>8.31</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G13" t="n">
         <v>81</v>
@@ -12476,28 +12476,28 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>292</v>
+        <v>503</v>
       </c>
       <c r="D14" t="n">
-        <v>10.96</v>
+        <v>9.34</v>
       </c>
       <c r="E14" t="n">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="F14" t="n">
-        <v>7.23</v>
+        <v>8.31</v>
       </c>
       <c r="G14" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -12557,163 +12557,163 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>337</v>
+        <v>472</v>
       </c>
       <c r="D17" t="n">
-        <v>9.199999999999999</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>316</v>
+        <v>507</v>
       </c>
       <c r="F17" t="n">
-        <v>7.59</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>472</v>
+        <v>330</v>
       </c>
       <c r="D18" t="n">
-        <v>8.470000000000001</v>
+        <v>7.27</v>
       </c>
       <c r="E18" t="n">
-        <v>507</v>
+        <v>359</v>
       </c>
       <c r="F18" t="n">
-        <v>8.279999999999999</v>
+        <v>9.19</v>
       </c>
       <c r="G18" t="n">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>330</v>
+        <v>551</v>
       </c>
       <c r="D19" t="n">
-        <v>7.27</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="F19" t="n">
-        <v>9.19</v>
+        <v>6.98</v>
       </c>
       <c r="G19" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>551</v>
+        <v>371</v>
       </c>
       <c r="D20" t="n">
-        <v>8.890000000000001</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="F20" t="n">
-        <v>6.97</v>
+        <v>7.59</v>
       </c>
       <c r="G20" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="D21" t="n">
-        <v>6.71</v>
+        <v>7.86</v>
       </c>
       <c r="E21" t="n">
-        <v>403</v>
+        <v>334</v>
       </c>
       <c r="F21" t="n">
-        <v>7.94</v>
+        <v>6.29</v>
       </c>
       <c r="G21" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>420</v>
+        <v>328</v>
       </c>
       <c r="D22" t="n">
-        <v>7.86</v>
+        <v>6.1</v>
       </c>
       <c r="E22" t="n">
-        <v>334</v>
+        <v>403</v>
       </c>
       <c r="F22" t="n">
-        <v>6.29</v>
+        <v>7.94</v>
       </c>
       <c r="G22" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -12854,25 +12854,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="D3" t="n">
-        <v>886</v>
+        <v>915</v>
       </c>
       <c r="E3" t="n">
-        <v>57.38</v>
+        <v>57.08</v>
       </c>
       <c r="F3" t="n">
-        <v>623</v>
+        <v>650</v>
       </c>
       <c r="G3" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H3" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I3" t="n">
-        <v>455</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4">
@@ -13175,100 +13175,100 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>355</v>
+        <v>454</v>
       </c>
       <c r="D13" t="n">
-        <v>823</v>
+        <v>716</v>
       </c>
       <c r="E13" t="n">
-        <v>52.99</v>
+        <v>47.14</v>
       </c>
       <c r="F13" t="n">
-        <v>440</v>
+        <v>522</v>
       </c>
       <c r="G13" t="n">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H13" t="n">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="I13" t="n">
-        <v>621</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="D14" t="n">
-        <v>744</v>
+        <v>823</v>
       </c>
       <c r="E14" t="n">
-        <v>49.53</v>
+        <v>52.99</v>
       </c>
       <c r="F14" t="n">
-        <v>356</v>
+        <v>440</v>
       </c>
       <c r="G14" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H14" t="n">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="I14" t="n">
-        <v>597</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>438</v>
+        <v>374</v>
       </c>
       <c r="D15" t="n">
-        <v>694</v>
+        <v>744</v>
       </c>
       <c r="E15" t="n">
-        <v>47.44</v>
+        <v>49.53</v>
       </c>
       <c r="F15" t="n">
-        <v>508</v>
+        <v>356</v>
       </c>
       <c r="G15" t="n">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="H15" t="n">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="I15" t="n">
-        <v>491</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16">
@@ -13307,67 +13307,67 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="D17" t="n">
-        <v>728</v>
+        <v>802</v>
       </c>
       <c r="E17" t="n">
-        <v>47.49</v>
+        <v>49.41</v>
       </c>
       <c r="F17" t="n">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G17" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H17" t="n">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="I17" t="n">
-        <v>451</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>438</v>
+        <v>374</v>
       </c>
       <c r="D18" t="n">
-        <v>773</v>
+        <v>728</v>
       </c>
       <c r="E18" t="n">
-        <v>49.39</v>
+        <v>47.49</v>
       </c>
       <c r="F18" t="n">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="G18" t="n">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H18" t="n">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="I18" t="n">
-        <v>420</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19">
@@ -13382,25 +13382,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="D19" t="n">
-        <v>655</v>
+        <v>685</v>
       </c>
       <c r="E19" t="n">
-        <v>47.19</v>
+        <v>47.34</v>
       </c>
       <c r="F19" t="n">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="G19" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H19" t="n">
         <v>205</v>
       </c>
       <c r="I19" t="n">
-        <v>445</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20">
@@ -13472,67 +13472,67 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="D22" t="n">
-        <v>710</v>
+        <v>640</v>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>45.71</v>
       </c>
       <c r="F22" t="n">
-        <v>388</v>
+        <v>681</v>
       </c>
       <c r="G22" t="n">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="H22" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="I22" t="n">
-        <v>360</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="D23" t="n">
-        <v>611</v>
+        <v>744</v>
       </c>
       <c r="E23" t="n">
-        <v>45.53</v>
+        <v>50.41</v>
       </c>
       <c r="F23" t="n">
-        <v>657</v>
+        <v>399</v>
       </c>
       <c r="G23" t="n">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="H23" t="n">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="I23" t="n">
-        <v>510</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -13972,12 +13972,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -13993,11 +13993,11 @@
         <v>24.1</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>02:27:33</t>
+          <t>02:17:34</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -14005,21 +14005,21 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>05:41</t>
+          <t>05:17</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="M6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>02:04:07</t>
+          <t>02:51:23</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -14027,54 +14027,54 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>06:36</t>
         </is>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8853</v>
+        <v>8254</v>
       </c>
       <c r="S6" t="n">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="T6" t="n">
-        <v>7447</v>
+        <v>10283</v>
       </c>
       <c r="U6" t="n">
-        <v>286</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>23.2</v>
+        <v>24.1</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>02:11:19</t>
+          <t>02:27:33</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -14082,21 +14082,21 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>05:41</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>02:40:12</t>
+          <t>02:04:07</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -14104,23 +14104,23 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>7879</v>
+        <v>8853</v>
       </c>
       <c r="S7" t="n">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="T7" t="n">
-        <v>9612</v>
+        <v>7447</v>
       </c>
       <c r="U7" t="n">
-        <v>384</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8">
@@ -14434,32 +14434,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>01:57:53</t>
+          <t>02:25:25</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -14467,7 +14467,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>04:55</t>
+          <t>05:36</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -14477,11 +14477,11 @@
         <v>89</v>
       </c>
       <c r="M12" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>02:29:21</t>
+          <t>02:31:59</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -14489,54 +14489,54 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>06:13</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7073</v>
+        <v>8725</v>
       </c>
       <c r="S12" t="n">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="T12" t="n">
-        <v>8961</v>
+        <v>9119</v>
       </c>
       <c r="U12" t="n">
-        <v>373</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
         <v>21.3</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>02:25:25</t>
+          <t>02:08:53</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -14544,21 +14544,21 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>05:36</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M13" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>02:31:59</t>
+          <t>02:17:49</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -14566,54 +14566,54 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8725</v>
+        <v>7733</v>
       </c>
       <c r="S13" t="n">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T13" t="n">
-        <v>9119</v>
+        <v>8269</v>
       </c>
       <c r="U13" t="n">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>02:08:53</t>
+          <t>02:04:53</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -14621,21 +14621,21 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>02:17:49</t>
+          <t>02:31:21</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -14643,23 +14643,23 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>7733</v>
+        <v>7493</v>
       </c>
       <c r="S14" t="n">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="T14" t="n">
-        <v>8269</v>
+        <v>9081</v>
       </c>
       <c r="U14" t="n">
-        <v>345</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15">
@@ -14742,16 +14742,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
         <v>87</v>
@@ -14763,11 +14763,11 @@
         <v>17.2</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>02:28:10</t>
+          <t>02:27:38</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -14775,21 +14775,21 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>05:56</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="M16" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>02:13:35</t>
+          <t>02:48:51</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -14797,54 +14797,54 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>06:02</t>
         </is>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8890</v>
+        <v>8858</v>
       </c>
       <c r="S16" t="n">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="T16" t="n">
-        <v>8015</v>
+        <v>10131</v>
       </c>
       <c r="U16" t="n">
-        <v>321</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>02:27:38</t>
+          <t>02:32:56</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -14852,21 +14852,21 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>05:40</t>
         </is>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="M17" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>02:48:51</t>
+          <t>01:49:45</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -14874,54 +14874,54 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>06:02</t>
+          <t>04:04</t>
         </is>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>8858</v>
+        <v>9176</v>
       </c>
       <c r="S17" t="n">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="T17" t="n">
-        <v>10131</v>
+        <v>6585</v>
       </c>
       <c r="U17" t="n">
-        <v>362</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>02:32:56</t>
+          <t>02:10:15</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -14929,21 +14929,21 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>05:40</t>
+          <t>05:01</t>
         </is>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="M18" t="n">
         <v>15</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>01:49:45</t>
+          <t>02:25:58</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -14951,54 +14951,54 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>04:04</t>
+          <t>05:37</t>
         </is>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9176</v>
+        <v>7815</v>
       </c>
       <c r="S18" t="n">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="T18" t="n">
-        <v>6585</v>
+        <v>8758</v>
       </c>
       <c r="U18" t="n">
-        <v>244</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>26</v>
       </c>
       <c r="D19" t="n">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>02:10:15</t>
+          <t>02:34:10</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>05:01</t>
+          <t>05:56</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -15016,11 +15016,11 @@
         <v>85</v>
       </c>
       <c r="M19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>02:25:58</t>
+          <t>02:20:00</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -15028,23 +15028,23 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>05:37</t>
+          <t>05:23</t>
         </is>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7815</v>
+        <v>9250</v>
       </c>
       <c r="S19" t="n">
-        <v>301</v>
+        <v>356</v>
       </c>
       <c r="T19" t="n">
-        <v>8758</v>
+        <v>8400</v>
       </c>
       <c r="U19" t="n">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20">
@@ -15059,23 +15059,23 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>15.9</v>
+        <v>14.5</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>01:51:52</t>
+          <t>02:03:03</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -15083,21 +15083,21 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>04:18</t>
+          <t>04:33</t>
         </is>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>02:29:14</t>
+          <t>02:35:29</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -15105,23 +15105,23 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>05:46</t>
         </is>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6712</v>
+        <v>7383</v>
       </c>
       <c r="S20" t="n">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="T20" t="n">
-        <v>8954</v>
+        <v>9329</v>
       </c>
       <c r="U20" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21">
@@ -15136,23 +15136,23 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>02:41:51</t>
+          <t>02:43:51</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -15160,21 +15160,21 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M21" t="n">
         <v>15</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>02:29:54</t>
+          <t>02:36:54</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -15182,23 +15182,23 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>05:33</t>
+          <t>05:36</t>
         </is>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9711</v>
+        <v>9831</v>
       </c>
       <c r="S21" t="n">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="T21" t="n">
-        <v>8994</v>
+        <v>9414</v>
       </c>
       <c r="U21" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22">
@@ -15213,23 +15213,23 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>02:29:47</t>
+          <t>02:36:12</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -15237,21 +15237,21 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>05:33</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M22" t="n">
         <v>20</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>02:49:31</t>
+          <t>02:55:31</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -15259,23 +15259,23 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>06:17</t>
+          <t>06:16</t>
         </is>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>8987</v>
+        <v>9372</v>
       </c>
       <c r="S22" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="T22" t="n">
-        <v>10171</v>
+        <v>10531</v>
       </c>
       <c r="U22" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23">
@@ -15464,66 +15464,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>85</v>
+        <v>83.7</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>02:28:10</t>
+          <t>02:43:51</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>05:56</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>02:13:35</t>
+          <t>02:36:54</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>05:36</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>8890</v>
+        <v>9831</v>
       </c>
       <c r="O2" t="n">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="P2" t="n">
-        <v>8015</v>
+        <v>9414</v>
       </c>
       <c r="Q2" t="n">
-        <v>321</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3">
@@ -15594,66 +15594,66 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="E4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>90</v>
+      </c>
+      <c r="G4" t="n">
         <v>15</v>
       </c>
-      <c r="F4" t="n">
-        <v>97</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14</v>
-      </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>02:41:51</t>
+          <t>02:34:10</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>05:56</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>02:29:54</t>
+          <t>02:20:00</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05:33</t>
+          <t>05:23</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>9711</v>
+        <v>9250</v>
       </c>
       <c r="O4" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P4" t="n">
-        <v>8994</v>
+        <v>8400</v>
       </c>
       <c r="Q4" t="n">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5">
@@ -15984,326 +15984,326 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>81.59999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>01:51:52</t>
+          <t>01:53:10</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>04:18</t>
+          <t>04:21</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>02:29:14</t>
+          <t>02:29:55</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>05:46</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>6712</v>
+        <v>6790</v>
       </c>
       <c r="O10" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P10" t="n">
-        <v>8954</v>
+        <v>8995</v>
       </c>
       <c r="Q10" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>81.3</v>
+        <v>81</v>
       </c>
       <c r="E11" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G11" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>01:53:10</t>
+          <t>02:17:34</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>04:21</t>
+          <t>05:17</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>02:29:55</t>
+          <t>02:51:23</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>05:46</t>
+          <t>06:36</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>6790</v>
+        <v>8254</v>
       </c>
       <c r="O11" t="n">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="P11" t="n">
-        <v>8995</v>
+        <v>10283</v>
       </c>
       <c r="Q11" t="n">
-        <v>346</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="G12" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>02:38:51</t>
+          <t>02:03:03</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>06:07</t>
+          <t>04:33</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>02:27:23</t>
+          <t>02:35:29</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>05:40</t>
+          <t>05:46</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>9531</v>
+        <v>7383</v>
       </c>
       <c r="O12" t="n">
-        <v>367</v>
+        <v>273</v>
       </c>
       <c r="P12" t="n">
-        <v>8843</v>
+        <v>9329</v>
       </c>
       <c r="Q12" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>79.8</v>
+        <v>80.2</v>
       </c>
       <c r="E13" t="n">
         <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G13" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>02:11:19</t>
+          <t>02:36:12</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>02:40:12</t>
+          <t>02:55:31</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>06:16</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>7879</v>
+        <v>9372</v>
       </c>
       <c r="O13" t="n">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="P13" t="n">
-        <v>9612</v>
+        <v>10531</v>
       </c>
       <c r="Q13" t="n">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>79.59999999999999</v>
+        <v>80</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>02:29:47</t>
+          <t>02:38:51</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>05:33</t>
+          <t>06:07</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>02:49:31</t>
+          <t>02:27:23</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>06:17</t>
+          <t>05:40</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>8987</v>
+        <v>9531</v>
       </c>
       <c r="O14" t="n">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="P14" t="n">
-        <v>10171</v>
+        <v>8843</v>
       </c>
       <c r="Q14" t="n">
-        <v>377</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15">
@@ -16643,16 +16643,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>75.3</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E20" t="n">
         <v>22</v>
       </c>
       <c r="F20" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G20" t="n">
         <v>14</v>
@@ -16662,38 +16662,38 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>01:57:53</t>
+          <t>02:04:53</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>04:55</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>02:29:21</t>
+          <t>02:31:21</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>06:13</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>7073</v>
+        <v>7493</v>
       </c>
       <c r="O20" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P20" t="n">
-        <v>8961</v>
+        <v>9081</v>
       </c>
       <c r="Q20" t="n">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21">
@@ -17049,79 +17049,79 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>18</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="M3" t="n">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="N3" t="n">
         <v>934</v>
       </c>
       <c r="O3" t="n">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="P3" t="n">
-        <v>817</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -17133,25 +17133,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="M4" t="n">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="N4" t="n">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="O4" t="n">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="P4" t="n">
-        <v>915</v>
+        <v>817</v>
       </c>
     </row>
     <row r="5">
@@ -17166,10 +17166,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -17193,310 +17193,310 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M5" t="n">
         <v>164</v>
       </c>
       <c r="N5" t="n">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="O5" t="n">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="P5" t="n">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>16</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N6" t="n">
-        <v>924</v>
+        <v>957</v>
       </c>
       <c r="O6" t="n">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="P6" t="n">
-        <v>726</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="N7" t="n">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="O7" t="n">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="P7" t="n">
-        <v>1200</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>10</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="M8" t="n">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>911</v>
+        <v>930</v>
       </c>
       <c r="O8" t="n">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="P8" t="n">
-        <v>904</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M9" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="N9" t="n">
-        <v>837</v>
+        <v>853</v>
       </c>
       <c r="O9" t="n">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="P9" t="n">
-        <v>906</v>
+        <v>633</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="N10" t="n">
-        <v>850</v>
+        <v>911</v>
       </c>
       <c r="O10" t="n">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="P10" t="n">
-        <v>830</v>
+        <v>904</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -17511,52 +17511,52 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="N11" t="n">
-        <v>912</v>
+        <v>837</v>
       </c>
       <c r="O11" t="n">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="P11" t="n">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -17565,100 +17565,100 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="M12" t="n">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="N12" t="n">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="O12" t="n">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="P12" t="n">
-        <v>809</v>
+        <v>830</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="O13" t="n">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="P13" t="n">
-        <v>620</v>
+        <v>809</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>93</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -17670,107 +17670,107 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="M14" t="n">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="N14" t="n">
-        <v>748</v>
+        <v>830</v>
       </c>
       <c r="O14" t="n">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="P14" t="n">
-        <v>1020</v>
+        <v>834</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>3</v>
       </c>
-      <c r="F15" t="n">
+      <c r="J15" t="n">
+        <v>16</v>
+      </c>
+      <c r="K15" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="M15" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N15" t="n">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="O15" t="n">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="P15" t="n">
-        <v>840</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
         <v>2</v>
       </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
@@ -17778,52 +17778,52 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M16" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="N16" t="n">
-        <v>730</v>
+        <v>748</v>
       </c>
       <c r="O16" t="n">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="P16" t="n">
-        <v>838</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -17832,52 +17832,52 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
+        <v>12</v>
+      </c>
+      <c r="K17" t="n">
         <v>6</v>
       </c>
-      <c r="K17" t="n">
-        <v>2</v>
-      </c>
       <c r="L17" t="n">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="M17" t="n">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="N17" t="n">
-        <v>800</v>
+        <v>730</v>
       </c>
       <c r="O17" t="n">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="P17" t="n">
-        <v>725</v>
+        <v>838</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -17892,46 +17892,46 @@
         <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="M18" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="N18" t="n">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="O18" t="n">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="P18" t="n">
-        <v>920</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D19" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -17943,46 +17943,46 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L19" t="n">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="M19" t="n">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="N19" t="n">
-        <v>706</v>
+        <v>835</v>
       </c>
       <c r="O19" t="n">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P19" t="n">
-        <v>755</v>
+        <v>920</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -17997,46 +17997,46 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M20" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N20" t="n">
-        <v>746</v>
+        <v>706</v>
       </c>
       <c r="O20" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="P20" t="n">
-        <v>906</v>
+        <v>755</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -18048,28 +18048,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M21" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="N21" t="n">
-        <v>725</v>
+        <v>746</v>
       </c>
       <c r="O21" t="n">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c r="P21" t="n">
-        <v>541</v>
+        <v>906</v>
       </c>
     </row>
     <row r="22">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-17 23:20:44</t>
+          <t>2025-11-18 03:00:51</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-18 03:00:51</t>
+          <t>2025-11-18 07:00:50</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-18 07:00:50</t>
+          <t>2025-11-18 10:30:27</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-19 03:04:44</t>
+          <t>2025-11-19 07:01:46</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-19 07:01:46</t>
+          <t>2025-11-19 09:59:28</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -1413,103 +1413,103 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>35</v>
+      </c>
+      <c r="H3" t="n">
         <v>12</v>
       </c>
-      <c r="E3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
       <c r="I3" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K3" t="n">
         <v>71</v>
       </c>
       <c r="L3" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N3" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O3" t="n">
-        <v>157</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
         <v>12</v>
       </c>
       <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>34</v>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
-      <c r="F4" t="n">
-        <v>7</v>
-      </c>
-      <c r="G4" t="n">
-        <v>33</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12</v>
-      </c>
       <c r="I4" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L4" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O4" t="n">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
         <v>8</v>
@@ -2094,34 +2094,34 @@
         <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" t="n">
         <v>26</v>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" t="n">
         <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L16" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M16" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N16" t="n">
         <v>47</v>
       </c>
       <c r="O16" t="n">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17">
@@ -2136,43 +2136,43 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
         <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
         <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17" t="n">
         <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K17" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L17" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N17" t="n">
         <v>64</v>
       </c>
       <c r="O17" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
@@ -2442,43 +2442,43 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
         <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H23" t="n">
         <v>14</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K23" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L23" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M23" t="n">
         <v>55</v>
       </c>
       <c r="N23" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O23" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2640,10 +2640,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -2652,13 +2652,13 @@
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3" t="n">
         <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" t="n">
         <v>15</v>
@@ -2667,16 +2667,16 @@
         <v>118</v>
       </c>
       <c r="L3" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M3" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N3" t="n">
         <v>43</v>
       </c>
       <c r="O3" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4">
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
         <v>9</v>
@@ -3108,34 +3108,34 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
         <v>27</v>
       </c>
       <c r="H12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" t="n">
         <v>22</v>
       </c>
       <c r="J12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" t="n">
         <v>87</v>
       </c>
       <c r="M12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N12" t="n">
         <v>37</v>
       </c>
       <c r="O12" t="n">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13">
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
         <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
         <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" t="n">
         <v>24</v>
@@ -3276,10 +3276,10 @@
         <v>21</v>
       </c>
       <c r="K15" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L15" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M15" t="n">
         <v>46</v>
@@ -3288,7 +3288,7 @@
         <v>87</v>
       </c>
       <c r="O15" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
@@ -3354,22 +3354,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
         <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17" t="n">
         <v>22</v>
@@ -3378,19 +3378,19 @@
         <v>35</v>
       </c>
       <c r="K17" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L17" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N17" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O17" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
         <v>13</v>
@@ -4020,7 +4020,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
         <v>31</v>
@@ -4029,25 +4029,25 @@
         <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L6" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N6" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O6" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
@@ -4359,67 +4359,67 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>27</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>27</v>
+      </c>
+      <c r="H13" t="n">
+        <v>12</v>
+      </c>
+      <c r="I13" t="n">
         <v>26</v>
       </c>
-      <c r="D13" t="n">
-        <v>9</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-      <c r="G13" t="n">
-        <v>26</v>
-      </c>
-      <c r="H13" t="n">
-        <v>11</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18</v>
-      </c>
       <c r="J13" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K13" t="n">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="L13" t="n">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="M13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N13" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O13" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>9</v>
@@ -4428,58 +4428,58 @@
         <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
         <v>26</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K14" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="L14" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="M14" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N14" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="O14" t="n">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
         <v>26</v>
@@ -4488,178 +4488,178 @@
         <v>10</v>
       </c>
       <c r="I15" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K15" t="n">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="L15" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="M15" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N15" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O15" t="n">
-        <v>193</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F16" t="n">
         <v>7</v>
       </c>
-      <c r="F16" t="n">
-        <v>12</v>
-      </c>
       <c r="G16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H16" t="n">
         <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J16" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K16" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L16" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M16" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N16" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="O16" t="n">
-        <v>141</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>26</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
         <v>11</v>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
       </c>
       <c r="G17" t="n">
         <v>25</v>
       </c>
       <c r="H17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="L17" t="n">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="M17" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N17" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O17" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
         <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J18" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K18" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L18" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="M18" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N18" t="n">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="O18" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19">
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
         <v>6</v>
@@ -4734,25 +4734,25 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
         <v>21</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
         <v>20</v>
       </c>
       <c r="J20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K20" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L20" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M20" t="n">
         <v>35</v>
@@ -4761,7 +4761,7 @@
         <v>54</v>
       </c>
       <c r="O20" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21">
@@ -5271,321 +5271,321 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D. Isayev</t>
+          <t>I. Bocharov</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Д. Исаев</t>
+          <t>И. Бочаров</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
         <v>92.59999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>1.96</v>
+        <v>2.69</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>137721</v>
+        <v>93821</v>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>I. Bocharov</t>
+          <t>N. Serebryakov</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>И. Бочаров</t>
+          <t>Н. Серебряков</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>92.59999999999999</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>2.69</v>
+        <v>2.38</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>93821</v>
+        <v>133853</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>N. Serebryakov</t>
+          <t>Z. Fucale</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Н. Серебряков</t>
+          <t>З. Фукале</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
         <v>92.40000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>133853</v>
+        <v>120302</v>
       </c>
       <c r="J11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Z. Fucale</t>
+          <t>Y. Zavragin</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>З. Фукале</t>
+          <t>Е. Заврагин</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
         <v>92.40000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>1.95</v>
+        <v>2.48</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>120302</v>
+        <v>65237</v>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Y. Zavragin</t>
+          <t>P. Rybar</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Е. Заврагин</t>
+          <t>П. Рибар</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>92.40000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.48</v>
+        <v>2.67</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>65237</v>
+        <v>105644</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P. Rybar</t>
+          <t>D. Isayev</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>П. Рибар</t>
+          <t>Д. Исаев</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
         <v>92.09999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>2.66</v>
+        <v>2.04</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>99349</v>
+        <v>144016</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A. Scheel</t>
+          <t>P. Khomchenko</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>А. Шил</t>
+          <t>П. Хомченко</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>91.7</v>
+        <v>92</v>
       </c>
       <c r="G15" t="n">
-        <v>2.73</v>
+        <v>2.62</v>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>68201</v>
+        <v>80224</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P. Khomchenko</t>
+          <t>A. Scheel</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>П. Хомченко</t>
+          <t>А. Шил</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
         <v>91.7</v>
       </c>
       <c r="G16" t="n">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>74224</v>
+        <v>68201</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,32 +6829,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8254</v>
+        <v>8522</v>
       </c>
       <c r="F10" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G10" t="n">
-        <v>10283</v>
+        <v>10643</v>
       </c>
       <c r="H10" t="n">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" t="n">
         <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>9.15919554155561</v>
+        <v>9.293593053273879</v>
       </c>
       <c r="L10" t="n">
-        <v>7.001847709812311</v>
+        <v>6.765009865639388</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,20 +6957,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7493</v>
+        <v>8213</v>
       </c>
       <c r="F12" t="n">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="G12" t="n">
-        <v>9081</v>
+        <v>9478</v>
       </c>
       <c r="H12" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I12" t="n">
         <v>14</v>
@@ -6979,10 +6979,10 @@
         <v>22</v>
       </c>
       <c r="K12" t="n">
-        <v>6.72627785933538</v>
+        <v>6.136612687203215</v>
       </c>
       <c r="L12" t="n">
-        <v>8.721506442021804</v>
+        <v>8.356193289723571</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,32 +7085,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9372</v>
+        <v>9732</v>
       </c>
       <c r="F14" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G14" t="n">
-        <v>10531</v>
+        <v>10799</v>
       </c>
       <c r="H14" t="n">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I14" t="n">
         <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" t="n">
-        <v>4.609475032010243</v>
+        <v>4.438964241676942</v>
       </c>
       <c r="L14" t="n">
-        <v>6.83695755388852</v>
+        <v>7.000648208167423</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,20 +7341,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9250</v>
+        <v>9647</v>
       </c>
       <c r="F18" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G18" t="n">
-        <v>8400</v>
+        <v>9120</v>
       </c>
       <c r="H18" t="n">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="I18" t="n">
         <v>15</v>
@@ -7363,10 +7363,10 @@
         <v>14</v>
       </c>
       <c r="K18" t="n">
-        <v>5.837837837837838</v>
+        <v>5.59759510728724</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>5.526315789473684</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-19 09:59:28</t>
+          <t>2025-11-20 03:00:27</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8078,7 +8078,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>16</v>
@@ -8093,46 +8093,46 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L3" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="N3" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="O3" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P3" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q3" t="n">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="R3" t="n">
-        <v>136511</v>
+        <v>141738</v>
       </c>
       <c r="S3" t="n">
-        <v>4845</v>
+        <v>4853</v>
       </c>
       <c r="T3" t="n">
         <v>1034</v>
       </c>
       <c r="U3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -8621,166 +8621,166 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L11" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M11" t="n">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="N11" t="n">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="O11" t="n">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="P11" t="n">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="Q11" t="n">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="R11" t="n">
-        <v>143836</v>
+        <v>132844</v>
       </c>
       <c r="S11" t="n">
-        <v>4936</v>
+        <v>4913</v>
       </c>
       <c r="T11" t="n">
-        <v>1520</v>
+        <v>1048</v>
       </c>
       <c r="U11" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>31</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L12" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M12" t="n">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="N12" t="n">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="O12" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P12" t="n">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Q12" t="n">
-        <v>629</v>
+        <v>559</v>
       </c>
       <c r="R12" t="n">
-        <v>130641</v>
+        <v>143836</v>
       </c>
       <c r="S12" t="n">
-        <v>4824</v>
+        <v>4936</v>
       </c>
       <c r="T12" t="n">
-        <v>1056</v>
+        <v>1520</v>
       </c>
       <c r="U12" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
         <v>3</v>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
@@ -8789,109 +8789,109 @@
         <v>31</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M13" t="n">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="N13" t="n">
-        <v>238</v>
+        <v>320</v>
       </c>
       <c r="O13" t="n">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="P13" t="n">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="Q13" t="n">
-        <v>568</v>
+        <v>629</v>
       </c>
       <c r="R13" t="n">
-        <v>144116</v>
+        <v>130641</v>
       </c>
       <c r="S13" t="n">
-        <v>4942</v>
+        <v>4824</v>
       </c>
       <c r="T13" t="n">
-        <v>3135</v>
+        <v>1056</v>
       </c>
       <c r="U13" t="n">
-        <v>105</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L14" t="n">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="M14" t="n">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="N14" t="n">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="O14" t="n">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="P14" t="n">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="Q14" t="n">
-        <v>501</v>
+        <v>568</v>
       </c>
       <c r="R14" t="n">
-        <v>127617</v>
+        <v>144116</v>
       </c>
       <c r="S14" t="n">
-        <v>4905</v>
+        <v>4942</v>
       </c>
       <c r="T14" t="n">
-        <v>1048</v>
+        <v>3135</v>
       </c>
       <c r="U14" t="n">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
@@ -9251,7 +9251,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
         <v>9</v>
@@ -9275,37 +9275,37 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L20" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M20" t="n">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="N20" t="n">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="O20" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P20" t="n">
         <v>205</v>
       </c>
       <c r="Q20" t="n">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="R20" t="n">
-        <v>127935</v>
+        <v>132058</v>
       </c>
       <c r="S20" t="n">
-        <v>4913</v>
+        <v>4855</v>
       </c>
       <c r="T20" t="n">
-        <v>2246</v>
+        <v>2422</v>
       </c>
       <c r="U20" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
@@ -9389,10 +9389,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -9407,43 +9407,43 @@
         <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J22" t="n">
         <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L22" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M22" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="N22" t="n">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="O22" t="n">
+        <v>137</v>
+      </c>
+      <c r="P22" t="n">
         <v>134</v>
       </c>
-      <c r="P22" t="n">
-        <v>130</v>
-      </c>
       <c r="Q22" t="n">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="R22" t="n">
-        <v>124020</v>
+        <v>128143</v>
       </c>
       <c r="S22" t="n">
-        <v>4937</v>
+        <v>4918</v>
       </c>
       <c r="T22" t="n">
         <v>1121</v>
       </c>
       <c r="U22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -9727,34 +9727,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -9766,40 +9766,40 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="P4" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -9808,7 +9808,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -9817,16 +9817,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>3.26</v>
       </c>
       <c r="P5" t="n">
         <v>93</v>
@@ -9835,22 +9835,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -9859,7 +9859,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -9871,19 +9871,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" t="n">
         <v>2</v>
       </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
       <c r="O6" t="n">
-        <v>3.11</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -10267,109 +10267,109 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2.61</v>
+        <v>2.81</v>
       </c>
       <c r="P14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>2.77</v>
+        <v>2.61</v>
       </c>
       <c r="P15" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -10492,10 +10492,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" t="n">
         <v>14</v>
@@ -10528,10 +10528,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="P18" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -10591,25 +10591,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -10618,7 +10618,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -10627,16 +10627,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
         <v>3</v>
       </c>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>2.04</v>
+        <v>2.23</v>
       </c>
       <c r="P20" t="n">
         <v>61</v>
@@ -10645,55 +10645,55 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>3</v>
       </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2</v>
-      </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="P21" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
@@ -10908,82 +10908,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="P2" t="n">
-        <v>61.07</v>
+        <v>63.15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -10995,22 +10995,22 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="P3" t="n">
-        <v>63.15</v>
+        <v>65.14</v>
       </c>
     </row>
     <row r="4">
@@ -11394,83 +11394,83 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>20</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
         <v>3</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>13</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
       <c r="O11" t="n">
-        <v>2.73</v>
+        <v>2.84</v>
       </c>
       <c r="P11" t="n">
-        <v>75.73</v>
+        <v>74.84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>2</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
@@ -11484,73 +11484,73 @@
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>2.84</v>
+        <v>2.61</v>
       </c>
       <c r="P12" t="n">
-        <v>74.84</v>
+        <v>78.61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13</v>
+      </c>
+      <c r="M13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>12</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
       <c r="N13" t="n">
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>2.61</v>
+        <v>2.7</v>
       </c>
       <c r="P13" t="n">
-        <v>78.61</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="14">
@@ -11610,109 +11610,109 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>14</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>17</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4</v>
-      </c>
       <c r="O15" t="n">
-        <v>2.96</v>
+        <v>2.6</v>
       </c>
       <c r="P15" t="n">
-        <v>81.95999999999999</v>
+        <v>83.59999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>2.6</v>
+        <v>2.96</v>
       </c>
       <c r="P16" t="n">
-        <v>83.59999999999999</v>
+        <v>84.95999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -11826,109 +11826,109 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>3.56</v>
+        <v>3.33</v>
       </c>
       <c r="P19" t="n">
-        <v>96.56</v>
+        <v>95.33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>3.33</v>
+        <v>3.46</v>
       </c>
       <c r="P20" t="n">
-        <v>95.33</v>
+        <v>97.45999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -12233,109 +12233,109 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="D5" t="n">
-        <v>10.56</v>
+        <v>10.34</v>
       </c>
       <c r="E5" t="n">
-        <v>520</v>
+        <v>418</v>
       </c>
       <c r="F5" t="n">
-        <v>9.81</v>
+        <v>10.29</v>
       </c>
       <c r="G5" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="D6" t="n">
-        <v>8.06</v>
+        <v>10.56</v>
       </c>
       <c r="E6" t="n">
-        <v>403</v>
+        <v>520</v>
       </c>
       <c r="F6" t="n">
-        <v>11.91</v>
+        <v>9.81</v>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D7" t="n">
-        <v>10.4</v>
+        <v>8.06</v>
       </c>
       <c r="E7" t="n">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="F7" t="n">
-        <v>9.59</v>
+        <v>11.91</v>
       </c>
       <c r="G7" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>319</v>
+        <v>453</v>
       </c>
       <c r="D8" t="n">
-        <v>10.34</v>
+        <v>9.93</v>
       </c>
       <c r="E8" t="n">
-        <v>404</v>
+        <v>469</v>
       </c>
       <c r="F8" t="n">
-        <v>9.65</v>
+        <v>9.59</v>
       </c>
       <c r="G8" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -12449,55 +12449,55 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>292</v>
+        <v>528</v>
       </c>
       <c r="D13" t="n">
-        <v>10.96</v>
+        <v>9.09</v>
       </c>
       <c r="E13" t="n">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="F13" t="n">
-        <v>7.58</v>
+        <v>8.31</v>
       </c>
       <c r="G13" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>528</v>
+        <v>292</v>
       </c>
       <c r="D14" t="n">
-        <v>9.09</v>
+        <v>10.96</v>
       </c>
       <c r="E14" t="n">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="F14" t="n">
-        <v>8.31</v>
+        <v>7.3</v>
       </c>
       <c r="G14" t="n">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -12620,10 +12620,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="D19" t="n">
-        <v>8.630000000000001</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="E19" t="n">
         <v>316</v>
@@ -12632,7 +12632,7 @@
         <v>7.59</v>
       </c>
       <c r="G19" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
@@ -12854,25 +12854,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="D3" t="n">
-        <v>915</v>
+        <v>954</v>
       </c>
       <c r="E3" t="n">
-        <v>57.08</v>
+        <v>57.47</v>
       </c>
       <c r="F3" t="n">
-        <v>650</v>
+        <v>676</v>
       </c>
       <c r="G3" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H3" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I3" t="n">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4">
@@ -13109,133 +13109,133 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>584</v>
+        <v>477</v>
       </c>
       <c r="D11" t="n">
-        <v>870</v>
+        <v>734</v>
       </c>
       <c r="E11" t="n">
-        <v>49.29</v>
+        <v>46.57</v>
       </c>
       <c r="F11" t="n">
-        <v>625</v>
+        <v>551</v>
       </c>
       <c r="G11" t="n">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="H11" t="n">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="I11" t="n">
-        <v>559</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>367</v>
+        <v>584</v>
       </c>
       <c r="D12" t="n">
-        <v>847</v>
+        <v>870</v>
       </c>
       <c r="E12" t="n">
-        <v>53.07</v>
+        <v>49.29</v>
       </c>
       <c r="F12" t="n">
-        <v>455</v>
+        <v>625</v>
       </c>
       <c r="G12" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H12" t="n">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="I12" t="n">
-        <v>629</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>498</v>
+        <v>367</v>
       </c>
       <c r="D13" t="n">
-        <v>915</v>
+        <v>847</v>
       </c>
       <c r="E13" t="n">
-        <v>51.64</v>
+        <v>53.07</v>
       </c>
       <c r="F13" t="n">
-        <v>618</v>
+        <v>455</v>
       </c>
       <c r="G13" t="n">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H13" t="n">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="I13" t="n">
-        <v>568</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="D14" t="n">
-        <v>716</v>
+        <v>915</v>
       </c>
       <c r="E14" t="n">
-        <v>47.14</v>
+        <v>51.64</v>
       </c>
       <c r="F14" t="n">
-        <v>522</v>
+        <v>618</v>
       </c>
       <c r="G14" t="n">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="H14" t="n">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="I14" t="n">
-        <v>501</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15">
@@ -13415,25 +13415,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="D20" t="n">
-        <v>685</v>
+        <v>706</v>
       </c>
       <c r="E20" t="n">
-        <v>47.34</v>
+        <v>47.07</v>
       </c>
       <c r="F20" t="n">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="G20" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" t="n">
         <v>205</v>
       </c>
       <c r="I20" t="n">
-        <v>471</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21">
@@ -13481,25 +13481,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="D22" t="n">
-        <v>640</v>
+        <v>672</v>
       </c>
       <c r="E22" t="n">
-        <v>45.71</v>
+        <v>46.25</v>
       </c>
       <c r="F22" t="n">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="G22" t="n">
+        <v>137</v>
+      </c>
+      <c r="H22" t="n">
         <v>134</v>
       </c>
-      <c r="H22" t="n">
-        <v>130</v>
-      </c>
       <c r="I22" t="n">
-        <v>536</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23">
@@ -13981,23 +13981,23 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>02:17:34</t>
+          <t>02:22:02</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -14005,21 +14005,21 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>05:17</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M6" t="n">
         <v>20</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>02:51:23</t>
+          <t>02:57:23</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -14027,23 +14027,23 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>06:36</t>
+          <t>06:34</t>
         </is>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8254</v>
+        <v>8522</v>
       </c>
       <c r="S6" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="T6" t="n">
-        <v>10283</v>
+        <v>10643</v>
       </c>
       <c r="U6" t="n">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7">
@@ -14511,32 +14511,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>02:04:53</t>
+          <t>02:14:53</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -14544,21 +14544,21 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>05:24</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>02:31:21</t>
+          <t>02:24:10</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -14566,54 +14566,54 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>05:46</t>
         </is>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7493</v>
+        <v>8093</v>
       </c>
       <c r="S13" t="n">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="T13" t="n">
-        <v>9081</v>
+        <v>8650</v>
       </c>
       <c r="U13" t="n">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>20.5</v>
+        <v>19.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>02:14:53</t>
+          <t>02:16:53</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -14621,21 +14621,21 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>05:24</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>02:24:10</t>
+          <t>02:37:58</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -14643,23 +14643,23 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>05:46</t>
+          <t>06:05</t>
         </is>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>8093</v>
+        <v>8213</v>
       </c>
       <c r="S14" t="n">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="T14" t="n">
-        <v>8650</v>
+        <v>9478</v>
       </c>
       <c r="U14" t="n">
-        <v>346</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15">
@@ -14896,32 +14896,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>02:34:10</t>
+          <t>02:38:42</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -14929,21 +14929,21 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>05:56</t>
+          <t>05:40</t>
         </is>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="M18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>02:20:00</t>
+          <t>01:56:08</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -14951,54 +14951,54 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>05:23</t>
+          <t>04:09</t>
         </is>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9250</v>
+        <v>9522</v>
       </c>
       <c r="S18" t="n">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="T18" t="n">
-        <v>8400</v>
+        <v>6968</v>
       </c>
       <c r="U18" t="n">
-        <v>323</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>02:38:42</t>
+          <t>02:40:47</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -15006,21 +15006,21 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>05:40</t>
+          <t>05:57</t>
         </is>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="M19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>01:56:08</t>
+          <t>02:32:00</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -15028,23 +15028,23 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>04:09</t>
+          <t>05:38</t>
         </is>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9522</v>
+        <v>9647</v>
       </c>
       <c r="S19" t="n">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="T19" t="n">
-        <v>6968</v>
+        <v>9120</v>
       </c>
       <c r="U19" t="n">
-        <v>249</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20">
@@ -15213,23 +15213,23 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E22" t="n">
         <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>02:36:12</t>
+          <t>02:42:12</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -15237,21 +15237,21 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>05:36</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>02:55:31</t>
+          <t>02:59:59</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -15259,23 +15259,23 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>06:16</t>
+          <t>06:12</t>
         </is>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9372</v>
+        <v>9732</v>
       </c>
       <c r="S22" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="T22" t="n">
-        <v>10531</v>
+        <v>10799</v>
       </c>
       <c r="U22" t="n">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23">
@@ -15464,131 +15464,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>83.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="E2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>94</v>
+      </c>
+      <c r="G2" t="n">
         <v>15</v>
       </c>
-      <c r="F2" t="n">
-        <v>98</v>
-      </c>
-      <c r="G2" t="n">
-        <v>14</v>
-      </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>02:43:51</t>
+          <t>02:40:47</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>05:57</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>02:36:54</t>
+          <t>02:32:00</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05:36</t>
+          <t>05:38</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>9831</v>
+        <v>9647</v>
       </c>
       <c r="O2" t="n">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="P2" t="n">
-        <v>9414</v>
+        <v>9120</v>
       </c>
       <c r="Q2" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>83.5</v>
+        <v>83.7</v>
       </c>
       <c r="E3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>98</v>
+      </c>
+      <c r="G3" t="n">
         <v>14</v>
       </c>
-      <c r="F3" t="n">
-        <v>90</v>
-      </c>
-      <c r="G3" t="n">
-        <v>15</v>
-      </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>02:34:10</t>
+          <t>02:43:51</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>05:56</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>02:20:00</t>
+          <t>02:36:54</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05:23</t>
+          <t>05:36</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>9250</v>
+        <v>9831</v>
       </c>
       <c r="O3" t="n">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="P3" t="n">
-        <v>8400</v>
+        <v>9414</v>
       </c>
       <c r="Q3" t="n">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4">
@@ -15919,196 +15919,196 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>81.3</v>
+        <v>81.5</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G9" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>01:57:10</t>
+          <t>02:22:02</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>04:20</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>02:29:55</t>
+          <t>02:57:23</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05:33</t>
+          <t>06:34</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7030</v>
+        <v>8522</v>
       </c>
       <c r="O9" t="n">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="P9" t="n">
-        <v>8995</v>
+        <v>10643</v>
       </c>
       <c r="Q9" t="n">
-        <v>333</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>02:35:35</t>
+          <t>01:57:10</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>04:20</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>91</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>02:29:55</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>05:33</t>
         </is>
       </c>
-      <c r="K10" t="n">
-        <v>96</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>02:42:37</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>05:48</t>
-        </is>
-      </c>
       <c r="N10" t="n">
-        <v>9335</v>
+        <v>7030</v>
       </c>
       <c r="O10" t="n">
+        <v>260</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8995</v>
+      </c>
+      <c r="Q10" t="n">
         <v>333</v>
-      </c>
-      <c r="P10" t="n">
-        <v>9757</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>348</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>81</v>
+        <v>81.2</v>
       </c>
       <c r="E11" t="n">
+        <v>18</v>
+      </c>
+      <c r="F11" t="n">
+        <v>92</v>
+      </c>
+      <c r="G11" t="n">
         <v>20</v>
       </c>
-      <c r="F11" t="n">
-        <v>87</v>
-      </c>
-      <c r="G11" t="n">
-        <v>21</v>
-      </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>02:17:34</t>
+          <t>02:35:35</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>05:17</t>
+          <t>05:33</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>02:51:23</t>
+          <t>02:42:37</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>06:36</t>
+          <t>05:48</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>8254</v>
+        <v>9335</v>
       </c>
       <c r="O11" t="n">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="P11" t="n">
-        <v>10283</v>
+        <v>9757</v>
       </c>
       <c r="Q11" t="n">
-        <v>396</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12">
@@ -16253,16 +16253,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>80.2</v>
+        <v>79.8</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G14" t="n">
         <v>12</v>
@@ -16272,38 +16272,38 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>02:36:12</t>
+          <t>02:42:12</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>05:36</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>02:55:31</t>
+          <t>02:59:59</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>06:16</t>
+          <t>06:12</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>9372</v>
+        <v>9732</v>
       </c>
       <c r="O14" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P14" t="n">
-        <v>10531</v>
+        <v>10799</v>
       </c>
       <c r="Q14" t="n">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15">
@@ -16569,131 +16569,131 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
-        <v>76.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>02:14:53</t>
+          <t>02:16:53</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>05:24</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>02:24:10</t>
+          <t>02:37:58</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>05:46</t>
+          <t>06:05</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>8093</v>
+        <v>8213</v>
       </c>
       <c r="O19" t="n">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="P19" t="n">
-        <v>8650</v>
+        <v>9478</v>
       </c>
       <c r="Q19" t="n">
-        <v>346</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>75.59999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>02:04:53</t>
+          <t>02:14:53</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>05:24</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>02:31:21</t>
+          <t>02:24:10</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>05:46</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>7493</v>
+        <v>8093</v>
       </c>
       <c r="O20" t="n">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="P20" t="n">
-        <v>9081</v>
+        <v>8650</v>
       </c>
       <c r="Q20" t="n">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21">
@@ -17103,22 +17103,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -17130,49 +17130,49 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="M4" t="n">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="N4" t="n">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="O4" t="n">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="P4" t="n">
-        <v>900</v>
+        <v>916</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -17184,28 +17184,28 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" t="n">
-        <v>14</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="M5" t="n">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="N5" t="n">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="O5" t="n">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="P5" t="n">
-        <v>923</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6">
@@ -17220,10 +17220,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -17250,16 +17250,16 @@
         <v>88</v>
       </c>
       <c r="M6" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N6" t="n">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="O6" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="P6" t="n">
-        <v>1032</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="7">
@@ -17589,25 +17589,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -17619,49 +17619,49 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="M13" t="n">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="N13" t="n">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="O13" t="n">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="P13" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -17673,133 +17673,133 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="N14" t="n">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="O14" t="n">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P14" t="n">
-        <v>834</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>18</v>
+      </c>
+      <c r="K15" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>10</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="N15" t="n">
-        <v>745</v>
+        <v>839</v>
       </c>
       <c r="O15" t="n">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="P15" t="n">
-        <v>1010</v>
+        <v>634</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="M16" t="n">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="N16" t="n">
-        <v>840</v>
+        <v>745</v>
       </c>
       <c r="O16" t="n">
-        <v>159</v>
+        <v>285</v>
       </c>
       <c r="P16" t="n">
-        <v>621</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="17">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-20 03:00:27</t>
+          <t>2025-11-20 07:01:56</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-20 07:01:56</t>
+          <t>2025-11-20 12:10:36</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-21 03:00:44</t>
+          <t>2025-11-21 07:00:55</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-21 07:00:55</t>
+          <t>2025-11-21 07:17:17</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11499,7 +11499,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-23 01:53:35</t>
+          <t>2025-11-23 03:00:58</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11499,7 +11499,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-23 03:00:58</t>
+          <t>2025-11-23 07:01:09</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11499,7 +11499,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-23 07:01:09</t>
+          <t>2025-11-23 11:03:45</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11499,7 +11499,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-23 11:03:45</t>
+          <t>2025-11-23 11:28:10</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11499,7 +11499,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-24 03:00:58</t>
+          <t>2025-11-24 07:01:02</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11499,7 +11499,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:35</t>
+          <t>2025-11-25 07:01:59</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -2076,205 +2076,205 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>83.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="G4" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>03:04:55</t>
+          <t>03:34:25</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>05:58</t>
+          <t>07:09</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>02:31:49</t>
+          <t>02:08:59</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>04:54</t>
+          <t>04:18</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>11095</v>
+        <v>12865</v>
       </c>
       <c r="P4" t="n">
-        <v>358</v>
+        <v>429</v>
       </c>
       <c r="Q4" t="n">
-        <v>9109</v>
+        <v>7739</v>
       </c>
       <c r="R4" t="n">
-        <v>294</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>82.90000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>03:34:25</t>
+          <t>02:31:25</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>07:09</t>
+          <t>05:36</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>02:08:59</t>
+          <t>02:37:55</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>04:18</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>12865</v>
+        <v>9085</v>
       </c>
       <c r="P5" t="n">
-        <v>429</v>
+        <v>336</v>
       </c>
       <c r="Q5" t="n">
-        <v>7739</v>
+        <v>9475</v>
       </c>
       <c r="R5" t="n">
-        <v>258</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>82.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>02:31:25</t>
+          <t>02:22:02</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>05:36</t>
+          <t>05:04</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>02:37:55</t>
+          <t>02:59:23</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>06:24</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>9085</v>
+        <v>8522</v>
       </c>
       <c r="P6" t="n">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="Q6" t="n">
-        <v>9475</v>
+        <v>10763</v>
       </c>
       <c r="R6" t="n">
-        <v>351</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7">
@@ -2289,468 +2289,468 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>82.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G7" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>01:57:10</t>
+          <t>02:02:25</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>04:11</t>
+          <t>04:13</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>02:39:55</t>
+          <t>02:52:05</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>05:56</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>7030</v>
+        <v>7345</v>
       </c>
       <c r="P7" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q7" t="n">
-        <v>9595</v>
+        <v>10325</v>
       </c>
       <c r="R7" t="n">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>81.7</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>02:22:02</t>
+          <t>02:54:04</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>05:04</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>02:59:23</t>
+          <t>02:44:31</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>05:40</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>8522</v>
+        <v>10444</v>
       </c>
       <c r="P8" t="n">
-        <v>304</v>
+        <v>360</v>
       </c>
       <c r="Q8" t="n">
-        <v>10763</v>
+        <v>9871</v>
       </c>
       <c r="R8" t="n">
-        <v>384</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>81.09999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="E9" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="G9" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>02:54:04</t>
+          <t>02:14:37</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>04:29</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>02:44:31</t>
+          <t>03:02:11</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>05:40</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>10444</v>
+        <v>8077</v>
       </c>
       <c r="P9" t="n">
-        <v>360</v>
+        <v>269</v>
       </c>
       <c r="Q9" t="n">
-        <v>9871</v>
+        <v>10931</v>
       </c>
       <c r="R9" t="n">
-        <v>340</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>02:39:35</t>
+          <t>02:50:35</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>05:19</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>02:47:00</t>
+          <t>03:09:59</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>05:34</t>
+          <t>06:08</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>9575</v>
+        <v>10235</v>
       </c>
       <c r="P10" t="n">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="Q10" t="n">
-        <v>10020</v>
+        <v>11399</v>
       </c>
       <c r="R10" t="n">
-        <v>334</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="n">
-        <v>80.7</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G11" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>02:14:37</t>
+          <t>02:44:53</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>04:29</t>
+          <t>05:19</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>03:02:11</t>
+          <t>02:51:48</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>05:33</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>8077</v>
+        <v>9893</v>
       </c>
       <c r="P11" t="n">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="Q11" t="n">
-        <v>10931</v>
+        <v>10308</v>
       </c>
       <c r="R11" t="n">
-        <v>364</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>80.7</v>
+        <v>80.2</v>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G12" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>02:50:35</t>
+          <t>02:20:09</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>04:40</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>03:09:59</t>
+          <t>02:51:08</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>06:08</t>
+          <t>05:42</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>10235</v>
+        <v>8409</v>
       </c>
       <c r="P12" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="Q12" t="n">
-        <v>11399</v>
+        <v>10268</v>
       </c>
       <c r="R12" t="n">
-        <v>368</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>80.2</v>
+        <v>79.8</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>02:20:09</t>
+          <t>03:17:05</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>04:40</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>02:51:08</t>
+          <t>02:37:04</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>05:42</t>
+          <t>04:55</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>8409</v>
+        <v>11825</v>
       </c>
       <c r="P13" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="Q13" t="n">
-        <v>10268</v>
+        <v>9424</v>
       </c>
       <c r="R13" t="n">
-        <v>342</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14">
@@ -3096,273 +3096,273 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G19" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>02:23:32</t>
+          <t>02:38:11</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>05:19</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>02:42:37</t>
+          <t>02:55:36</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>8612</v>
+        <v>9491</v>
       </c>
       <c r="P19" t="n">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q19" t="n">
-        <v>9757</v>
+        <v>10536</v>
       </c>
       <c r="R19" t="n">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="E20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>02:38:11</t>
+          <t>02:25:46</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>02:55:36</t>
+          <t>02:46:17</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>05:56</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>9491</v>
+        <v>8746</v>
       </c>
       <c r="P20" t="n">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q20" t="n">
-        <v>10536</v>
+        <v>9977</v>
       </c>
       <c r="R20" t="n">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>72.7</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F21" t="n">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="G21" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>02:20:54</t>
+          <t>03:35:43</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>04:42</t>
+          <t>07:11</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02:24:34</t>
+          <t>02:37:44</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>04:49</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>8454</v>
+        <v>12943</v>
       </c>
       <c r="P21" t="n">
-        <v>282</v>
+        <v>431</v>
       </c>
       <c r="Q21" t="n">
-        <v>8674</v>
+        <v>9464</v>
       </c>
       <c r="R21" t="n">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>72</v>
+        <v>72.7</v>
       </c>
       <c r="E22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F22" t="n">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="G22" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>02:20:54</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>04:42</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>88</v>
+      </c>
+      <c r="L22" t="n">
         <v>3</v>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>03:30:55</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>07:16</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>93</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02:32:26</t>
+          <t>02:24:34</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>05:15</t>
+          <t>04:49</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>12655</v>
+        <v>8454</v>
       </c>
       <c r="P22" t="n">
-        <v>436</v>
+        <v>282</v>
       </c>
       <c r="Q22" t="n">
-        <v>9146</v>
+        <v>8674</v>
       </c>
       <c r="R22" t="n">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23">
@@ -3377,60 +3377,60 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>65.3</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F23" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>02:27:36</t>
+          <t>02:31:16</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>05:05</t>
+          <t>05:03</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L23" t="n">
         <v>3</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02:28:42</t>
+          <t>02:30:56</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>05:08</t>
+          <t>05:02</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>8856</v>
+        <v>9076</v>
       </c>
       <c r="P23" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q23" t="n">
-        <v>8922</v>
+        <v>9056</v>
       </c>
       <c r="R23" t="n">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3770,313 +3770,313 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="M6" t="n">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="N6" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O6" t="n">
-        <v>932</v>
+        <v>902</v>
       </c>
       <c r="P6" t="n">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="Q6" t="n">
-        <v>1000</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K7" t="n">
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="N7" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O7" t="n">
-        <v>908</v>
+        <v>856</v>
       </c>
       <c r="P7" t="n">
-        <v>338</v>
+        <v>209</v>
       </c>
       <c r="Q7" t="n">
-        <v>1139</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N8" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O8" t="n">
-        <v>906</v>
+        <v>932</v>
       </c>
       <c r="P8" t="n">
-        <v>203</v>
+        <v>280</v>
       </c>
       <c r="Q8" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="M9" t="n">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="N9" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O9" t="n">
-        <v>836</v>
+        <v>900</v>
       </c>
       <c r="P9" t="n">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="Q9" t="n">
-        <v>634</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="M10" t="n">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="N10" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O10" t="n">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="P10" t="n">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="Q10" t="n">
-        <v>845</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -4085,52 +4085,52 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="M11" t="n">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="N11" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O11" t="n">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="P11" t="n">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="Q11" t="n">
-        <v>814</v>
+        <v>836</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -4142,163 +4142,163 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="M12" t="n">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="N12" t="n">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="O12" t="n">
-        <v>818</v>
+        <v>847</v>
       </c>
       <c r="P12" t="n">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="Q12" t="n">
-        <v>842</v>
+        <v>845</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>2</v>
       </c>
-      <c r="J13" t="n">
-        <v>10</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="M13" t="n">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="N13" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="O13" t="n">
-        <v>904</v>
+        <v>837</v>
       </c>
       <c r="P13" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q13" t="n">
-        <v>857</v>
+        <v>814</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="M14" t="n">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="N14" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O14" t="n">
-        <v>836</v>
+        <v>904</v>
       </c>
       <c r="P14" t="n">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="Q14" t="n">
-        <v>747</v>
+        <v>857</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -4310,112 +4310,112 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
+        <v>12</v>
+      </c>
+      <c r="K15" t="n">
         <v>6</v>
       </c>
-      <c r="K15" t="n">
-        <v>11</v>
-      </c>
       <c r="L15" t="n">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="N15" t="n">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="O15" t="n">
-        <v>844</v>
+        <v>737</v>
       </c>
       <c r="P15" t="n">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="Q15" t="n">
-        <v>857</v>
+        <v>903</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="M16" t="n">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N16" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O16" t="n">
-        <v>808</v>
+        <v>827</v>
       </c>
       <c r="P16" t="n">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="Q16" t="n">
-        <v>700</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -4424,112 +4424,112 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="M17" t="n">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="N17" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="O17" t="n">
-        <v>742</v>
+        <v>844</v>
       </c>
       <c r="P17" t="n">
-        <v>317</v>
+        <v>242</v>
       </c>
       <c r="Q17" t="n">
-        <v>1034</v>
+        <v>857</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
         <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="M18" t="n">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="N18" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="O18" t="n">
-        <v>833</v>
+        <v>808</v>
       </c>
       <c r="P18" t="n">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="Q18" t="n">
-        <v>637</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -4538,31 +4538,31 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="M19" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="N19" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="O19" t="n">
-        <v>719</v>
+        <v>742</v>
       </c>
       <c r="P19" t="n">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="Q19" t="n">
-        <v>842</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="20">
@@ -5068,25 +5068,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
         <v>29</v>
@@ -5101,13 +5101,13 @@
         <v>75</v>
       </c>
       <c r="N5" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" t="n">
         <v>48</v>
       </c>
       <c r="P5" t="n">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
@@ -5167,271 +5167,271 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" t="n">
         <v>13</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
         <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M7" t="n">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="N7" t="n">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="O7" t="n">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="P7" t="n">
-        <v>203</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
         <v>33</v>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J8" t="n">
         <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L8" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="M8" t="n">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="N8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="O8" t="n">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="P8" t="n">
-        <v>239</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>29</v>
       </c>
       <c r="D9" t="n">
+        <v>14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
         <v>11</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
       </c>
       <c r="G9" t="n">
         <v>32</v>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L9" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N9" t="n">
         <v>51</v>
       </c>
       <c r="O9" t="n">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="P9" t="n">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
         <v>32</v>
       </c>
       <c r="H10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L10" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="M10" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="O10" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P10" t="n">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>32</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12</v>
+      </c>
+      <c r="I11" t="n">
         <v>13</v>
       </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>11</v>
-      </c>
-      <c r="G11" t="n">
-        <v>30</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10</v>
-      </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K11" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L11" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" t="n">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="N11" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="O11" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="P11" t="n">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
         <v>11</v>
@@ -5455,7 +5455,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="n">
         <v>30</v>
@@ -5467,25 +5467,25 @@
         <v>14</v>
       </c>
       <c r="J12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L12" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M12" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O12" t="n">
         <v>62</v>
       </c>
       <c r="P12" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
@@ -5653,184 +5653,184 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
+        <v>28</v>
+      </c>
+      <c r="H16" t="n">
+        <v>12</v>
+      </c>
+      <c r="I16" t="n">
         <v>9</v>
       </c>
-      <c r="E16" t="n">
-        <v>9</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-      <c r="G16" t="n">
-        <v>27</v>
-      </c>
-      <c r="H16" t="n">
-        <v>13</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
       <c r="J16" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K16" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L16" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M16" t="n">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="N16" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="O16" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="P16" t="n">
-        <v>211</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
         <v>27</v>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K17" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L17" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N17" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="O17" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P17" t="n">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F18" t="n">
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H18" t="n">
         <v>11</v>
       </c>
       <c r="I18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
         <v>21</v>
       </c>
       <c r="K18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L18" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M18" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="O18" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P18" t="n">
-        <v>134</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>10</v>
@@ -5839,31 +5839,31 @@
         <v>26</v>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L19" t="n">
         <v>58</v>
       </c>
       <c r="M19" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="N19" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="O19" t="n">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
-        <v>177</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20">
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
         <v>4</v>
@@ -6049,7 +6049,7 @@
         <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
         <v>20</v>
@@ -6061,25 +6061,25 @@
         <v>11</v>
       </c>
       <c r="J23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L23" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M23" t="n">
         <v>43</v>
       </c>
       <c r="N23" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O23" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P23" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -6357,19 +6357,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" t="n">
         <v>7</v>
@@ -6378,25 +6378,25 @@
         <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L5" t="n">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="M5" t="n">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="N5" t="n">
         <v>41</v>
       </c>
       <c r="O5" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6">
@@ -6519,25 +6519,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
         <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
         <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" t="n">
         <v>27</v>
@@ -6546,10 +6546,10 @@
         <v>25</v>
       </c>
       <c r="L8" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N8" t="n">
         <v>52</v>
@@ -6558,7 +6558,7 @@
         <v>44</v>
       </c>
       <c r="P8" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9">
@@ -6618,109 +6618,109 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C10" t="n">
+        <v>32</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G10" t="n">
         <v>30</v>
       </c>
-      <c r="D10" t="n">
-        <v>12</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>13</v>
-      </c>
-      <c r="G10" t="n">
-        <v>29</v>
-      </c>
       <c r="H10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I10" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
         <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="L10" t="n">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="N10" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="O10" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P10" t="n">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
         <v>29</v>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="L11" t="n">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N11" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O11" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
@@ -7113,7 +7113,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
         <v>9</v>
@@ -7122,7 +7122,7 @@
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
         <v>23</v>
@@ -7134,13 +7134,13 @@
         <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K19" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L19" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M19" t="n">
         <v>49</v>
@@ -7149,118 +7149,118 @@
         <v>48</v>
       </c>
       <c r="O19" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P19" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G20" t="n">
         <v>23</v>
       </c>
       <c r="H20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K20" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="L20" t="n">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="M20" t="n">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="N20" t="n">
+        <v>48</v>
+      </c>
+      <c r="O20" t="n">
         <v>35</v>
       </c>
-      <c r="O20" t="n">
-        <v>69</v>
-      </c>
       <c r="P20" t="n">
-        <v>126</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F21" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" t="n">
+        <v>23</v>
+      </c>
+      <c r="H21" t="n">
         <v>15</v>
       </c>
-      <c r="G21" t="n">
-        <v>22</v>
-      </c>
-      <c r="H21" t="n">
-        <v>12</v>
-      </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K21" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L21" t="n">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="M21" t="n">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="N21" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="O21" t="n">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="P21" t="n">
-        <v>215</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
@@ -7275,10 +7275,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -7287,7 +7287,7 @@
         <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H22" t="n">
         <v>16</v>
@@ -7296,25 +7296,25 @@
         <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K22" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L22" t="n">
         <v>100</v>
       </c>
       <c r="M22" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N22" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O22" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P22" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23">
@@ -7799,217 +7799,217 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
         <v>12</v>
       </c>
-      <c r="E8" t="n">
-        <v>8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
       <c r="G8" t="n">
+        <v>33</v>
+      </c>
+      <c r="H8" t="n">
+        <v>12</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16</v>
+      </c>
+      <c r="J8" t="n">
         <v>32</v>
       </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>34</v>
-      </c>
       <c r="K8" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L8" t="n">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="M8" t="n">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="N8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O8" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P8" t="n">
-        <v>165</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
         <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K9" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L9" t="n">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="M9" t="n">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="N9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O9" t="n">
         <v>51</v>
       </c>
       <c r="P9" t="n">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I10" t="n">
         <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L10" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M10" t="n">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="N10" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="O10" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="P10" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>29</v>
       </c>
       <c r="D11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>31</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I11" t="n">
         <v>12</v>
       </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-      <c r="G11" t="n">
-        <v>30</v>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
       <c r="J11" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K11" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L11" t="n">
         <v>72</v>
       </c>
       <c r="M11" t="n">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="N11" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="O11" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="P11" t="n">
-        <v>194</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -8024,7 +8024,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
         <v>11</v>
@@ -8033,13 +8033,13 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
         <v>29</v>
       </c>
       <c r="H12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" t="n">
         <v>15</v>
@@ -8048,22 +8048,22 @@
         <v>24</v>
       </c>
       <c r="K12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L12" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N12" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O12" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13">
@@ -8078,7 +8078,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" t="n">
         <v>10</v>
@@ -8087,13 +8087,13 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
         <v>29</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
         <v>11</v>
@@ -8102,91 +8102,91 @@
         <v>29</v>
       </c>
       <c r="K13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L13" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M13" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N13" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P13" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
         <v>28</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L14" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O14" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P14" t="n">
-        <v>197</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
         <v>8</v>
@@ -8195,106 +8195,106 @@
         <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
         <v>28</v>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I15" t="n">
         <v>12</v>
       </c>
       <c r="J15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K15" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L15" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="M15" t="n">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O15" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P15" t="n">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H16" t="n">
+        <v>13</v>
+      </c>
+      <c r="I16" t="n">
         <v>12</v>
       </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
       <c r="J16" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K16" t="n">
         <v>27</v>
       </c>
       <c r="L16" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="M16" t="n">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="N16" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O16" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="P16" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
         <v>9</v>
@@ -8303,91 +8303,91 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" t="n">
         <v>27</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J17" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K17" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="L17" t="n">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="M17" t="n">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="N17" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O17" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="P17" t="n">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12</v>
+      </c>
+      <c r="G18" t="n">
         <v>27</v>
       </c>
-      <c r="D18" t="n">
+      <c r="H18" t="n">
         <v>10</v>
       </c>
-      <c r="E18" t="n">
-        <v>6</v>
-      </c>
-      <c r="F18" t="n">
-        <v>11</v>
-      </c>
-      <c r="G18" t="n">
-        <v>26</v>
-      </c>
-      <c r="H18" t="n">
-        <v>12</v>
-      </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K18" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L18" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M18" t="n">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="N18" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O18" t="n">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="P18" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
@@ -8618,7 +8618,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
         <v>8</v>
@@ -8627,13 +8627,13 @@
         <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
         <v>19</v>
       </c>
       <c r="H23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I23" t="n">
         <v>6</v>
@@ -8642,22 +8642,22 @@
         <v>17</v>
       </c>
       <c r="K23" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L23" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M23" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N23" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O23" t="n">
         <v>63</v>
       </c>
       <c r="P23" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -8782,130 +8782,130 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>F. Dolganov</t>
+          <t>M. Dorozhko</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ф. Долганов</t>
+          <t>М. Дорожко</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>143922</v>
+        <v>159859</v>
       </c>
       <c r="J3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>M. Dorozhko</t>
+          <t>D. Kostin</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>М. Дорожко</t>
+          <t>Д. Костин</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
         <v>93.2</v>
       </c>
       <c r="G4" t="n">
-        <v>2.44</v>
+        <v>2.08</v>
       </c>
       <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>106932</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11</v>
+      </c>
+      <c r="K4" t="n">
         <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>159859</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D. Kostin</t>
+          <t>F. Dolganov</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Д. Костин</t>
+          <t>Ф. Долганов</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>93.2</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>2.48</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>106932</v>
+        <v>149922</v>
       </c>
       <c r="J5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -9059,22 +9059,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="n">
         <v>92.59999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>99730</v>
+        <v>105730</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
         <v>8</v>
@@ -9083,141 +9083,141 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>N. Serebryakov</t>
+          <t>P. Rybar</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Н. Серебряков</t>
+          <t>П. Рибар</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
         <v>92.40000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>133853</v>
+        <v>112144</v>
       </c>
       <c r="J10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P. Rybar</t>
+          <t>V. Podyapolsky</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>П. Рибар</t>
+          <t>В. Подъяпольский</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
         <v>92.40000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>2.62</v>
+        <v>2.11</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>112144</v>
+        <v>99636</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>V. Podyapolsky</t>
+          <t>Y. Zavragin</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>В. Подъяпольский</t>
+          <t>Е. Заврагин</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
         <v>92.40000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>2.11</v>
+        <v>2.48</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>99636</v>
+        <v>65237</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Y. Zavragin</t>
+          <t>S. Ivanov</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Е. Заврагин</t>
+          <t>С. Иванов</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -9231,68 +9231,68 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>92.40000000000001</v>
+        <v>92.3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>65237</v>
+        <v>51705</v>
       </c>
       <c r="J13" t="n">
         <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S. Ivanov</t>
+          <t>N. Serebryakov</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>С. Иванов</t>
+          <t>Н. Серебряков</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="E14" t="n">
+        <v>24</v>
+      </c>
+      <c r="F14" t="n">
+        <v>92</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>139853</v>
+      </c>
+      <c r="J14" t="n">
+        <v>13</v>
+      </c>
+      <c r="K14" t="n">
         <v>9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>92.3</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>51705</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -9317,19 +9317,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" t="n">
         <v>91.90000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>86127</v>
+        <v>89711</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -10219,32 +10219,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9575</v>
+        <v>9893</v>
       </c>
       <c r="F3" t="n">
         <v>319</v>
       </c>
       <c r="G3" t="n">
-        <v>10020</v>
+        <v>10308</v>
       </c>
       <c r="H3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I3" t="n">
         <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>7.519582245430809</v>
+        <v>7.277873243707671</v>
       </c>
       <c r="L3" t="n">
-        <v>6.826347305389222</v>
+        <v>6.984866123399302</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -10283,7 +10283,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10347,32 +10347,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7030</v>
+        <v>7345</v>
       </c>
       <c r="F5" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G5" t="n">
-        <v>9595</v>
+        <v>10325</v>
       </c>
       <c r="H5" t="n">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="I5" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K5" t="n">
-        <v>14.85064011379801</v>
+        <v>16.17426820966644</v>
       </c>
       <c r="L5" t="n">
-        <v>6.378322042730589</v>
+        <v>6.624697336561744</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -10411,7 +10411,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10795,32 +10795,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8612</v>
+        <v>8746</v>
       </c>
       <c r="F12" t="n">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G12" t="n">
-        <v>9757</v>
+        <v>9977</v>
       </c>
       <c r="H12" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" t="n">
-        <v>5.852299117510451</v>
+        <v>6.174251086210839</v>
       </c>
       <c r="L12" t="n">
-        <v>8.117249154453214</v>
+        <v>8.299087902175003</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -10859,32 +10859,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8856</v>
+        <v>9076</v>
       </c>
       <c r="F13" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G13" t="n">
-        <v>8922</v>
+        <v>9056</v>
       </c>
       <c r="H13" t="n">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K13" t="n">
-        <v>2.032520325203252</v>
+        <v>2.379903040987219</v>
       </c>
       <c r="L13" t="n">
-        <v>13.31540013449899</v>
+        <v>13.51590106007067</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
@@ -10923,7 +10923,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11051,32 +11051,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>11095</v>
+        <v>11825</v>
       </c>
       <c r="F16" t="n">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="G16" t="n">
-        <v>9109</v>
+        <v>9424</v>
       </c>
       <c r="H16" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K16" t="n">
-        <v>7.787291572780532</v>
+        <v>7.915433403805497</v>
       </c>
       <c r="L16" t="n">
-        <v>5.92820287627621</v>
+        <v>7.258064516129032</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -11115,7 +11115,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11371,32 +11371,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12655</v>
+        <v>12943</v>
       </c>
       <c r="F21" t="n">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G21" t="n">
-        <v>9146</v>
+        <v>9464</v>
       </c>
       <c r="H21" t="n">
         <v>315</v>
       </c>
       <c r="I21" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J21" t="n">
         <v>26</v>
       </c>
       <c r="K21" t="n">
-        <v>9.672066376926116</v>
+        <v>9.73499188750676</v>
       </c>
       <c r="L21" t="n">
-        <v>10.2339820686639</v>
+        <v>9.890109890109889</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11499,7 +11499,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-25 07:01:59</t>
+          <t>2025-11-26 03:02:17</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -11616,7 +11616,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>9572.181818181818</v>
+        <v>9663.318181818182</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -11670,7 +11670,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>9572.181818181818</v>
+        <v>9663.318181818182</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -11697,7 +11697,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>327.5909090909091</v>
+        <v>327.6818181818182</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -12352,7 +12352,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>16</v>
@@ -12370,13 +12370,13 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
         <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>2</v>
@@ -12385,26 +12385,26 @@
         <v>88</v>
       </c>
       <c r="N7" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O7" t="n">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P7" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q7" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="R7" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S7" t="n">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>24:55:30</t>
+          <t>25:45:24</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -12414,25 +12414,25 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>21:25</t>
+          <t>23:15</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>00:43</t>
+          <t>00:45</t>
         </is>
       </c>
       <c r="X7" t="n">
-        <v>89730</v>
+        <v>92724</v>
       </c>
       <c r="Y7" t="n">
         <v>2991</v>
       </c>
       <c r="Z7" t="n">
-        <v>1285</v>
+        <v>1395</v>
       </c>
       <c r="AA7" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -12447,7 +12447,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>15</v>
@@ -12465,7 +12465,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
         <v>39</v>
@@ -12477,34 +12477,34 @@
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O8" t="n">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="P8" t="n">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="Q8" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="R8" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="S8" t="n">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>23:42:16</t>
+          <t>24:24:51</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>50:48</t>
+          <t>50:31</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -12514,20 +12514,20 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>00:33</t>
+          <t>00:32</t>
         </is>
       </c>
       <c r="X8" t="n">
-        <v>85336</v>
+        <v>87891</v>
       </c>
       <c r="Y8" t="n">
-        <v>3048</v>
+        <v>3031</v>
       </c>
       <c r="Z8" t="n">
         <v>919</v>
       </c>
       <c r="AA8" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -12723,286 +12723,286 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J11" t="n">
         <v>33</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="N11" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="O11" t="n">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="P11" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="Q11" t="n">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="R11" t="n">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="S11" t="n">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>23:11:44</t>
+          <t>26:18:35</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>49:42</t>
+          <t>49:20</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>19:14</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>00:23</t>
+          <t>00:36</t>
         </is>
       </c>
       <c r="X11" t="n">
-        <v>83504</v>
+        <v>94715</v>
       </c>
       <c r="Y11" t="n">
-        <v>2982</v>
+        <v>2960</v>
       </c>
       <c r="Z11" t="n">
-        <v>648</v>
+        <v>1154</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
         <v>12</v>
       </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15</v>
-      </c>
       <c r="J12" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="N12" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O12" t="n">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="P12" t="n">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c r="Q12" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="R12" t="n">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="S12" t="n">
-        <v>591</v>
+        <v>673</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>25:36:00</t>
+          <t>24:13:11</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>49:33</t>
+          <t>48:26</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>19:14</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>00:37</t>
+          <t>00:29</t>
         </is>
       </c>
       <c r="X12" t="n">
-        <v>92160</v>
+        <v>87191</v>
       </c>
       <c r="Y12" t="n">
-        <v>2973</v>
+        <v>2906</v>
       </c>
       <c r="Z12" t="n">
-        <v>1154</v>
+        <v>870</v>
       </c>
       <c r="AA12" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
         <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="N13" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="O13" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P13" t="n">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="Q13" t="n">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="R13" t="n">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="S13" t="n">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>23:23:17</t>
+          <t>23:11:44</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>48:23</t>
+          <t>49:42</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>00:23</t>
         </is>
       </c>
       <c r="X13" t="n">
-        <v>84197</v>
+        <v>83504</v>
       </c>
       <c r="Y13" t="n">
-        <v>2903</v>
+        <v>2982</v>
       </c>
       <c r="Z13" t="n">
-        <v>870</v>
+        <v>648</v>
       </c>
       <c r="AA13" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -13682,10 +13682,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -13703,7 +13703,7 @@
         <v>17</v>
       </c>
       <c r="J21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K21" t="n">
         <v>7</v>
@@ -13712,34 +13712,34 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N21" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O21" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P21" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q21" t="n">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="R21" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="S21" t="n">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>24:24:52</t>
+          <t>25:18:58</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>50:31</t>
+          <t>50:38</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -13749,20 +13749,20 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>00:19</t>
+          <t>00:18</t>
         </is>
       </c>
       <c r="X21" t="n">
-        <v>87892</v>
+        <v>91138</v>
       </c>
       <c r="Y21" t="n">
-        <v>3031</v>
+        <v>3038</v>
       </c>
       <c r="Z21" t="n">
         <v>548</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -13872,7 +13872,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
         <v>5</v>
@@ -13890,7 +13890,7 @@
         <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J23" t="n">
         <v>19</v>
@@ -13902,57 +13902,57 @@
         <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N23" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O23" t="n">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="P23" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q23" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="R23" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="S23" t="n">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>22:10:25</t>
+          <t>23:04:31</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>49:16</t>
+          <t>49:27</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>00:27</t>
+          <t>00:26</t>
         </is>
       </c>
       <c r="X23" t="n">
-        <v>79825</v>
+        <v>83071</v>
       </c>
       <c r="Y23" t="n">
-        <v>2956</v>
+        <v>2967</v>
       </c>
       <c r="Z23" t="n">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="AA23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -14263,264 +14263,264 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>7</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>21</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N5" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="O5" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P5" t="n">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="Q5" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="R5" t="n">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="S5" t="n">
-        <v>367</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O6" t="n">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="P6" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q6" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R6" t="n">
         <v>82</v>
       </c>
       <c r="S6" t="n">
-        <v>207</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="N7" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="O7" t="n">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="P7" t="n">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="Q7" t="n">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="R7" t="n">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="S7" t="n">
-        <v>309</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>8</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
       <c r="J8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N8" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O8" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="P8" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="Q8" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="R8" t="n">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="S8" t="n">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -14536,10 +14536,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>6</v>
@@ -14548,94 +14548,94 @@
         <v>19</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N9" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O9" t="n">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="P9" t="n">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="Q9" t="n">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="R9" t="n">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="S9" t="n">
-        <v>234</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
         <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
         <v>19</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O10" t="n">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="P10" t="n">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="Q10" t="n">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="R10" t="n">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="S10" t="n">
-        <v>482</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11">
@@ -14830,19 +14830,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -14851,13 +14851,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
         <v>17</v>
@@ -14866,190 +14866,190 @@
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N14" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="O14" t="n">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="P14" t="n">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="Q14" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R14" t="n">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="S14" t="n">
-        <v>270</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3</v>
-      </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
         <v>17</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N15" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O15" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="P15" t="n">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="Q15" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="R15" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="S15" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
       <c r="J16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N16" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O16" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="P16" t="n">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="Q16" t="n">
         <v>41</v>
       </c>
       <c r="R16" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S16" t="n">
-        <v>301</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -15058,40 +15058,40 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N17" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="O17" t="n">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="P17" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Q17" t="n">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="R17" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="S17" t="n">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
         <v>6</v>
@@ -15109,37 +15109,37 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
         <v>15</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N18" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O18" t="n">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="P18" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q18" t="n">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="R18" t="n">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="S18" t="n">
-        <v>369</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19">
@@ -15154,7 +15154,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
         <v>5</v>
@@ -15172,7 +15172,7 @@
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
         <v>15</v>
@@ -15184,25 +15184,25 @@
         <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N19" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O19" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P19" t="n">
         <v>78</v>
       </c>
       <c r="Q19" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="R19" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="S19" t="n">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20">
@@ -15382,7 +15382,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q22" t="n">
         <v>65</v>
@@ -15774,7 +15774,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
         <v>8</v>
@@ -15792,13 +15792,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>21</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -15807,22 +15807,22 @@
         <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O5" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="P5" t="n">
         <v>168</v>
       </c>
       <c r="Q5" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R5" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S5" t="n">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6">
@@ -15900,7 +15900,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
         <v>8</v>
@@ -15918,7 +15918,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>18</v>
@@ -15930,25 +15930,25 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N7" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O7" t="n">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="P7" t="n">
         <v>128</v>
       </c>
       <c r="Q7" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="R7" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="S7" t="n">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8">
@@ -16128,7 +16128,7 @@
         <v>81</v>
       </c>
       <c r="P10" t="n">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="Q10" t="n">
         <v>61</v>
@@ -16569,7 +16569,7 @@
         <v>118</v>
       </c>
       <c r="P17" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q17" t="n">
         <v>66</v>
@@ -16710,22 +16710,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
         <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -16734,61 +16734,61 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N20" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="O20" t="n">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="P20" t="n">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="Q20" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="R20" t="n">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="S20" t="n">
-        <v>158</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -16797,40 +16797,40 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N21" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="O21" t="n">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="P21" t="n">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="Q21" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="R21" t="n">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="S21" t="n">
-        <v>237</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
@@ -16947,7 +16947,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q23" t="n">
         <v>62</v>
@@ -17234,19 +17234,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>61</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -17270,10 +17270,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="P5" t="n">
-        <v>3.32</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="6">
@@ -17387,28 +17387,28 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -17423,52 +17423,52 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>4</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>3</v>
       </c>
-      <c r="N8" t="n">
-        <v>2</v>
-      </c>
       <c r="O8" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P8" t="n">
-        <v>2.93</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -17477,106 +17477,106 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
         <v>88</v>
       </c>
       <c r="P9" t="n">
-        <v>2.93</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E10" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>88</v>
       </c>
       <c r="P10" t="n">
-        <v>3.03</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -17585,10 +17585,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" t="n">
         <v>2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>6</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -17597,41 +17597,41 @@
         <v>87</v>
       </c>
       <c r="P11" t="n">
-        <v>2.81</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E12" t="n">
         <v>20</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>3</v>
       </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
@@ -17639,49 +17639,49 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>87</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -17693,19 +17693,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P13" t="n">
-        <v>2.61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -18089,34 +18089,34 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -18125,19 +18125,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P21" t="n">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="22">
@@ -18152,16 +18152,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" t="n">
         <v>11</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -18188,43 +18188,43 @@
         <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P22" t="n">
-        <v>2.19</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -18233,16 +18233,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P23" t="n">
         <v>1.97</v>
@@ -18568,16 +18568,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
         <v>50</v>
@@ -18589,52 +18589,52 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4</v>
-      </c>
       <c r="L6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -18643,25 +18643,25 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -18670,7 +18670,7 @@
         <v>76</v>
       </c>
       <c r="P7" t="n">
-        <v>2.53</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="8">
@@ -19063,7 +19063,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
         <v>57</v>
@@ -19090,7 +19090,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
@@ -19099,10 +19099,10 @@
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P15" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="16">
@@ -19225,7 +19225,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" t="n">
         <v>72</v>
@@ -19237,7 +19237,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -19252,7 +19252,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
@@ -19261,10 +19261,10 @@
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P18" t="n">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="19">
@@ -19279,10 +19279,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -19306,7 +19306,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
@@ -19315,10 +19315,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P19" t="n">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="20">
@@ -19378,22 +19378,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -19402,103 +19402,103 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>100</v>
       </c>
       <c r="P21" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P22" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -19507,7 +19507,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -19519,22 +19519,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P23" t="n">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
     </row>
   </sheetData>
@@ -19772,76 +19772,76 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D6" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
-        <v>8.35</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>403</v>
+        <v>501</v>
       </c>
       <c r="G6" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H6" t="n">
-        <v>11.91</v>
+        <v>10.58</v>
       </c>
       <c r="I6" t="n">
-        <v>870</v>
+        <v>972</v>
       </c>
       <c r="J6" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="D7" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" t="n">
-        <v>10.25</v>
+        <v>8.35</v>
       </c>
       <c r="F7" t="n">
-        <v>520</v>
+        <v>403</v>
       </c>
       <c r="G7" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H7" t="n">
-        <v>9.81</v>
+        <v>11.91</v>
       </c>
       <c r="I7" t="n">
-        <v>920</v>
+        <v>870</v>
       </c>
       <c r="J7" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K7" t="n">
         <v>10</v>
@@ -19850,40 +19850,40 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>471</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E8" t="n">
-        <v>9.550000000000001</v>
+        <v>10.25</v>
       </c>
       <c r="F8" t="n">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="G8" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H8" t="n">
-        <v>10.32</v>
+        <v>9.81</v>
       </c>
       <c r="I8" t="n">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="J8" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K8" t="n">
-        <v>9.94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -19967,40 +19967,40 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D11" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.01</v>
       </c>
       <c r="F11" t="n">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="G11" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H11" t="n">
-        <v>9.16</v>
+        <v>10.7</v>
       </c>
       <c r="I11" t="n">
-        <v>984</v>
+        <v>961</v>
       </c>
       <c r="J11" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11" t="n">
-        <v>8.94</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -20045,118 +20045,118 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>547</v>
+        <v>614</v>
       </c>
       <c r="D13" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E13" t="n">
-        <v>7.5</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="G13" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H13" t="n">
-        <v>10.7</v>
+        <v>9.16</v>
       </c>
       <c r="I13" t="n">
-        <v>921</v>
+        <v>1007</v>
       </c>
       <c r="J13" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K13" t="n">
-        <v>8.789999999999999</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>528</v>
+        <v>292</v>
       </c>
       <c r="D14" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>9.09</v>
+        <v>10.96</v>
       </c>
       <c r="F14" t="n">
-        <v>478</v>
+        <v>512</v>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H14" t="n">
-        <v>8.369999999999999</v>
+        <v>7.23</v>
       </c>
       <c r="I14" t="n">
-        <v>1006</v>
+        <v>804</v>
       </c>
       <c r="J14" t="n">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="K14" t="n">
-        <v>8.75</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>292</v>
+        <v>528</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E15" t="n">
-        <v>10.96</v>
+        <v>9.09</v>
       </c>
       <c r="F15" t="n">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G15" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H15" t="n">
-        <v>7.23</v>
+        <v>7.84</v>
       </c>
       <c r="I15" t="n">
-        <v>804</v>
+        <v>1038</v>
       </c>
       <c r="J15" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="K15" t="n">
-        <v>8.58</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="16">
@@ -20279,118 +20279,118 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>608</v>
+        <v>353</v>
       </c>
       <c r="D19" t="n">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E19" t="n">
-        <v>8.720000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="F19" t="n">
-        <v>315</v>
+        <v>407</v>
       </c>
       <c r="G19" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H19" t="n">
-        <v>6.98</v>
+        <v>9.34</v>
       </c>
       <c r="I19" t="n">
-        <v>923</v>
+        <v>760</v>
       </c>
       <c r="J19" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K19" t="n">
-        <v>8.130000000000001</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>438</v>
+        <v>608</v>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E20" t="n">
-        <v>7.99</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H20" t="n">
-        <v>7.59</v>
+        <v>6.98</v>
       </c>
       <c r="I20" t="n">
-        <v>754</v>
+        <v>923</v>
       </c>
       <c r="J20" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="K20" t="n">
-        <v>7.82</v>
+        <v>8.130000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>353</v>
+        <v>472</v>
       </c>
       <c r="D21" t="n">
+        <v>38</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>316</v>
+      </c>
+      <c r="G21" t="n">
         <v>24</v>
       </c>
-      <c r="E21" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F21" t="n">
-        <v>382</v>
-      </c>
-      <c r="G21" t="n">
-        <v>33</v>
-      </c>
       <c r="H21" t="n">
-        <v>8.640000000000001</v>
+        <v>7.59</v>
       </c>
       <c r="I21" t="n">
-        <v>735</v>
+        <v>788</v>
       </c>
       <c r="J21" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K21" t="n">
-        <v>7.76</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="22">
@@ -20714,25 +20714,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D7" t="n">
-        <v>956</v>
+        <v>980</v>
       </c>
       <c r="E7" t="n">
-        <v>55.78</v>
+        <v>55.46</v>
       </c>
       <c r="F7" t="n">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="G7" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H7" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I7" t="n">
-        <v>515</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8">
@@ -20747,25 +20747,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="D8" t="n">
-        <v>913</v>
+        <v>950</v>
       </c>
       <c r="E8" t="n">
-        <v>52.47</v>
+        <v>52.81</v>
       </c>
       <c r="F8" t="n">
-        <v>718</v>
+        <v>741</v>
       </c>
       <c r="G8" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H8" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I8" t="n">
-        <v>526</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9">
@@ -20837,100 +20837,100 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>491</v>
+        <v>642</v>
       </c>
       <c r="D11" t="n">
-        <v>755</v>
+        <v>958</v>
       </c>
       <c r="E11" t="n">
-        <v>46.49</v>
+        <v>49.08</v>
       </c>
       <c r="F11" t="n">
-        <v>580</v>
+        <v>689</v>
       </c>
       <c r="G11" t="n">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="H11" t="n">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="I11" t="n">
-        <v>568</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>627</v>
+        <v>396</v>
       </c>
       <c r="D12" t="n">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="E12" t="n">
-        <v>49.45</v>
+        <v>52.82</v>
       </c>
       <c r="F12" t="n">
-        <v>665</v>
+        <v>503</v>
       </c>
       <c r="G12" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H12" t="n">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="I12" t="n">
-        <v>591</v>
+        <v>673</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>382</v>
+        <v>491</v>
       </c>
       <c r="D13" t="n">
-        <v>897</v>
+        <v>755</v>
       </c>
       <c r="E13" t="n">
-        <v>52.76</v>
+        <v>46.49</v>
       </c>
       <c r="F13" t="n">
-        <v>493</v>
+        <v>580</v>
       </c>
       <c r="G13" t="n">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="H13" t="n">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="I13" t="n">
-        <v>657</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14">
@@ -21176,25 +21176,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="D21" t="n">
-        <v>714</v>
+        <v>737</v>
       </c>
       <c r="E21" t="n">
-        <v>45.48</v>
+        <v>45.33</v>
       </c>
       <c r="F21" t="n">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="G21" t="n">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H21" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I21" t="n">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22">
@@ -21209,7 +21209,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D22" t="n">
         <v>819</v>
@@ -21242,25 +21242,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="D23" t="n">
-        <v>699</v>
+        <v>732</v>
       </c>
       <c r="E23" t="n">
-        <v>46.29</v>
+        <v>46.74</v>
       </c>
       <c r="F23" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="G23" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H23" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I23" t="n">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -21386,60 +21386,60 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>35.8</v>
+        <v>38.4</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>01:57:10</t>
+          <t>02:02:25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>04:11</t>
+          <t>04:13</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>02:39:55</t>
+          <t>02:52:05</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>05:56</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>7030</v>
+        <v>7345</v>
       </c>
       <c r="P2" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q2" t="n">
-        <v>9595</v>
+        <v>10325</v>
       </c>
       <c r="R2" t="n">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
@@ -21522,32 +21522,32 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>03:30:55</t>
+          <t>03:35:43</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>07:11</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K4" t="n">
         <v>26</v>
@@ -21557,7 +21557,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>02:32:26</t>
+          <t>02:37:44</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -21566,13 +21566,13 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>12655</v>
+        <v>12943</v>
       </c>
       <c r="P4" t="n">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="Q4" t="n">
-        <v>9146</v>
+        <v>9464</v>
       </c>
       <c r="R4" t="n">
         <v>315</v>
@@ -21853,273 +21853,273 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>02:35:24</t>
+          <t>03:17:05</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>05:01</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K9" t="n">
         <v>19</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>02:34:49</t>
+          <t>02:37:04</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>04:55</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>9324</v>
+        <v>11825</v>
       </c>
       <c r="P9" t="n">
-        <v>301</v>
+        <v>370</v>
       </c>
       <c r="Q9" t="n">
-        <v>9289</v>
+        <v>9424</v>
       </c>
       <c r="R9" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>02:39:35</t>
+          <t>02:35:24</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>05:19</t>
+          <t>05:01</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="K10" t="n">
         <v>19</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>02:47:00</t>
+          <t>02:34:49</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>05:34</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>9575</v>
+        <v>9324</v>
       </c>
       <c r="P10" t="n">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="Q10" t="n">
-        <v>10020</v>
+        <v>9289</v>
       </c>
       <c r="R10" t="n">
-        <v>334</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E11" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>02:31:25</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>05:36</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>92</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16</v>
+      </c>
+      <c r="L11" t="n">
         <v>2</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>03:04:55</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>05:58</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>89</v>
-      </c>
-      <c r="K11" t="n">
-        <v>15</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4</v>
-      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>02:31:49</t>
+          <t>02:37:55</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>04:54</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>11095</v>
+        <v>9085</v>
       </c>
       <c r="P11" t="n">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="Q11" t="n">
-        <v>9109</v>
+        <v>9475</v>
       </c>
       <c r="R11" t="n">
-        <v>294</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>02:31:25</t>
+          <t>02:44:53</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>05:36</t>
+          <t>05:19</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="K12" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>02:37:55</t>
+          <t>02:51:48</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>05:33</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>9085</v>
+        <v>9893</v>
       </c>
       <c r="P12" t="n">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="Q12" t="n">
-        <v>9475</v>
+        <v>10308</v>
       </c>
       <c r="R12" t="n">
-        <v>351</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13">
@@ -22270,60 +22270,60 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>18.2</v>
+        <v>19</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>02:23:32</t>
+          <t>02:25:46</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>05:19</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" t="n">
         <v>2</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>02:42:37</t>
+          <t>02:46:17</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>05:56</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>8612</v>
+        <v>8746</v>
       </c>
       <c r="P15" t="n">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="Q15" t="n">
-        <v>9757</v>
+        <v>9977</v>
       </c>
       <c r="R15" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16">
@@ -22814,60 +22814,60 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>02:27:36</t>
+          <t>02:31:16</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>05:05</t>
+          <t>05:03</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K23" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L23" t="n">
         <v>3</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02:28:42</t>
+          <t>02:30:56</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>05:08</t>
+          <t>05:02</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>8856</v>
+        <v>9076</v>
       </c>
       <c r="P23" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q23" t="n">
-        <v>8922</v>
+        <v>9056</v>
       </c>
       <c r="R23" t="n">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11499,7 +11499,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-26 03:02:17</t>
+          <t>2025-11-26 07:02:38</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11499,7 +11499,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-27 03:01:55</t>
+          <t>2025-11-27 07:01:39</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11499,7 +11499,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-28 03:00:58</t>
+          <t>2025-11-28 07:00:57</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11499,7 +11499,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-29 03:00:58</t>
+          <t>2025-11-29 07:01:02</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -2008,137 +2008,137 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>83.2</v>
+        <v>83.7</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="G3" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>02:37:13</t>
+          <t>03:45:52</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>05:25</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>02:50:42</t>
+          <t>02:15:27</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>05:53</t>
+          <t>04:14</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>9433</v>
+        <v>13552</v>
       </c>
       <c r="P3" t="n">
-        <v>325</v>
+        <v>424</v>
       </c>
       <c r="Q3" t="n">
-        <v>10242</v>
+        <v>8127</v>
       </c>
       <c r="R3" t="n">
-        <v>353</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>03:41:56</t>
+          <t>02:37:13</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>07:10</t>
+          <t>05:25</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>02:09:42</t>
+          <t>02:50:42</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>04:11</t>
+          <t>05:53</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>13316</v>
+        <v>9433</v>
       </c>
       <c r="P4" t="n">
-        <v>430</v>
+        <v>325</v>
       </c>
       <c r="Q4" t="n">
-        <v>7782</v>
+        <v>10242</v>
       </c>
       <c r="R4" t="n">
-        <v>251</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5">
@@ -2221,16 +2221,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>82.2</v>
+        <v>81.7</v>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G6" t="n">
         <v>15</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>03:04:33</t>
+          <t>03:10:18</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -2249,32 +2249,32 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>02:51:37</t>
+          <t>02:55:33</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>05:29</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>11073</v>
+        <v>11418</v>
       </c>
       <c r="P6" t="n">
         <v>357</v>
       </c>
       <c r="Q6" t="n">
-        <v>10297</v>
+        <v>10533</v>
       </c>
       <c r="R6" t="n">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7">
@@ -2484,12 +2484,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -2499,122 +2499,122 @@
         <v>80.40000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G10" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>02:20:37</t>
+          <t>02:25:26</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>04:32</t>
+          <t>04:41</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>03:06:38</t>
+          <t>02:53:08</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>8437</v>
+        <v>8726</v>
       </c>
       <c r="P10" t="n">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Q10" t="n">
-        <v>11198</v>
+        <v>10388</v>
       </c>
       <c r="R10" t="n">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>80.2</v>
+        <v>80</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F11" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>02:20:09</t>
+          <t>02:22:37</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>04:40</t>
+          <t>04:27</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>02:51:08</t>
+          <t>03:11:55</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>05:42</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>8409</v>
+        <v>8557</v>
       </c>
       <c r="P11" t="n">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="Q11" t="n">
-        <v>10268</v>
+        <v>11515</v>
       </c>
       <c r="R11" t="n">
-        <v>342</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12">
@@ -3241,42 +3241,42 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>73.7</v>
+        <v>73.5</v>
       </c>
       <c r="E21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F21" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G21" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>03:40:10</t>
+          <t>03:43:37</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>06:59</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02:43:44</t>
+          <t>02:49:19</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -3285,13 +3285,13 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>13210</v>
+        <v>13417</v>
       </c>
       <c r="P21" t="n">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="Q21" t="n">
-        <v>9824</v>
+        <v>10159</v>
       </c>
       <c r="R21" t="n">
         <v>317</v>
@@ -3377,60 +3377,60 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
-        <v>64.59999999999999</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>02:38:38</t>
+          <t>02:44:13</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>05:07</t>
+          <t>05:08</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L23" t="n">
         <v>3</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02:34:25</t>
+          <t>02:37:52</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>04:59</t>
+          <t>04:56</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>9518</v>
+        <v>9853</v>
       </c>
       <c r="P23" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q23" t="n">
-        <v>9265</v>
+        <v>9472</v>
       </c>
       <c r="R23" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3542,22 +3542,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3569,52 +3569,52 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M2" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N2" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O2" t="n">
-        <v>921</v>
+        <v>943</v>
       </c>
       <c r="P2" t="n">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="Q2" t="n">
-        <v>905</v>
+        <v>754</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3626,58 +3626,58 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M3" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="N3" t="n">
+        <v>309</v>
+      </c>
+      <c r="O3" t="n">
+        <v>921</v>
+      </c>
+      <c r="P3" t="n">
         <v>300</v>
       </c>
-      <c r="O3" t="n">
-        <v>940</v>
-      </c>
-      <c r="P3" t="n">
-        <v>246</v>
-      </c>
       <c r="Q3" t="n">
-        <v>756</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -3686,55 +3686,55 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="M4" t="n">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="N4" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="O4" t="n">
-        <v>948</v>
+        <v>918</v>
       </c>
       <c r="P4" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="Q4" t="n">
-        <v>952</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -3743,28 +3743,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="M5" t="n">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="N5" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O5" t="n">
-        <v>925</v>
+        <v>948</v>
       </c>
       <c r="P5" t="n">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="Q5" t="n">
-        <v>901</v>
+        <v>952</v>
       </c>
     </row>
     <row r="6">
@@ -3836,10 +3836,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -3863,163 +3863,163 @@
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M7" t="n">
         <v>118</v>
       </c>
       <c r="N7" t="n">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="O7" t="n">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="P7" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q7" t="n">
-        <v>1117</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="N8" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O8" t="n">
-        <v>910</v>
+        <v>837</v>
       </c>
       <c r="P8" t="n">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="Q8" t="n">
-        <v>758</v>
+        <v>658</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="M9" t="n">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="N9" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O9" t="n">
-        <v>846</v>
+        <v>910</v>
       </c>
       <c r="P9" t="n">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="Q9" t="n">
-        <v>700</v>
+        <v>758</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
         <v>110</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -4028,109 +4028,109 @@
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="M10" t="n">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="N10" t="n">
         <v>265</v>
       </c>
       <c r="O10" t="n">
-        <v>908</v>
+        <v>832</v>
       </c>
       <c r="P10" t="n">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="Q10" t="n">
-        <v>849</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="M11" t="n">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="N11" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O11" t="n">
-        <v>813</v>
+        <v>908</v>
       </c>
       <c r="P11" t="n">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="Q11" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -4142,85 +4142,85 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="M12" t="n">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="N12" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O12" t="n">
-        <v>838</v>
+        <v>813</v>
       </c>
       <c r="P12" t="n">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="Q12" t="n">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="M13" t="n">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="N13" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O13" t="n">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="P13" t="n">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="Q13" t="n">
-        <v>634</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14">
@@ -4520,10 +4520,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -4547,22 +4547,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M19" t="n">
         <v>96</v>
       </c>
       <c r="N19" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="O19" t="n">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="P19" t="n">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q19" t="n">
-        <v>1040</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="20">
@@ -5005,217 +5005,217 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L4" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="N4" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="O4" t="n">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="P4" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>37</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17</v>
+      </c>
+      <c r="J5" t="n">
         <v>31</v>
       </c>
-      <c r="D5" t="n">
-        <v>13</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G5" t="n">
-        <v>36</v>
-      </c>
-      <c r="H5" t="n">
-        <v>11</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13</v>
-      </c>
-      <c r="J5" t="n">
-        <v>40</v>
-      </c>
       <c r="K5" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L5" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="N5" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="O5" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>32</v>
       </c>
       <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>37</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13</v>
+      </c>
+      <c r="I6" t="n">
         <v>12</v>
-      </c>
-      <c r="E6" t="n">
-        <v>12</v>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-      <c r="G6" t="n">
-        <v>36</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15</v>
       </c>
       <c r="J6" t="n">
         <v>28</v>
       </c>
       <c r="K6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="M6" t="n">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="N6" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="O6" t="n">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="P6" t="n">
-        <v>227</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+      <c r="I7" t="n">
         <v>15</v>
       </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>35</v>
-      </c>
-      <c r="H7" t="n">
-        <v>13</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12</v>
-      </c>
       <c r="J7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="M7" t="n">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="N7" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="O7" t="n">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="P7" t="n">
-        <v>255</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
@@ -5446,10 +5446,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -5458,34 +5458,34 @@
         <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H12" t="n">
         <v>14</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
         <v>26</v>
       </c>
       <c r="L12" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M12" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N12" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O12" t="n">
         <v>64</v>
       </c>
       <c r="P12" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13">
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
         <v>8</v>
@@ -5725,7 +5725,7 @@
         <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
         <v>28</v>
@@ -5737,25 +5737,25 @@
         <v>9</v>
       </c>
       <c r="J17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K17" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L17" t="n">
         <v>62</v>
       </c>
       <c r="M17" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" t="n">
         <v>92</v>
       </c>
       <c r="P17" t="n">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
@@ -5932,19 +5932,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
         <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
         <v>16</v>
       </c>
       <c r="G21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H21" t="n">
         <v>19</v>
@@ -5953,25 +5953,25 @@
         <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L21" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M21" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N21" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O21" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P21" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" t="n">
         <v>4</v>
@@ -5995,13 +5995,13 @@
         <v>14</v>
       </c>
       <c r="F22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="n">
         <v>22</v>
       </c>
       <c r="H22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I22" t="n">
         <v>8</v>
@@ -6010,22 +6010,22 @@
         <v>15</v>
       </c>
       <c r="K22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L22" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M22" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N22" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O22" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P22" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23">
@@ -6195,10 +6195,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -6207,34 +6207,34 @@
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" t="n">
         <v>21</v>
       </c>
       <c r="L2" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M2" t="n">
         <v>112</v>
       </c>
       <c r="N2" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O2" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P2" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
@@ -6402,109 +6402,109 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
+        <v>13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>37</v>
+      </c>
+      <c r="H6" t="n">
         <v>14</v>
       </c>
-      <c r="E6" t="n">
-        <v>8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-      <c r="G6" t="n">
-        <v>36</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="n">
         <v>31</v>
       </c>
       <c r="K6" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L6" t="n">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="M6" t="n">
+        <v>117</v>
+      </c>
+      <c r="N6" t="n">
+        <v>57</v>
+      </c>
+      <c r="O6" t="n">
         <v>60</v>
       </c>
-      <c r="N6" t="n">
-        <v>40</v>
-      </c>
-      <c r="O6" t="n">
-        <v>50</v>
-      </c>
       <c r="P6" t="n">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
         <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L7" t="n">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="M7" t="n">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="O7" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="P7" t="n">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
@@ -7005,19 +7005,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
         <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17" t="n">
         <v>13</v>
@@ -7026,25 +7026,25 @@
         <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K17" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L17" t="n">
         <v>129</v>
       </c>
       <c r="M17" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N17" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" t="n">
         <v>35</v>
       </c>
       <c r="P17" t="n">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18">
@@ -7167,7 +7167,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
         <v>8</v>
@@ -7176,13 +7176,13 @@
         <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
         <v>24</v>
       </c>
       <c r="H20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" t="n">
         <v>10</v>
@@ -7191,97 +7191,97 @@
         <v>27</v>
       </c>
       <c r="K20" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L20" t="n">
         <v>113</v>
       </c>
       <c r="M20" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N20" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O20" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P20" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
         <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H21" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K21" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="L21" t="n">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="M21" t="n">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="N21" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O21" t="n">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="P21" t="n">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>15</v>
@@ -7290,31 +7290,31 @@
         <v>23</v>
       </c>
       <c r="H22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K22" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L22" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="M22" t="n">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="N22" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O22" t="n">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="P22" t="n">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23">
@@ -7329,19 +7329,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" t="n">
         <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" t="n">
         <v>15</v>
@@ -7350,25 +7350,25 @@
         <v>10</v>
       </c>
       <c r="J23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K23" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L23" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="N23" t="n">
         <v>27</v>
       </c>
       <c r="O23" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P23" t="n">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -7646,19 +7646,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
         <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
         <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" t="n">
         <v>12</v>
@@ -7667,25 +7667,25 @@
         <v>18</v>
       </c>
       <c r="J5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M5" t="n">
         <v>84</v>
       </c>
       <c r="N5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O5" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P5" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
@@ -7862,19 +7862,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
         <v>11</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
         <v>8</v>
@@ -7883,133 +7883,133 @@
         <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K9" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L9" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M9" t="n">
         <v>111</v>
       </c>
       <c r="N9" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O9" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P9" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G10" t="n">
+        <v>34</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11</v>
+      </c>
+      <c r="I10" t="n">
         <v>9</v>
       </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" t="n">
-        <v>33</v>
-      </c>
-      <c r="H10" t="n">
-        <v>15</v>
-      </c>
-      <c r="I10" t="n">
-        <v>13</v>
-      </c>
       <c r="J10" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K10" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L10" t="n">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="M10" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N10" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="O10" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P10" t="n">
-        <v>138</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
         <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
+        <v>33</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13</v>
+      </c>
+      <c r="J11" t="n">
         <v>32</v>
       </c>
-      <c r="H11" t="n">
-        <v>11</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>34</v>
-      </c>
       <c r="K11" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="L11" t="n">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="M11" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N11" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="O11" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P11" t="n">
-        <v>173</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
@@ -8231,124 +8231,124 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G16" t="n">
         <v>28</v>
       </c>
       <c r="H16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K16" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L16" t="n">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="M16" t="n">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="N16" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O16" t="n">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="P16" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="n">
+        <v>28</v>
+      </c>
+      <c r="H17" t="n">
+        <v>14</v>
+      </c>
+      <c r="I17" t="n">
         <v>12</v>
       </c>
-      <c r="G17" t="n">
-        <v>27</v>
-      </c>
-      <c r="H17" t="n">
-        <v>13</v>
-      </c>
-      <c r="I17" t="n">
-        <v>14</v>
-      </c>
       <c r="J17" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K17" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L17" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="M17" t="n">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="N17" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O17" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="P17" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
         <v>9</v>
@@ -8357,37 +8357,37 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
         <v>27</v>
       </c>
       <c r="H18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K18" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L18" t="n">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="M18" t="n">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="N18" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O18" t="n">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="P18" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
         <v>7</v>
@@ -8519,7 +8519,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" t="n">
         <v>23</v>
@@ -8531,10 +8531,10 @@
         <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K21" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" t="n">
         <v>105</v>
@@ -8543,13 +8543,13 @@
         <v>69</v>
       </c>
       <c r="N21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O21" t="n">
         <v>41</v>
       </c>
       <c r="P21" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22">
@@ -8564,19 +8564,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
         <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>19</v>
       </c>
       <c r="G22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" t="n">
         <v>18</v>
@@ -8585,25 +8585,25 @@
         <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K22" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L22" t="n">
         <v>108</v>
       </c>
       <c r="M22" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N22" t="n">
         <v>42</v>
       </c>
       <c r="O22" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P22" t="n">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23">
@@ -9470,108 +9470,108 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>T. Bilyalov</t>
+          <t>E. Alikin</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Т. Билялов</t>
+          <t>Е. Аликин</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>91.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="G19" t="n">
-        <v>2.54</v>
+        <v>2.59</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>124944</v>
+        <v>87934</v>
       </c>
       <c r="J19" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A. Krasotkin</t>
+          <t>T. Bilyalov</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>А. Красоткин</t>
+          <t>Т. Билялов</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>91</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>2.88</v>
+        <v>2.54</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>114745</v>
+        <v>124944</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>E. Alikin</t>
+          <t>M. Motorygin</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Е. Аликин</t>
+          <t>М. Моторыгин</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -9581,234 +9581,234 @@
         <v>91</v>
       </c>
       <c r="G21" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>81934</v>
+        <v>79853</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>M. Motorygin</t>
+          <t>A. Huska</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>М. Моторыгин</t>
+          <t>А. Хуска</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F22" t="n">
-        <v>91</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>2.63</v>
+        <v>2.43</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>79853</v>
+        <v>145924</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A. Huska</t>
+          <t>A. Samoilov</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>А. Хуска</t>
+          <t>А. Самойлов</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" t="n">
         <v>90.90000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>2.43</v>
+        <v>2.21</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>145924</v>
+        <v>135715</v>
       </c>
       <c r="J23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A. Samoilov</t>
+          <t>A. Krasotkin</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>А. Самойлов</t>
+          <t>А. Красоткин</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F24" t="n">
-        <v>90.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="G24" t="n">
-        <v>2.21</v>
+        <v>2.89</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>135715</v>
+        <v>120524</v>
       </c>
       <c r="J24" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A. Trushkov</t>
+          <t>I. Kulbakov</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>А. Трушков</t>
+          <t>И. Кульбаков</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25" t="n">
-        <v>90.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="G25" t="n">
-        <v>3.49</v>
+        <v>2.91</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>65341</v>
+        <v>80301</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>I. Kulbakov</t>
+          <t>A. Trushkov</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>И. Кульбаков</t>
+          <t>А. Трушков</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>14</v>
       </c>
       <c r="F26" t="n">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="G26" t="n">
-        <v>2.91</v>
+        <v>3.54</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>80301</v>
+        <v>71105</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -9919,65 +9919,65 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F29" t="n">
-        <v>90.40000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>111354</v>
+        <v>117346</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D. Nikolayev</t>
+          <t>I. Nabokov</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Д. Николаев</t>
+          <t>И. Набоков</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F30" t="n">
-        <v>90</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94</v>
+        <v>2.71</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>59243</v>
+        <v>101832</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K30" t="n">
         <v>4</v>
@@ -9986,41 +9986,41 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>I. Nabokov</t>
+          <t>D. Nikolayev</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>И. Набоков</t>
+          <t>Д. Николаев</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F31" t="n">
-        <v>89.8</v>
+        <v>90</v>
       </c>
       <c r="G31" t="n">
-        <v>2.75</v>
+        <v>2.94</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>95916</v>
+        <v>59243</v>
       </c>
       <c r="J31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
         <v>4</v>
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10411,32 +10411,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8437</v>
+        <v>8557</v>
       </c>
       <c r="F6" t="n">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G6" t="n">
-        <v>11198</v>
+        <v>11515</v>
       </c>
       <c r="H6" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I6" t="n">
         <v>16</v>
       </c>
       <c r="J6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" t="n">
-        <v>6.827071233850895</v>
+        <v>6.731331073974524</v>
       </c>
       <c r="L6" t="n">
-        <v>7.072691552062868</v>
+        <v>7.190620929222753</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -10475,32 +10475,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>11073</v>
+        <v>11418</v>
       </c>
       <c r="F7" t="n">
         <v>357</v>
       </c>
       <c r="G7" t="n">
-        <v>10297</v>
+        <v>10533</v>
       </c>
       <c r="H7" t="n">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I7" t="n">
         <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7" t="n">
-        <v>4.876727174207532</v>
+        <v>4.729374671571203</v>
       </c>
       <c r="L7" t="n">
-        <v>6.293095076235797</v>
+        <v>6.493876388493307</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -10539,7 +10539,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10859,32 +10859,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>9518</v>
+        <v>9853</v>
       </c>
       <c r="F13" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G13" t="n">
-        <v>9265</v>
+        <v>9472</v>
       </c>
       <c r="H13" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13" t="n">
-        <v>2.647615045177559</v>
+        <v>2.922967624073886</v>
       </c>
       <c r="L13" t="n">
-        <v>13.59956826767404</v>
+        <v>13.68243243243243</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
@@ -10923,7 +10923,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10987,32 +10987,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13316</v>
+        <v>13552</v>
       </c>
       <c r="F15" t="n">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G15" t="n">
-        <v>7782</v>
+        <v>8127</v>
       </c>
       <c r="H15" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I15" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J15" t="n">
         <v>14</v>
       </c>
       <c r="K15" t="n">
-        <v>9.462300991288675</v>
+        <v>9.563164108618654</v>
       </c>
       <c r="L15" t="n">
-        <v>6.476484194294526</v>
+        <v>6.2015503875969</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11307,32 +11307,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8409</v>
+        <v>8726</v>
       </c>
       <c r="F20" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G20" t="n">
-        <v>10268</v>
+        <v>10388</v>
       </c>
       <c r="H20" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
         <v>20</v>
       </c>
       <c r="K20" t="n">
-        <v>4.709240099892972</v>
+        <v>4.950721980288792</v>
       </c>
       <c r="L20" t="n">
-        <v>7.012076353720296</v>
+        <v>6.93107431651906</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -11371,32 +11371,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13210</v>
+        <v>13417</v>
       </c>
       <c r="F21" t="n">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G21" t="n">
-        <v>9824</v>
+        <v>10159</v>
       </c>
       <c r="H21" t="n">
         <v>317</v>
       </c>
       <c r="I21" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K21" t="n">
-        <v>9.810749432248297</v>
+        <v>9.927703659536409</v>
       </c>
       <c r="L21" t="n">
-        <v>9.527687296416939</v>
+        <v>9.567870853430454</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11499,7 +11499,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-29 07:01:02</t>
+          <t>2025-11-30 03:01:04</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -11616,7 +11616,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>10024.45454545455</v>
+        <v>10095.36363636364</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -11643,7 +11643,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>325.8181818181818</v>
+        <v>325.0909090909091</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -11670,7 +11670,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>10024.45454545455</v>
+        <v>10095.36363636364</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -11697,7 +11697,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>326.7727272727273</v>
+        <v>326.2727272727273</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -11877,10 +11877,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -11898,7 +11898,7 @@
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -11907,39 +11907,39 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="N2" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O2" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="P2" t="n">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q2" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="R2" t="n">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="S2" t="n">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>25:31:09</t>
+          <t>26:21:28</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>49:24</t>
+          <t>49:25</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>20:49</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -11948,13 +11948,13 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>91869</v>
+        <v>94888</v>
       </c>
       <c r="Y2" t="n">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="Z2" t="n">
-        <v>1205</v>
+        <v>1249</v>
       </c>
       <c r="AA2" t="n">
         <v>39</v>
@@ -12628,286 +12628,286 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N10" t="n">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="O10" t="n">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="P10" t="n">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="Q10" t="n">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="R10" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="S10" t="n">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>27:05:04</t>
+          <t>26:46:33</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>49:15</t>
+          <t>50:12</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>19:14</t>
+          <t>28:08</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>00:35</t>
+          <t>00:53</t>
         </is>
       </c>
       <c r="X10" t="n">
-        <v>97504</v>
+        <v>96393</v>
       </c>
       <c r="Y10" t="n">
-        <v>2955</v>
+        <v>3012</v>
       </c>
       <c r="Z10" t="n">
-        <v>1154</v>
+        <v>1688</v>
       </c>
       <c r="AA10" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
         <v>2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="N11" t="n">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="O11" t="n">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="P11" t="n">
-        <v>246</v>
+        <v>354</v>
       </c>
       <c r="Q11" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="S11" t="n">
-        <v>555</v>
+        <v>703</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>25:53:50</t>
+          <t>25:53:42</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>50:07</t>
+          <t>48:33</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>28:08</t>
+          <t>14:46</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>00:54</t>
+          <t>00:28</t>
         </is>
       </c>
       <c r="X11" t="n">
-        <v>93230</v>
+        <v>93222</v>
       </c>
       <c r="Y11" t="n">
-        <v>3007</v>
+        <v>2913</v>
       </c>
       <c r="Z11" t="n">
-        <v>1688</v>
+        <v>886</v>
       </c>
       <c r="AA11" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N12" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O12" t="n">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="P12" t="n">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="Q12" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="R12" t="n">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="S12" t="n">
-        <v>689</v>
+        <v>626</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>25:02:44</t>
+          <t>27:05:04</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>48:29</t>
+          <t>49:15</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>14:35</t>
+          <t>19:14</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>00:28</t>
+          <t>00:35</t>
         </is>
       </c>
       <c r="X12" t="n">
-        <v>90164</v>
+        <v>97504</v>
       </c>
       <c r="Y12" t="n">
-        <v>2909</v>
+        <v>2955</v>
       </c>
       <c r="Z12" t="n">
-        <v>875</v>
+        <v>1154</v>
       </c>
       <c r="AA12" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -13587,7 +13587,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
         <v>7</v>
@@ -13605,7 +13605,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J20" t="n">
         <v>27</v>
@@ -13617,39 +13617,39 @@
         <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N20" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="O20" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P20" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q20" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="R20" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="S20" t="n">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>25:36:22</t>
+          <t>26:26:41</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>49:34</t>
+          <t>49:35</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>15:43</t>
+          <t>15:51</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -13658,13 +13658,13 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>92182</v>
+        <v>95201</v>
       </c>
       <c r="Y20" t="n">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="Z20" t="n">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="AA20" t="n">
         <v>30</v>
@@ -13682,7 +13682,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
         <v>8</v>
@@ -13700,7 +13700,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J21" t="n">
         <v>23</v>
@@ -13712,57 +13712,57 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N21" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="O21" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P21" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q21" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R21" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="S21" t="n">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>26:08:07</t>
+          <t>26:59:05</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>50:35</t>
+          <t>50:36</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>00:19</t>
+          <t>00:24</t>
         </is>
       </c>
       <c r="X21" t="n">
-        <v>94087</v>
+        <v>97145</v>
       </c>
       <c r="Y21" t="n">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="Z21" t="n">
-        <v>600</v>
+        <v>756</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -13777,7 +13777,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -13795,7 +13795,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J22" t="n">
         <v>21</v>
@@ -13807,57 +13807,57 @@
         <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N22" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="O22" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="P22" t="n">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="Q22" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R22" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="S22" t="n">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>25:37:28</t>
+          <t>26:30:11</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>51:15</t>
+          <t>51:18</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>00:25</t>
+          <t>00:29</t>
         </is>
       </c>
       <c r="X22" t="n">
-        <v>92248</v>
+        <v>95411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3075</v>
+        <v>3078</v>
       </c>
       <c r="Z22" t="n">
-        <v>751</v>
+        <v>892</v>
       </c>
       <c r="AA22" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -14209,10 +14209,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -14230,7 +14230,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -14239,25 +14239,25 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N4" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O4" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P4" t="n">
         <v>144</v>
       </c>
       <c r="Q4" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="R4" t="n">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="S4" t="n">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5">
@@ -14272,10 +14272,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -14293,7 +14293,7 @@
         <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -14302,25 +14302,25 @@
         <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N5" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O5" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P5" t="n">
         <v>131</v>
       </c>
       <c r="Q5" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R5" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S5" t="n">
-        <v>514</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6">
@@ -14563,7 +14563,7 @@
         <v>167</v>
       </c>
       <c r="P9" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Q9" t="n">
         <v>78</v>
@@ -14878,7 +14878,7 @@
         <v>115</v>
       </c>
       <c r="P14" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="Q14" t="n">
         <v>79</v>
@@ -15382,7 +15382,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q22" t="n">
         <v>65</v>
@@ -15406,7 +15406,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -15424,7 +15424,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
         <v>9</v>
@@ -15436,25 +15436,25 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N23" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O23" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="P23" t="n">
         <v>111</v>
       </c>
       <c r="Q23" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S23" t="n">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -15624,7 +15624,7 @@
         <v>96</v>
       </c>
       <c r="P2" t="n">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q2" t="n">
         <v>66</v>
@@ -15963,10 +15963,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -15984,7 +15984,7 @@
         <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -15993,25 +15993,25 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N8" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O8" t="n">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="P8" t="n">
         <v>111</v>
       </c>
       <c r="Q8" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="R8" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S8" t="n">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9">
@@ -16632,7 +16632,7 @@
         <v>118</v>
       </c>
       <c r="P18" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q18" t="n">
         <v>66</v>
@@ -16695,7 +16695,7 @@
         <v>127</v>
       </c>
       <c r="P19" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="Q19" t="n">
         <v>55</v>
@@ -16782,7 +16782,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
         <v>4</v>
@@ -16800,7 +16800,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
         <v>11</v>
@@ -16812,25 +16812,25 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N21" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O21" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P21" t="n">
         <v>97</v>
       </c>
       <c r="Q21" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R21" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="S21" t="n">
-        <v>261</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22">
@@ -16845,7 +16845,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -16863,7 +16863,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
         <v>7</v>
@@ -16875,25 +16875,25 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N22" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O22" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P22" t="n">
         <v>193</v>
       </c>
       <c r="Q22" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="R22" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="S22" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23">
@@ -17072,13 +17072,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -17108,10 +17108,10 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="P2" t="n">
-        <v>3.84</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="3">
@@ -17387,31 +17387,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -17423,40 +17423,40 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>5</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>3</v>
       </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
       <c r="O8" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P8" t="n">
-        <v>2.85</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -17465,10 +17465,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -17480,40 +17480,40 @@
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P9" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -17522,7 +17522,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -17531,73 +17531,73 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P10" t="n">
-        <v>2.97</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E11" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" t="n">
         <v>3</v>
       </c>
-      <c r="G11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P11" t="n">
-        <v>2.97</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="12">
@@ -17819,43 +17819,43 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E16" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
@@ -17864,52 +17864,52 @@
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P16" t="n">
-        <v>2.58</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>31</v>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
@@ -17918,10 +17918,10 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P17" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="18">
@@ -18035,34 +18035,34 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -18074,49 +18074,49 @@
         <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
         <v>68</v>
       </c>
       <c r="P20" t="n">
-        <v>2.43</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -18128,16 +18128,16 @@
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P21" t="n">
-        <v>2.06</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="22">
@@ -18206,13 +18206,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -18242,7 +18242,7 @@
         <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P23" t="n">
         <v>1.97</v>
@@ -18676,22 +18676,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -18703,136 +18703,136 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
         <v>79</v>
       </c>
       <c r="P8" t="n">
-        <v>2.55</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14</v>
+      </c>
+      <c r="M9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>21</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P9" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>3</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P10" t="n">
-        <v>2.67</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="11">
@@ -18946,28 +18946,28 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -18976,13 +18976,13 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
@@ -18991,91 +18991,91 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>20</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="n">
         <v>3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>18</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>84</v>
       </c>
       <c r="P14" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -19090,19 +19090,19 @@
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P15" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="16">
@@ -19117,10 +19117,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -19144,7 +19144,7 @@
         <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -19153,10 +19153,10 @@
         <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="P16" t="n">
-        <v>3.03</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="17">
@@ -19270,19 +19270,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -19291,196 +19291,196 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P19" t="n">
-        <v>3.26</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>2</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P20" t="n">
-        <v>3.09</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D22" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>19</v>
+      </c>
+      <c r="M22" t="n">
         <v>3</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="N22" t="n">
         <v>2</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>22</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
       <c r="O22" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P22" t="n">
-        <v>3.55</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="23">
@@ -19495,10 +19495,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -19522,19 +19522,19 @@
         <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N23" t="n">
         <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P23" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -19625,13 +19625,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>607</v>
+        <v>642</v>
       </c>
       <c r="D2" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E2" t="n">
-        <v>10.54</v>
+        <v>10.75</v>
       </c>
       <c r="F2" t="n">
         <v>452</v>
@@ -19643,13 +19643,13 @@
         <v>12.17</v>
       </c>
       <c r="I2" t="n">
-        <v>1059</v>
+        <v>1094</v>
       </c>
       <c r="J2" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K2" t="n">
-        <v>11.24</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="3">
@@ -19673,22 +19673,22 @@
         <v>11.52</v>
       </c>
       <c r="F3" t="n">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="G3" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H3" t="n">
-        <v>9.23</v>
+        <v>9.67</v>
       </c>
       <c r="I3" t="n">
-        <v>902</v>
+        <v>920</v>
       </c>
       <c r="J3" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K3" t="n">
-        <v>10.2</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="4">
@@ -20084,79 +20084,79 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>327</v>
+        <v>674</v>
       </c>
       <c r="D14" t="n">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E14" t="n">
-        <v>11.93</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>512</v>
+        <v>393</v>
       </c>
       <c r="G14" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" t="n">
-        <v>7.23</v>
+        <v>9.16</v>
       </c>
       <c r="I14" t="n">
-        <v>839</v>
+        <v>1067</v>
       </c>
       <c r="J14" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="K14" t="n">
-        <v>9.06</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>639</v>
+        <v>327</v>
       </c>
       <c r="D15" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E15" t="n">
-        <v>8.76</v>
+        <v>11.93</v>
       </c>
       <c r="F15" t="n">
-        <v>393</v>
+        <v>512</v>
       </c>
       <c r="G15" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" t="n">
-        <v>9.16</v>
+        <v>7.23</v>
       </c>
       <c r="I15" t="n">
-        <v>1032</v>
+        <v>839</v>
       </c>
       <c r="J15" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="K15" t="n">
-        <v>8.91</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="16">
@@ -20201,118 +20201,118 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>608</v>
+        <v>353</v>
       </c>
       <c r="D17" t="n">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E17" t="n">
-        <v>8.720000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="F17" t="n">
-        <v>348</v>
+        <v>457</v>
       </c>
       <c r="G17" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="H17" t="n">
-        <v>7.47</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>956</v>
+        <v>810</v>
       </c>
       <c r="J17" t="n">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K17" t="n">
-        <v>8.26</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>353</v>
+        <v>565</v>
       </c>
       <c r="D18" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E18" t="n">
-        <v>6.8</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>426</v>
+        <v>507</v>
       </c>
       <c r="G18" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H18" t="n">
-        <v>9.390000000000001</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>779</v>
+        <v>1072</v>
       </c>
       <c r="J18" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="K18" t="n">
-        <v>8.220000000000001</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>565</v>
+        <v>608</v>
       </c>
       <c r="D19" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E19" t="n">
-        <v>8.140000000000001</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>507</v>
+        <v>380</v>
       </c>
       <c r="G19" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H19" t="n">
-        <v>8.279999999999999</v>
+        <v>7.37</v>
       </c>
       <c r="I19" t="n">
-        <v>1072</v>
+        <v>988</v>
       </c>
       <c r="J19" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K19" t="n">
-        <v>8.210000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -20405,13 +20405,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22" t="n">
-        <v>6.1</v>
+        <v>6.09</v>
       </c>
       <c r="F22" t="n">
         <v>472</v>
@@ -20423,13 +20423,13 @@
         <v>8.26</v>
       </c>
       <c r="I22" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="J22" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K22" t="n">
-        <v>7.38</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="23">
@@ -20549,25 +20549,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="D2" t="n">
-        <v>843</v>
+        <v>866</v>
       </c>
       <c r="E2" t="n">
-        <v>47.33</v>
+        <v>47.07</v>
       </c>
       <c r="F2" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G2" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H2" t="n">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="I2" t="n">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3">
@@ -20804,100 +20804,100 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>653</v>
+        <v>593</v>
       </c>
       <c r="D10" t="n">
-        <v>992</v>
+        <v>893</v>
       </c>
       <c r="E10" t="n">
-        <v>49.06</v>
+        <v>47.12</v>
       </c>
       <c r="F10" t="n">
-        <v>704</v>
+        <v>612</v>
       </c>
       <c r="G10" t="n">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H10" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I10" t="n">
-        <v>626</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Spartak</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>567</v>
+        <v>435</v>
       </c>
       <c r="D11" t="n">
-        <v>867</v>
+        <v>985</v>
       </c>
       <c r="E11" t="n">
-        <v>47.2</v>
+        <v>52.84</v>
       </c>
       <c r="F11" t="n">
-        <v>594</v>
+        <v>520</v>
       </c>
       <c r="G11" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H11" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="I11" t="n">
-        <v>555</v>
+        <v>703</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spartak</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>421</v>
+        <v>653</v>
       </c>
       <c r="D12" t="n">
-        <v>953</v>
+        <v>992</v>
       </c>
       <c r="E12" t="n">
-        <v>52.65</v>
+        <v>49.06</v>
       </c>
       <c r="F12" t="n">
-        <v>513</v>
+        <v>704</v>
       </c>
       <c r="G12" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H12" t="n">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="I12" t="n">
-        <v>689</v>
+        <v>626</v>
       </c>
     </row>
     <row r="13">
@@ -21143,25 +21143,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="D20" t="n">
-        <v>908</v>
+        <v>944</v>
       </c>
       <c r="E20" t="n">
-        <v>50.17</v>
+        <v>50.51</v>
       </c>
       <c r="F20" t="n">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="G20" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H20" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="I20" t="n">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21">
@@ -21176,25 +21176,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="D21" t="n">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="E21" t="n">
-        <v>44.86</v>
+        <v>44.73</v>
       </c>
       <c r="F21" t="n">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="G21" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I21" t="n">
-        <v>510</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22">
@@ -21209,25 +21209,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="D22" t="n">
-        <v>819</v>
+        <v>851</v>
       </c>
       <c r="E22" t="n">
-        <v>49.73</v>
+        <v>49.91</v>
       </c>
       <c r="F22" t="n">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="G22" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H22" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I22" t="n">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23">
@@ -21522,42 +21522,42 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" t="n">
-        <v>26.5</v>
+        <v>26.8</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>03:40:10</t>
+          <t>03:43:37</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>06:59</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>02:43:44</t>
+          <t>02:49:19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -21566,13 +21566,13 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>13210</v>
+        <v>13417</v>
       </c>
       <c r="P4" t="n">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="Q4" t="n">
-        <v>9824</v>
+        <v>10159</v>
       </c>
       <c r="R4" t="n">
         <v>317</v>
@@ -21590,32 +21590,32 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="G5" t="n">
         <v>7</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>03:41:56</t>
+          <t>03:45:52</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>07:10</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K5" t="n">
         <v>14</v>
@@ -21625,25 +21625,25 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>02:09:42</t>
+          <t>02:15:27</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>04:11</t>
+          <t>04:14</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>13316</v>
+        <v>13552</v>
       </c>
       <c r="P5" t="n">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="Q5" t="n">
-        <v>7782</v>
+        <v>8127</v>
       </c>
       <c r="R5" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6">
@@ -22338,60 +22338,60 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
       </c>
       <c r="F16" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>02:20:37</t>
+          <t>02:22:37</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>04:32</t>
+          <t>04:27</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L16" t="n">
         <v>4</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>03:06:38</t>
+          <t>03:11:55</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>8437</v>
+        <v>8557</v>
       </c>
       <c r="P16" t="n">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="Q16" t="n">
-        <v>11198</v>
+        <v>11515</v>
       </c>
       <c r="R16" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17">
@@ -22678,32 +22678,32 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>13.9</v>
+        <v>14.6</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>02:20:09</t>
+          <t>02:25:26</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>04:40</t>
+          <t>04:41</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K21" t="n">
         <v>20</v>
@@ -22713,25 +22713,25 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02:51:08</t>
+          <t>02:53:08</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>05:42</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>8409</v>
+        <v>8726</v>
       </c>
       <c r="P21" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q21" t="n">
-        <v>10268</v>
+        <v>10388</v>
       </c>
       <c r="R21" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22">
@@ -22746,23 +22746,23 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
       </c>
       <c r="F22" t="n">
-        <v>13.8</v>
+        <v>13.4</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>03:04:33</t>
+          <t>03:10:18</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -22771,35 +22771,35 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02:51:37</t>
+          <t>02:55:33</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>05:29</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>11073</v>
+        <v>11418</v>
       </c>
       <c r="P22" t="n">
         <v>357</v>
       </c>
       <c r="Q22" t="n">
-        <v>10297</v>
+        <v>10533</v>
       </c>
       <c r="R22" t="n">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23">
@@ -22814,60 +22814,60 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>02:38:38</t>
+          <t>02:44:13</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>05:07</t>
+          <t>05:08</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K23" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" t="n">
         <v>3</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02:34:25</t>
+          <t>02:37:52</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>04:59</t>
+          <t>04:56</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>9518</v>
+        <v>9853</v>
       </c>
       <c r="P23" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q23" t="n">
-        <v>9265</v>
+        <v>9472</v>
       </c>
       <c r="R23" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11499,7 +11499,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-30 03:01:04</t>
+          <t>2025-11-30 07:00:59</t>
         </is>
       </c>
       <c r="E23" t="n">

--- a/khl/khl_stats_1369.xlsx
+++ b/khl/khl_stats_1369.xlsx
@@ -2212,953 +2212,953 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>81.7</v>
+        <v>82.2</v>
       </c>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>03:10:18</t>
+          <t>03:07:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>05:57</t>
+          <t>06:02</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>02:55:33</t>
+          <t>02:56:31</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>05:29</t>
+          <t>05:42</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>11418</v>
+        <v>11220</v>
       </c>
       <c r="P6" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q6" t="n">
-        <v>10533</v>
+        <v>10591</v>
       </c>
       <c r="R6" t="n">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>81.59999999999999</v>
+        <v>82</v>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
         <v>108</v>
       </c>
       <c r="G7" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>02:58:04</t>
+          <t>03:02:34</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>05:56</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>02:50:31</t>
+          <t>03:05:29</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>05:41</t>
+          <t>05:37</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>10684</v>
+        <v>10954</v>
       </c>
       <c r="P7" t="n">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="Q7" t="n">
-        <v>10231</v>
+        <v>11129</v>
       </c>
       <c r="R7" t="n">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>81.40000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>03:00:07</t>
+          <t>03:10:18</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>05:27</t>
+          <t>05:57</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>03:24:12</t>
+          <t>02:55:33</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>05:29</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>10807</v>
+        <v>11418</v>
       </c>
       <c r="P8" t="n">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="Q8" t="n">
-        <v>12252</v>
+        <v>10533</v>
       </c>
       <c r="R8" t="n">
-        <v>371</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>81</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>02:52:24</t>
+          <t>03:00:07</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>05:23</t>
+          <t>05:27</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>02:55:19</t>
+          <t>03:24:12</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>05:29</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>10344</v>
+        <v>10807</v>
       </c>
       <c r="P9" t="n">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q9" t="n">
-        <v>10519</v>
+        <v>12252</v>
       </c>
       <c r="R9" t="n">
-        <v>329</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>31</v>
       </c>
       <c r="D10" t="n">
-        <v>80.40000000000001</v>
+        <v>81</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>02:25:26</t>
+          <t>02:43:06</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>04:41</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>02:53:08</t>
+          <t>03:24:53</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>06:37</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>8726</v>
+        <v>9786</v>
       </c>
       <c r="P10" t="n">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="Q10" t="n">
-        <v>10388</v>
+        <v>12293</v>
       </c>
       <c r="R10" t="n">
-        <v>335</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="n">
-        <v>80</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>02:22:37</t>
+          <t>02:25:26</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>04:27</t>
+          <t>04:41</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>03:11:55</t>
+          <t>02:53:08</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>8557</v>
+        <v>8726</v>
       </c>
       <c r="P11" t="n">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="Q11" t="n">
-        <v>11515</v>
+        <v>10388</v>
       </c>
       <c r="R11" t="n">
-        <v>360</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
         <v>80</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G12" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>02:32:56</t>
+          <t>02:22:54</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>05:06</t>
+          <t>04:37</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>03:14:43</t>
+          <t>02:52:11</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>06:29</t>
+          <t>05:33</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>9176</v>
+        <v>8574</v>
       </c>
       <c r="P12" t="n">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="Q12" t="n">
-        <v>11683</v>
+        <v>10331</v>
       </c>
       <c r="R12" t="n">
-        <v>389</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>79.5</v>
+        <v>80</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G13" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>02:22:37</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>04:27</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>115</v>
+      </c>
+      <c r="L13" t="n">
         <v>4</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>02:51:44</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>05:43</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>88</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>02:24:20</t>
+          <t>03:11:55</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>04:49</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>10304</v>
+        <v>8557</v>
       </c>
       <c r="P13" t="n">
-        <v>343</v>
+        <v>267</v>
       </c>
       <c r="Q13" t="n">
-        <v>8660</v>
+        <v>11515</v>
       </c>
       <c r="R13" t="n">
-        <v>289</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Torpedo</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>79.09999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G14" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>02:41:24</t>
+          <t>02:51:44</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>05:03</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>02:38:49</t>
+          <t>02:24:20</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>04:58</t>
+          <t>04:49</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>9684</v>
+        <v>10304</v>
       </c>
       <c r="P14" t="n">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="Q14" t="n">
-        <v>9529</v>
+        <v>8660</v>
       </c>
       <c r="R14" t="n">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Torpedo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G15" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>02:20:48</t>
+          <t>02:41:24</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>04:42</t>
+          <t>05:03</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>02:45:54</t>
+          <t>02:38:49</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>04:58</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>8448</v>
+        <v>9684</v>
       </c>
       <c r="P15" t="n">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="Q15" t="n">
-        <v>9954</v>
+        <v>9529</v>
       </c>
       <c r="R15" t="n">
-        <v>332</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" t="n">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="G16" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>02:26:09</t>
+          <t>03:25:40</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>05:13</t>
+          <t>06:14</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>02:48:45</t>
+          <t>02:42:00</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>06:02</t>
+          <t>04:55</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>8769</v>
+        <v>12340</v>
       </c>
       <c r="P16" t="n">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="Q16" t="n">
-        <v>10125</v>
+        <v>9720</v>
       </c>
       <c r="R16" t="n">
-        <v>362</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Severstal</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>78.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="E17" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F17" t="n">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="G17" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>03:25:40</t>
+          <t>02:56:03</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>06:14</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>02:42:00</t>
+          <t>02:08:11</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>04:55</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>12340</v>
+        <v>10563</v>
       </c>
       <c r="P17" t="n">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="Q17" t="n">
-        <v>9720</v>
+        <v>7691</v>
       </c>
       <c r="R17" t="n">
-        <v>295</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Severstal</t>
+          <t>Traktor</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>32</v>
       </c>
       <c r="D18" t="n">
-        <v>78.3</v>
+        <v>78</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F18" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G18" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>02:56:03</t>
+          <t>02:49:56</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>05:19</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>02:08:11</t>
+          <t>03:01:34</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>05:40</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>10563</v>
+        <v>10196</v>
       </c>
       <c r="P18" t="n">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="Q18" t="n">
-        <v>7691</v>
+        <v>10894</v>
       </c>
       <c r="R18" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Traktor</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
-        <v>78</v>
+        <v>77.8</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G19" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>02:49:56</t>
+          <t>02:32:09</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>05:19</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>03:01:34</t>
+          <t>02:57:41</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>05:40</t>
+          <t>06:08</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>10196</v>
+        <v>9129</v>
       </c>
       <c r="P19" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q19" t="n">
-        <v>10894</v>
+        <v>10661</v>
       </c>
       <c r="R19" t="n">
-        <v>340</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20">
@@ -3173,16 +3173,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>76.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E20" t="n">
         <v>24</v>
       </c>
       <c r="F20" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
@@ -3192,41 +3192,41 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>02:25:46</t>
+          <t>02:32:03</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>05:02</t>
+          <t>05:04</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>02:51:17</t>
+          <t>02:53:23</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>05:54</t>
+          <t>05:47</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>8746</v>
+        <v>9123</v>
       </c>
       <c r="P20" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q20" t="n">
-        <v>10277</v>
+        <v>10403</v>
       </c>
       <c r="R20" t="n">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21">
@@ -3542,79 +3542,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Avtomobilist</t>
+          <t>Dragons</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="M2" t="n">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="N2" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O2" t="n">
-        <v>943</v>
+        <v>1003</v>
       </c>
       <c r="P2" t="n">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="Q2" t="n">
-        <v>754</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Avtomobilist</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3626,52 +3626,52 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M3" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N3" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O3" t="n">
-        <v>921</v>
+        <v>943</v>
       </c>
       <c r="P3" t="n">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="Q3" t="n">
-        <v>905</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Barys</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3683,58 +3683,58 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="M4" t="n">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="N4" t="n">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="O4" t="n">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="P4" t="n">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="Q4" t="n">
-        <v>856</v>
+        <v>905</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>Barys</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -3743,28 +3743,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="M5" t="n">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="N5" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="O5" t="n">
-        <v>948</v>
+        <v>918</v>
       </c>
       <c r="P5" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="Q5" t="n">
-        <v>952</v>
+        <v>856</v>
       </c>
     </row>
     <row r="6">
@@ -3884,85 +3884,85 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="M8" t="n">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="N8" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="O8" t="n">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="P8" t="n">
-        <v>223</v>
+        <v>297</v>
       </c>
       <c r="Q8" t="n">
-        <v>658</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Avangard</t>
+          <t>Amur</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -3971,55 +3971,55 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="M9" t="n">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="N9" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="O9" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="P9" t="n">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="Q9" t="n">
-        <v>758</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -4031,223 +4031,223 @@
         <v>18</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="M10" t="n">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="N10" t="n">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="O10" t="n">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="P10" t="n">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="Q10" t="n">
-        <v>642</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SKA</t>
+          <t>Avangard</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="M11" t="n">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="N11" t="n">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="O11" t="n">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="P11" t="n">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="Q11" t="n">
-        <v>849</v>
+        <v>758</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M12" t="n">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="N12" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O12" t="n">
-        <v>813</v>
+        <v>832</v>
       </c>
       <c r="P12" t="n">
-        <v>279</v>
+        <v>208</v>
       </c>
       <c r="Q12" t="n">
-        <v>843</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Salavat Yulaev</t>
+          <t>SKA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>2</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="M13" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="N13" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="O13" t="n">
-        <v>838</v>
+        <v>908</v>
       </c>
       <c r="P13" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="Q13" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dynamo Msk</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -4256,52 +4256,52 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M14" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="N14" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O14" t="n">
-        <v>832</v>
+        <v>855</v>
       </c>
       <c r="P14" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q14" t="n">
-        <v>834</v>
+        <v>855</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Neftekhimik</t>
+          <t>Salavat Yulaev</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -4310,58 +4310,58 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="M15" t="n">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="N15" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="O15" t="n">
-        <v>738</v>
+        <v>838</v>
       </c>
       <c r="P15" t="n">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="Q15" t="n">
-        <v>912</v>
+        <v>848</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Dynamo Msk</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -4370,52 +4370,52 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M16" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="N16" t="n">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="O16" t="n">
-        <v>853</v>
+        <v>832</v>
       </c>
       <c r="P16" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q16" t="n">
-        <v>902</v>
+        <v>834</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Amur</t>
+          <t>Neftekhimik</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -4424,31 +4424,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="M17" t="n">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="N17" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="O17" t="n">
-        <v>814</v>
+        <v>738</v>
       </c>
       <c r="P17" t="n">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="Q17" t="n">
-        <v>712</v>
+        <v>912</v>
       </c>
     </row>
     <row r="18">
@@ -4463,10 +4463,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E18" t="n">
         <v>6</v>
@@ -4493,19 +4493,19 @@
         <v>120</v>
       </c>
       <c r="M18" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="N18" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="O18" t="n">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="P18" t="n">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="Q18" t="n">
-        <v>618</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19">
@@ -4577,10 +4577,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -4607,19 +4607,19 @@
         <v>114</v>
       </c>
       <c r="M20" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="N20" t="n">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="O20" t="n">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="P20" t="n">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="Q20" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="21">
@@ -4906,10 +4906,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -4918,196 +4918,196 @@
         <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" t="n">
         <v>28</v>
       </c>
       <c r="L2" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M2" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N2" t="n">
         <v>43</v>
       </c>
       <c r="O2" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P2" t="n">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
         <v>14</v>
       </c>
-      <c r="E3" t="n">
-        <v>9</v>
-      </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K3" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N3" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="O3" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
-        <v>213</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Metallurg Mg</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
         <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J4" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L4" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="M4" t="n">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="N4" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="O4" t="n">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
-        <v>170</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Metallurg Mg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
         <v>37</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L5" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="M5" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="N5" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="O5" t="n">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="P5" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="n">
         <v>11</v>
@@ -5401,13 +5401,13 @@
         <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
         <v>33</v>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" t="n">
         <v>11</v>
@@ -5416,22 +5416,22 @@
         <v>31</v>
       </c>
       <c r="K11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M11" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N11" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O11" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P11" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
         <v>10</v>
@@ -5617,13 +5617,13 @@
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" t="n">
         <v>12</v>
@@ -5632,22 +5632,22 @@
         <v>28</v>
       </c>
       <c r="K15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L15" t="n">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="M15" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
         <v>41</v>
       </c>
       <c r="O15" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P15" t="n">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16">
@@ -5707,109 +5707,109 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Admiral</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
         <v>28</v>
       </c>
       <c r="H17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
+        <v>22</v>
+      </c>
+      <c r="K17" t="n">
         <v>25</v>
-      </c>
-      <c r="K17" t="n">
-        <v>34</v>
       </c>
       <c r="L17" t="n">
         <v>62</v>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="N17" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="O17" t="n">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="P17" t="n">
-        <v>195</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Admiral</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>32</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12</v>
+      </c>
+      <c r="G18" t="n">
         <v>28</v>
       </c>
-      <c r="D18" t="n">
+      <c r="H18" t="n">
+        <v>13</v>
+      </c>
+      <c r="I18" t="n">
         <v>9</v>
       </c>
-      <c r="E18" t="n">
-        <v>9</v>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-      <c r="G18" t="n">
-        <v>27</v>
-      </c>
-      <c r="H18" t="n">
-        <v>11</v>
-      </c>
-      <c r="I18" t="n">
-        <v>11</v>
-      </c>
       <c r="J18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K18" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L18" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="O18" t="n">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="P18" t="n">
-        <v>135</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
@@ -5977,22 +5977,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sibir</t>
+          <t>HC Sochi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F22" t="n">
         <v>13</v>
@@ -6001,85 +6001,85 @@
         <v>22</v>
       </c>
       <c r="H22" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L22" t="n">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="M22" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="N22" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="O22" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="P22" t="n">
-        <v>139</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HC Sochi</t>
+          <t>Sibir</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D23" t="n">
         <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F23" t="n">
         <v>13</v>
       </c>
       <c r="G23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H23" t="n">
+        <v>19</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8</v>
+      </c>
+      <c r="J23" t="n">
         <v>15</v>
       </c>
-      <c r="I23" t="n">
-        <v>11</v>
-      </c>
-      <c r="J23" t="n">
-        <v>16</v>
-      </c>
       <c r="K23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L23" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="M23" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="N23" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="O23" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P23" t="n">
-        <v>230</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6240,109 +6240,109 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Dinamo Mn</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>43</v>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
-      <c r="F3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G3" t="n">
-        <v>42</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
       <c r="I3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>43</v>
+      </c>
+      <c r="K3" t="n">
         <v>20</v>
       </c>
-      <c r="J3" t="n">
-        <v>35</v>
-      </c>
-      <c r="K3" t="n">
-        <v>18</v>
-      </c>
       <c r="L3" t="n">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="M3" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="O3" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dinamo Mn</t>
+          <t>Lokomotiv</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
         <v>16</v>
       </c>
       <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>42</v>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>41</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
       <c r="I4" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J4" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L4" t="n">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="M4" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O4" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P4" t="n">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
@@ -6456,109 +6456,109 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CSKA</t>
+          <t>Ak Bars</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
         <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L7" t="n">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="N7" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="O7" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P7" t="n">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ak Bars</t>
+          <t>CSKA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
         <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L8" t="n">
-        <v>104</v>
+        <